--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527602C6-9864-4744-BC84-66B5E183D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC8EB73-C605-4CF0-B917-A2D3BB3D2640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1001</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjW+pff7qvu8zflHZvuBbBzY7yzFA=="/>
@@ -3467,10 +3467,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3506,6 +3506,7 @@
       <sheetName val="Paste"/>
       <sheetName val="Temporary1"/>
       <sheetName val="SearchID"/>
+      <sheetName val="Loading"/>
     </sheetNames>
     <definedNames>
       <definedName name="COUNTBYCELLCOLOR"/>
@@ -3519,6 +3520,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3725,20 +3727,20 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="26" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="26" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3760,12 +3762,12 @@
         <v>996</v>
       </c>
       <c r="E2" s="19"/>
-      <c r="F2" s="20">
+      <c r="F2" s="20" t="e">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E2)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3774,12 +3776,12 @@
       </c>
       <c r="C3" s="17"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="22">
+      <c r="F3" s="22" t="e">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E3)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3790,12 +3792,12 @@
         <v>996</v>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="24">
+      <c r="F4" s="24" t="e">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3806,12 +3808,12 @@
       <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="26" t="e">
         <f ca="1">SUM(F2:F4)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3822,12 +3824,12 @@
       <c r="E6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="28" t="e">
         <f ca="1">1000-F5</f>
-        <v>879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3836,7 +3838,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -3847,7 +3849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3855,14 +3857,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="32" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>THIS IS ENGLAND</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>INTOCABLE</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3871,7 +3873,7 @@
       </c>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3881,7 +3883,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3891,7 +3893,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +3905,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3914,7 +3916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3923,7 +3925,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -3932,7 +3934,7 @@
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -3941,7 +3943,7 @@
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3950,7 +3952,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3959,7 +3961,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3979,7 +3981,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -3990,7 +3992,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4001,7 +4003,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4043,7 +4045,7 @@
       </c>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -4063,7 +4065,7 @@
       </c>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -4072,7 +4074,7 @@
       </c>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -4114,7 +4116,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -4123,7 +4125,7 @@
       </c>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -4143,7 +4145,7 @@
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -4196,7 +4198,7 @@
       </c>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1000</v>
       </c>
@@ -4205,7 +4207,7 @@
       </c>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -4225,7 +4227,7 @@
       </c>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -4234,7 +4236,7 @@
       </c>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -4243,7 +4245,7 @@
       </c>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4287,7 @@
       </c>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -4305,7 +4307,7 @@
       </c>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -4314,7 +4316,7 @@
       </c>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>999</v>
       </c>
@@ -4334,7 +4336,7 @@
       </c>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -4354,7 +4356,7 @@
       </c>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -4374,7 +4376,7 @@
       </c>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -4394,7 +4396,7 @@
       </c>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -4403,7 +4405,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -4412,7 +4414,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4423,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -4430,7 +4432,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -4439,7 +4441,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -4448,7 +4450,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -4457,7 +4459,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -4477,7 +4479,7 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -4510,7 +4512,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
@@ -4519,7 +4521,7 @@
       </c>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
@@ -4528,7 +4530,7 @@
       </c>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -4537,7 +4539,7 @@
       </c>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
@@ -4546,7 +4548,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4566,7 +4568,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>83</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>86</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -4630,7 +4632,7 @@
       </c>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>89</v>
       </c>
@@ -4639,7 +4641,7 @@
       </c>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>90</v>
       </c>
@@ -4648,7 +4650,7 @@
       </c>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>92</v>
       </c>
@@ -4668,7 +4670,7 @@
       </c>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -4677,7 +4679,7 @@
       </c>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>94</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>95</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>96</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>97</v>
       </c>
@@ -4719,7 +4721,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>98</v>
       </c>
@@ -4728,7 +4730,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -4737,7 +4739,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>100</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>101</v>
       </c>
@@ -4757,7 +4759,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>102</v>
       </c>
@@ -4766,7 +4768,7 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>103</v>
       </c>
@@ -4775,7 +4777,7 @@
       </c>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>104</v>
       </c>
@@ -4786,7 +4788,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>106</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>107</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>108</v>
       </c>
@@ -4828,7 +4830,7 @@
       </c>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>109</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>110</v>
       </c>
@@ -4848,7 +4850,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>111</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>112</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>113</v>
       </c>
@@ -4879,7 +4881,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>114</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>116</v>
       </c>
@@ -4910,7 +4912,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
@@ -4919,7 +4921,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>118</v>
       </c>
@@ -4928,7 +4930,7 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>119</v>
       </c>
@@ -4937,7 +4939,7 @@
       </c>
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>120</v>
       </c>
@@ -4946,7 +4948,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>121</v>
       </c>
@@ -4955,7 +4957,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>122</v>
       </c>
@@ -4964,7 +4966,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>123</v>
       </c>
@@ -4973,7 +4975,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>124</v>
       </c>
@@ -4982,7 +4984,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>125</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>126</v>
       </c>
@@ -5002,7 +5004,7 @@
       </c>
       <c r="C124" s="17"/>
     </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>127</v>
       </c>
@@ -5011,7 +5013,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>128</v>
       </c>
@@ -5020,7 +5022,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>129</v>
       </c>
@@ -5029,7 +5031,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>130</v>
       </c>
@@ -5038,7 +5040,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>131</v>
       </c>
@@ -5047,7 +5049,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>132</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>133</v>
       </c>
@@ -5067,7 +5069,7 @@
       </c>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>134</v>
       </c>
@@ -5076,7 +5078,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>135</v>
       </c>
@@ -5085,7 +5087,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>136</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>137</v>
       </c>
@@ -5105,7 +5107,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>138</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>139</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>140</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>142</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>143</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>144</v>
       </c>
@@ -5180,7 +5182,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>145</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>146</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>147</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>148</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>149</v>
       </c>
@@ -5233,7 +5235,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>150</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>151</v>
       </c>
@@ -5253,7 +5255,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>152</v>
       </c>
@@ -5262,7 +5264,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>153</v>
       </c>
@@ -5271,7 +5273,7 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>154</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>155</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1002</v>
       </c>
@@ -5302,7 +5304,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>156</v>
       </c>
@@ -5311,7 +5313,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>157</v>
       </c>
@@ -5320,7 +5322,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>158</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>160</v>
       </c>
@@ -5351,7 +5353,7 @@
       </c>
       <c r="C159" s="17"/>
     </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>161</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>162</v>
       </c>
@@ -5371,7 +5373,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -5380,7 +5382,7 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -5391,7 +5393,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>169</v>
       </c>
@@ -5446,7 +5448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -5466,7 +5468,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1003</v>
       </c>
@@ -5475,7 +5477,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>172</v>
       </c>
@@ -5484,7 +5486,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>173</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>174</v>
       </c>
@@ -5504,7 +5506,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>175</v>
       </c>
@@ -5513,7 +5515,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>176</v>
       </c>
@@ -5522,7 +5524,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
@@ -5531,7 +5533,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>178</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>179</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>180</v>
       </c>
@@ -5562,7 +5564,7 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>181</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>182</v>
       </c>
@@ -5582,7 +5584,7 @@
       </c>
       <c r="C182" s="17"/>
     </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>183</v>
       </c>
@@ -5593,7 +5595,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>184</v>
       </c>
@@ -5602,7 +5604,7 @@
       </c>
       <c r="C184" s="17"/>
     </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>185</v>
       </c>
@@ -5611,7 +5613,7 @@
       </c>
       <c r="C185" s="17"/>
     </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>186</v>
       </c>
@@ -5620,7 +5622,7 @@
       </c>
       <c r="C186" s="17"/>
     </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>187</v>
       </c>
@@ -5629,7 +5631,7 @@
       </c>
       <c r="C187" s="17"/>
     </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>188</v>
       </c>
@@ -5638,7 +5640,7 @@
       </c>
       <c r="C188" s="17"/>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>189</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>190</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>191</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>192</v>
       </c>
@@ -5680,7 +5682,7 @@
       </c>
       <c r="C192" s="17"/>
     </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>193</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
@@ -5700,7 +5702,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>195</v>
       </c>
@@ -5709,7 +5711,7 @@
       </c>
       <c r="C195" s="17"/>
     </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>196</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
@@ -5729,7 +5731,7 @@
       </c>
       <c r="C197" s="17"/>
     </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>198</v>
       </c>
@@ -5738,7 +5740,7 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>199</v>
       </c>
@@ -5747,7 +5749,7 @@
       </c>
       <c r="C199" s="17"/>
     </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>200</v>
       </c>
@@ -5756,7 +5758,7 @@
       </c>
       <c r="C200" s="17"/>
     </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>201</v>
       </c>
@@ -5765,7 +5767,7 @@
       </c>
       <c r="C201" s="17"/>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>202</v>
       </c>
@@ -5774,7 +5776,7 @@
       </c>
       <c r="C202" s="17"/>
     </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>203</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>205</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>206</v>
       </c>
@@ -5816,7 +5818,7 @@
       </c>
       <c r="C206" s="17"/>
     </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>207</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>209</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>210</v>
       </c>
@@ -5858,7 +5860,7 @@
       </c>
       <c r="C210" s="17"/>
     </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
@@ -5878,7 +5880,7 @@
       </c>
       <c r="C212" s="17"/>
     </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
@@ -5887,7 +5889,7 @@
       </c>
       <c r="C213" s="17"/>
     </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
@@ -5896,7 +5898,7 @@
       </c>
       <c r="C214" s="17"/>
     </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>215</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>216</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>217</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>218</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
@@ -5949,7 +5951,7 @@
       </c>
       <c r="C219" s="17"/>
     </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>220</v>
       </c>
@@ -5958,7 +5960,7 @@
       </c>
       <c r="C220" s="17"/>
     </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
@@ -5967,7 +5969,7 @@
       </c>
       <c r="C221" s="17"/>
     </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>222</v>
       </c>
@@ -5976,7 +5978,7 @@
       </c>
       <c r="C222" s="17"/>
     </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>223</v>
       </c>
@@ -5985,7 +5987,7 @@
       </c>
       <c r="C223" s="17"/>
     </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>224</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>225</v>
       </c>
@@ -6005,7 +6007,7 @@
       </c>
       <c r="C225" s="17"/>
     </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>226</v>
       </c>
@@ -6014,7 +6016,7 @@
       </c>
       <c r="C226" s="17"/>
     </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>227</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>228</v>
       </c>
@@ -6034,7 +6036,7 @@
       </c>
       <c r="C228" s="17"/>
     </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>229</v>
       </c>
@@ -6043,7 +6045,7 @@
       </c>
       <c r="C229" s="17"/>
     </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>230</v>
       </c>
@@ -6052,7 +6054,7 @@
       </c>
       <c r="C230" s="17"/>
     </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>231</v>
       </c>
@@ -6061,7 +6063,7 @@
       </c>
       <c r="C231" s="17"/>
     </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>232</v>
       </c>
@@ -6070,7 +6072,7 @@
       </c>
       <c r="C232" s="17"/>
     </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>233</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>234</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>235</v>
       </c>
@@ -6101,7 +6103,7 @@
       </c>
       <c r="C235" s="17"/>
     </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>236</v>
       </c>
@@ -6110,7 +6112,7 @@
       </c>
       <c r="C236" s="17"/>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
@@ -6119,7 +6121,7 @@
       </c>
       <c r="C237" s="17"/>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>238</v>
       </c>
@@ -6128,7 +6130,7 @@
       </c>
       <c r="C238" s="17"/>
     </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>239</v>
       </c>
@@ -6137,7 +6139,7 @@
       </c>
       <c r="C239" s="17"/>
     </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>1004</v>
       </c>
@@ -6146,7 +6148,7 @@
       </c>
       <c r="C240" s="17"/>
     </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
@@ -6155,7 +6157,7 @@
       </c>
       <c r="C241" s="17"/>
     </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>241</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
@@ -6175,7 +6177,7 @@
       </c>
       <c r="C243" s="17"/>
     </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
@@ -6184,7 +6186,7 @@
       </c>
       <c r="C244" s="17"/>
     </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
@@ -6193,7 +6195,7 @@
       </c>
       <c r="C245" s="17"/>
     </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
@@ -6202,7 +6204,7 @@
       </c>
       <c r="C246" s="17"/>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>248</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
@@ -6244,7 +6246,7 @@
       </c>
       <c r="C250" s="17"/>
     </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
@@ -6264,7 +6266,7 @@
       </c>
       <c r="C252" s="17"/>
     </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
@@ -6273,7 +6275,7 @@
       </c>
       <c r="C253" s="17"/>
     </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
@@ -6282,7 +6284,7 @@
       </c>
       <c r="C254" s="17"/>
     </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
@@ -6291,7 +6293,7 @@
       </c>
       <c r="C255" s="17"/>
     </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
@@ -6300,7 +6302,7 @@
       </c>
       <c r="C256" s="17"/>
     </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
@@ -6309,7 +6311,7 @@
       </c>
       <c r="C257" s="17"/>
     </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
@@ -6318,7 +6320,7 @@
       </c>
       <c r="C258" s="17"/>
     </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
@@ -6327,7 +6329,7 @@
       </c>
       <c r="C259" s="17"/>
     </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>1005</v>
       </c>
@@ -6347,7 +6349,7 @@
       </c>
       <c r="C261" s="17"/>
     </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>260</v>
       </c>
@@ -6356,7 +6358,7 @@
       </c>
       <c r="C262" s="17"/>
     </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>261</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>262</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>263</v>
       </c>
@@ -6387,7 +6389,7 @@
       </c>
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>264</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>265</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>1006</v>
       </c>
@@ -6418,7 +6420,7 @@
       </c>
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>266</v>
       </c>
@@ -6427,7 +6429,7 @@
       </c>
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>267</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>268</v>
       </c>
@@ -6447,7 +6449,7 @@
       </c>
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>269</v>
       </c>
@@ -6456,7 +6458,7 @@
       </c>
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>270</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>271</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>272</v>
       </c>
@@ -6487,7 +6489,7 @@
       </c>
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>273</v>
       </c>
@@ -6496,7 +6498,7 @@
       </c>
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>274</v>
       </c>
@@ -6505,7 +6507,7 @@
       </c>
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>1007</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>275</v>
       </c>
@@ -6525,7 +6527,7 @@
       </c>
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>276</v>
       </c>
@@ -6534,7 +6536,7 @@
       </c>
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>277</v>
       </c>
@@ -6543,7 +6545,7 @@
       </c>
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>278</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>279</v>
       </c>
@@ -6565,7 +6567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>280</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>281</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>282</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>283</v>
       </c>
@@ -6607,7 +6609,7 @@
       </c>
       <c r="C287" s="17"/>
     </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>284</v>
       </c>
@@ -6616,7 +6618,7 @@
       </c>
       <c r="C288" s="17"/>
     </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>285</v>
       </c>
@@ -6625,7 +6627,7 @@
       </c>
       <c r="C289" s="17"/>
     </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>286</v>
       </c>
@@ -6634,7 +6636,7 @@
       </c>
       <c r="C290" s="17"/>
     </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>287</v>
       </c>
@@ -6643,7 +6645,7 @@
       </c>
       <c r="C291" s="17"/>
     </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>288</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>289</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>290</v>
       </c>
@@ -6674,7 +6676,7 @@
       </c>
       <c r="C294" s="17"/>
     </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>291</v>
       </c>
@@ -6683,7 +6685,7 @@
       </c>
       <c r="C295" s="17"/>
     </row>
-    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>292</v>
       </c>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="C296" s="17"/>
     </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>293</v>
       </c>
@@ -6701,7 +6703,7 @@
       </c>
       <c r="C297" s="17"/>
     </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>294</v>
       </c>
@@ -6710,7 +6712,7 @@
       </c>
       <c r="C298" s="17"/>
     </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>295</v>
       </c>
@@ -6721,7 +6723,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>296</v>
       </c>
@@ -6730,7 +6732,7 @@
       </c>
       <c r="C300" s="17"/>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>297</v>
       </c>
@@ -6739,7 +6741,7 @@
       </c>
       <c r="C301" s="17"/>
     </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>298</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>299</v>
       </c>
@@ -6759,7 +6761,7 @@
       </c>
       <c r="C303" s="17"/>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>300</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>301</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>302</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>303</v>
       </c>
@@ -6803,7 +6805,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>304</v>
       </c>
@@ -6812,7 +6814,7 @@
       </c>
       <c r="C308" s="17"/>
     </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>305</v>
       </c>
@@ -6821,7 +6823,7 @@
       </c>
       <c r="C309" s="17"/>
     </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>306</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>307</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>308</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>309</v>
       </c>
@@ -6863,7 +6865,7 @@
       </c>
       <c r="C313" s="17"/>
     </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>310</v>
       </c>
@@ -6872,7 +6874,7 @@
       </c>
       <c r="C314" s="17"/>
     </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>311</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>312</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>313</v>
       </c>
@@ -6905,7 +6907,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>314</v>
       </c>
@@ -6916,7 +6918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>315</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>316</v>
       </c>
@@ -6938,7 +6940,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="29" t="s">
         <v>317</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>318</v>
       </c>
@@ -6958,7 +6960,7 @@
       </c>
       <c r="C322" s="17"/>
     </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>319</v>
       </c>
@@ -6967,7 +6969,7 @@
       </c>
       <c r="C323" s="17"/>
     </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="29" t="s">
         <v>320</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>321</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>322</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>323</v>
       </c>
@@ -7009,7 +7011,7 @@
       </c>
       <c r="C327" s="17"/>
     </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>324</v>
       </c>
@@ -7018,7 +7020,7 @@
       </c>
       <c r="C328" s="17"/>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>325</v>
       </c>
@@ -7027,7 +7029,7 @@
       </c>
       <c r="C329" s="17"/>
     </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>326</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>327</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>328</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>329</v>
       </c>
@@ -7069,7 +7071,7 @@
       </c>
       <c r="C333" s="17"/>
     </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>330</v>
       </c>
@@ -7078,7 +7080,7 @@
       </c>
       <c r="C334" s="17"/>
     </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>331</v>
       </c>
@@ -7089,7 +7091,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>332</v>
       </c>
@@ -7098,7 +7100,7 @@
       </c>
       <c r="C336" s="17"/>
     </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>333</v>
       </c>
@@ -7107,7 +7109,7 @@
       </c>
       <c r="C337" s="17"/>
     </row>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>334</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>335</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>336</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>337</v>
       </c>
@@ -7149,7 +7151,7 @@
       </c>
       <c r="C341" s="17"/>
     </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>338</v>
       </c>
@@ -7158,7 +7160,7 @@
       </c>
       <c r="C342" s="17"/>
     </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>339</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>340</v>
       </c>
@@ -7180,7 +7182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>341</v>
       </c>
@@ -7189,7 +7191,7 @@
       </c>
       <c r="C345" s="17"/>
     </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>342</v>
       </c>
@@ -7198,7 +7200,7 @@
       </c>
       <c r="C346" s="17"/>
     </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>343</v>
       </c>
@@ -7207,7 +7209,7 @@
       </c>
       <c r="C347" s="17"/>
     </row>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>344</v>
       </c>
@@ -7216,7 +7218,7 @@
       </c>
       <c r="C348" s="17"/>
     </row>
-    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>345</v>
       </c>
@@ -7225,7 +7227,7 @@
       </c>
       <c r="C349" s="17"/>
     </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>346</v>
       </c>
@@ -7234,7 +7236,7 @@
       </c>
       <c r="C350" s="17"/>
     </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>347</v>
       </c>
@@ -7243,7 +7245,7 @@
       </c>
       <c r="C351" s="17"/>
     </row>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>348</v>
       </c>
@@ -7252,7 +7254,7 @@
       </c>
       <c r="C352" s="17"/>
     </row>
-    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>349</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>350</v>
       </c>
@@ -7272,7 +7274,7 @@
       </c>
       <c r="C354" s="17"/>
     </row>
-    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>351</v>
       </c>
@@ -7281,7 +7283,7 @@
       </c>
       <c r="C355" s="17"/>
     </row>
-    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>352</v>
       </c>
@@ -7290,7 +7292,7 @@
       </c>
       <c r="C356" s="17"/>
     </row>
-    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>353</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>354</v>
       </c>
@@ -7310,7 +7312,7 @@
       </c>
       <c r="C358" s="17"/>
     </row>
-    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>355</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>356</v>
       </c>
@@ -7330,7 +7332,7 @@
       </c>
       <c r="C360" s="17"/>
     </row>
-    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>357</v>
       </c>
@@ -7339,7 +7341,7 @@
       </c>
       <c r="C361" s="17"/>
     </row>
-    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>358</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>359</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>360</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>361</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>362</v>
       </c>
@@ -7394,7 +7396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>1008</v>
       </c>
@@ -7403,7 +7405,7 @@
       </c>
       <c r="C367" s="17"/>
     </row>
-    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>363</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>364</v>
       </c>
@@ -7423,7 +7425,7 @@
       </c>
       <c r="C369" s="17"/>
     </row>
-    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>365</v>
       </c>
@@ -7432,7 +7434,7 @@
       </c>
       <c r="C370" s="17"/>
     </row>
-    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>366</v>
       </c>
@@ -7441,7 +7443,7 @@
       </c>
       <c r="C371" s="17"/>
     </row>
-    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>367</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>368</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>369</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>370</v>
       </c>
@@ -7485,7 +7487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>371</v>
       </c>
@@ -7494,7 +7496,7 @@
       </c>
       <c r="C376" s="17"/>
     </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>372</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>373</v>
       </c>
@@ -7514,7 +7516,7 @@
       </c>
       <c r="C378" s="17"/>
     </row>
-    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>374</v>
       </c>
@@ -7523,7 +7525,7 @@
       </c>
       <c r="C379" s="17"/>
     </row>
-    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>375</v>
       </c>
@@ -7532,7 +7534,7 @@
       </c>
       <c r="C380" s="17"/>
     </row>
-    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>376</v>
       </c>
@@ -7541,7 +7543,7 @@
       </c>
       <c r="C381" s="17"/>
     </row>
-    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>377</v>
       </c>
@@ -7552,7 +7554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>378</v>
       </c>
@@ -7561,7 +7563,7 @@
       </c>
       <c r="C383" s="17"/>
     </row>
-    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>379</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>380</v>
       </c>
@@ -7581,7 +7583,7 @@
       </c>
       <c r="C385" s="17"/>
     </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>381</v>
       </c>
@@ -7590,7 +7592,7 @@
       </c>
       <c r="C386" s="17"/>
     </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>382</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>383</v>
       </c>
@@ -7610,7 +7612,7 @@
       </c>
       <c r="C388" s="17"/>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>384</v>
       </c>
@@ -7619,7 +7621,7 @@
       </c>
       <c r="C389" s="17"/>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>385</v>
       </c>
@@ -7630,7 +7632,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>386</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>387</v>
       </c>
@@ -7652,7 +7654,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>388</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>389</v>
       </c>
@@ -7672,7 +7674,7 @@
       </c>
       <c r="C394" s="17"/>
     </row>
-    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>390</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>391</v>
       </c>
@@ -7692,7 +7694,7 @@
       </c>
       <c r="C396" s="17"/>
     </row>
-    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>392</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>393</v>
       </c>
@@ -7712,7 +7714,7 @@
       </c>
       <c r="C398" s="17"/>
     </row>
-    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>394</v>
       </c>
@@ -7721,7 +7723,7 @@
       </c>
       <c r="C399" s="17"/>
     </row>
-    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>395</v>
       </c>
@@ -7730,7 +7732,7 @@
       </c>
       <c r="C400" s="17"/>
     </row>
-    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>396</v>
       </c>
@@ -7739,7 +7741,7 @@
       </c>
       <c r="C401" s="17"/>
     </row>
-    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>397</v>
       </c>
@@ -7748,7 +7750,7 @@
       </c>
       <c r="C402" s="17"/>
     </row>
-    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>398</v>
       </c>
@@ -7757,7 +7759,7 @@
       </c>
       <c r="C403" s="17"/>
     </row>
-    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>399</v>
       </c>
@@ -7768,7 +7770,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>400</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>401</v>
       </c>
@@ -7788,7 +7790,7 @@
       </c>
       <c r="C406" s="17"/>
     </row>
-    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>402</v>
       </c>
@@ -7797,7 +7799,7 @@
       </c>
       <c r="C407" s="17"/>
     </row>
-    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>403</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>404</v>
       </c>
@@ -7819,7 +7821,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>405</v>
       </c>
@@ -7830,7 +7832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>406</v>
       </c>
@@ -7839,7 +7841,7 @@
       </c>
       <c r="C411" s="17"/>
     </row>
-    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>407</v>
       </c>
@@ -7848,7 +7850,7 @@
       </c>
       <c r="C412" s="17"/>
     </row>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>408</v>
       </c>
@@ -7857,7 +7859,7 @@
       </c>
       <c r="C413" s="17"/>
     </row>
-    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>409</v>
       </c>
@@ -7866,7 +7868,7 @@
       </c>
       <c r="C414" s="17"/>
     </row>
-    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>410</v>
       </c>
@@ -7875,7 +7877,7 @@
       </c>
       <c r="C415" s="17"/>
     </row>
-    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>411</v>
       </c>
@@ -7884,7 +7886,7 @@
       </c>
       <c r="C416" s="17"/>
     </row>
-    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>412</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>413</v>
       </c>
@@ -7904,7 +7906,7 @@
       </c>
       <c r="C418" s="17"/>
     </row>
-    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>414</v>
       </c>
@@ -7913,7 +7915,7 @@
       </c>
       <c r="C419" s="17"/>
     </row>
-    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>415</v>
       </c>
@@ -7922,7 +7924,7 @@
       </c>
       <c r="C420" s="17"/>
     </row>
-    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>416</v>
       </c>
@@ -7931,7 +7933,7 @@
       </c>
       <c r="C421" s="17"/>
     </row>
-    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>417</v>
       </c>
@@ -7940,7 +7942,7 @@
       </c>
       <c r="C422" s="17"/>
     </row>
-    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>418</v>
       </c>
@@ -7949,7 +7951,7 @@
       </c>
       <c r="C423" s="17"/>
     </row>
-    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>419</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>420</v>
       </c>
@@ -7969,7 +7971,7 @@
       </c>
       <c r="C425" s="17"/>
     </row>
-    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>421</v>
       </c>
@@ -7978,7 +7980,7 @@
       </c>
       <c r="C426" s="17"/>
     </row>
-    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>422</v>
       </c>
@@ -7987,7 +7989,7 @@
       </c>
       <c r="C427" s="17"/>
     </row>
-    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>423</v>
       </c>
@@ -7996,7 +7998,7 @@
       </c>
       <c r="C428" s="17"/>
     </row>
-    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>424</v>
       </c>
@@ -8005,7 +8007,7 @@
       </c>
       <c r="C429" s="17"/>
     </row>
-    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>425</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>426</v>
       </c>
@@ -8025,7 +8027,7 @@
       </c>
       <c r="C431" s="17"/>
     </row>
-    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>427</v>
       </c>
@@ -8034,7 +8036,7 @@
       </c>
       <c r="C432" s="17"/>
     </row>
-    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>428</v>
       </c>
@@ -8043,7 +8045,7 @@
       </c>
       <c r="C433" s="17"/>
     </row>
-    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>429</v>
       </c>
@@ -8052,7 +8054,7 @@
       </c>
       <c r="C434" s="17"/>
     </row>
-    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>430</v>
       </c>
@@ -8061,7 +8063,7 @@
       </c>
       <c r="C435" s="17"/>
     </row>
-    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>431</v>
       </c>
@@ -8072,7 +8074,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>432</v>
       </c>
@@ -8081,7 +8083,7 @@
       </c>
       <c r="C437" s="17"/>
     </row>
-    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>433</v>
       </c>
@@ -8090,7 +8092,7 @@
       </c>
       <c r="C438" s="17"/>
     </row>
-    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>434</v>
       </c>
@@ -8099,7 +8101,7 @@
       </c>
       <c r="C439" s="17"/>
     </row>
-    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>435</v>
       </c>
@@ -8108,7 +8110,7 @@
       </c>
       <c r="C440" s="17"/>
     </row>
-    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>436</v>
       </c>
@@ -8117,7 +8119,7 @@
       </c>
       <c r="C441" s="17"/>
     </row>
-    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>437</v>
       </c>
@@ -8126,7 +8128,7 @@
       </c>
       <c r="C442" s="17"/>
     </row>
-    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>438</v>
       </c>
@@ -8135,7 +8137,7 @@
       </c>
       <c r="C443" s="17"/>
     </row>
-    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>439</v>
       </c>
@@ -8144,7 +8146,7 @@
       </c>
       <c r="C444" s="17"/>
     </row>
-    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>440</v>
       </c>
@@ -8153,7 +8155,7 @@
       </c>
       <c r="C445" s="17"/>
     </row>
-    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>441</v>
       </c>
@@ -8162,7 +8164,7 @@
       </c>
       <c r="C446" s="17"/>
     </row>
-    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>442</v>
       </c>
@@ -8171,7 +8173,7 @@
       </c>
       <c r="C447" s="17"/>
     </row>
-    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>443</v>
       </c>
@@ -8180,7 +8182,7 @@
       </c>
       <c r="C448" s="17"/>
     </row>
-    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>444</v>
       </c>
@@ -8189,7 +8191,7 @@
       </c>
       <c r="C449" s="17"/>
     </row>
-    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>445</v>
       </c>
@@ -8198,7 +8200,7 @@
       </c>
       <c r="C450" s="17"/>
     </row>
-    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>446</v>
       </c>
@@ -8207,7 +8209,7 @@
       </c>
       <c r="C451" s="17"/>
     </row>
-    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>447</v>
       </c>
@@ -8216,7 +8218,7 @@
       </c>
       <c r="C452" s="17"/>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>448</v>
       </c>
@@ -8225,7 +8227,7 @@
       </c>
       <c r="C453" s="17"/>
     </row>
-    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>449</v>
       </c>
@@ -8234,7 +8236,7 @@
       </c>
       <c r="C454" s="17"/>
     </row>
-    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>450</v>
       </c>
@@ -8243,7 +8245,7 @@
       </c>
       <c r="C455" s="17"/>
     </row>
-    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>451</v>
       </c>
@@ -8252,7 +8254,7 @@
       </c>
       <c r="C456" s="17"/>
     </row>
-    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
         <v>452</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>453</v>
       </c>
@@ -8272,7 +8274,7 @@
       </c>
       <c r="C458" s="17"/>
     </row>
-    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>454</v>
       </c>
@@ -8281,7 +8283,7 @@
       </c>
       <c r="C459" s="17"/>
     </row>
-    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>455</v>
       </c>
@@ -8290,7 +8292,7 @@
       </c>
       <c r="C460" s="17"/>
     </row>
-    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>456</v>
       </c>
@@ -8299,7 +8301,7 @@
       </c>
       <c r="C461" s="17"/>
     </row>
-    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>457</v>
       </c>
@@ -8308,7 +8310,7 @@
       </c>
       <c r="C462" s="17"/>
     </row>
-    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>458</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>459</v>
       </c>
@@ -8328,7 +8330,7 @@
       </c>
       <c r="C464" s="17"/>
     </row>
-    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>460</v>
       </c>
@@ -8337,7 +8339,7 @@
       </c>
       <c r="C465" s="17"/>
     </row>
-    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>461</v>
       </c>
@@ -8348,7 +8350,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>462</v>
       </c>
@@ -8357,7 +8359,7 @@
       </c>
       <c r="C467" s="17"/>
     </row>
-    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="30" t="s">
         <v>463</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>464</v>
       </c>
@@ -8377,7 +8379,7 @@
       </c>
       <c r="C469" s="17"/>
     </row>
-    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>465</v>
       </c>
@@ -8386,7 +8388,7 @@
       </c>
       <c r="C470" s="17"/>
     </row>
-    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>466</v>
       </c>
@@ -8395,7 +8397,7 @@
       </c>
       <c r="C471" s="17"/>
     </row>
-    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>467</v>
       </c>
@@ -8404,7 +8406,7 @@
       </c>
       <c r="C472" s="17"/>
     </row>
-    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>468</v>
       </c>
@@ -8413,7 +8415,7 @@
       </c>
       <c r="C473" s="17"/>
     </row>
-    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>469</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>470</v>
       </c>
@@ -8433,7 +8435,7 @@
       </c>
       <c r="C475" s="17"/>
     </row>
-    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>471</v>
       </c>
@@ -8442,7 +8444,7 @@
       </c>
       <c r="C476" s="17"/>
     </row>
-    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>472</v>
       </c>
@@ -8451,7 +8453,7 @@
       </c>
       <c r="C477" s="17"/>
     </row>
-    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>473</v>
       </c>
@@ -8460,7 +8462,7 @@
       </c>
       <c r="C478" s="17"/>
     </row>
-    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>474</v>
       </c>
@@ -8469,7 +8471,7 @@
       </c>
       <c r="C479" s="17"/>
     </row>
-    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>475</v>
       </c>
@@ -8478,7 +8480,7 @@
       </c>
       <c r="C480" s="17"/>
     </row>
-    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>476</v>
       </c>
@@ -8487,7 +8489,7 @@
       </c>
       <c r="C481" s="17"/>
     </row>
-    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>477</v>
       </c>
@@ -8496,7 +8498,7 @@
       </c>
       <c r="C482" s="17"/>
     </row>
-    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>478</v>
       </c>
@@ -8505,7 +8507,7 @@
       </c>
       <c r="C483" s="17"/>
     </row>
-    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>479</v>
       </c>
@@ -8514,7 +8516,7 @@
       </c>
       <c r="C484" s="17"/>
     </row>
-    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>480</v>
       </c>
@@ -8523,7 +8525,7 @@
       </c>
       <c r="C485" s="17"/>
     </row>
-    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>481</v>
       </c>
@@ -8532,7 +8534,7 @@
       </c>
       <c r="C486" s="17"/>
     </row>
-    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>482</v>
       </c>
@@ -8541,7 +8543,7 @@
       </c>
       <c r="C487" s="17"/>
     </row>
-    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>483</v>
       </c>
@@ -8552,7 +8554,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>484</v>
       </c>
@@ -8561,7 +8563,7 @@
       </c>
       <c r="C489" s="17"/>
     </row>
-    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>485</v>
       </c>
@@ -8570,7 +8572,7 @@
       </c>
       <c r="C490" s="17"/>
     </row>
-    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>486</v>
       </c>
@@ -8579,7 +8581,7 @@
       </c>
       <c r="C491" s="17"/>
     </row>
-    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>487</v>
       </c>
@@ -8588,7 +8590,7 @@
       </c>
       <c r="C492" s="17"/>
     </row>
-    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>488</v>
       </c>
@@ -8597,7 +8599,7 @@
       </c>
       <c r="C493" s="17"/>
     </row>
-    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>489</v>
       </c>
@@ -8606,7 +8608,7 @@
       </c>
       <c r="C494" s="17"/>
     </row>
-    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>490</v>
       </c>
@@ -8615,7 +8617,7 @@
       </c>
       <c r="C495" s="17"/>
     </row>
-    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>491</v>
       </c>
@@ -8624,7 +8626,7 @@
       </c>
       <c r="C496" s="17"/>
     </row>
-    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>492</v>
       </c>
@@ -8633,7 +8635,7 @@
       </c>
       <c r="C497" s="17"/>
     </row>
-    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>493</v>
       </c>
@@ -8642,7 +8644,7 @@
       </c>
       <c r="C498" s="17"/>
     </row>
-    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>494</v>
       </c>
@@ -8651,7 +8653,7 @@
       </c>
       <c r="C499" s="17"/>
     </row>
-    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>495</v>
       </c>
@@ -8660,7 +8662,7 @@
       </c>
       <c r="C500" s="17"/>
     </row>
-    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>496</v>
       </c>
@@ -8669,7 +8671,7 @@
       </c>
       <c r="C501" s="17"/>
     </row>
-    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>497</v>
       </c>
@@ -8678,7 +8680,7 @@
       </c>
       <c r="C502" s="17"/>
     </row>
-    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>498</v>
       </c>
@@ -8687,7 +8689,7 @@
       </c>
       <c r="C503" s="17"/>
     </row>
-    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>499</v>
       </c>
@@ -8696,7 +8698,7 @@
       </c>
       <c r="C504" s="17"/>
     </row>
-    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>500</v>
       </c>
@@ -8705,7 +8707,7 @@
       </c>
       <c r="C505" s="17"/>
     </row>
-    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>501</v>
       </c>
@@ -8714,7 +8716,7 @@
       </c>
       <c r="C506" s="17"/>
     </row>
-    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>502</v>
       </c>
@@ -8723,7 +8725,7 @@
       </c>
       <c r="C507" s="17"/>
     </row>
-    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>503</v>
       </c>
@@ -8732,7 +8734,7 @@
       </c>
       <c r="C508" s="17"/>
     </row>
-    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>504</v>
       </c>
@@ -8743,7 +8745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>505</v>
       </c>
@@ -8752,7 +8754,7 @@
       </c>
       <c r="C510" s="17"/>
     </row>
-    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>506</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>507</v>
       </c>
@@ -8772,7 +8774,7 @@
       </c>
       <c r="C512" s="17"/>
     </row>
-    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>508</v>
       </c>
@@ -8781,7 +8783,7 @@
       </c>
       <c r="C513" s="17"/>
     </row>
-    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>509</v>
       </c>
@@ -8790,7 +8792,7 @@
       </c>
       <c r="C514" s="17"/>
     </row>
-    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>510</v>
       </c>
@@ -8799,7 +8801,7 @@
       </c>
       <c r="C515" s="17"/>
     </row>
-    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>511</v>
       </c>
@@ -8808,7 +8810,7 @@
       </c>
       <c r="C516" s="17"/>
     </row>
-    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>512</v>
       </c>
@@ -8817,7 +8819,7 @@
       </c>
       <c r="C517" s="17"/>
     </row>
-    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>513</v>
       </c>
@@ -8826,7 +8828,7 @@
       </c>
       <c r="C518" s="17"/>
     </row>
-    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>514</v>
       </c>
@@ -8835,7 +8837,7 @@
       </c>
       <c r="C519" s="17"/>
     </row>
-    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>515</v>
       </c>
@@ -8844,7 +8846,7 @@
       </c>
       <c r="C520" s="17"/>
     </row>
-    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>516</v>
       </c>
@@ -8853,7 +8855,7 @@
       </c>
       <c r="C521" s="17"/>
     </row>
-    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>517</v>
       </c>
@@ -8862,7 +8864,7 @@
       </c>
       <c r="C522" s="17"/>
     </row>
-    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>518</v>
       </c>
@@ -8871,7 +8873,7 @@
       </c>
       <c r="C523" s="17"/>
     </row>
-    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>519</v>
       </c>
@@ -8880,7 +8882,7 @@
       </c>
       <c r="C524" s="17"/>
     </row>
-    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>520</v>
       </c>
@@ -8889,7 +8891,7 @@
       </c>
       <c r="C525" s="17"/>
     </row>
-    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>521</v>
       </c>
@@ -8898,7 +8900,7 @@
       </c>
       <c r="C526" s="17"/>
     </row>
-    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>522</v>
       </c>
@@ -8907,7 +8909,7 @@
       </c>
       <c r="C527" s="17"/>
     </row>
-    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>523</v>
       </c>
@@ -8916,7 +8918,7 @@
       </c>
       <c r="C528" s="17"/>
     </row>
-    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>524</v>
       </c>
@@ -8925,7 +8927,7 @@
       </c>
       <c r="C529" s="17"/>
     </row>
-    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
         <v>525</v>
       </c>
@@ -8934,7 +8936,7 @@
       </c>
       <c r="C530" s="17"/>
     </row>
-    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
         <v>526</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>527</v>
       </c>
@@ -8954,7 +8956,7 @@
       </c>
       <c r="C532" s="17"/>
     </row>
-    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>528</v>
       </c>
@@ -8963,7 +8965,7 @@
       </c>
       <c r="C533" s="17"/>
     </row>
-    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
         <v>529</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>530</v>
       </c>
@@ -8983,7 +8985,7 @@
       </c>
       <c r="C535" s="17"/>
     </row>
-    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>531</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>532</v>
       </c>
@@ -9003,7 +9005,7 @@
       </c>
       <c r="C537" s="17"/>
     </row>
-    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>533</v>
       </c>
@@ -9012,7 +9014,7 @@
       </c>
       <c r="C538" s="17"/>
     </row>
-    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>534</v>
       </c>
@@ -9021,7 +9023,7 @@
       </c>
       <c r="C539" s="17"/>
     </row>
-    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>535</v>
       </c>
@@ -9030,7 +9032,7 @@
       </c>
       <c r="C540" s="17"/>
     </row>
-    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>536</v>
       </c>
@@ -9039,7 +9041,7 @@
       </c>
       <c r="C541" s="17"/>
     </row>
-    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>537</v>
       </c>
@@ -9048,7 +9050,7 @@
       </c>
       <c r="C542" s="17"/>
     </row>
-    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>538</v>
       </c>
@@ -9057,7 +9059,7 @@
       </c>
       <c r="C543" s="17"/>
     </row>
-    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>539</v>
       </c>
@@ -9066,7 +9068,7 @@
       </c>
       <c r="C544" s="17"/>
     </row>
-    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>540</v>
       </c>
@@ -9075,7 +9077,7 @@
       </c>
       <c r="C545" s="17"/>
     </row>
-    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>541</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>542</v>
       </c>
@@ -9095,7 +9097,7 @@
       </c>
       <c r="C547" s="17"/>
     </row>
-    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>543</v>
       </c>
@@ -9104,7 +9106,7 @@
       </c>
       <c r="C548" s="17"/>
     </row>
-    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>544</v>
       </c>
@@ -9113,7 +9115,7 @@
       </c>
       <c r="C549" s="17"/>
     </row>
-    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>545</v>
       </c>
@@ -9122,7 +9124,7 @@
       </c>
       <c r="C550" s="17"/>
     </row>
-    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>546</v>
       </c>
@@ -9131,7 +9133,7 @@
       </c>
       <c r="C551" s="17"/>
     </row>
-    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>547</v>
       </c>
@@ -9140,7 +9142,7 @@
       </c>
       <c r="C552" s="17"/>
     </row>
-    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>548</v>
       </c>
@@ -9149,7 +9151,7 @@
       </c>
       <c r="C553" s="17"/>
     </row>
-    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>549</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>550</v>
       </c>
@@ -9169,7 +9171,7 @@
       </c>
       <c r="C555" s="17"/>
     </row>
-    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>551</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>552</v>
       </c>
@@ -9189,7 +9191,7 @@
       </c>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>553</v>
       </c>
@@ -9198,7 +9200,7 @@
       </c>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>554</v>
       </c>
@@ -9207,7 +9209,7 @@
       </c>
       <c r="C559" s="17"/>
     </row>
-    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>555</v>
       </c>
@@ -9216,7 +9218,7 @@
       </c>
       <c r="C560" s="17"/>
     </row>
-    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>556</v>
       </c>
@@ -9225,7 +9227,7 @@
       </c>
       <c r="C561" s="17"/>
     </row>
-    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>557</v>
       </c>
@@ -9234,7 +9236,7 @@
       </c>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>558</v>
       </c>
@@ -9243,7 +9245,7 @@
       </c>
       <c r="C563" s="17"/>
     </row>
-    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>559</v>
       </c>
@@ -9252,7 +9254,7 @@
       </c>
       <c r="C564" s="17"/>
     </row>
-    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>560</v>
       </c>
@@ -9261,7 +9263,7 @@
       </c>
       <c r="C565" s="17"/>
     </row>
-    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>561</v>
       </c>
@@ -9270,7 +9272,7 @@
       </c>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>562</v>
       </c>
@@ -9279,7 +9281,7 @@
       </c>
       <c r="C567" s="17"/>
     </row>
-    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>563</v>
       </c>
@@ -9288,7 +9290,7 @@
       </c>
       <c r="C568" s="17"/>
     </row>
-    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>564</v>
       </c>
@@ -9297,7 +9299,7 @@
       </c>
       <c r="C569" s="17"/>
     </row>
-    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>565</v>
       </c>
@@ -9306,7 +9308,7 @@
       </c>
       <c r="C570" s="17"/>
     </row>
-    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>566</v>
       </c>
@@ -9315,7 +9317,7 @@
       </c>
       <c r="C571" s="17"/>
     </row>
-    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>567</v>
       </c>
@@ -9324,7 +9326,7 @@
       </c>
       <c r="C572" s="17"/>
     </row>
-    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>568</v>
       </c>
@@ -9333,7 +9335,7 @@
       </c>
       <c r="C573" s="17"/>
     </row>
-    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>569</v>
       </c>
@@ -9342,7 +9344,7 @@
       </c>
       <c r="C574" s="17"/>
     </row>
-    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>570</v>
       </c>
@@ -9351,7 +9353,7 @@
       </c>
       <c r="C575" s="17"/>
     </row>
-    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>571</v>
       </c>
@@ -9360,7 +9362,7 @@
       </c>
       <c r="C576" s="17"/>
     </row>
-    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>572</v>
       </c>
@@ -9369,7 +9371,7 @@
       </c>
       <c r="C577" s="17"/>
     </row>
-    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>573</v>
       </c>
@@ -9378,7 +9380,7 @@
       </c>
       <c r="C578" s="17"/>
     </row>
-    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>574</v>
       </c>
@@ -9387,7 +9389,7 @@
       </c>
       <c r="C579" s="17"/>
     </row>
-    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>575</v>
       </c>
@@ -9396,7 +9398,7 @@
       </c>
       <c r="C580" s="17"/>
     </row>
-    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>576</v>
       </c>
@@ -9405,7 +9407,7 @@
       </c>
       <c r="C581" s="17"/>
     </row>
-    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>577</v>
       </c>
@@ -9414,7 +9416,7 @@
       </c>
       <c r="C582" s="17"/>
     </row>
-    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>578</v>
       </c>
@@ -9423,7 +9425,7 @@
       </c>
       <c r="C583" s="17"/>
     </row>
-    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>579</v>
       </c>
@@ -9432,7 +9434,7 @@
       </c>
       <c r="C584" s="17"/>
     </row>
-    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>580</v>
       </c>
@@ -9441,7 +9443,7 @@
       </c>
       <c r="C585" s="17"/>
     </row>
-    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>581</v>
       </c>
@@ -9450,7 +9452,7 @@
       </c>
       <c r="C586" s="17"/>
     </row>
-    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>582</v>
       </c>
@@ -9459,7 +9461,7 @@
       </c>
       <c r="C587" s="17"/>
     </row>
-    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>583</v>
       </c>
@@ -9470,7 +9472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>584</v>
       </c>
@@ -9479,7 +9481,7 @@
       </c>
       <c r="C589" s="17"/>
     </row>
-    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>585</v>
       </c>
@@ -9488,7 +9490,7 @@
       </c>
       <c r="C590" s="17"/>
     </row>
-    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>586</v>
       </c>
@@ -9497,7 +9499,7 @@
       </c>
       <c r="C591" s="17"/>
     </row>
-    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>587</v>
       </c>
@@ -9508,7 +9510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>588</v>
       </c>
@@ -9517,7 +9519,7 @@
       </c>
       <c r="C593" s="17"/>
     </row>
-    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>589</v>
       </c>
@@ -9526,7 +9528,7 @@
       </c>
       <c r="C594" s="17"/>
     </row>
-    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>590</v>
       </c>
@@ -9535,7 +9537,7 @@
       </c>
       <c r="C595" s="17"/>
     </row>
-    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>591</v>
       </c>
@@ -9544,7 +9546,7 @@
       </c>
       <c r="C596" s="17"/>
     </row>
-    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>592</v>
       </c>
@@ -9553,7 +9555,7 @@
       </c>
       <c r="C597" s="17"/>
     </row>
-    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>593</v>
       </c>
@@ -9562,7 +9564,7 @@
       </c>
       <c r="C598" s="17"/>
     </row>
-    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
         <v>594</v>
       </c>
@@ -9573,7 +9575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
         <v>595</v>
       </c>
@@ -9582,7 +9584,7 @@
       </c>
       <c r="C600" s="17"/>
     </row>
-    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>596</v>
       </c>
@@ -9591,7 +9593,7 @@
       </c>
       <c r="C601" s="17"/>
     </row>
-    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>597</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>598</v>
       </c>
@@ -9611,7 +9613,7 @@
       </c>
       <c r="C603" s="17"/>
     </row>
-    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>599</v>
       </c>
@@ -9620,7 +9622,7 @@
       </c>
       <c r="C604" s="17"/>
     </row>
-    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>600</v>
       </c>
@@ -9631,7 +9633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
         <v>601</v>
       </c>
@@ -9640,7 +9642,7 @@
       </c>
       <c r="C606" s="17"/>
     </row>
-    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>602</v>
       </c>
@@ -9649,7 +9651,7 @@
       </c>
       <c r="C607" s="17"/>
     </row>
-    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>603</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>604</v>
       </c>
@@ -9669,7 +9671,7 @@
       </c>
       <c r="C609" s="17"/>
     </row>
-    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>605</v>
       </c>
@@ -9678,7 +9680,7 @@
       </c>
       <c r="C610" s="17"/>
     </row>
-    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>606</v>
       </c>
@@ -9687,7 +9689,7 @@
       </c>
       <c r="C611" s="17"/>
     </row>
-    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>607</v>
       </c>
@@ -9696,7 +9698,7 @@
       </c>
       <c r="C612" s="17"/>
     </row>
-    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>608</v>
       </c>
@@ -9705,7 +9707,7 @@
       </c>
       <c r="C613" s="17"/>
     </row>
-    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>609</v>
       </c>
@@ -9714,7 +9716,7 @@
       </c>
       <c r="C614" s="17"/>
     </row>
-    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>610</v>
       </c>
@@ -9723,7 +9725,7 @@
       </c>
       <c r="C615" s="17"/>
     </row>
-    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>611</v>
       </c>
@@ -9732,7 +9734,7 @@
       </c>
       <c r="C616" s="17"/>
     </row>
-    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>612</v>
       </c>
@@ -9741,7 +9743,7 @@
       </c>
       <c r="C617" s="17"/>
     </row>
-    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>613</v>
       </c>
@@ -9750,7 +9752,7 @@
       </c>
       <c r="C618" s="17"/>
     </row>
-    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>614</v>
       </c>
@@ -9759,7 +9761,7 @@
       </c>
       <c r="C619" s="17"/>
     </row>
-    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>615</v>
       </c>
@@ -9768,7 +9770,7 @@
       </c>
       <c r="C620" s="17"/>
     </row>
-    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>616</v>
       </c>
@@ -9777,7 +9779,7 @@
       </c>
       <c r="C621" s="17"/>
     </row>
-    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>617</v>
       </c>
@@ -9786,7 +9788,7 @@
       </c>
       <c r="C622" s="17"/>
     </row>
-    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>618</v>
       </c>
@@ -9795,7 +9797,7 @@
       </c>
       <c r="C623" s="17"/>
     </row>
-    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>619</v>
       </c>
@@ -9804,7 +9806,7 @@
       </c>
       <c r="C624" s="17"/>
     </row>
-    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>620</v>
       </c>
@@ -9813,7 +9815,7 @@
       </c>
       <c r="C625" s="17"/>
     </row>
-    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>621</v>
       </c>
@@ -9822,7 +9824,7 @@
       </c>
       <c r="C626" s="17"/>
     </row>
-    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>622</v>
       </c>
@@ -9831,7 +9833,7 @@
       </c>
       <c r="C627" s="17"/>
     </row>
-    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>623</v>
       </c>
@@ -9840,7 +9842,7 @@
       </c>
       <c r="C628" s="17"/>
     </row>
-    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>624</v>
       </c>
@@ -9849,7 +9851,7 @@
       </c>
       <c r="C629" s="17"/>
     </row>
-    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>625</v>
       </c>
@@ -9858,7 +9860,7 @@
       </c>
       <c r="C630" s="17"/>
     </row>
-    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>626</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>627</v>
       </c>
@@ -9878,7 +9880,7 @@
       </c>
       <c r="C632" s="17"/>
     </row>
-    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>628</v>
       </c>
@@ -9887,7 +9889,7 @@
       </c>
       <c r="C633" s="17"/>
     </row>
-    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>629</v>
       </c>
@@ -9896,7 +9898,7 @@
       </c>
       <c r="C634" s="17"/>
     </row>
-    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>630</v>
       </c>
@@ -9905,7 +9907,7 @@
       </c>
       <c r="C635" s="17"/>
     </row>
-    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>631</v>
       </c>
@@ -9914,7 +9916,7 @@
       </c>
       <c r="C636" s="17"/>
     </row>
-    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>632</v>
       </c>
@@ -9923,7 +9925,7 @@
       </c>
       <c r="C637" s="17"/>
     </row>
-    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>633</v>
       </c>
@@ -9932,7 +9934,7 @@
       </c>
       <c r="C638" s="17"/>
     </row>
-    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>634</v>
       </c>
@@ -9941,7 +9943,7 @@
       </c>
       <c r="C639" s="17"/>
     </row>
-    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>635</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
         <v>636</v>
       </c>
@@ -9961,7 +9963,7 @@
       </c>
       <c r="C641" s="17"/>
     </row>
-    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>637</v>
       </c>
@@ -9970,7 +9972,7 @@
       </c>
       <c r="C642" s="17"/>
     </row>
-    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>638</v>
       </c>
@@ -9979,7 +9981,7 @@
       </c>
       <c r="C643" s="17"/>
     </row>
-    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>639</v>
       </c>
@@ -9988,7 +9990,7 @@
       </c>
       <c r="C644" s="17"/>
     </row>
-    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>640</v>
       </c>
@@ -9997,7 +9999,7 @@
       </c>
       <c r="C645" s="17"/>
     </row>
-    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>641</v>
       </c>
@@ -10006,7 +10008,7 @@
       </c>
       <c r="C646" s="17"/>
     </row>
-    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>642</v>
       </c>
@@ -10017,7 +10019,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>643</v>
       </c>
@@ -10026,7 +10028,7 @@
       </c>
       <c r="C648" s="17"/>
     </row>
-    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>644</v>
       </c>
@@ -10035,7 +10037,7 @@
       </c>
       <c r="C649" s="17"/>
     </row>
-    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
         <v>645</v>
       </c>
@@ -10044,7 +10046,7 @@
       </c>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>646</v>
       </c>
@@ -10053,7 +10055,7 @@
       </c>
       <c r="C651" s="17"/>
     </row>
-    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>647</v>
       </c>
@@ -10062,7 +10064,7 @@
       </c>
       <c r="C652" s="17"/>
     </row>
-    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>648</v>
       </c>
@@ -10071,7 +10073,7 @@
       </c>
       <c r="C653" s="17"/>
     </row>
-    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>649</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>650</v>
       </c>
@@ -10091,7 +10093,7 @@
       </c>
       <c r="C655" s="17"/>
     </row>
-    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>651</v>
       </c>
@@ -10100,7 +10102,7 @@
       </c>
       <c r="C656" s="17"/>
     </row>
-    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>652</v>
       </c>
@@ -10109,7 +10111,7 @@
       </c>
       <c r="C657" s="17"/>
     </row>
-    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>653</v>
       </c>
@@ -10118,7 +10120,7 @@
       </c>
       <c r="C658" s="17"/>
     </row>
-    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>654</v>
       </c>
@@ -10129,7 +10131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>655</v>
       </c>
@@ -10138,7 +10140,7 @@
       </c>
       <c r="C660" s="17"/>
     </row>
-    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>656</v>
       </c>
@@ -10147,7 +10149,7 @@
       </c>
       <c r="C661" s="17"/>
     </row>
-    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>657</v>
       </c>
@@ -10156,7 +10158,7 @@
       </c>
       <c r="C662" s="17"/>
     </row>
-    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>658</v>
       </c>
@@ -10165,7 +10167,7 @@
       </c>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>659</v>
       </c>
@@ -10174,7 +10176,7 @@
       </c>
       <c r="C664" s="17"/>
     </row>
-    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>660</v>
       </c>
@@ -10183,7 +10185,7 @@
       </c>
       <c r="C665" s="17"/>
     </row>
-    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>661</v>
       </c>
@@ -10192,7 +10194,7 @@
       </c>
       <c r="C666" s="17"/>
     </row>
-    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>662</v>
       </c>
@@ -10201,7 +10203,7 @@
       </c>
       <c r="C667" s="17"/>
     </row>
-    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>663</v>
       </c>
@@ -10210,7 +10212,7 @@
       </c>
       <c r="C668" s="17"/>
     </row>
-    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>664</v>
       </c>
@@ -10219,7 +10221,7 @@
       </c>
       <c r="C669" s="17"/>
     </row>
-    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>665</v>
       </c>
@@ -10228,7 +10230,7 @@
       </c>
       <c r="C670" s="17"/>
     </row>
-    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
         <v>666</v>
       </c>
@@ -10237,7 +10239,7 @@
       </c>
       <c r="C671" s="17"/>
     </row>
-    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>667</v>
       </c>
@@ -10246,7 +10248,7 @@
       </c>
       <c r="C672" s="17"/>
     </row>
-    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>668</v>
       </c>
@@ -10255,7 +10257,7 @@
       </c>
       <c r="C673" s="17"/>
     </row>
-    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>669</v>
       </c>
@@ -10264,7 +10266,7 @@
       </c>
       <c r="C674" s="17"/>
     </row>
-    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>670</v>
       </c>
@@ -10273,7 +10275,7 @@
       </c>
       <c r="C675" s="17"/>
     </row>
-    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>671</v>
       </c>
@@ -10282,7 +10284,7 @@
       </c>
       <c r="C676" s="17"/>
     </row>
-    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>672</v>
       </c>
@@ -10291,7 +10293,7 @@
       </c>
       <c r="C677" s="17"/>
     </row>
-    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>673</v>
       </c>
@@ -10300,7 +10302,7 @@
       </c>
       <c r="C678" s="17"/>
     </row>
-    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>674</v>
       </c>
@@ -10309,7 +10311,7 @@
       </c>
       <c r="C679" s="17"/>
     </row>
-    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>675</v>
       </c>
@@ -10318,7 +10320,7 @@
       </c>
       <c r="C680" s="17"/>
     </row>
-    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>676</v>
       </c>
@@ -10327,7 +10329,7 @@
       </c>
       <c r="C681" s="17"/>
     </row>
-    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>677</v>
       </c>
@@ -10336,7 +10338,7 @@
       </c>
       <c r="C682" s="17"/>
     </row>
-    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>678</v>
       </c>
@@ -10345,7 +10347,7 @@
       </c>
       <c r="C683" s="17"/>
     </row>
-    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>679</v>
       </c>
@@ -10354,7 +10356,7 @@
       </c>
       <c r="C684" s="17"/>
     </row>
-    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>680</v>
       </c>
@@ -10363,7 +10365,7 @@
       </c>
       <c r="C685" s="17"/>
     </row>
-    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>681</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>682</v>
       </c>
@@ -10383,7 +10385,7 @@
       </c>
       <c r="C687" s="17"/>
     </row>
-    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
         <v>683</v>
       </c>
@@ -10392,7 +10394,7 @@
       </c>
       <c r="C688" s="17"/>
     </row>
-    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>684</v>
       </c>
@@ -10403,7 +10405,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
         <v>685</v>
       </c>
@@ -10412,7 +10414,7 @@
       </c>
       <c r="C690" s="17"/>
     </row>
-    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>686</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>687</v>
       </c>
@@ -10432,7 +10434,7 @@
       </c>
       <c r="C692" s="17"/>
     </row>
-    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>688</v>
       </c>
@@ -10441,7 +10443,7 @@
       </c>
       <c r="C693" s="17"/>
     </row>
-    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
         <v>689</v>
       </c>
@@ -10450,7 +10452,7 @@
       </c>
       <c r="C694" s="17"/>
     </row>
-    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>690</v>
       </c>
@@ -10459,7 +10461,7 @@
       </c>
       <c r="C695" s="17"/>
     </row>
-    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>691</v>
       </c>
@@ -10468,7 +10470,7 @@
       </c>
       <c r="C696" s="17"/>
     </row>
-    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>692</v>
       </c>
@@ -10477,7 +10479,7 @@
       </c>
       <c r="C697" s="17"/>
     </row>
-    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>693</v>
       </c>
@@ -10486,7 +10488,7 @@
       </c>
       <c r="C698" s="17"/>
     </row>
-    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>694</v>
       </c>
@@ -10495,7 +10497,7 @@
       </c>
       <c r="C699" s="17"/>
     </row>
-    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>695</v>
       </c>
@@ -10504,7 +10506,7 @@
       </c>
       <c r="C700" s="17"/>
     </row>
-    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>696</v>
       </c>
@@ -10513,7 +10515,7 @@
       </c>
       <c r="C701" s="17"/>
     </row>
-    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>697</v>
       </c>
@@ -10522,7 +10524,7 @@
       </c>
       <c r="C702" s="17"/>
     </row>
-    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>698</v>
       </c>
@@ -10531,7 +10533,7 @@
       </c>
       <c r="C703" s="17"/>
     </row>
-    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>699</v>
       </c>
@@ -10540,7 +10542,7 @@
       </c>
       <c r="C704" s="17"/>
     </row>
-    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>700</v>
       </c>
@@ -10549,7 +10551,7 @@
       </c>
       <c r="C705" s="17"/>
     </row>
-    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>701</v>
       </c>
@@ -10558,7 +10560,7 @@
       </c>
       <c r="C706" s="17"/>
     </row>
-    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>702</v>
       </c>
@@ -10567,7 +10569,7 @@
       </c>
       <c r="C707" s="17"/>
     </row>
-    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>703</v>
       </c>
@@ -10576,7 +10578,7 @@
       </c>
       <c r="C708" s="17"/>
     </row>
-    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>704</v>
       </c>
@@ -10585,7 +10587,7 @@
       </c>
       <c r="C709" s="17"/>
     </row>
-    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>705</v>
       </c>
@@ -10594,7 +10596,7 @@
       </c>
       <c r="C710" s="17"/>
     </row>
-    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>706</v>
       </c>
@@ -10603,7 +10605,7 @@
       </c>
       <c r="C711" s="17"/>
     </row>
-    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>707</v>
       </c>
@@ -10612,7 +10614,7 @@
       </c>
       <c r="C712" s="17"/>
     </row>
-    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>708</v>
       </c>
@@ -10621,7 +10623,7 @@
       </c>
       <c r="C713" s="17"/>
     </row>
-    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>709</v>
       </c>
@@ -10630,7 +10632,7 @@
       </c>
       <c r="C714" s="17"/>
     </row>
-    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>710</v>
       </c>
@@ -10639,7 +10641,7 @@
       </c>
       <c r="C715" s="17"/>
     </row>
-    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>711</v>
       </c>
@@ -10648,7 +10650,7 @@
       </c>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>712</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>713</v>
       </c>
@@ -10668,7 +10670,7 @@
       </c>
       <c r="C718" s="17"/>
     </row>
-    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>714</v>
       </c>
@@ -10677,7 +10679,7 @@
       </c>
       <c r="C719" s="17"/>
     </row>
-    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>715</v>
       </c>
@@ -10686,7 +10688,7 @@
       </c>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>716</v>
       </c>
@@ -10695,7 +10697,7 @@
       </c>
       <c r="C721" s="17"/>
     </row>
-    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>717</v>
       </c>
@@ -10704,7 +10706,7 @@
       </c>
       <c r="C722" s="17"/>
     </row>
-    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>718</v>
       </c>
@@ -10713,7 +10715,7 @@
       </c>
       <c r="C723" s="17"/>
     </row>
-    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>719</v>
       </c>
@@ -10722,7 +10724,7 @@
       </c>
       <c r="C724" s="17"/>
     </row>
-    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>720</v>
       </c>
@@ -10731,7 +10733,7 @@
       </c>
       <c r="C725" s="17"/>
     </row>
-    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>721</v>
       </c>
@@ -10740,7 +10742,7 @@
       </c>
       <c r="C726" s="17"/>
     </row>
-    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>722</v>
       </c>
@@ -10749,7 +10751,7 @@
       </c>
       <c r="C727" s="17"/>
     </row>
-    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>723</v>
       </c>
@@ -10758,7 +10760,7 @@
       </c>
       <c r="C728" s="17"/>
     </row>
-    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
         <v>724</v>
       </c>
@@ -10767,7 +10769,7 @@
       </c>
       <c r="C729" s="17"/>
     </row>
-    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
         <v>725</v>
       </c>
@@ -10776,7 +10778,7 @@
       </c>
       <c r="C730" s="17"/>
     </row>
-    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
         <v>726</v>
       </c>
@@ -10785,7 +10787,7 @@
       </c>
       <c r="C731" s="17"/>
     </row>
-    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>727</v>
       </c>
@@ -10794,7 +10796,7 @@
       </c>
       <c r="C732" s="17"/>
     </row>
-    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
         <v>728</v>
       </c>
@@ -10803,7 +10805,7 @@
       </c>
       <c r="C733" s="17"/>
     </row>
-    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
         <v>729</v>
       </c>
@@ -10814,7 +10816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
         <v>730</v>
       </c>
@@ -10823,7 +10825,7 @@
       </c>
       <c r="C735" s="17"/>
     </row>
-    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>731</v>
       </c>
@@ -10834,7 +10836,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
         <v>732</v>
       </c>
@@ -10843,7 +10845,7 @@
       </c>
       <c r="C737" s="17"/>
     </row>
-    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
         <v>733</v>
       </c>
@@ -10852,7 +10854,7 @@
       </c>
       <c r="C738" s="17"/>
     </row>
-    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
         <v>734</v>
       </c>
@@ -10861,7 +10863,7 @@
       </c>
       <c r="C739" s="17"/>
     </row>
-    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
         <v>735</v>
       </c>
@@ -10870,7 +10872,7 @@
       </c>
       <c r="C740" s="17"/>
     </row>
-    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
         <v>736</v>
       </c>
@@ -10879,7 +10881,7 @@
       </c>
       <c r="C741" s="17"/>
     </row>
-    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>737</v>
       </c>
@@ -10888,7 +10890,7 @@
       </c>
       <c r="C742" s="17"/>
     </row>
-    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
         <v>738</v>
       </c>
@@ -10897,7 +10899,7 @@
       </c>
       <c r="C743" s="17"/>
     </row>
-    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
         <v>739</v>
       </c>
@@ -10906,7 +10908,7 @@
       </c>
       <c r="C744" s="17"/>
     </row>
-    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
         <v>740</v>
       </c>
@@ -10915,7 +10917,7 @@
       </c>
       <c r="C745" s="17"/>
     </row>
-    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
         <v>741</v>
       </c>
@@ -10926,7 +10928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
         <v>742</v>
       </c>
@@ -10935,7 +10937,7 @@
       </c>
       <c r="C747" s="17"/>
     </row>
-    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
         <v>743</v>
       </c>
@@ -10944,7 +10946,7 @@
       </c>
       <c r="C748" s="17"/>
     </row>
-    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
         <v>744</v>
       </c>
@@ -10953,7 +10955,7 @@
       </c>
       <c r="C749" s="17"/>
     </row>
-    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
         <v>745</v>
       </c>
@@ -10962,7 +10964,7 @@
       </c>
       <c r="C750" s="17"/>
     </row>
-    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
         <v>746</v>
       </c>
@@ -10971,7 +10973,7 @@
       </c>
       <c r="C751" s="17"/>
     </row>
-    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
         <v>747</v>
       </c>
@@ -10980,7 +10982,7 @@
       </c>
       <c r="C752" s="17"/>
     </row>
-    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>748</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
         <v>749</v>
       </c>
@@ -11000,7 +11002,7 @@
       </c>
       <c r="C754" s="17"/>
     </row>
-    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
         <v>750</v>
       </c>
@@ -11009,7 +11011,7 @@
       </c>
       <c r="C755" s="17"/>
     </row>
-    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>751</v>
       </c>
@@ -11018,7 +11020,7 @@
       </c>
       <c r="C756" s="17"/>
     </row>
-    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>752</v>
       </c>
@@ -11029,7 +11031,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
         <v>753</v>
       </c>
@@ -11038,7 +11040,7 @@
       </c>
       <c r="C758" s="17"/>
     </row>
-    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="14" t="s">
         <v>754</v>
       </c>
@@ -11047,7 +11049,7 @@
       </c>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
         <v>755</v>
       </c>
@@ -11056,7 +11058,7 @@
       </c>
       <c r="C760" s="17"/>
     </row>
-    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
         <v>756</v>
       </c>
@@ -11065,7 +11067,7 @@
       </c>
       <c r="C761" s="17"/>
     </row>
-    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
         <v>757</v>
       </c>
@@ -11074,7 +11076,7 @@
       </c>
       <c r="C762" s="17"/>
     </row>
-    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
         <v>758</v>
       </c>
@@ -11083,7 +11085,7 @@
       </c>
       <c r="C763" s="17"/>
     </row>
-    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
         <v>759</v>
       </c>
@@ -11092,7 +11094,7 @@
       </c>
       <c r="C764" s="17"/>
     </row>
-    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
         <v>760</v>
       </c>
@@ -11101,7 +11103,7 @@
       </c>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
         <v>761</v>
       </c>
@@ -11110,7 +11112,7 @@
       </c>
       <c r="C766" s="17"/>
     </row>
-    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
         <v>762</v>
       </c>
@@ -11119,7 +11121,7 @@
       </c>
       <c r="C767" s="17"/>
     </row>
-    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
         <v>763</v>
       </c>
@@ -11130,7 +11132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
         <v>764</v>
       </c>
@@ -11139,7 +11141,7 @@
       </c>
       <c r="C769" s="17"/>
     </row>
-    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
         <v>765</v>
       </c>
@@ -11148,7 +11150,7 @@
       </c>
       <c r="C770" s="17"/>
     </row>
-    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
         <v>766</v>
       </c>
@@ -11157,7 +11159,7 @@
       </c>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
         <v>767</v>
       </c>
@@ -11166,7 +11168,7 @@
       </c>
       <c r="C772" s="17"/>
     </row>
-    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>768</v>
       </c>
@@ -11175,7 +11177,7 @@
       </c>
       <c r="C773" s="17"/>
     </row>
-    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
         <v>769</v>
       </c>
@@ -11184,7 +11186,7 @@
       </c>
       <c r="C774" s="17"/>
     </row>
-    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
         <v>770</v>
       </c>
@@ -11193,7 +11195,7 @@
       </c>
       <c r="C775" s="17"/>
     </row>
-    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>771</v>
       </c>
@@ -11202,8 +11204,8 @@
       </c>
       <c r="C776" s="17"/>
     </row>
-    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A777" s="5" t="s">
+    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="29" t="s">
         <v>772</v>
       </c>
       <c r="B777" s="4">
@@ -11213,7 +11215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
         <v>773</v>
       </c>
@@ -11222,7 +11224,7 @@
       </c>
       <c r="C778" s="17"/>
     </row>
-    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
         <v>774</v>
       </c>
@@ -11231,7 +11233,7 @@
       </c>
       <c r="C779" s="17"/>
     </row>
-    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>775</v>
       </c>
@@ -11240,7 +11242,7 @@
       </c>
       <c r="C780" s="17"/>
     </row>
-    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>776</v>
       </c>
@@ -11251,7 +11253,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
         <v>777</v>
       </c>
@@ -11260,7 +11262,7 @@
       </c>
       <c r="C782" s="17"/>
     </row>
-    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
         <v>778</v>
       </c>
@@ -11269,7 +11271,7 @@
       </c>
       <c r="C783" s="17"/>
     </row>
-    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
         <v>779</v>
       </c>
@@ -11278,7 +11280,7 @@
       </c>
       <c r="C784" s="17"/>
     </row>
-    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
         <v>780</v>
       </c>
@@ -11287,7 +11289,7 @@
       </c>
       <c r="C785" s="17"/>
     </row>
-    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>781</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
         <v>782</v>
       </c>
@@ -11307,7 +11309,7 @@
       </c>
       <c r="C787" s="17"/>
     </row>
-    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>783</v>
       </c>
@@ -11318,7 +11320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>784</v>
       </c>
@@ -11327,7 +11329,7 @@
       </c>
       <c r="C789" s="17"/>
     </row>
-    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
         <v>785</v>
       </c>
@@ -11336,7 +11338,7 @@
       </c>
       <c r="C790" s="17"/>
     </row>
-    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
         <v>786</v>
       </c>
@@ -11345,7 +11347,7 @@
       </c>
       <c r="C791" s="17"/>
     </row>
-    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
         <v>787</v>
       </c>
@@ -11354,7 +11356,7 @@
       </c>
       <c r="C792" s="17"/>
     </row>
-    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>788</v>
       </c>
@@ -11363,7 +11365,7 @@
       </c>
       <c r="C793" s="17"/>
     </row>
-    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
         <v>789</v>
       </c>
@@ -11372,7 +11374,7 @@
       </c>
       <c r="C794" s="17"/>
     </row>
-    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
         <v>790</v>
       </c>
@@ -11381,7 +11383,7 @@
       </c>
       <c r="C795" s="17"/>
     </row>
-    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
         <v>791</v>
       </c>
@@ -11390,7 +11392,7 @@
       </c>
       <c r="C796" s="17"/>
     </row>
-    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>792</v>
       </c>
@@ -11399,7 +11401,7 @@
       </c>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
         <v>793</v>
       </c>
@@ -11408,7 +11410,7 @@
       </c>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
         <v>794</v>
       </c>
@@ -11417,7 +11419,7 @@
       </c>
       <c r="C799" s="17"/>
     </row>
-    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>795</v>
       </c>
@@ -11426,7 +11428,7 @@
       </c>
       <c r="C800" s="17"/>
     </row>
-    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
         <v>796</v>
       </c>
@@ -11435,7 +11437,7 @@
       </c>
       <c r="C801" s="17"/>
     </row>
-    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
         <v>797</v>
       </c>
@@ -11444,7 +11446,7 @@
       </c>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
         <v>798</v>
       </c>
@@ -11453,7 +11455,7 @@
       </c>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
         <v>799</v>
       </c>
@@ -11462,7 +11464,7 @@
       </c>
       <c r="C804" s="17"/>
     </row>
-    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>800</v>
       </c>
@@ -11471,7 +11473,7 @@
       </c>
       <c r="C805" s="17"/>
     </row>
-    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
         <v>801</v>
       </c>
@@ -11480,7 +11482,7 @@
       </c>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
         <v>802</v>
       </c>
@@ -11489,7 +11491,7 @@
       </c>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>803</v>
       </c>
@@ -11498,7 +11500,7 @@
       </c>
       <c r="C808" s="17"/>
     </row>
-    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>804</v>
       </c>
@@ -11507,7 +11509,7 @@
       </c>
       <c r="C809" s="17"/>
     </row>
-    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
         <v>805</v>
       </c>
@@ -11516,7 +11518,7 @@
       </c>
       <c r="C810" s="17"/>
     </row>
-    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
         <v>806</v>
       </c>
@@ -11525,7 +11527,7 @@
       </c>
       <c r="C811" s="17"/>
     </row>
-    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>807</v>
       </c>
@@ -11534,7 +11536,7 @@
       </c>
       <c r="C812" s="17"/>
     </row>
-    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
         <v>808</v>
       </c>
@@ -11543,7 +11545,7 @@
       </c>
       <c r="C813" s="17"/>
     </row>
-    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
         <v>809</v>
       </c>
@@ -11552,7 +11554,7 @@
       </c>
       <c r="C814" s="17"/>
     </row>
-    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
         <v>810</v>
       </c>
@@ -11561,7 +11563,7 @@
       </c>
       <c r="C815" s="17"/>
     </row>
-    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>811</v>
       </c>
@@ -11570,7 +11572,7 @@
       </c>
       <c r="C816" s="17"/>
     </row>
-    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>812</v>
       </c>
@@ -11579,7 +11581,7 @@
       </c>
       <c r="C817" s="17"/>
     </row>
-    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
         <v>813</v>
       </c>
@@ -11588,7 +11590,7 @@
       </c>
       <c r="C818" s="17"/>
     </row>
-    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>814</v>
       </c>
@@ -11597,7 +11599,7 @@
       </c>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>815</v>
       </c>
@@ -11606,7 +11608,7 @@
       </c>
       <c r="C820" s="17"/>
     </row>
-    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
         <v>816</v>
       </c>
@@ -11615,7 +11617,7 @@
       </c>
       <c r="C821" s="17"/>
     </row>
-    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>817</v>
       </c>
@@ -11624,7 +11626,7 @@
       </c>
       <c r="C822" s="17"/>
     </row>
-    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>818</v>
       </c>
@@ -11633,7 +11635,7 @@
       </c>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>819</v>
       </c>
@@ -11642,7 +11644,7 @@
       </c>
       <c r="C824" s="17"/>
     </row>
-    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
         <v>820</v>
       </c>
@@ -11651,7 +11653,7 @@
       </c>
       <c r="C825" s="17"/>
     </row>
-    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
         <v>821</v>
       </c>
@@ -11660,7 +11662,7 @@
       </c>
       <c r="C826" s="17"/>
     </row>
-    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
         <v>822</v>
       </c>
@@ -11669,7 +11671,7 @@
       </c>
       <c r="C827" s="17"/>
     </row>
-    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>823</v>
       </c>
@@ -11678,7 +11680,7 @@
       </c>
       <c r="C828" s="17"/>
     </row>
-    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
         <v>824</v>
       </c>
@@ -11687,7 +11689,7 @@
       </c>
       <c r="C829" s="17"/>
     </row>
-    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
         <v>825</v>
       </c>
@@ -11696,7 +11698,7 @@
       </c>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
         <v>826</v>
       </c>
@@ -11705,7 +11707,7 @@
       </c>
       <c r="C831" s="17"/>
     </row>
-    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>827</v>
       </c>
@@ -11714,7 +11716,7 @@
       </c>
       <c r="C832" s="17"/>
     </row>
-    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
         <v>828</v>
       </c>
@@ -11723,7 +11725,7 @@
       </c>
       <c r="C833" s="17"/>
     </row>
-    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
         <v>829</v>
       </c>
@@ -11732,7 +11734,7 @@
       </c>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
         <v>830</v>
       </c>
@@ -11741,7 +11743,7 @@
       </c>
       <c r="C835" s="17"/>
     </row>
-    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>831</v>
       </c>
@@ -11750,7 +11752,7 @@
       </c>
       <c r="C836" s="17"/>
     </row>
-    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
         <v>832</v>
       </c>
@@ -11759,7 +11761,7 @@
       </c>
       <c r="C837" s="17"/>
     </row>
-    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
         <v>833</v>
       </c>
@@ -11768,7 +11770,7 @@
       </c>
       <c r="C838" s="17"/>
     </row>
-    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
         <v>834</v>
       </c>
@@ -11777,7 +11779,7 @@
       </c>
       <c r="C839" s="17"/>
     </row>
-    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
         <v>693</v>
       </c>
@@ -11786,7 +11788,7 @@
       </c>
       <c r="C840" s="17"/>
     </row>
-    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
         <v>835</v>
       </c>
@@ -11795,7 +11797,7 @@
       </c>
       <c r="C841" s="17"/>
     </row>
-    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
         <v>836</v>
       </c>
@@ -11804,7 +11806,7 @@
       </c>
       <c r="C842" s="17"/>
     </row>
-    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
         <v>837</v>
       </c>
@@ -11815,7 +11817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
         <v>838</v>
       </c>
@@ -11824,7 +11826,7 @@
       </c>
       <c r="C844" s="17"/>
     </row>
-    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
         <v>839</v>
       </c>
@@ -11833,7 +11835,7 @@
       </c>
       <c r="C845" s="17"/>
     </row>
-    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
         <v>840</v>
       </c>
@@ -11842,7 +11844,7 @@
       </c>
       <c r="C846" s="17"/>
     </row>
-    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
         <v>841</v>
       </c>
@@ -11851,7 +11853,7 @@
       </c>
       <c r="C847" s="17"/>
     </row>
-    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
         <v>842</v>
       </c>
@@ -11860,7 +11862,7 @@
       </c>
       <c r="C848" s="17"/>
     </row>
-    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
         <v>843</v>
       </c>
@@ -11869,7 +11871,7 @@
       </c>
       <c r="C849" s="17"/>
     </row>
-    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
         <v>844</v>
       </c>
@@ -11878,7 +11880,7 @@
       </c>
       <c r="C850" s="17"/>
     </row>
-    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
         <v>845</v>
       </c>
@@ -11887,7 +11889,7 @@
       </c>
       <c r="C851" s="17"/>
     </row>
-    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
         <v>846</v>
       </c>
@@ -11896,7 +11898,7 @@
       </c>
       <c r="C852" s="17"/>
     </row>
-    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
         <v>847</v>
       </c>
@@ -11905,7 +11907,7 @@
       </c>
       <c r="C853" s="17"/>
     </row>
-    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
         <v>848</v>
       </c>
@@ -11914,7 +11916,7 @@
       </c>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
         <v>849</v>
       </c>
@@ -11923,7 +11925,7 @@
       </c>
       <c r="C855" s="17"/>
     </row>
-    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
         <v>850</v>
       </c>
@@ -11932,7 +11934,7 @@
       </c>
       <c r="C856" s="17"/>
     </row>
-    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
         <v>851</v>
       </c>
@@ -11941,7 +11943,7 @@
       </c>
       <c r="C857" s="17"/>
     </row>
-    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
         <v>852</v>
       </c>
@@ -11950,7 +11952,7 @@
       </c>
       <c r="C858" s="17"/>
     </row>
-    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
         <v>853</v>
       </c>
@@ -11959,7 +11961,7 @@
       </c>
       <c r="C859" s="17"/>
     </row>
-    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
         <v>854</v>
       </c>
@@ -11968,7 +11970,7 @@
       </c>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
         <v>855</v>
       </c>
@@ -11977,7 +11979,7 @@
       </c>
       <c r="C861" s="17"/>
     </row>
-    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
         <v>856</v>
       </c>
@@ -11986,7 +11988,7 @@
       </c>
       <c r="C862" s="17"/>
     </row>
-    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
         <v>857</v>
       </c>
@@ -11995,7 +11997,7 @@
       </c>
       <c r="C863" s="17"/>
     </row>
-    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
         <v>858</v>
       </c>
@@ -12004,7 +12006,7 @@
       </c>
       <c r="C864" s="17"/>
     </row>
-    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
         <v>859</v>
       </c>
@@ -12013,7 +12015,7 @@
       </c>
       <c r="C865" s="17"/>
     </row>
-    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
         <v>860</v>
       </c>
@@ -12022,7 +12024,7 @@
       </c>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
         <v>861</v>
       </c>
@@ -12031,7 +12033,7 @@
       </c>
       <c r="C867" s="17"/>
     </row>
-    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
         <v>862</v>
       </c>
@@ -12040,7 +12042,7 @@
       </c>
       <c r="C868" s="17"/>
     </row>
-    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
         <v>863</v>
       </c>
@@ -12049,7 +12051,7 @@
       </c>
       <c r="C869" s="17"/>
     </row>
-    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
         <v>864</v>
       </c>
@@ -12059,9 +12061,9 @@
       <c r="C870" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D870" s="32"/>
-    </row>
-    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D870" s="31"/>
+    </row>
+    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
         <v>865</v>
       </c>
@@ -12070,7 +12072,7 @@
       </c>
       <c r="C871" s="17"/>
     </row>
-    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
         <v>866</v>
       </c>
@@ -12079,7 +12081,7 @@
       </c>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
         <v>867</v>
       </c>
@@ -12088,7 +12090,7 @@
       </c>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
         <v>868</v>
       </c>
@@ -12097,7 +12099,7 @@
       </c>
       <c r="C874" s="17"/>
     </row>
-    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
         <v>869</v>
       </c>
@@ -12106,7 +12108,7 @@
       </c>
       <c r="C875" s="17"/>
     </row>
-    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
         <v>870</v>
       </c>
@@ -12115,7 +12117,7 @@
       </c>
       <c r="C876" s="17"/>
     </row>
-    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
         <v>871</v>
       </c>
@@ -12124,7 +12126,7 @@
       </c>
       <c r="C877" s="17"/>
     </row>
-    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
         <v>872</v>
       </c>
@@ -12135,7 +12137,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
         <v>873</v>
       </c>
@@ -12144,7 +12146,7 @@
       </c>
       <c r="C879" s="17"/>
     </row>
-    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
         <v>874</v>
       </c>
@@ -12153,7 +12155,7 @@
       </c>
       <c r="C880" s="17"/>
     </row>
-    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
         <v>875</v>
       </c>
@@ -12162,7 +12164,7 @@
       </c>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
         <v>876</v>
       </c>
@@ -12171,7 +12173,7 @@
       </c>
       <c r="C882" s="17"/>
     </row>
-    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>877</v>
       </c>
@@ -12182,7 +12184,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
         <v>878</v>
       </c>
@@ -12191,7 +12193,7 @@
       </c>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
         <v>879</v>
       </c>
@@ -12200,7 +12202,7 @@
       </c>
       <c r="C885" s="17"/>
     </row>
-    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
         <v>880</v>
       </c>
@@ -12209,7 +12211,7 @@
       </c>
       <c r="C886" s="17"/>
     </row>
-    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
         <v>881</v>
       </c>
@@ -12220,7 +12222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
         <v>882</v>
       </c>
@@ -12229,7 +12231,7 @@
       </c>
       <c r="C888" s="17"/>
     </row>
-    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
         <v>883</v>
       </c>
@@ -12238,7 +12240,7 @@
       </c>
       <c r="C889" s="17"/>
     </row>
-    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
         <v>884</v>
       </c>
@@ -12247,7 +12249,7 @@
       </c>
       <c r="C890" s="17"/>
     </row>
-    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
         <v>885</v>
       </c>
@@ -12256,7 +12258,7 @@
       </c>
       <c r="C891" s="17"/>
     </row>
-    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
         <v>886</v>
       </c>
@@ -12265,7 +12267,7 @@
       </c>
       <c r="C892" s="17"/>
     </row>
-    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
         <v>887</v>
       </c>
@@ -12274,7 +12276,7 @@
       </c>
       <c r="C893" s="17"/>
     </row>
-    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
         <v>888</v>
       </c>
@@ -12283,7 +12285,7 @@
       </c>
       <c r="C894" s="17"/>
     </row>
-    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
         <v>889</v>
       </c>
@@ -12292,7 +12294,7 @@
       </c>
       <c r="C895" s="17"/>
     </row>
-    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
         <v>890</v>
       </c>
@@ -12301,7 +12303,7 @@
       </c>
       <c r="C896" s="17"/>
     </row>
-    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
         <v>891</v>
       </c>
@@ -12310,7 +12312,7 @@
       </c>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
         <v>892</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
         <v>893</v>
       </c>
@@ -12330,7 +12332,7 @@
       </c>
       <c r="C899" s="17"/>
     </row>
-    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
         <v>894</v>
       </c>
@@ -12339,7 +12341,7 @@
       </c>
       <c r="C900" s="17"/>
     </row>
-    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
         <v>895</v>
       </c>
@@ -12348,7 +12350,7 @@
       </c>
       <c r="C901" s="17"/>
     </row>
-    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
         <v>896</v>
       </c>
@@ -12357,7 +12359,7 @@
       </c>
       <c r="C902" s="17"/>
     </row>
-    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
         <v>897</v>
       </c>
@@ -12366,7 +12368,7 @@
       </c>
       <c r="C903" s="17"/>
     </row>
-    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
         <v>898</v>
       </c>
@@ -12377,7 +12379,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
         <v>899</v>
       </c>
@@ -12386,7 +12388,7 @@
       </c>
       <c r="C905" s="17"/>
     </row>
-    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
         <v>900</v>
       </c>
@@ -12395,7 +12397,7 @@
       </c>
       <c r="C906" s="17"/>
     </row>
-    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
         <v>901</v>
       </c>
@@ -12404,7 +12406,7 @@
       </c>
       <c r="C907" s="17"/>
     </row>
-    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
         <v>902</v>
       </c>
@@ -12413,7 +12415,7 @@
       </c>
       <c r="C908" s="17"/>
     </row>
-    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
         <v>903</v>
       </c>
@@ -12422,7 +12424,7 @@
       </c>
       <c r="C909" s="17"/>
     </row>
-    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
         <v>904</v>
       </c>
@@ -12431,7 +12433,7 @@
       </c>
       <c r="C910" s="17"/>
     </row>
-    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
         <v>905</v>
       </c>
@@ -12440,7 +12442,7 @@
       </c>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
         <v>906</v>
       </c>
@@ -12449,7 +12451,7 @@
       </c>
       <c r="C912" s="17"/>
     </row>
-    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
         <v>907</v>
       </c>
@@ -12458,7 +12460,7 @@
       </c>
       <c r="C913" s="17"/>
     </row>
-    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
         <v>908</v>
       </c>
@@ -12467,7 +12469,7 @@
       </c>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
         <v>909</v>
       </c>
@@ -12476,7 +12478,7 @@
       </c>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
         <v>910</v>
       </c>
@@ -12485,7 +12487,7 @@
       </c>
       <c r="C916" s="17"/>
     </row>
-    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
         <v>911</v>
       </c>
@@ -12494,7 +12496,7 @@
       </c>
       <c r="C917" s="17"/>
     </row>
-    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
         <v>912</v>
       </c>
@@ -12503,7 +12505,7 @@
       </c>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
         <v>913</v>
       </c>
@@ -12512,7 +12514,7 @@
       </c>
       <c r="C919" s="17"/>
     </row>
-    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
         <v>914</v>
       </c>
@@ -12521,7 +12523,7 @@
       </c>
       <c r="C920" s="17"/>
     </row>
-    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
         <v>915</v>
       </c>
@@ -12530,7 +12532,7 @@
       </c>
       <c r="C921" s="17"/>
     </row>
-    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
         <v>916</v>
       </c>
@@ -12539,7 +12541,7 @@
       </c>
       <c r="C922" s="17"/>
     </row>
-    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
         <v>917</v>
       </c>
@@ -12548,7 +12550,7 @@
       </c>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
         <v>918</v>
       </c>
@@ -12557,7 +12559,7 @@
       </c>
       <c r="C924" s="17"/>
     </row>
-    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
         <v>919</v>
       </c>
@@ -12566,7 +12568,7 @@
       </c>
       <c r="C925" s="17"/>
     </row>
-    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
         <v>920</v>
       </c>
@@ -12575,7 +12577,7 @@
       </c>
       <c r="C926" s="17"/>
     </row>
-    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
         <v>921</v>
       </c>
@@ -12584,7 +12586,7 @@
       </c>
       <c r="C927" s="17"/>
     </row>
-    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
         <v>922</v>
       </c>
@@ -12593,7 +12595,7 @@
       </c>
       <c r="C928" s="17"/>
     </row>
-    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
         <v>923</v>
       </c>
@@ -12602,7 +12604,7 @@
       </c>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
         <v>924</v>
       </c>
@@ -12611,7 +12613,7 @@
       </c>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
         <v>925</v>
       </c>
@@ -12620,7 +12622,7 @@
       </c>
       <c r="C931" s="17"/>
     </row>
-    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
         <v>926</v>
       </c>
@@ -12629,7 +12631,7 @@
       </c>
       <c r="C932" s="17"/>
     </row>
-    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
         <v>927</v>
       </c>
@@ -12640,7 +12642,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
         <v>928</v>
       </c>
@@ -12649,7 +12651,7 @@
       </c>
       <c r="C934" s="17"/>
     </row>
-    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
         <v>929</v>
       </c>
@@ -12658,7 +12660,7 @@
       </c>
       <c r="C935" s="17"/>
     </row>
-    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
         <v>930</v>
       </c>
@@ -12667,7 +12669,7 @@
       </c>
       <c r="C936" s="17"/>
     </row>
-    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
         <v>931</v>
       </c>
@@ -12676,7 +12678,7 @@
       </c>
       <c r="C937" s="17"/>
     </row>
-    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
         <v>932</v>
       </c>
@@ -12687,7 +12689,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
         <v>933</v>
       </c>
@@ -12696,7 +12698,7 @@
       </c>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
         <v>934</v>
       </c>
@@ -12707,7 +12709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
         <v>935</v>
       </c>
@@ -12716,7 +12718,7 @@
       </c>
       <c r="C941" s="17"/>
     </row>
-    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
         <v>936</v>
       </c>
@@ -12725,7 +12727,7 @@
       </c>
       <c r="C942" s="17"/>
     </row>
-    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
         <v>937</v>
       </c>
@@ -12734,7 +12736,7 @@
       </c>
       <c r="C943" s="17"/>
     </row>
-    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
         <v>938</v>
       </c>
@@ -12743,7 +12745,7 @@
       </c>
       <c r="C944" s="17"/>
     </row>
-    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
         <v>939</v>
       </c>
@@ -12752,7 +12754,7 @@
       </c>
       <c r="C945" s="17"/>
     </row>
-    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
         <v>940</v>
       </c>
@@ -12761,7 +12763,7 @@
       </c>
       <c r="C946" s="17"/>
     </row>
-    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
         <v>941</v>
       </c>
@@ -12770,7 +12772,7 @@
       </c>
       <c r="C947" s="17"/>
     </row>
-    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
         <v>942</v>
       </c>
@@ -12779,7 +12781,7 @@
       </c>
       <c r="C948" s="17"/>
     </row>
-    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
         <v>943</v>
       </c>
@@ -12788,7 +12790,7 @@
       </c>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
         <v>944</v>
       </c>
@@ -12797,7 +12799,7 @@
       </c>
       <c r="C950" s="17"/>
     </row>
-    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
         <v>945</v>
       </c>
@@ -12806,7 +12808,7 @@
       </c>
       <c r="C951" s="17"/>
     </row>
-    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
         <v>946</v>
       </c>
@@ -12815,7 +12817,7 @@
       </c>
       <c r="C952" s="17"/>
     </row>
-    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
         <v>947</v>
       </c>
@@ -12824,7 +12826,7 @@
       </c>
       <c r="C953" s="17"/>
     </row>
-    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
         <v>948</v>
       </c>
@@ -12833,7 +12835,7 @@
       </c>
       <c r="C954" s="17"/>
     </row>
-    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6" t="s">
         <v>949</v>
       </c>
@@ -12844,7 +12846,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
         <v>950</v>
       </c>
@@ -12853,7 +12855,7 @@
       </c>
       <c r="C956" s="17"/>
     </row>
-    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
         <v>951</v>
       </c>
@@ -12862,7 +12864,7 @@
       </c>
       <c r="C957" s="17"/>
     </row>
-    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
         <v>952</v>
       </c>
@@ -12871,7 +12873,7 @@
       </c>
       <c r="C958" s="17"/>
     </row>
-    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
         <v>953</v>
       </c>
@@ -12880,7 +12882,7 @@
       </c>
       <c r="C959" s="17"/>
     </row>
-    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
         <v>954</v>
       </c>
@@ -12889,7 +12891,7 @@
       </c>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
         <v>955</v>
       </c>
@@ -12898,7 +12900,7 @@
       </c>
       <c r="C961" s="17"/>
     </row>
-    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
         <v>956</v>
       </c>
@@ -12907,7 +12909,7 @@
       </c>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
         <v>957</v>
       </c>
@@ -12916,7 +12918,7 @@
       </c>
       <c r="C963" s="17"/>
     </row>
-    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
         <v>958</v>
       </c>
@@ -12925,7 +12927,7 @@
       </c>
       <c r="C964" s="17"/>
     </row>
-    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
         <v>959</v>
       </c>
@@ -12934,7 +12936,7 @@
       </c>
       <c r="C965" s="17"/>
     </row>
-    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
         <v>960</v>
       </c>
@@ -12943,7 +12945,7 @@
       </c>
       <c r="C966" s="17"/>
     </row>
-    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
         <v>961</v>
       </c>
@@ -12952,7 +12954,7 @@
       </c>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
         <v>962</v>
       </c>
@@ -12961,7 +12963,7 @@
       </c>
       <c r="C968" s="17"/>
     </row>
-    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
         <v>963</v>
       </c>
@@ -12970,7 +12972,7 @@
       </c>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
         <v>964</v>
       </c>
@@ -12979,7 +12981,7 @@
       </c>
       <c r="C970" s="17"/>
     </row>
-    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
         <v>965</v>
       </c>
@@ -12988,7 +12990,7 @@
       </c>
       <c r="C971" s="17"/>
     </row>
-    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
         <v>966</v>
       </c>
@@ -12997,7 +12999,7 @@
       </c>
       <c r="C972" s="17"/>
     </row>
-    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
         <v>967</v>
       </c>
@@ -13006,7 +13008,7 @@
       </c>
       <c r="C973" s="17"/>
     </row>
-    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
         <v>968</v>
       </c>
@@ -13015,7 +13017,7 @@
       </c>
       <c r="C974" s="17"/>
     </row>
-    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
         <v>969</v>
       </c>
@@ -13024,7 +13026,7 @@
       </c>
       <c r="C975" s="17"/>
     </row>
-    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
         <v>970</v>
       </c>
@@ -13033,7 +13035,7 @@
       </c>
       <c r="C976" s="17"/>
     </row>
-    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
         <v>971</v>
       </c>
@@ -13042,7 +13044,7 @@
       </c>
       <c r="C977" s="17"/>
     </row>
-    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
         <v>972</v>
       </c>
@@ -13051,7 +13053,7 @@
       </c>
       <c r="C978" s="17"/>
     </row>
-    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
         <v>973</v>
       </c>
@@ -13060,7 +13062,7 @@
       </c>
       <c r="C979" s="17"/>
     </row>
-    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
         <v>974</v>
       </c>
@@ -13069,7 +13071,7 @@
       </c>
       <c r="C980" s="17"/>
     </row>
-    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
         <v>975</v>
       </c>
@@ -13078,7 +13080,7 @@
       </c>
       <c r="C981" s="17"/>
     </row>
-    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
         <v>976</v>
       </c>
@@ -13087,7 +13089,7 @@
       </c>
       <c r="C982" s="17"/>
     </row>
-    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
         <v>977</v>
       </c>
@@ -13096,7 +13098,7 @@
       </c>
       <c r="C983" s="17"/>
     </row>
-    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
         <v>978</v>
       </c>
@@ -13105,7 +13107,7 @@
       </c>
       <c r="C984" s="17"/>
     </row>
-    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
         <v>979</v>
       </c>
@@ -13114,7 +13116,7 @@
       </c>
       <c r="C985" s="17"/>
     </row>
-    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
         <v>980</v>
       </c>
@@ -13123,7 +13125,7 @@
       </c>
       <c r="C986" s="17"/>
     </row>
-    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
         <v>981</v>
       </c>
@@ -13132,7 +13134,7 @@
       </c>
       <c r="C987" s="17"/>
     </row>
-    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
         <v>982</v>
       </c>
@@ -13141,7 +13143,7 @@
       </c>
       <c r="C988" s="17"/>
     </row>
-    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
         <v>983</v>
       </c>
@@ -13150,7 +13152,7 @@
       </c>
       <c r="C989" s="17"/>
     </row>
-    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
         <v>984</v>
       </c>
@@ -13159,7 +13161,7 @@
       </c>
       <c r="C990" s="17"/>
     </row>
-    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
         <v>985</v>
       </c>
@@ -13168,7 +13170,7 @@
       </c>
       <c r="C991" s="18"/>
     </row>
-    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
         <v>986</v>
       </c>
@@ -13177,7 +13179,7 @@
       </c>
       <c r="C992" s="17"/>
     </row>
-    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
         <v>987</v>
       </c>
@@ -13188,7 +13190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
         <v>988</v>
       </c>
@@ -13197,7 +13199,7 @@
       </c>
       <c r="C994" s="17"/>
     </row>
-    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>989</v>
       </c>
@@ -13208,7 +13210,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
         <v>990</v>
       </c>
@@ -13217,7 +13219,7 @@
       </c>
       <c r="C996" s="17"/>
     </row>
-    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
         <v>991</v>
       </c>
@@ -13226,7 +13228,7 @@
       </c>
       <c r="C997" s="17"/>
     </row>
-    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
         <v>992</v>
       </c>
@@ -13235,7 +13237,7 @@
       </c>
       <c r="C998" s="17"/>
     </row>
-    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
         <v>993</v>
       </c>
@@ -13246,7 +13248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
         <v>994</v>
       </c>
@@ -13255,7 +13257,7 @@
       </c>
       <c r="C1000" s="17"/>
     </row>
-    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
         <v>995</v>
       </c>
@@ -13264,9 +13266,9 @@
       </c>
       <c r="C1001" s="17"/>
     </row>
-    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="13"/>
     </row>
   </sheetData>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC8EB73-C605-4CF0-B917-A2D3BB3D2640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13472E-A527-4DE8-8D0F-BEC99E43A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1551,9 +1551,6 @@
     <t>DOCE DEL PATÍBULO</t>
   </si>
   <si>
-    <t>BROKRBACK MOUNTAIN</t>
-  </si>
-  <si>
     <t>L'ATLANTE</t>
   </si>
   <si>
@@ -3088,13 +3085,16 @@
   </si>
   <si>
     <t>LA PARADA DE LOS MONSTRUOS</t>
+  </si>
+  <si>
+    <t>BROKEBACK MOUNTAIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3158,6 +3158,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3197,7 +3203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3423,11 +3429,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3471,6 +3490,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3506,7 +3527,6 @@
       <sheetName val="Paste"/>
       <sheetName val="Temporary1"/>
       <sheetName val="SearchID"/>
-      <sheetName val="Loading"/>
     </sheetNames>
     <definedNames>
       <definedName name="COUNTBYCELLCOLOR"/>
@@ -3520,7 +3540,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3726,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A468" sqref="A468"/>
+    <sheetView tabSelected="1" topLeftCell="A986" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1001" sqref="F1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3748,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3759,12 +3778,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E2" s="19"/>
-      <c r="F2" s="20" t="e">
+      <c r="F2" s="20">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E2)</f>
-        <v>#NAME?</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3776,9 +3795,9 @@
       </c>
       <c r="C3" s="17"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="22" t="e">
+      <c r="F3" s="22">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E3)</f>
-        <v>#NAME?</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3789,12 +3808,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="24" t="e">
+      <c r="F4" s="24">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E4)</f>
-        <v>#NAME?</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3808,9 +3827,9 @@
       <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="26" t="e">
+      <c r="F5" s="26">
         <f ca="1">SUM(F2:F4)</f>
-        <v>#NAME?</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3824,9 +3843,9 @@
       <c r="E6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28" t="e">
+      <c r="F6" s="28">
         <f ca="1">1000-F5</f>
-        <v>#NAME?</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3859,7 +3878,7 @@
       <c r="C9" s="17"/>
       <c r="E9" s="32" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>INTOCABLE</v>
+        <v>MATRIX</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -3969,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3989,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4000,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4022,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4033,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4093,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4133,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4153,7 +4172,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4219,7 @@
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B43" s="8">
         <v>6</v>
@@ -4215,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4275,7 +4294,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4295,7 +4314,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4324,12 +4343,12 @@
         <v>7</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B56" s="4">
         <v>7</v>
@@ -4344,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,7 +4383,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4509,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,7 +4595,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,7 +4628,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4620,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4698,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4785,7 +4804,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4807,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4818,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4858,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,7 +5011,7 @@
         <v>15</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5057,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5115,7 +5134,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5137,7 +5156,7 @@
         <v>17</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5159,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5170,7 +5189,7 @@
         <v>17</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5190,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5201,7 +5220,7 @@
         <v>17</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,7 +5231,7 @@
         <v>18</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,7 +5242,7 @@
         <v>18</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,7 +5262,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,7 +5300,7 @@
         <v>18</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,12 +5311,12 @@
         <v>19</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B154" s="4">
         <v>19</v>
@@ -5330,7 +5349,7 @@
         <v>19</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5390,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,7 +5420,7 @@
         <v>20</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,7 +5431,7 @@
         <v>20</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5434,7 +5453,7 @@
         <v>20</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5475,7 @@
         <v>20</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,7 +5489,7 @@
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B171" s="4">
         <v>21</v>
@@ -5494,7 +5513,7 @@
         <v>21</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5541,7 +5560,7 @@
         <v>22</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5552,7 +5571,7 @@
         <v>22</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5592,7 +5611,7 @@
         <v>22</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5667,7 @@
         <v>23</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5659,7 +5678,7 @@
         <v>23</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,7 +5689,7 @@
         <v>23</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5690,7 +5709,7 @@
         <v>23</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5806,7 +5825,7 @@
         <v>25</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,7 +5845,7 @@
         <v>25</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5906,7 +5925,7 @@
         <v>26</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5917,7 +5936,7 @@
         <v>26</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5928,7 +5947,7 @@
         <v>26</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,7 +6014,7 @@
         <v>27</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6091,7 +6110,7 @@
         <v>28</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6141,7 +6160,7 @@
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B240" s="4">
         <v>29</v>
@@ -6234,7 +6253,7 @@
         <v>30</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6254,7 +6273,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6342,7 +6361,7 @@
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B261" s="8">
         <v>32</v>
@@ -6397,7 +6416,7 @@
         <v>32</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,12 +6427,12 @@
         <v>32</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B268" s="8">
         <v>33</v>
@@ -6437,7 +6456,7 @@
         <v>33</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6477,7 +6496,7 @@
         <v>33</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,13 +6528,13 @@
     </row>
     <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B278" s="4">
         <v>34</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6553,7 +6572,7 @@
         <v>34</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6586,7 +6605,7 @@
         <v>35</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6597,7 +6616,7 @@
         <v>35</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6683,7 @@
         <v>36</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,7 +6739,7 @@
         <v>36</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6749,7 +6768,7 @@
         <v>37</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,7 +6788,7 @@
         <v>37</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6791,7 +6810,7 @@
         <v>37</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6802,7 +6821,7 @@
         <v>37</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6842,7 +6861,7 @@
         <v>38</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6882,7 +6901,7 @@
         <v>38</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6904,7 +6923,7 @@
         <v>38</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6937,7 +6956,7 @@
         <v>39</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6988,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6999,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7088,7 +7107,7 @@
         <v>40</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7117,7 +7136,7 @@
         <v>40</v>
       </c>
       <c r="C338" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,7 +7147,7 @@
         <v>41</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7139,7 +7158,7 @@
         <v>41</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7168,7 +7187,7 @@
         <v>41</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7262,7 +7281,7 @@
         <v>42</v>
       </c>
       <c r="C353" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7320,7 +7339,7 @@
         <v>43</v>
       </c>
       <c r="C359" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7349,7 +7368,7 @@
         <v>43</v>
       </c>
       <c r="C362" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,7 +7379,7 @@
         <v>43</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7382,7 +7401,7 @@
         <v>43</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7398,7 +7417,7 @@
     </row>
     <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B367" s="4">
         <v>44</v>
@@ -7413,7 +7432,7 @@
         <v>44</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7462,7 +7481,7 @@
         <v>44</v>
       </c>
       <c r="C373" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,7 +7523,7 @@
         <v>45</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7600,7 +7619,7 @@
         <v>46</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7629,7 +7648,7 @@
         <v>46</v>
       </c>
       <c r="C390" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7640,7 +7659,7 @@
         <v>47</v>
       </c>
       <c r="C391" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7670,7 @@
         <v>47</v>
       </c>
       <c r="C392" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7662,7 +7681,7 @@
         <v>47</v>
       </c>
       <c r="C393" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7682,7 +7701,7 @@
         <v>47</v>
       </c>
       <c r="C395" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7702,7 +7721,7 @@
         <v>47</v>
       </c>
       <c r="C397" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7767,7 +7786,7 @@
         <v>48</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7778,7 +7797,7 @@
         <v>48</v>
       </c>
       <c r="C405" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7807,7 +7826,7 @@
         <v>49</v>
       </c>
       <c r="C408" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,7 +7837,7 @@
         <v>49</v>
       </c>
       <c r="C409" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7894,7 +7913,7 @@
         <v>50</v>
       </c>
       <c r="C417" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8071,7 +8090,7 @@
         <v>52</v>
       </c>
       <c r="C436" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8318,7 +8337,7 @@
         <v>55</v>
       </c>
       <c r="C463" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8347,7 +8366,7 @@
         <v>55</v>
       </c>
       <c r="C466" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8423,7 +8442,7 @@
         <v>56</v>
       </c>
       <c r="C474" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8551,7 +8570,7 @@
         <v>58</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8663,8 +8682,8 @@
       <c r="C500" s="17"/>
     </row>
     <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="5" t="s">
-        <v>496</v>
+      <c r="A501" s="33" t="s">
+        <v>1008</v>
       </c>
       <c r="B501" s="4">
         <v>59</v>
@@ -8673,7 +8692,7 @@
     </row>
     <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B502" s="4">
         <v>59</v>
@@ -8682,7 +8701,7 @@
     </row>
     <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B503" s="4">
         <v>59</v>
@@ -8691,7 +8710,7 @@
     </row>
     <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B504" s="4">
         <v>59</v>
@@ -8700,7 +8719,7 @@
     </row>
     <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B505" s="4">
         <v>59</v>
@@ -8709,7 +8728,7 @@
     </row>
     <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B506" s="4">
         <v>59</v>
@@ -8718,7 +8737,7 @@
     </row>
     <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B507" s="8">
         <v>60</v>
@@ -8727,7 +8746,7 @@
     </row>
     <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B508" s="4">
         <v>60</v>
@@ -8736,7 +8755,7 @@
     </row>
     <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B509" s="4">
         <v>60</v>
@@ -8747,7 +8766,7 @@
     </row>
     <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B510" s="4">
         <v>60</v>
@@ -8756,18 +8775,18 @@
     </row>
     <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B511" s="4">
         <v>60</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B512" s="4">
         <v>60</v>
@@ -8776,7 +8795,7 @@
     </row>
     <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B513" s="4">
         <v>60</v>
@@ -8785,7 +8804,7 @@
     </row>
     <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B514" s="4">
         <v>60</v>
@@ -8794,7 +8813,7 @@
     </row>
     <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B515" s="4">
         <v>60</v>
@@ -8803,7 +8822,7 @@
     </row>
     <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B516" s="4">
         <v>60</v>
@@ -8812,7 +8831,7 @@
     </row>
     <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B517" s="8">
         <v>61</v>
@@ -8821,7 +8840,7 @@
     </row>
     <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B518" s="4">
         <v>61</v>
@@ -8830,7 +8849,7 @@
     </row>
     <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B519" s="4">
         <v>61</v>
@@ -8839,7 +8858,7 @@
     </row>
     <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B520" s="4">
         <v>61</v>
@@ -8848,7 +8867,7 @@
     </row>
     <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B521" s="4">
         <v>61</v>
@@ -8857,7 +8876,7 @@
     </row>
     <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B522" s="4">
         <v>61</v>
@@ -8866,7 +8885,7 @@
     </row>
     <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B523" s="4">
         <v>61</v>
@@ -8875,7 +8894,7 @@
     </row>
     <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B524" s="4">
         <v>61</v>
@@ -8884,7 +8903,7 @@
     </row>
     <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B525" s="4">
         <v>61</v>
@@ -8893,7 +8912,7 @@
     </row>
     <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B526" s="4">
         <v>61</v>
@@ -8902,7 +8921,7 @@
     </row>
     <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B527" s="4">
         <v>62</v>
@@ -8911,7 +8930,7 @@
     </row>
     <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B528" s="8">
         <v>62</v>
@@ -8920,7 +8939,7 @@
     </row>
     <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B529" s="4">
         <v>62</v>
@@ -8929,7 +8948,7 @@
     </row>
     <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B530" s="4">
         <v>62</v>
@@ -8938,18 +8957,18 @@
     </row>
     <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B531" s="4">
         <v>62</v>
       </c>
       <c r="C531" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B532" s="4">
         <v>62</v>
@@ -8958,7 +8977,7 @@
     </row>
     <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B533" s="4">
         <v>62</v>
@@ -8967,7 +8986,7 @@
     </row>
     <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B534" s="8">
         <v>63</v>
@@ -8978,7 +8997,7 @@
     </row>
     <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B535" s="4">
         <v>63</v>
@@ -8987,7 +9006,7 @@
     </row>
     <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B536" s="4">
         <v>63</v>
@@ -8998,7 +9017,7 @@
     </row>
     <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B537" s="4">
         <v>63</v>
@@ -9007,7 +9026,7 @@
     </row>
     <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B538" s="4">
         <v>63</v>
@@ -9016,7 +9035,7 @@
     </row>
     <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B539" s="4">
         <v>63</v>
@@ -9025,7 +9044,7 @@
     </row>
     <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B540" s="4">
         <v>63</v>
@@ -9034,7 +9053,7 @@
     </row>
     <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B541" s="4">
         <v>63</v>
@@ -9043,7 +9062,7 @@
     </row>
     <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B542" s="4">
         <v>63</v>
@@ -9052,7 +9071,7 @@
     </row>
     <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B543" s="4">
         <v>63</v>
@@ -9061,7 +9080,7 @@
     </row>
     <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B544" s="8">
         <v>64</v>
@@ -9070,7 +9089,7 @@
     </row>
     <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B545" s="4">
         <v>64</v>
@@ -9079,18 +9098,18 @@
     </row>
     <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B546" s="4">
         <v>64</v>
       </c>
       <c r="C546" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B547" s="4">
         <v>64</v>
@@ -9099,7 +9118,7 @@
     </row>
     <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B548" s="4">
         <v>64</v>
@@ -9108,7 +9127,7 @@
     </row>
     <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B549" s="4">
         <v>64</v>
@@ -9117,7 +9136,7 @@
     </row>
     <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B550" s="4">
         <v>64</v>
@@ -9126,7 +9145,7 @@
     </row>
     <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B551" s="4">
         <v>64</v>
@@ -9135,7 +9154,7 @@
     </row>
     <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B552" s="4">
         <v>64</v>
@@ -9144,7 +9163,7 @@
     </row>
     <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B553" s="4">
         <v>64</v>
@@ -9153,18 +9172,18 @@
     </row>
     <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B554" s="8">
         <v>65</v>
       </c>
       <c r="C554" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B555" s="4">
         <v>65</v>
@@ -9173,18 +9192,18 @@
     </row>
     <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B556" s="4">
         <v>65</v>
       </c>
       <c r="C556" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B557" s="4">
         <v>65</v>
@@ -9193,7 +9212,7 @@
     </row>
     <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B558" s="4">
         <v>65</v>
@@ -9202,7 +9221,7 @@
     </row>
     <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B559" s="4">
         <v>65</v>
@@ -9211,7 +9230,7 @@
     </row>
     <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B560" s="4">
         <v>65</v>
@@ -9220,7 +9239,7 @@
     </row>
     <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B561" s="8">
         <v>66</v>
@@ -9229,7 +9248,7 @@
     </row>
     <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B562" s="4">
         <v>66</v>
@@ -9238,7 +9257,7 @@
     </row>
     <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B563" s="4">
         <v>66</v>
@@ -9247,7 +9266,7 @@
     </row>
     <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B564" s="4">
         <v>66</v>
@@ -9256,7 +9275,7 @@
     </row>
     <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B565" s="4">
         <v>66</v>
@@ -9265,7 +9284,7 @@
     </row>
     <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B566" s="4">
         <v>66</v>
@@ -9274,7 +9293,7 @@
     </row>
     <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B567" s="4">
         <v>66</v>
@@ -9283,7 +9302,7 @@
     </row>
     <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B568" s="4">
         <v>66</v>
@@ -9292,7 +9311,7 @@
     </row>
     <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B569" s="8">
         <v>67</v>
@@ -9301,7 +9320,7 @@
     </row>
     <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B570" s="4">
         <v>67</v>
@@ -9310,7 +9329,7 @@
     </row>
     <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B571" s="4">
         <v>67</v>
@@ -9319,7 +9338,7 @@
     </row>
     <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B572" s="4">
         <v>67</v>
@@ -9328,7 +9347,7 @@
     </row>
     <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B573" s="4">
         <v>67</v>
@@ -9337,7 +9356,7 @@
     </row>
     <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B574" s="4">
         <v>67</v>
@@ -9346,7 +9365,7 @@
     </row>
     <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B575" s="4">
         <v>67</v>
@@ -9355,7 +9374,7 @@
     </row>
     <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B576" s="4">
         <v>67</v>
@@ -9364,7 +9383,7 @@
     </row>
     <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B577" s="4">
         <v>67</v>
@@ -9373,7 +9392,7 @@
     </row>
     <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B578" s="4">
         <v>67</v>
@@ -9382,7 +9401,7 @@
     </row>
     <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B579" s="8">
         <v>68</v>
@@ -9391,7 +9410,7 @@
     </row>
     <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B580" s="4">
         <v>68</v>
@@ -9400,7 +9419,7 @@
     </row>
     <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B581" s="4">
         <v>68</v>
@@ -9409,7 +9428,7 @@
     </row>
     <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B582" s="4">
         <v>68</v>
@@ -9418,7 +9437,7 @@
     </row>
     <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B583" s="4">
         <v>68</v>
@@ -9427,7 +9446,7 @@
     </row>
     <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B584" s="4">
         <v>68</v>
@@ -9436,7 +9455,7 @@
     </row>
     <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B585" s="4">
         <v>68</v>
@@ -9445,7 +9464,7 @@
     </row>
     <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B586" s="4">
         <v>68</v>
@@ -9454,7 +9473,7 @@
     </row>
     <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B587" s="4">
         <v>68</v>
@@ -9463,7 +9482,7 @@
     </row>
     <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B588" s="8">
         <v>69</v>
@@ -9474,7 +9493,7 @@
     </row>
     <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B589" s="4">
         <v>69</v>
@@ -9483,7 +9502,7 @@
     </row>
     <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B590" s="4">
         <v>69</v>
@@ -9492,7 +9511,7 @@
     </row>
     <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B591" s="4">
         <v>69</v>
@@ -9501,7 +9520,7 @@
     </row>
     <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B592" s="4">
         <v>69</v>
@@ -9512,7 +9531,7 @@
     </row>
     <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B593" s="4">
         <v>69</v>
@@ -9521,7 +9540,7 @@
     </row>
     <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B594" s="4">
         <v>69</v>
@@ -9530,7 +9549,7 @@
     </row>
     <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B595" s="4">
         <v>69</v>
@@ -9539,7 +9558,7 @@
     </row>
     <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B596" s="4">
         <v>69</v>
@@ -9548,7 +9567,7 @@
     </row>
     <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B597" s="4">
         <v>69</v>
@@ -9557,7 +9576,7 @@
     </row>
     <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B598" s="8">
         <v>70</v>
@@ -9566,7 +9585,7 @@
     </row>
     <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B599" s="4">
         <v>70</v>
@@ -9577,7 +9596,7 @@
     </row>
     <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B600" s="4">
         <v>70</v>
@@ -9586,7 +9605,7 @@
     </row>
     <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B601" s="4">
         <v>70</v>
@@ -9595,18 +9614,18 @@
     </row>
     <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B602" s="4">
         <v>70</v>
       </c>
       <c r="C602" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B603" s="4">
         <v>70</v>
@@ -9615,7 +9634,7 @@
     </row>
     <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B604" s="4">
         <v>70</v>
@@ -9624,7 +9643,7 @@
     </row>
     <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B605" s="4">
         <v>70</v>
@@ -9635,7 +9654,7 @@
     </row>
     <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B606" s="4">
         <v>70</v>
@@ -9644,7 +9663,7 @@
     </row>
     <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B607" s="8">
         <v>71</v>
@@ -9653,7 +9672,7 @@
     </row>
     <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B608" s="4">
         <v>71</v>
@@ -9664,7 +9683,7 @@
     </row>
     <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B609" s="4">
         <v>71</v>
@@ -9673,7 +9692,7 @@
     </row>
     <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B610" s="4">
         <v>71</v>
@@ -9682,7 +9701,7 @@
     </row>
     <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B611" s="4">
         <v>71</v>
@@ -9691,7 +9710,7 @@
     </row>
     <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B612" s="4">
         <v>71</v>
@@ -9700,7 +9719,7 @@
     </row>
     <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B613" s="4">
         <v>71</v>
@@ -9709,7 +9728,7 @@
     </row>
     <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B614" s="4">
         <v>71</v>
@@ -9718,7 +9737,7 @@
     </row>
     <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B615" s="8">
         <v>72</v>
@@ -9727,7 +9746,7 @@
     </row>
     <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B616" s="4">
         <v>72</v>
@@ -9736,7 +9755,7 @@
     </row>
     <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B617" s="4">
         <v>72</v>
@@ -9745,7 +9764,7 @@
     </row>
     <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B618" s="4">
         <v>72</v>
@@ -9754,7 +9773,7 @@
     </row>
     <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B619" s="4">
         <v>72</v>
@@ -9763,7 +9782,7 @@
     </row>
     <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B620" s="4">
         <v>72</v>
@@ -9772,7 +9791,7 @@
     </row>
     <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B621" s="4">
         <v>72</v>
@@ -9781,7 +9800,7 @@
     </row>
     <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B622" s="4">
         <v>72</v>
@@ -9790,7 +9809,7 @@
     </row>
     <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B623" s="4">
         <v>72</v>
@@ -9799,7 +9818,7 @@
     </row>
     <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B624" s="8">
         <v>73</v>
@@ -9808,7 +9827,7 @@
     </row>
     <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B625" s="4">
         <v>73</v>
@@ -9817,7 +9836,7 @@
     </row>
     <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B626" s="4">
         <v>73</v>
@@ -9826,7 +9845,7 @@
     </row>
     <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B627" s="4">
         <v>73</v>
@@ -9835,7 +9854,7 @@
     </row>
     <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B628" s="4">
         <v>73</v>
@@ -9844,7 +9863,7 @@
     </row>
     <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B629" s="4">
         <v>73</v>
@@ -9853,7 +9872,7 @@
     </row>
     <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B630" s="4">
         <v>73</v>
@@ -9862,18 +9881,18 @@
     </row>
     <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B631" s="4">
         <v>73</v>
       </c>
       <c r="C631" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B632" s="4">
         <v>73</v>
@@ -9882,7 +9901,7 @@
     </row>
     <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B633" s="8">
         <v>74</v>
@@ -9891,7 +9910,7 @@
     </row>
     <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B634" s="4">
         <v>74</v>
@@ -9900,7 +9919,7 @@
     </row>
     <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B635" s="4">
         <v>74</v>
@@ -9909,7 +9928,7 @@
     </row>
     <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B636" s="4">
         <v>74</v>
@@ -9918,7 +9937,7 @@
     </row>
     <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B637" s="4">
         <v>74</v>
@@ -9927,7 +9946,7 @@
     </row>
     <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B638" s="4">
         <v>74</v>
@@ -9936,7 +9955,7 @@
     </row>
     <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B639" s="4">
         <v>74</v>
@@ -9945,7 +9964,7 @@
     </row>
     <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B640" s="8">
         <v>75</v>
@@ -9956,7 +9975,7 @@
     </row>
     <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B641" s="4">
         <v>75</v>
@@ -9965,7 +9984,7 @@
     </row>
     <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B642" s="4">
         <v>75</v>
@@ -9974,7 +9993,7 @@
     </row>
     <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B643" s="4">
         <v>75</v>
@@ -9983,7 +10002,7 @@
     </row>
     <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B644" s="4">
         <v>75</v>
@@ -9992,7 +10011,7 @@
     </row>
     <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B645" s="4">
         <v>75</v>
@@ -10001,7 +10020,7 @@
     </row>
     <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B646" s="4">
         <v>75</v>
@@ -10010,18 +10029,18 @@
     </row>
     <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B647" s="4">
         <v>75</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B648" s="8">
         <v>76</v>
@@ -10030,7 +10049,7 @@
     </row>
     <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B649" s="4">
         <v>76</v>
@@ -10039,7 +10058,7 @@
     </row>
     <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B650" s="4">
         <v>76</v>
@@ -10048,7 +10067,7 @@
     </row>
     <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B651" s="4">
         <v>76</v>
@@ -10057,7 +10076,7 @@
     </row>
     <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B652" s="4">
         <v>76</v>
@@ -10066,7 +10085,7 @@
     </row>
     <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B653" s="4">
         <v>76</v>
@@ -10075,7 +10094,7 @@
     </row>
     <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B654" s="4">
         <v>76</v>
@@ -10086,7 +10105,7 @@
     </row>
     <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B655" s="8">
         <v>77</v>
@@ -10095,7 +10114,7 @@
     </row>
     <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B656" s="4">
         <v>77</v>
@@ -10104,7 +10123,7 @@
     </row>
     <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B657" s="4">
         <v>77</v>
@@ -10113,7 +10132,7 @@
     </row>
     <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B658" s="4">
         <v>77</v>
@@ -10122,7 +10141,7 @@
     </row>
     <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B659" s="4">
         <v>77</v>
@@ -10133,7 +10152,7 @@
     </row>
     <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B660" s="4">
         <v>77</v>
@@ -10142,7 +10161,7 @@
     </row>
     <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B661" s="4">
         <v>77</v>
@@ -10151,7 +10170,7 @@
     </row>
     <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B662" s="4">
         <v>77</v>
@@ -10160,7 +10179,7 @@
     </row>
     <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B663" s="8">
         <v>78</v>
@@ -10169,7 +10188,7 @@
     </row>
     <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B664" s="4">
         <v>78</v>
@@ -10178,7 +10197,7 @@
     </row>
     <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B665" s="4">
         <v>78</v>
@@ -10187,7 +10206,7 @@
     </row>
     <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B666" s="4">
         <v>78</v>
@@ -10196,7 +10215,7 @@
     </row>
     <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B667" s="4">
         <v>78</v>
@@ -10205,7 +10224,7 @@
     </row>
     <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B668" s="4">
         <v>78</v>
@@ -10214,7 +10233,7 @@
     </row>
     <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B669" s="4">
         <v>78</v>
@@ -10223,7 +10242,7 @@
     </row>
     <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B670" s="4">
         <v>78</v>
@@ -10232,7 +10251,7 @@
     </row>
     <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B671" s="4">
         <v>78</v>
@@ -10241,7 +10260,7 @@
     </row>
     <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B672" s="4">
         <v>78</v>
@@ -10250,7 +10269,7 @@
     </row>
     <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B673" s="4">
         <v>78</v>
@@ -10259,7 +10278,7 @@
     </row>
     <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B674" s="4">
         <v>78</v>
@@ -10268,7 +10287,7 @@
     </row>
     <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B675" s="8">
         <v>79</v>
@@ -10277,7 +10296,7 @@
     </row>
     <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B676" s="4">
         <v>79</v>
@@ -10286,7 +10305,7 @@
     </row>
     <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B677" s="4">
         <v>79</v>
@@ -10295,7 +10314,7 @@
     </row>
     <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B678" s="4">
         <v>79</v>
@@ -10304,7 +10323,7 @@
     </row>
     <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B679" s="4">
         <v>79</v>
@@ -10313,7 +10332,7 @@
     </row>
     <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B680" s="4">
         <v>79</v>
@@ -10322,7 +10341,7 @@
     </row>
     <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B681" s="4">
         <v>79</v>
@@ -10331,7 +10350,7 @@
     </row>
     <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B682" s="4">
         <v>79</v>
@@ -10340,7 +10359,7 @@
     </row>
     <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B683" s="4">
         <v>79</v>
@@ -10349,7 +10368,7 @@
     </row>
     <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B684" s="8">
         <v>80</v>
@@ -10358,7 +10377,7 @@
     </row>
     <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B685" s="4">
         <v>80</v>
@@ -10367,18 +10386,18 @@
     </row>
     <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B686" s="4">
         <v>80</v>
       </c>
       <c r="C686" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B687" s="4">
         <v>80</v>
@@ -10387,7 +10406,7 @@
     </row>
     <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B688" s="4">
         <v>80</v>
@@ -10396,18 +10415,18 @@
     </row>
     <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B689" s="4">
         <v>80</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B690" s="4">
         <v>80</v>
@@ -10416,18 +10435,18 @@
     </row>
     <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B691" s="4">
         <v>80</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B692" s="4">
         <v>80</v>
@@ -10436,7 +10455,7 @@
     </row>
     <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B693" s="4">
         <v>80</v>
@@ -10445,7 +10464,7 @@
     </row>
     <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B694" s="8">
         <v>81</v>
@@ -10454,7 +10473,7 @@
     </row>
     <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B695" s="4">
         <v>81</v>
@@ -10463,7 +10482,7 @@
     </row>
     <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B696" s="4">
         <v>81</v>
@@ -10472,7 +10491,7 @@
     </row>
     <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B697" s="4">
         <v>81</v>
@@ -10481,7 +10500,7 @@
     </row>
     <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B698" s="4">
         <v>81</v>
@@ -10490,7 +10509,7 @@
     </row>
     <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B699" s="4">
         <v>81</v>
@@ -10499,7 +10518,7 @@
     </row>
     <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B700" s="4">
         <v>81</v>
@@ -10508,7 +10527,7 @@
     </row>
     <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B701" s="8">
         <v>82</v>
@@ -10517,7 +10536,7 @@
     </row>
     <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B702" s="4">
         <v>82</v>
@@ -10526,7 +10545,7 @@
     </row>
     <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B703" s="4">
         <v>82</v>
@@ -10535,7 +10554,7 @@
     </row>
     <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B704" s="4">
         <v>82</v>
@@ -10544,7 +10563,7 @@
     </row>
     <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B705" s="4">
         <v>82</v>
@@ -10553,7 +10572,7 @@
     </row>
     <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B706" s="4">
         <v>82</v>
@@ -10562,7 +10581,7 @@
     </row>
     <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B707" s="4">
         <v>82</v>
@@ -10571,7 +10590,7 @@
     </row>
     <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B708" s="4">
         <v>82</v>
@@ -10580,7 +10599,7 @@
     </row>
     <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B709" s="4">
         <v>82</v>
@@ -10589,7 +10608,7 @@
     </row>
     <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B710" s="8">
         <v>83</v>
@@ -10598,7 +10617,7 @@
     </row>
     <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B711" s="4">
         <v>83</v>
@@ -10607,7 +10626,7 @@
     </row>
     <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B712" s="4">
         <v>83</v>
@@ -10616,7 +10635,7 @@
     </row>
     <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B713" s="4">
         <v>83</v>
@@ -10625,7 +10644,7 @@
     </row>
     <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B714" s="4">
         <v>83</v>
@@ -10634,7 +10653,7 @@
     </row>
     <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B715" s="4">
         <v>83</v>
@@ -10643,7 +10662,7 @@
     </row>
     <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B716" s="4">
         <v>83</v>
@@ -10652,7 +10671,7 @@
     </row>
     <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B717" s="4">
         <v>83</v>
@@ -10663,7 +10682,7 @@
     </row>
     <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B718" s="8">
         <v>84</v>
@@ -10672,7 +10691,7 @@
     </row>
     <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B719" s="4">
         <v>84</v>
@@ -10681,7 +10700,7 @@
     </row>
     <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B720" s="4">
         <v>84</v>
@@ -10690,7 +10709,7 @@
     </row>
     <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B721" s="4">
         <v>84</v>
@@ -10699,7 +10718,7 @@
     </row>
     <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B722" s="4">
         <v>84</v>
@@ -10708,7 +10727,7 @@
     </row>
     <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B723" s="4">
         <v>84</v>
@@ -10717,7 +10736,7 @@
     </row>
     <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B724" s="4">
         <v>84</v>
@@ -10726,7 +10745,7 @@
     </row>
     <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B725" s="4">
         <v>84</v>
@@ -10735,7 +10754,7 @@
     </row>
     <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B726" s="4">
         <v>84</v>
@@ -10744,7 +10763,7 @@
     </row>
     <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B727" s="8">
         <v>85</v>
@@ -10753,7 +10772,7 @@
     </row>
     <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B728" s="4">
         <v>85</v>
@@ -10762,7 +10781,7 @@
     </row>
     <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B729" s="4">
         <v>85</v>
@@ -10771,7 +10790,7 @@
     </row>
     <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B730" s="4">
         <v>85</v>
@@ -10780,7 +10799,7 @@
     </row>
     <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B731" s="4">
         <v>85</v>
@@ -10789,7 +10808,7 @@
     </row>
     <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B732" s="4">
         <v>85</v>
@@ -10798,7 +10817,7 @@
     </row>
     <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B733" s="4">
         <v>85</v>
@@ -10807,7 +10826,7 @@
     </row>
     <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B734" s="4">
         <v>85</v>
@@ -10818,7 +10837,7 @@
     </row>
     <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B735" s="8">
         <v>86</v>
@@ -10827,18 +10846,18 @@
     </row>
     <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B736" s="4">
         <v>86</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B737" s="4">
         <v>86</v>
@@ -10847,7 +10866,7 @@
     </row>
     <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B738" s="4">
         <v>86</v>
@@ -10856,7 +10875,7 @@
     </row>
     <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B739" s="4">
         <v>86</v>
@@ -10865,7 +10884,7 @@
     </row>
     <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B740" s="4">
         <v>86</v>
@@ -10874,7 +10893,7 @@
     </row>
     <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B741" s="4">
         <v>86</v>
@@ -10883,7 +10902,7 @@
     </row>
     <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B742" s="8">
         <v>87</v>
@@ -10892,7 +10911,7 @@
     </row>
     <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B743" s="4">
         <v>87</v>
@@ -10901,7 +10920,7 @@
     </row>
     <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B744" s="4">
         <v>87</v>
@@ -10910,7 +10929,7 @@
     </row>
     <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B745" s="4">
         <v>87</v>
@@ -10919,7 +10938,7 @@
     </row>
     <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B746" s="4">
         <v>87</v>
@@ -10930,7 +10949,7 @@
     </row>
     <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B747" s="4">
         <v>87</v>
@@ -10939,7 +10958,7 @@
     </row>
     <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B748" s="4">
         <v>87</v>
@@ -10948,7 +10967,7 @@
     </row>
     <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B749" s="4">
         <v>87</v>
@@ -10957,7 +10976,7 @@
     </row>
     <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B750" s="4">
         <v>87</v>
@@ -10966,7 +10985,7 @@
     </row>
     <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B751" s="8">
         <v>88</v>
@@ -10975,7 +10994,7 @@
     </row>
     <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B752" s="4">
         <v>88</v>
@@ -10984,18 +11003,18 @@
     </row>
     <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B753" s="4">
         <v>88</v>
       </c>
       <c r="C753" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B754" s="4">
         <v>88</v>
@@ -11004,7 +11023,7 @@
     </row>
     <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B755" s="4">
         <v>88</v>
@@ -11013,7 +11032,7 @@
     </row>
     <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B756" s="4">
         <v>88</v>
@@ -11022,18 +11041,18 @@
     </row>
     <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B757" s="4">
         <v>88</v>
       </c>
       <c r="C757" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B758" s="4">
         <v>88</v>
@@ -11042,7 +11061,7 @@
     </row>
     <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B759" s="4">
         <v>88</v>
@@ -11051,7 +11070,7 @@
     </row>
     <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B760" s="4">
         <v>88</v>
@@ -11060,7 +11079,7 @@
     </row>
     <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B761" s="8">
         <v>89</v>
@@ -11069,7 +11088,7 @@
     </row>
     <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B762" s="4">
         <v>89</v>
@@ -11078,7 +11097,7 @@
     </row>
     <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B763" s="4">
         <v>89</v>
@@ -11087,7 +11106,7 @@
     </row>
     <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B764" s="4">
         <v>89</v>
@@ -11096,7 +11115,7 @@
     </row>
     <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B765" s="4">
         <v>89</v>
@@ -11105,7 +11124,7 @@
     </row>
     <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B766" s="4">
         <v>89</v>
@@ -11114,7 +11133,7 @@
     </row>
     <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B767" s="4">
         <v>89</v>
@@ -11123,7 +11142,7 @@
     </row>
     <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B768" s="8">
         <v>90</v>
@@ -11134,7 +11153,7 @@
     </row>
     <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B769" s="4">
         <v>90</v>
@@ -11143,7 +11162,7 @@
     </row>
     <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B770" s="4">
         <v>90</v>
@@ -11152,7 +11171,7 @@
     </row>
     <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B771" s="4">
         <v>90</v>
@@ -11161,7 +11180,7 @@
     </row>
     <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B772" s="4">
         <v>90</v>
@@ -11170,7 +11189,7 @@
     </row>
     <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B773" s="4">
         <v>90</v>
@@ -11179,7 +11198,7 @@
     </row>
     <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B774" s="8">
         <v>91</v>
@@ -11188,7 +11207,7 @@
     </row>
     <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B775" s="4">
         <v>91</v>
@@ -11197,7 +11216,7 @@
     </row>
     <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B776" s="4">
         <v>91</v>
@@ -11206,7 +11225,7 @@
     </row>
     <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B777" s="4">
         <v>91</v>
@@ -11217,7 +11236,7 @@
     </row>
     <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B778" s="4">
         <v>91</v>
@@ -11226,7 +11245,7 @@
     </row>
     <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B779" s="4">
         <v>91</v>
@@ -11235,7 +11254,7 @@
     </row>
     <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B780" s="4">
         <v>91</v>
@@ -11244,18 +11263,18 @@
     </row>
     <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B781" s="4">
         <v>91</v>
       </c>
       <c r="C781" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B782" s="4">
         <v>91</v>
@@ -11264,7 +11283,7 @@
     </row>
     <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B783" s="4">
         <v>91</v>
@@ -11273,7 +11292,7 @@
     </row>
     <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B784" s="8">
         <v>92</v>
@@ -11282,7 +11301,7 @@
     </row>
     <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B785" s="4">
         <v>92</v>
@@ -11291,18 +11310,18 @@
     </row>
     <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B786" s="4">
         <v>92</v>
       </c>
       <c r="C786" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B787" s="4">
         <v>92</v>
@@ -11311,7 +11330,7 @@
     </row>
     <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B788" s="4">
         <v>92</v>
@@ -11322,7 +11341,7 @@
     </row>
     <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B789" s="4">
         <v>92</v>
@@ -11331,7 +11350,7 @@
     </row>
     <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B790" s="4">
         <v>92</v>
@@ -11340,7 +11359,7 @@
     </row>
     <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B791" s="4">
         <v>92</v>
@@ -11349,7 +11368,7 @@
     </row>
     <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B792" s="4">
         <v>92</v>
@@ -11358,7 +11377,7 @@
     </row>
     <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B793" s="4">
         <v>92</v>
@@ -11367,7 +11386,7 @@
     </row>
     <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B794" s="8">
         <v>93</v>
@@ -11376,7 +11395,7 @@
     </row>
     <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B795" s="4">
         <v>93</v>
@@ -11385,7 +11404,7 @@
     </row>
     <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B796" s="4">
         <v>93</v>
@@ -11394,7 +11413,7 @@
     </row>
     <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B797" s="4">
         <v>93</v>
@@ -11403,7 +11422,7 @@
     </row>
     <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B798" s="4">
         <v>93</v>
@@ -11412,7 +11431,7 @@
     </row>
     <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B799" s="4">
         <v>93</v>
@@ -11421,7 +11440,7 @@
     </row>
     <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B800" s="4">
         <v>93</v>
@@ -11430,7 +11449,7 @@
     </row>
     <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B801" s="4">
         <v>93</v>
@@ -11439,7 +11458,7 @@
     </row>
     <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B802" s="4">
         <v>93</v>
@@ -11448,7 +11467,7 @@
     </row>
     <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B803" s="8">
         <v>94</v>
@@ -11457,7 +11476,7 @@
     </row>
     <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B804" s="4">
         <v>94</v>
@@ -11466,7 +11485,7 @@
     </row>
     <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B805" s="4">
         <v>94</v>
@@ -11475,7 +11494,7 @@
     </row>
     <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B806" s="4">
         <v>94</v>
@@ -11484,7 +11503,7 @@
     </row>
     <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B807" s="4">
         <v>94</v>
@@ -11493,7 +11512,7 @@
     </row>
     <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B808" s="4">
         <v>94</v>
@@ -11502,7 +11521,7 @@
     </row>
     <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B809" s="4">
         <v>94</v>
@@ -11511,7 +11530,7 @@
     </row>
     <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B810" s="4">
         <v>94</v>
@@ -11520,7 +11539,7 @@
     </row>
     <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B811" s="8">
         <v>95</v>
@@ -11529,7 +11548,7 @@
     </row>
     <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B812" s="4">
         <v>95</v>
@@ -11538,7 +11557,7 @@
     </row>
     <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B813" s="4">
         <v>95</v>
@@ -11547,7 +11566,7 @@
     </row>
     <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B814" s="4">
         <v>95</v>
@@ -11556,7 +11575,7 @@
     </row>
     <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B815" s="4">
         <v>95</v>
@@ -11565,7 +11584,7 @@
     </row>
     <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B816" s="4">
         <v>95</v>
@@ -11574,7 +11593,7 @@
     </row>
     <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B817" s="4">
         <v>95</v>
@@ -11583,7 +11602,7 @@
     </row>
     <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B818" s="8">
         <v>96</v>
@@ -11592,7 +11611,7 @@
     </row>
     <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B819" s="4">
         <v>96</v>
@@ -11601,7 +11620,7 @@
     </row>
     <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B820" s="4">
         <v>96</v>
@@ -11610,7 +11629,7 @@
     </row>
     <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B821" s="4">
         <v>96</v>
@@ -11619,7 +11638,7 @@
     </row>
     <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B822" s="4">
         <v>96</v>
@@ -11628,7 +11647,7 @@
     </row>
     <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B823" s="4">
         <v>96</v>
@@ -11637,7 +11656,7 @@
     </row>
     <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B824" s="4">
         <v>96</v>
@@ -11646,7 +11665,7 @@
     </row>
     <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B825" s="4">
         <v>96</v>
@@ -11655,7 +11674,7 @@
     </row>
     <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B826" s="4">
         <v>96</v>
@@ -11664,7 +11683,7 @@
     </row>
     <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B827" s="4">
         <v>96</v>
@@ -11673,7 +11692,7 @@
     </row>
     <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B828" s="8">
         <v>97</v>
@@ -11682,7 +11701,7 @@
     </row>
     <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B829" s="4">
         <v>97</v>
@@ -11691,7 +11710,7 @@
     </row>
     <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B830" s="4">
         <v>97</v>
@@ -11700,7 +11719,7 @@
     </row>
     <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B831" s="4">
         <v>97</v>
@@ -11709,7 +11728,7 @@
     </row>
     <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B832" s="4">
         <v>97</v>
@@ -11718,7 +11737,7 @@
     </row>
     <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B833" s="4">
         <v>97</v>
@@ -11727,7 +11746,7 @@
     </row>
     <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B834" s="4">
         <v>97</v>
@@ -11736,7 +11755,7 @@
     </row>
     <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B835" s="8">
         <v>98</v>
@@ -11745,7 +11764,7 @@
     </row>
     <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B836" s="4">
         <v>98</v>
@@ -11754,7 +11773,7 @@
     </row>
     <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B837" s="4">
         <v>98</v>
@@ -11763,7 +11782,7 @@
     </row>
     <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B838" s="4">
         <v>98</v>
@@ -11772,7 +11791,7 @@
     </row>
     <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B839" s="4">
         <v>98</v>
@@ -11781,7 +11800,7 @@
     </row>
     <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B840" s="4">
         <v>98</v>
@@ -11790,7 +11809,7 @@
     </row>
     <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B841" s="4">
         <v>98</v>
@@ -11799,7 +11818,7 @@
     </row>
     <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B842" s="4">
         <v>98</v>
@@ -11808,7 +11827,7 @@
     </row>
     <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B843" s="4">
         <v>98</v>
@@ -11819,7 +11838,7 @@
     </row>
     <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B844" s="4">
         <v>98</v>
@@ -11828,7 +11847,7 @@
     </row>
     <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B845" s="4">
         <v>98</v>
@@ -11837,7 +11856,7 @@
     </row>
     <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B846" s="8">
         <v>99</v>
@@ -11846,7 +11865,7 @@
     </row>
     <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B847" s="4">
         <v>99</v>
@@ -11855,7 +11874,7 @@
     </row>
     <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B848" s="4">
         <v>99</v>
@@ -11864,7 +11883,7 @@
     </row>
     <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B849" s="4">
         <v>99</v>
@@ -11873,7 +11892,7 @@
     </row>
     <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B850" s="4">
         <v>99</v>
@@ -11882,7 +11901,7 @@
     </row>
     <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B851" s="4">
         <v>99</v>
@@ -11891,7 +11910,7 @@
     </row>
     <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B852" s="4">
         <v>99</v>
@@ -11900,7 +11919,7 @@
     </row>
     <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B853" s="4">
         <v>99</v>
@@ -11909,7 +11928,7 @@
     </row>
     <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B854" s="4">
         <v>99</v>
@@ -11918,7 +11937,7 @@
     </row>
     <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B855" s="8">
         <v>100</v>
@@ -11927,7 +11946,7 @@
     </row>
     <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B856" s="4">
         <v>100</v>
@@ -11936,7 +11955,7 @@
     </row>
     <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B857" s="4">
         <v>100</v>
@@ -11945,7 +11964,7 @@
     </row>
     <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B858" s="4">
         <v>100</v>
@@ -11954,7 +11973,7 @@
     </row>
     <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B859" s="4">
         <v>100</v>
@@ -11963,7 +11982,7 @@
     </row>
     <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B860" s="4">
         <v>100</v>
@@ -11972,7 +11991,7 @@
     </row>
     <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B861" s="4">
         <v>100</v>
@@ -11981,7 +12000,7 @@
     </row>
     <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B862" s="4">
         <v>100</v>
@@ -11990,7 +12009,7 @@
     </row>
     <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B863" s="8">
         <v>101</v>
@@ -11999,7 +12018,7 @@
     </row>
     <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B864" s="4">
         <v>101</v>
@@ -12008,7 +12027,7 @@
     </row>
     <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B865" s="4">
         <v>101</v>
@@ -12017,7 +12036,7 @@
     </row>
     <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B866" s="4">
         <v>101</v>
@@ -12026,7 +12045,7 @@
     </row>
     <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B867" s="4">
         <v>101</v>
@@ -12035,7 +12054,7 @@
     </row>
     <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B868" s="4">
         <v>101</v>
@@ -12044,7 +12063,7 @@
     </row>
     <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B869" s="4">
         <v>101</v>
@@ -12053,7 +12072,7 @@
     </row>
     <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B870" s="4">
         <v>101</v>
@@ -12065,7 +12084,7 @@
     </row>
     <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B871" s="4">
         <v>101</v>
@@ -12074,7 +12093,7 @@
     </row>
     <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B872" s="4">
         <v>101</v>
@@ -12083,7 +12102,7 @@
     </row>
     <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B873" s="4">
         <v>101</v>
@@ -12092,7 +12111,7 @@
     </row>
     <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B874" s="8">
         <v>102</v>
@@ -12101,7 +12120,7 @@
     </row>
     <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B875" s="4">
         <v>102</v>
@@ -12110,7 +12129,7 @@
     </row>
     <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B876" s="4">
         <v>102</v>
@@ -12119,7 +12138,7 @@
     </row>
     <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B877" s="4">
         <v>102</v>
@@ -12128,18 +12147,18 @@
     </row>
     <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B878" s="4">
         <v>102</v>
       </c>
       <c r="C878" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B879" s="4">
         <v>102</v>
@@ -12148,7 +12167,7 @@
     </row>
     <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B880" s="4">
         <v>102</v>
@@ -12157,7 +12176,7 @@
     </row>
     <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B881" s="4">
         <v>102</v>
@@ -12166,7 +12185,7 @@
     </row>
     <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B882" s="4">
         <v>102</v>
@@ -12175,18 +12194,18 @@
     </row>
     <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B883" s="8">
         <v>103</v>
       </c>
       <c r="C883" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B884" s="4">
         <v>103</v>
@@ -12195,7 +12214,7 @@
     </row>
     <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B885" s="4">
         <v>103</v>
@@ -12204,7 +12223,7 @@
     </row>
     <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B886" s="4">
         <v>103</v>
@@ -12213,7 +12232,7 @@
     </row>
     <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B887" s="4">
         <v>103</v>
@@ -12224,7 +12243,7 @@
     </row>
     <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B888" s="4">
         <v>103</v>
@@ -12233,7 +12252,7 @@
     </row>
     <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B889" s="4">
         <v>103</v>
@@ -12242,7 +12261,7 @@
     </row>
     <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B890" s="4">
         <v>103</v>
@@ -12251,7 +12270,7 @@
     </row>
     <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B891" s="4">
         <v>103</v>
@@ -12260,7 +12279,7 @@
     </row>
     <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B892" s="8">
         <v>104</v>
@@ -12269,7 +12288,7 @@
     </row>
     <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B893" s="4">
         <v>104</v>
@@ -12278,7 +12297,7 @@
     </row>
     <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B894" s="4">
         <v>104</v>
@@ -12287,7 +12306,7 @@
     </row>
     <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B895" s="4">
         <v>104</v>
@@ -12296,7 +12315,7 @@
     </row>
     <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B896" s="4">
         <v>104</v>
@@ -12305,7 +12324,7 @@
     </row>
     <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B897" s="4">
         <v>104</v>
@@ -12314,18 +12333,18 @@
     </row>
     <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B898" s="4">
         <v>104</v>
       </c>
       <c r="C898" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B899" s="4">
         <v>104</v>
@@ -12334,7 +12353,7 @@
     </row>
     <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B900" s="8">
         <v>105</v>
@@ -12343,7 +12362,7 @@
     </row>
     <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B901" s="4">
         <v>105</v>
@@ -12352,7 +12371,7 @@
     </row>
     <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B902" s="4">
         <v>105</v>
@@ -12361,7 +12380,7 @@
     </row>
     <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B903" s="4">
         <v>105</v>
@@ -12370,18 +12389,18 @@
     </row>
     <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B904" s="4">
         <v>105</v>
       </c>
       <c r="C904" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B905" s="4">
         <v>105</v>
@@ -12390,7 +12409,7 @@
     </row>
     <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B906" s="4">
         <v>105</v>
@@ -12399,7 +12418,7 @@
     </row>
     <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B907" s="4">
         <v>105</v>
@@ -12408,7 +12427,7 @@
     </row>
     <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B908" s="8">
         <v>106</v>
@@ -12417,7 +12436,7 @@
     </row>
     <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B909" s="4">
         <v>106</v>
@@ -12426,7 +12445,7 @@
     </row>
     <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B910" s="4">
         <v>106</v>
@@ -12435,7 +12454,7 @@
     </row>
     <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B911" s="4">
         <v>106</v>
@@ -12444,7 +12463,7 @@
     </row>
     <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B912" s="4">
         <v>106</v>
@@ -12453,7 +12472,7 @@
     </row>
     <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B913" s="4">
         <v>106</v>
@@ -12462,7 +12481,7 @@
     </row>
     <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B914" s="4">
         <v>106</v>
@@ -12471,7 +12490,7 @@
     </row>
     <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B915" s="4">
         <v>106</v>
@@ -12480,7 +12499,7 @@
     </row>
     <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B916" s="8">
         <v>107</v>
@@ -12489,7 +12508,7 @@
     </row>
     <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B917" s="4">
         <v>107</v>
@@ -12498,7 +12517,7 @@
     </row>
     <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B918" s="4">
         <v>107</v>
@@ -12507,7 +12526,7 @@
     </row>
     <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B919" s="4">
         <v>107</v>
@@ -12516,7 +12535,7 @@
     </row>
     <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B920" s="4">
         <v>107</v>
@@ -12525,7 +12544,7 @@
     </row>
     <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B921" s="4">
         <v>107</v>
@@ -12534,7 +12553,7 @@
     </row>
     <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B922" s="4">
         <v>107</v>
@@ -12543,7 +12562,7 @@
     </row>
     <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B923" s="4">
         <v>107</v>
@@ -12552,7 +12571,7 @@
     </row>
     <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B924" s="8">
         <v>108</v>
@@ -12561,7 +12580,7 @@
     </row>
     <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B925" s="4">
         <v>108</v>
@@ -12570,7 +12589,7 @@
     </row>
     <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B926" s="4">
         <v>108</v>
@@ -12579,7 +12598,7 @@
     </row>
     <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B927" s="4">
         <v>108</v>
@@ -12588,7 +12607,7 @@
     </row>
     <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B928" s="4">
         <v>108</v>
@@ -12597,7 +12616,7 @@
     </row>
     <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B929" s="4">
         <v>108</v>
@@ -12606,7 +12625,7 @@
     </row>
     <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B930" s="4">
         <v>108</v>
@@ -12615,7 +12634,7 @@
     </row>
     <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B931" s="4">
         <v>108</v>
@@ -12624,7 +12643,7 @@
     </row>
     <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B932" s="4">
         <v>108</v>
@@ -12633,18 +12652,18 @@
     </row>
     <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B933" s="8">
         <v>109</v>
       </c>
       <c r="C933" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B934" s="4">
         <v>109</v>
@@ -12653,7 +12672,7 @@
     </row>
     <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B935" s="4">
         <v>109</v>
@@ -12662,7 +12681,7 @@
     </row>
     <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B936" s="4">
         <v>109</v>
@@ -12671,7 +12690,7 @@
     </row>
     <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B937" s="4">
         <v>109</v>
@@ -12680,18 +12699,18 @@
     </row>
     <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B938" s="4">
         <v>109</v>
       </c>
       <c r="C938" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B939" s="4">
         <v>109</v>
@@ -12700,7 +12719,7 @@
     </row>
     <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B940" s="4">
         <v>109</v>
@@ -12711,7 +12730,7 @@
     </row>
     <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B941" s="4">
         <v>109</v>
@@ -12720,7 +12739,7 @@
     </row>
     <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B942" s="4">
         <v>109</v>
@@ -12729,7 +12748,7 @@
     </row>
     <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B943" s="4">
         <v>109</v>
@@ -12738,7 +12757,7 @@
     </row>
     <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B944" s="8">
         <v>110</v>
@@ -12747,7 +12766,7 @@
     </row>
     <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B945" s="4">
         <v>110</v>
@@ -12756,7 +12775,7 @@
     </row>
     <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B946" s="4">
         <v>110</v>
@@ -12765,7 +12784,7 @@
     </row>
     <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B947" s="4">
         <v>110</v>
@@ -12774,7 +12793,7 @@
     </row>
     <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B948" s="4">
         <v>110</v>
@@ -12783,7 +12802,7 @@
     </row>
     <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B949" s="4">
         <v>110</v>
@@ -12792,7 +12811,7 @@
     </row>
     <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B950" s="4">
         <v>110</v>
@@ -12801,7 +12820,7 @@
     </row>
     <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B951" s="4">
         <v>110</v>
@@ -12810,7 +12829,7 @@
     </row>
     <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B952" s="8">
         <v>111</v>
@@ -12819,7 +12838,7 @@
     </row>
     <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B953" s="4">
         <v>111</v>
@@ -12828,7 +12847,7 @@
     </row>
     <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B954" s="4">
         <v>111</v>
@@ -12837,18 +12856,18 @@
     </row>
     <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B955" s="4">
         <v>111</v>
       </c>
       <c r="C955" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B956" s="4">
         <v>111</v>
@@ -12857,7 +12876,7 @@
     </row>
     <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B957" s="4">
         <v>111</v>
@@ -12866,7 +12885,7 @@
     </row>
     <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B958" s="4">
         <v>111</v>
@@ -12875,7 +12894,7 @@
     </row>
     <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B959" s="4">
         <v>111</v>
@@ -12884,7 +12903,7 @@
     </row>
     <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B960" s="8">
         <v>112</v>
@@ -12893,7 +12912,7 @@
     </row>
     <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B961" s="4">
         <v>112</v>
@@ -12902,7 +12921,7 @@
     </row>
     <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B962" s="4">
         <v>112</v>
@@ -12911,7 +12930,7 @@
     </row>
     <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B963" s="4">
         <v>112</v>
@@ -12920,7 +12939,7 @@
     </row>
     <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B964" s="4">
         <v>112</v>
@@ -12929,7 +12948,7 @@
     </row>
     <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B965" s="4">
         <v>112</v>
@@ -12938,7 +12957,7 @@
     </row>
     <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B966" s="4">
         <v>112</v>
@@ -12947,7 +12966,7 @@
     </row>
     <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B967" s="4">
         <v>112</v>
@@ -12956,7 +12975,7 @@
     </row>
     <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B968" s="4">
         <v>112</v>
@@ -12965,7 +12984,7 @@
     </row>
     <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B969" s="8">
         <v>113</v>
@@ -12974,7 +12993,7 @@
     </row>
     <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B970" s="4">
         <v>113</v>
@@ -12983,7 +13002,7 @@
     </row>
     <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B971" s="4">
         <v>113</v>
@@ -12992,7 +13011,7 @@
     </row>
     <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B972" s="4">
         <v>113</v>
@@ -13001,7 +13020,7 @@
     </row>
     <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B973" s="4">
         <v>113</v>
@@ -13010,7 +13029,7 @@
     </row>
     <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B974" s="4">
         <v>113</v>
@@ -13019,7 +13038,7 @@
     </row>
     <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B975" s="4">
         <v>113</v>
@@ -13028,7 +13047,7 @@
     </row>
     <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B976" s="4">
         <v>113</v>
@@ -13037,7 +13056,7 @@
     </row>
     <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B977" s="8">
         <v>114</v>
@@ -13046,7 +13065,7 @@
     </row>
     <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B978" s="4">
         <v>114</v>
@@ -13055,7 +13074,7 @@
     </row>
     <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B979" s="4">
         <v>114</v>
@@ -13064,7 +13083,7 @@
     </row>
     <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B980" s="4">
         <v>114</v>
@@ -13073,7 +13092,7 @@
     </row>
     <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B981" s="4">
         <v>114</v>
@@ -13082,7 +13101,7 @@
     </row>
     <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B982" s="4">
         <v>114</v>
@@ -13091,7 +13110,7 @@
     </row>
     <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B983" s="4">
         <v>114</v>
@@ -13100,7 +13119,7 @@
     </row>
     <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B984" s="4">
         <v>114</v>
@@ -13109,7 +13128,7 @@
     </row>
     <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B985" s="4">
         <v>114</v>
@@ -13118,7 +13137,7 @@
     </row>
     <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B986" s="8">
         <v>115</v>
@@ -13127,7 +13146,7 @@
     </row>
     <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B987" s="4">
         <v>115</v>
@@ -13136,7 +13155,7 @@
     </row>
     <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B988" s="4">
         <v>115</v>
@@ -13145,7 +13164,7 @@
     </row>
     <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B989" s="4">
         <v>115</v>
@@ -13154,7 +13173,7 @@
     </row>
     <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B990" s="4">
         <v>115</v>
@@ -13163,7 +13182,7 @@
     </row>
     <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B991" s="4">
         <v>115</v>
@@ -13172,7 +13191,7 @@
     </row>
     <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B992" s="4">
         <v>115</v>
@@ -13181,7 +13200,7 @@
     </row>
     <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B993" s="4">
         <v>115</v>
@@ -13192,7 +13211,7 @@
     </row>
     <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B994" s="4">
         <v>115</v>
@@ -13201,18 +13220,18 @@
     </row>
     <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B995" s="8">
         <v>116</v>
       </c>
       <c r="C995" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B996" s="4">
         <v>116</v>
@@ -13221,7 +13240,7 @@
     </row>
     <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B997" s="4">
         <v>116</v>
@@ -13230,7 +13249,7 @@
     </row>
     <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B998" s="4">
         <v>116</v>
@@ -13239,7 +13258,7 @@
     </row>
     <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B999" s="4">
         <v>116</v>
@@ -13250,7 +13269,7 @@
     </row>
     <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1000" s="4">
         <v>116</v>
@@ -13259,12 +13278,12 @@
     </row>
     <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B1001" s="12">
         <v>116</v>
       </c>
-      <c r="C1001" s="17"/>
+      <c r="C1001" s="34"/>
     </row>
     <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13472E-A527-4DE8-8D0F-BEC99E43A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04361182-A380-4DA8-86FE-5A7267B7EE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1001</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjW+pff7qvu8zflHZvuBbBzY7yzFA=="/>
@@ -3487,11 +3487,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3745,21 +3745,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A986" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1001" sqref="F1001"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="26" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="26" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3783,10 +3783,10 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E2)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3829,10 +3829,10 @@
       </c>
       <c r="F5" s="26">
         <f ca="1">SUM(F2:F4)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3845,10 +3845,10 @@
       </c>
       <c r="F6" s="28">
         <f ca="1">1000-F5</f>
-        <v>878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3876,14 +3876,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>MATRIX</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>AMANECER</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>999</v>
       </c>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>998</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>83</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>86</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>89</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>90</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>92</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>94</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>96</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>97</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>98</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>100</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>101</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>102</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>104</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>106</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>107</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>108</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>109</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>110</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>111</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>112</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>113</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>114</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>116</v>
       </c>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>118</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>119</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>120</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>121</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>122</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>123</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>124</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>125</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>126</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C124" s="17"/>
     </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>127</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>128</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>129</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>130</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>131</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>132</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>133</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>134</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>135</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>136</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>138</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>139</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>140</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>142</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>143</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>145</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>146</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>147</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>148</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>149</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>150</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>151</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>152</v>
       </c>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>153</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>154</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>155</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1001</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>156</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>157</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>158</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>160</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C159" s="17"/>
     </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>161</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>162</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>169</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>1002</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>172</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>173</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>174</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>175</v>
       </c>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>176</v>
       </c>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>178</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>179</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>180</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>181</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>182</v>
       </c>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C182" s="17"/>
     </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>183</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>184</v>
       </c>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C184" s="17"/>
     </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>185</v>
       </c>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="C185" s="17"/>
     </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>186</v>
       </c>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C186" s="17"/>
     </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>187</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C187" s="17"/>
     </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>188</v>
       </c>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="C188" s="17"/>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>189</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>190</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>191</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>192</v>
       </c>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C192" s="17"/>
     </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>193</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>195</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="C195" s="17"/>
     </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>196</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C197" s="17"/>
     </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>198</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>199</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="C199" s="17"/>
     </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>200</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="C200" s="17"/>
     </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>201</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="C201" s="17"/>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>202</v>
       </c>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C202" s="17"/>
     </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>203</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>206</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="C206" s="17"/>
     </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>207</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>209</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>210</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C210" s="17"/>
     </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="C212" s="17"/>
     </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C213" s="17"/>
     </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="C214" s="17"/>
     </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>215</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>216</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>217</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>218</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="C219" s="17"/>
     </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>220</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="C220" s="17"/>
     </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C221" s="17"/>
     </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>222</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="C222" s="17"/>
     </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>223</v>
       </c>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C223" s="17"/>
     </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>224</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>225</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C225" s="17"/>
     </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>226</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C226" s="17"/>
     </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>227</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>228</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="C228" s="17"/>
     </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>229</v>
       </c>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C229" s="17"/>
     </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>230</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C230" s="17"/>
     </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>231</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="C231" s="17"/>
     </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>232</v>
       </c>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C232" s="17"/>
     </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>233</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>234</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>235</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C235" s="17"/>
     </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>236</v>
       </c>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C236" s="17"/>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C237" s="17"/>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>238</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C238" s="17"/>
     </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>239</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C239" s="17"/>
     </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>1003</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C240" s="17"/>
     </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C241" s="17"/>
     </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>241</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C243" s="17"/>
     </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C244" s="17"/>
     </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C245" s="17"/>
     </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="C246" s="17"/>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>248</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C250" s="17"/>
     </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C252" s="17"/>
     </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C253" s="17"/>
     </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="C254" s="17"/>
     </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="C255" s="17"/>
     </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C256" s="17"/>
     </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C257" s="17"/>
     </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="C258" s="17"/>
     </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C259" s="17"/>
     </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>1004</v>
       </c>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="C261" s="17"/>
     </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>260</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C262" s="17"/>
     </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>261</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>262</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>263</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>264</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>265</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>1005</v>
       </c>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>266</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>267</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>268</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>269</v>
       </c>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>270</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>271</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>272</v>
       </c>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>273</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>274</v>
       </c>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>1006</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>275</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>276</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>277</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
         <v>278</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>279</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>280</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>281</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>282</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>283</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C287" s="17"/>
     </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>284</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="C288" s="17"/>
     </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>285</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C289" s="17"/>
     </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>286</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="C290" s="17"/>
     </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>287</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="C291" s="17"/>
     </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>288</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>289</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>290</v>
       </c>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C294" s="17"/>
     </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>291</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C295" s="17"/>
     </row>
-    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>292</v>
       </c>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="C296" s="17"/>
     </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>293</v>
       </c>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="C297" s="17"/>
     </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>294</v>
       </c>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C298" s="17"/>
     </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>295</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>296</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="C300" s="17"/>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>297</v>
       </c>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C301" s="17"/>
     </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>298</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>299</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="C303" s="17"/>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
         <v>300</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>301</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
         <v>302</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>303</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>304</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C308" s="17"/>
     </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>305</v>
       </c>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C309" s="17"/>
     </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>306</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
         <v>307</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>308</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>309</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C313" s="17"/>
     </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>310</v>
       </c>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="C314" s="17"/>
     </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>311</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>312</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>313</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>314</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>315</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
         <v>316</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="29" t="s">
         <v>317</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>318</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C322" s="17"/>
     </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>319</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C323" s="17"/>
     </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="29" t="s">
         <v>320</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>321</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>322</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>323</v>
       </c>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C327" s="17"/>
     </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>324</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="C328" s="17"/>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>325</v>
       </c>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C329" s="17"/>
     </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>326</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>327</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>328</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>329</v>
       </c>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="C333" s="17"/>
     </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>330</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="C334" s="17"/>
     </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>331</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>332</v>
       </c>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C336" s="17"/>
     </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>333</v>
       </c>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="C337" s="17"/>
     </row>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>334</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>335</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
         <v>336</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>337</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="C341" s="17"/>
     </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>338</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="C342" s="17"/>
     </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>339</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>340</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>341</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C345" s="17"/>
     </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>342</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C346" s="17"/>
     </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>343</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="C347" s="17"/>
     </row>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>344</v>
       </c>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="C348" s="17"/>
     </row>
-    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>345</v>
       </c>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C349" s="17"/>
     </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>346</v>
       </c>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="C350" s="17"/>
     </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>347</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="C351" s="17"/>
     </row>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>348</v>
       </c>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C352" s="17"/>
     </row>
-    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>349</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>350</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C354" s="17"/>
     </row>
-    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>351</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="C355" s="17"/>
     </row>
-    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>352</v>
       </c>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C356" s="17"/>
     </row>
-    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>353</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>354</v>
       </c>
@@ -7331,8 +7331,8 @@
       </c>
       <c r="C358" s="17"/>
     </row>
-    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="5" t="s">
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="29" t="s">
         <v>355</v>
       </c>
       <c r="B359" s="4">
@@ -7342,7 +7342,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>356</v>
       </c>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="C360" s="17"/>
     </row>
-    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>357</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="C361" s="17"/>
     </row>
-    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>358</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>359</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>360</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>361</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>362</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>1007</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C367" s="17"/>
     </row>
-    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>363</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>364</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C369" s="17"/>
     </row>
-    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>365</v>
       </c>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C370" s="17"/>
     </row>
-    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>366</v>
       </c>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C371" s="17"/>
     </row>
-    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>367</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>368</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>369</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>370</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>371</v>
       </c>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C376" s="17"/>
     </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>372</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>373</v>
       </c>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C378" s="17"/>
     </row>
-    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>374</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C379" s="17"/>
     </row>
-    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>375</v>
       </c>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="C380" s="17"/>
     </row>
-    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>376</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C381" s="17"/>
     </row>
-    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>377</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>378</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C383" s="17"/>
     </row>
-    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>379</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
         <v>380</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="C385" s="17"/>
     </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>381</v>
       </c>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="C386" s="17"/>
     </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>382</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>383</v>
       </c>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="C388" s="17"/>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>384</v>
       </c>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="C389" s="17"/>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>385</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>386</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>387</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>388</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>389</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="C394" s="17"/>
     </row>
-    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>390</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>391</v>
       </c>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C396" s="17"/>
     </row>
-    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>392</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>393</v>
       </c>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C398" s="17"/>
     </row>
-    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>394</v>
       </c>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="C399" s="17"/>
     </row>
-    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>395</v>
       </c>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C400" s="17"/>
     </row>
-    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>396</v>
       </c>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C401" s="17"/>
     </row>
-    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>397</v>
       </c>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="C402" s="17"/>
     </row>
-    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>398</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C403" s="17"/>
     </row>
-    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
         <v>399</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
         <v>400</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
         <v>401</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="C406" s="17"/>
     </row>
-    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>402</v>
       </c>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C407" s="17"/>
     </row>
-    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>403</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
         <v>404</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>405</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>406</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="C411" s="17"/>
     </row>
-    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>407</v>
       </c>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C412" s="17"/>
     </row>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>408</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="C413" s="17"/>
     </row>
-    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>409</v>
       </c>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C414" s="17"/>
     </row>
-    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>410</v>
       </c>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="C415" s="17"/>
     </row>
-    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>411</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="C416" s="17"/>
     </row>
-    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>412</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
         <v>413</v>
       </c>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C418" s="17"/>
     </row>
-    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>414</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="C419" s="17"/>
     </row>
-    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>415</v>
       </c>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C420" s="17"/>
     </row>
-    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
         <v>416</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="C421" s="17"/>
     </row>
-    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>417</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C422" s="17"/>
     </row>
-    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>418</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="C423" s="17"/>
     </row>
-    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>419</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>420</v>
       </c>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="C425" s="17"/>
     </row>
-    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>421</v>
       </c>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="C426" s="17"/>
     </row>
-    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
         <v>422</v>
       </c>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C427" s="17"/>
     </row>
-    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>423</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="C428" s="17"/>
     </row>
-    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>424</v>
       </c>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="C429" s="17"/>
     </row>
-    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>425</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>426</v>
       </c>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C431" s="17"/>
     </row>
-    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>427</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C432" s="17"/>
     </row>
-    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>428</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="C433" s="17"/>
     </row>
-    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>429</v>
       </c>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="C434" s="17"/>
     </row>
-    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>430</v>
       </c>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="C435" s="17"/>
     </row>
-    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
         <v>431</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>432</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C437" s="17"/>
     </row>
-    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>433</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C438" s="17"/>
     </row>
-    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>434</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C439" s="17"/>
     </row>
-    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>435</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="C440" s="17"/>
     </row>
-    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>436</v>
       </c>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="C441" s="17"/>
     </row>
-    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
         <v>437</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C442" s="17"/>
     </row>
-    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>438</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C443" s="17"/>
     </row>
-    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>439</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C444" s="17"/>
     </row>
-    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
         <v>440</v>
       </c>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C445" s="17"/>
     </row>
-    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>441</v>
       </c>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="C446" s="17"/>
     </row>
-    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>442</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="C447" s="17"/>
     </row>
-    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
         <v>443</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="C448" s="17"/>
     </row>
-    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>444</v>
       </c>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="C449" s="17"/>
     </row>
-    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>445</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="C450" s="17"/>
     </row>
-    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
         <v>446</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C451" s="17"/>
     </row>
-    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>447</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C452" s="17"/>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>448</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C453" s="17"/>
     </row>
-    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>449</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C454" s="17"/>
     </row>
-    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>450</v>
       </c>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C455" s="17"/>
     </row>
-    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
         <v>451</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C456" s="17"/>
     </row>
-    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="14" t="s">
         <v>452</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>453</v>
       </c>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="C458" s="17"/>
     </row>
-    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>454</v>
       </c>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="C459" s="17"/>
     </row>
-    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>455</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C460" s="17"/>
     </row>
-    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
         <v>456</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C461" s="17"/>
     </row>
-    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>457</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C462" s="17"/>
     </row>
-    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="7" t="s">
         <v>458</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>459</v>
       </c>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="C464" s="17"/>
     </row>
-    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>460</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C465" s="17"/>
     </row>
-    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>461</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>462</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="C467" s="17"/>
     </row>
-    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="30" t="s">
         <v>463</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>464</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C469" s="17"/>
     </row>
-    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>465</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="C470" s="17"/>
     </row>
-    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>466</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C471" s="17"/>
     </row>
-    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>467</v>
       </c>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="C472" s="17"/>
     </row>
-    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>468</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="C473" s="17"/>
     </row>
-    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="7" t="s">
         <v>469</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>470</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="C475" s="17"/>
     </row>
-    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
         <v>471</v>
       </c>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="C476" s="17"/>
     </row>
-    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>472</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="C477" s="17"/>
     </row>
-    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>473</v>
       </c>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="C478" s="17"/>
     </row>
-    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>474</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="C479" s="17"/>
     </row>
-    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>475</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C480" s="17"/>
     </row>
-    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>476</v>
       </c>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C481" s="17"/>
     </row>
-    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>477</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="C482" s="17"/>
     </row>
-    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>478</v>
       </c>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C483" s="17"/>
     </row>
-    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>479</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C484" s="17"/>
     </row>
-    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>480</v>
       </c>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="C485" s="17"/>
     </row>
-    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
         <v>481</v>
       </c>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="C486" s="17"/>
     </row>
-    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>482</v>
       </c>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C487" s="17"/>
     </row>
-    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="7" t="s">
         <v>483</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
         <v>484</v>
       </c>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="C489" s="17"/>
     </row>
-    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>485</v>
       </c>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="C490" s="17"/>
     </row>
-    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
         <v>486</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="C491" s="17"/>
     </row>
-    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
         <v>487</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="C492" s="17"/>
     </row>
-    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="7" t="s">
         <v>488</v>
       </c>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C493" s="17"/>
     </row>
-    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
         <v>489</v>
       </c>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C494" s="17"/>
     </row>
-    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>490</v>
       </c>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="C495" s="17"/>
     </row>
-    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
         <v>491</v>
       </c>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="C496" s="17"/>
     </row>
-    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
         <v>492</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="C497" s="17"/>
     </row>
-    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
         <v>493</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="C498" s="17"/>
     </row>
-    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5" t="s">
         <v>494</v>
       </c>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="C499" s="17"/>
     </row>
-    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
         <v>495</v>
       </c>
@@ -8681,8 +8681,8 @@
       </c>
       <c r="C500" s="17"/>
     </row>
-    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="33" t="s">
+    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="32" t="s">
         <v>1008</v>
       </c>
       <c r="B501" s="4">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C501" s="17"/>
     </row>
-    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
         <v>496</v>
       </c>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="C502" s="17"/>
     </row>
-    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
         <v>497</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C503" s="17"/>
     </row>
-    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
         <v>498</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="C504" s="17"/>
     </row>
-    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5" t="s">
         <v>499</v>
       </c>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="C505" s="17"/>
     </row>
-    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5" t="s">
         <v>500</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="C506" s="17"/>
     </row>
-    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5" t="s">
         <v>501</v>
       </c>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C507" s="17"/>
     </row>
-    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5" t="s">
         <v>502</v>
       </c>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C508" s="17"/>
     </row>
-    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="7" t="s">
         <v>503</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5" t="s">
         <v>504</v>
       </c>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C510" s="17"/>
     </row>
-    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5" t="s">
         <v>505</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5" t="s">
         <v>506</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C512" s="17"/>
     </row>
-    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5" t="s">
         <v>507</v>
       </c>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="C513" s="17"/>
     </row>
-    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5" t="s">
         <v>508</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="C514" s="17"/>
     </row>
-    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="7" t="s">
         <v>509</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="C515" s="17"/>
     </row>
-    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5" t="s">
         <v>510</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="C516" s="17"/>
     </row>
-    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5" t="s">
         <v>511</v>
       </c>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="C517" s="17"/>
     </row>
-    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="7" t="s">
         <v>512</v>
       </c>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="C518" s="17"/>
     </row>
-    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5" t="s">
         <v>513</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C519" s="17"/>
     </row>
-    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5" t="s">
         <v>514</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="C520" s="17"/>
     </row>
-    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5" t="s">
         <v>515</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="C521" s="17"/>
     </row>
-    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5" t="s">
         <v>516</v>
       </c>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C522" s="17"/>
     </row>
-    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5" t="s">
         <v>517</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="C523" s="17"/>
     </row>
-    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5" t="s">
         <v>518</v>
       </c>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C524" s="17"/>
     </row>
-    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5" t="s">
         <v>519</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C525" s="17"/>
     </row>
-    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5" t="s">
         <v>520</v>
       </c>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C526" s="17"/>
     </row>
-    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5" t="s">
         <v>521</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C527" s="17"/>
     </row>
-    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5" t="s">
         <v>522</v>
       </c>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="C528" s="17"/>
     </row>
-    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5" t="s">
         <v>523</v>
       </c>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="C529" s="17"/>
     </row>
-    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="14" t="s">
         <v>524</v>
       </c>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="C530" s="17"/>
     </row>
-    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="14" t="s">
         <v>525</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5" t="s">
         <v>526</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="C532" s="17"/>
     </row>
-    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5" t="s">
         <v>527</v>
       </c>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C533" s="17"/>
     </row>
-    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="6" t="s">
         <v>528</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5" t="s">
         <v>529</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C535" s="17"/>
     </row>
-    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="7" t="s">
         <v>530</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5" t="s">
         <v>531</v>
       </c>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="C537" s="17"/>
     </row>
-    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5" t="s">
         <v>532</v>
       </c>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="C538" s="17"/>
     </row>
-    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5" t="s">
         <v>533</v>
       </c>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C539" s="17"/>
     </row>
-    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5" t="s">
         <v>534</v>
       </c>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C540" s="17"/>
     </row>
-    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5" t="s">
         <v>535</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C541" s="17"/>
     </row>
-    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5" t="s">
         <v>536</v>
       </c>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C542" s="17"/>
     </row>
-    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5" t="s">
         <v>537</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C543" s="17"/>
     </row>
-    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5" t="s">
         <v>538</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="C544" s="17"/>
     </row>
-    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5" t="s">
         <v>539</v>
       </c>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C545" s="17"/>
     </row>
-    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="7" t="s">
         <v>540</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5" t="s">
         <v>541</v>
       </c>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="C547" s="17"/>
     </row>
-    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5" t="s">
         <v>542</v>
       </c>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C548" s="17"/>
     </row>
-    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5" t="s">
         <v>543</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="C549" s="17"/>
     </row>
-    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5" t="s">
         <v>544</v>
       </c>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="C550" s="17"/>
     </row>
-    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5" t="s">
         <v>545</v>
       </c>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C551" s="17"/>
     </row>
-    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5" t="s">
         <v>546</v>
       </c>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="C552" s="17"/>
     </row>
-    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5" t="s">
         <v>547</v>
       </c>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="C553" s="17"/>
     </row>
-    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="7" t="s">
         <v>548</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5" t="s">
         <v>549</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C555" s="17"/>
     </row>
-    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="7" t="s">
         <v>550</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5" t="s">
         <v>551</v>
       </c>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5" t="s">
         <v>552</v>
       </c>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5" t="s">
         <v>553</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C559" s="17"/>
     </row>
-    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5" t="s">
         <v>554</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="C560" s="17"/>
     </row>
-    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5" t="s">
         <v>555</v>
       </c>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="C561" s="17"/>
     </row>
-    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5" t="s">
         <v>556</v>
       </c>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5" t="s">
         <v>557</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C563" s="17"/>
     </row>
-    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5" t="s">
         <v>558</v>
       </c>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="C564" s="17"/>
     </row>
-    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5" t="s">
         <v>559</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="C565" s="17"/>
     </row>
-    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5" t="s">
         <v>560</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5" t="s">
         <v>561</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="C567" s="17"/>
     </row>
-    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5" t="s">
         <v>562</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C568" s="17"/>
     </row>
-    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5" t="s">
         <v>563</v>
       </c>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="C569" s="17"/>
     </row>
-    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5" t="s">
         <v>564</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C570" s="17"/>
     </row>
-    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5" t="s">
         <v>565</v>
       </c>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="C571" s="17"/>
     </row>
-    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5" t="s">
         <v>566</v>
       </c>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="C572" s="17"/>
     </row>
-    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
         <v>567</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C573" s="17"/>
     </row>
-    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5" t="s">
         <v>568</v>
       </c>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="C574" s="17"/>
     </row>
-    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5" t="s">
         <v>569</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="C575" s="17"/>
     </row>
-    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5" t="s">
         <v>570</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C576" s="17"/>
     </row>
-    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5" t="s">
         <v>571</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="C577" s="17"/>
     </row>
-    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5" t="s">
         <v>572</v>
       </c>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C578" s="17"/>
     </row>
-    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5" t="s">
         <v>573</v>
       </c>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="C579" s="17"/>
     </row>
-    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5" t="s">
         <v>574</v>
       </c>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C580" s="17"/>
     </row>
-    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5" t="s">
         <v>575</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="C581" s="17"/>
     </row>
-    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5" t="s">
         <v>576</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="C582" s="17"/>
     </row>
-    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5" t="s">
         <v>577</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C583" s="17"/>
     </row>
-    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="7" t="s">
         <v>578</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C584" s="17"/>
     </row>
-    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5" t="s">
         <v>579</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="C585" s="17"/>
     </row>
-    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5" t="s">
         <v>580</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="C586" s="17"/>
     </row>
-    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5" t="s">
         <v>581</v>
       </c>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C587" s="17"/>
     </row>
-    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="7" t="s">
         <v>582</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5" t="s">
         <v>583</v>
       </c>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="C589" s="17"/>
     </row>
-    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5" t="s">
         <v>584</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="C590" s="17"/>
     </row>
-    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5" t="s">
         <v>585</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="C591" s="17"/>
     </row>
-    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="7" t="s">
         <v>586</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5" t="s">
         <v>587</v>
       </c>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="C593" s="17"/>
     </row>
-    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="5" t="s">
         <v>588</v>
       </c>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="C594" s="17"/>
     </row>
-    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>589</v>
       </c>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C595" s="17"/>
     </row>
-    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>590</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C596" s="17"/>
     </row>
-    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>591</v>
       </c>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="C597" s="17"/>
     </row>
-    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5" t="s">
         <v>592</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="C598" s="17"/>
     </row>
-    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="6" t="s">
         <v>593</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5" t="s">
         <v>594</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="C600" s="17"/>
     </row>
-    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5" t="s">
         <v>595</v>
       </c>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="C601" s="17"/>
     </row>
-    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="7" t="s">
         <v>596</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5" t="s">
         <v>597</v>
       </c>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="C603" s="17"/>
     </row>
-    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5" t="s">
         <v>598</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C604" s="17"/>
     </row>
-    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="7" t="s">
         <v>599</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="5" t="s">
         <v>600</v>
       </c>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C606" s="17"/>
     </row>
-    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5" t="s">
         <v>601</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="C607" s="17"/>
     </row>
-    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="7" t="s">
         <v>602</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="5" t="s">
         <v>603</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="C609" s="17"/>
     </row>
-    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="5" t="s">
         <v>604</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C610" s="17"/>
     </row>
-    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5" t="s">
         <v>605</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C611" s="17"/>
     </row>
-    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="5" t="s">
         <v>606</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="C612" s="17"/>
     </row>
-    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>607</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="C613" s="17"/>
     </row>
-    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>608</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C614" s="17"/>
     </row>
-    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
         <v>609</v>
       </c>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C615" s="17"/>
     </row>
-    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5" t="s">
         <v>610</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="C616" s="17"/>
     </row>
-    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5" t="s">
         <v>611</v>
       </c>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="C617" s="17"/>
     </row>
-    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5" t="s">
         <v>612</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C618" s="17"/>
     </row>
-    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5" t="s">
         <v>613</v>
       </c>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="C619" s="17"/>
     </row>
-    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="7" t="s">
         <v>614</v>
       </c>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C620" s="17"/>
     </row>
-    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5" t="s">
         <v>615</v>
       </c>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C621" s="17"/>
     </row>
-    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5" t="s">
         <v>616</v>
       </c>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="C622" s="17"/>
     </row>
-    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5" t="s">
         <v>617</v>
       </c>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="C623" s="17"/>
     </row>
-    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5" t="s">
         <v>618</v>
       </c>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="C624" s="17"/>
     </row>
-    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5" t="s">
         <v>619</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="C625" s="17"/>
     </row>
-    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="5" t="s">
         <v>620</v>
       </c>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="C626" s="17"/>
     </row>
-    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5" t="s">
         <v>621</v>
       </c>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="C627" s="17"/>
     </row>
-    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="5" t="s">
         <v>622</v>
       </c>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C628" s="17"/>
     </row>
-    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="5" t="s">
         <v>623</v>
       </c>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="C629" s="17"/>
     </row>
-    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="5" t="s">
         <v>624</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="C630" s="17"/>
     </row>
-    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="7" t="s">
         <v>625</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="5" t="s">
         <v>626</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="C632" s="17"/>
     </row>
-    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5" t="s">
         <v>627</v>
       </c>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C633" s="17"/>
     </row>
-    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="5" t="s">
         <v>628</v>
       </c>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="C634" s="17"/>
     </row>
-    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5" t="s">
         <v>629</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="C635" s="17"/>
     </row>
-    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="5" t="s">
         <v>630</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="C636" s="17"/>
     </row>
-    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5" t="s">
         <v>631</v>
       </c>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="C637" s="17"/>
     </row>
-    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="5" t="s">
         <v>632</v>
       </c>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C638" s="17"/>
     </row>
-    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5" t="s">
         <v>633</v>
       </c>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="C639" s="17"/>
     </row>
-    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="7" t="s">
         <v>634</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5" t="s">
         <v>635</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="C641" s="17"/>
     </row>
-    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="5" t="s">
         <v>636</v>
       </c>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C642" s="17"/>
     </row>
-    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="5" t="s">
         <v>637</v>
       </c>
@@ -10000,7 +10000,7 @@
       </c>
       <c r="C643" s="17"/>
     </row>
-    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="5" t="s">
         <v>638</v>
       </c>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C644" s="17"/>
     </row>
-    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="5" t="s">
         <v>639</v>
       </c>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="C645" s="17"/>
     </row>
-    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="5" t="s">
         <v>640</v>
       </c>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="C646" s="17"/>
     </row>
-    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="5" t="s">
         <v>641</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="5" t="s">
         <v>642</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="C648" s="17"/>
     </row>
-    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="5" t="s">
         <v>643</v>
       </c>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="C649" s="17"/>
     </row>
-    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="5" t="s">
         <v>644</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="5" t="s">
         <v>645</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C651" s="17"/>
     </row>
-    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="5" t="s">
         <v>646</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C652" s="17"/>
     </row>
-    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="5" t="s">
         <v>647</v>
       </c>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C653" s="17"/>
     </row>
-    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="5" t="s">
         <v>648</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="5" t="s">
         <v>649</v>
       </c>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="C655" s="17"/>
     </row>
-    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="5" t="s">
         <v>650</v>
       </c>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C656" s="17"/>
     </row>
-    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="5" t="s">
         <v>651</v>
       </c>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C657" s="17"/>
     </row>
-    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="5" t="s">
         <v>652</v>
       </c>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="C658" s="17"/>
     </row>
-    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="5" t="s">
         <v>653</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="5" t="s">
         <v>654</v>
       </c>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="C660" s="17"/>
     </row>
-    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="5" t="s">
         <v>655</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="C661" s="17"/>
     </row>
-    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="5" t="s">
         <v>656</v>
       </c>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C662" s="17"/>
     </row>
-    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="5" t="s">
         <v>657</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="5" t="s">
         <v>658</v>
       </c>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="C664" s="17"/>
     </row>
-    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="5" t="s">
         <v>659</v>
       </c>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C665" s="17"/>
     </row>
-    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="5" t="s">
         <v>660</v>
       </c>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C666" s="17"/>
     </row>
-    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="5" t="s">
         <v>661</v>
       </c>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="C667" s="17"/>
     </row>
-    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="5" t="s">
         <v>662</v>
       </c>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="C668" s="17"/>
     </row>
-    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="5" t="s">
         <v>663</v>
       </c>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="C669" s="17"/>
     </row>
-    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="5" t="s">
         <v>664</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="C670" s="17"/>
     </row>
-    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5" t="s">
         <v>665</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="C671" s="17"/>
     </row>
-    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="7" t="s">
         <v>666</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="C672" s="17"/>
     </row>
-    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5" t="s">
         <v>667</v>
       </c>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="C673" s="17"/>
     </row>
-    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="5" t="s">
         <v>668</v>
       </c>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="C674" s="17"/>
     </row>
-    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5" t="s">
         <v>669</v>
       </c>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="C675" s="17"/>
     </row>
-    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="5" t="s">
         <v>670</v>
       </c>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="C676" s="17"/>
     </row>
-    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5" t="s">
         <v>671</v>
       </c>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="C677" s="17"/>
     </row>
-    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="5" t="s">
         <v>672</v>
       </c>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="C678" s="17"/>
     </row>
-    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="5" t="s">
         <v>673</v>
       </c>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C679" s="17"/>
     </row>
-    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="5" t="s">
         <v>674</v>
       </c>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="C680" s="17"/>
     </row>
-    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="5" t="s">
         <v>675</v>
       </c>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="C681" s="17"/>
     </row>
-    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="5" t="s">
         <v>676</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="C682" s="17"/>
     </row>
-    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="5" t="s">
         <v>677</v>
       </c>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="C683" s="17"/>
     </row>
-    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="5" t="s">
         <v>678</v>
       </c>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="C684" s="17"/>
     </row>
-    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="5" t="s">
         <v>679</v>
       </c>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="C685" s="17"/>
     </row>
-    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="7" t="s">
         <v>680</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="5" t="s">
         <v>681</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="C687" s="17"/>
     </row>
-    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="5" t="s">
         <v>682</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="C688" s="17"/>
     </row>
-    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="7" t="s">
         <v>683</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="5" t="s">
         <v>684</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="C690" s="17"/>
     </row>
-    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="7" t="s">
         <v>685</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="5" t="s">
         <v>686</v>
       </c>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="C692" s="17"/>
     </row>
-    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="5" t="s">
         <v>687</v>
       </c>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="C693" s="17"/>
     </row>
-    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="5" t="s">
         <v>688</v>
       </c>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="C694" s="17"/>
     </row>
-    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5" t="s">
         <v>689</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="C695" s="17"/>
     </row>
-    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="7" t="s">
         <v>690</v>
       </c>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="C696" s="17"/>
     </row>
-    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5" t="s">
         <v>691</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="C697" s="17"/>
     </row>
-    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="5" t="s">
         <v>692</v>
       </c>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="C698" s="17"/>
     </row>
-    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="5" t="s">
         <v>693</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C699" s="17"/>
     </row>
-    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="5" t="s">
         <v>694</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="C700" s="17"/>
     </row>
-    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5" t="s">
         <v>695</v>
       </c>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C701" s="17"/>
     </row>
-    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="5" t="s">
         <v>696</v>
       </c>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="C702" s="17"/>
     </row>
-    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5" t="s">
         <v>697</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="C703" s="17"/>
     </row>
-    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="5" t="s">
         <v>698</v>
       </c>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C704" s="17"/>
     </row>
-    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="5" t="s">
         <v>699</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="C705" s="17"/>
     </row>
-    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="5" t="s">
         <v>700</v>
       </c>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="C706" s="17"/>
     </row>
-    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5" t="s">
         <v>701</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C707" s="17"/>
     </row>
-    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="5" t="s">
         <v>702</v>
       </c>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="C708" s="17"/>
     </row>
-    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5" t="s">
         <v>703</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="C709" s="17"/>
     </row>
-    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="5" t="s">
         <v>704</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="C710" s="17"/>
     </row>
-    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5" t="s">
         <v>705</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="C711" s="17"/>
     </row>
-    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5" t="s">
         <v>706</v>
       </c>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C712" s="17"/>
     </row>
-    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="5" t="s">
         <v>707</v>
       </c>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C713" s="17"/>
     </row>
-    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="5" t="s">
         <v>708</v>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="C714" s="17"/>
     </row>
-    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="5" t="s">
         <v>709</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="C715" s="17"/>
     </row>
-    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="5" t="s">
         <v>710</v>
       </c>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="7" t="s">
         <v>711</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="5" t="s">
         <v>712</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C718" s="17"/>
     </row>
-    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="5" t="s">
         <v>713</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="C719" s="17"/>
     </row>
-    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="5" t="s">
         <v>714</v>
       </c>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="5" t="s">
         <v>715</v>
       </c>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="C721" s="17"/>
     </row>
-    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="5" t="s">
         <v>716</v>
       </c>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="C722" s="17"/>
     </row>
-    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="5" t="s">
         <v>717</v>
       </c>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="C723" s="17"/>
     </row>
-    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="5" t="s">
         <v>718</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C724" s="17"/>
     </row>
-    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="5" t="s">
         <v>719</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="C725" s="17"/>
     </row>
-    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="5" t="s">
         <v>720</v>
       </c>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C726" s="17"/>
     </row>
-    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="5" t="s">
         <v>721</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="C727" s="17"/>
     </row>
-    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="5" t="s">
         <v>722</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="C728" s="17"/>
     </row>
-    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="5" t="s">
         <v>723</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="C729" s="17"/>
     </row>
-    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="5" t="s">
         <v>724</v>
       </c>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="C730" s="17"/>
     </row>
-    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="5" t="s">
         <v>725</v>
       </c>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C731" s="17"/>
     </row>
-    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="5" t="s">
         <v>726</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="C732" s="17"/>
     </row>
-    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="5" t="s">
         <v>727</v>
       </c>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C733" s="17"/>
     </row>
-    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5" t="s">
         <v>728</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="5" t="s">
         <v>729</v>
       </c>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="C735" s="17"/>
     </row>
-    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="7" t="s">
         <v>730</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="5" t="s">
         <v>731</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="C737" s="17"/>
     </row>
-    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="5" t="s">
         <v>732</v>
       </c>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="C738" s="17"/>
     </row>
-    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="5" t="s">
         <v>733</v>
       </c>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="C739" s="17"/>
     </row>
-    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="5" t="s">
         <v>734</v>
       </c>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C740" s="17"/>
     </row>
-    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="5" t="s">
         <v>735</v>
       </c>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="C741" s="17"/>
     </row>
-    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="5" t="s">
         <v>736</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="C742" s="17"/>
     </row>
-    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="5" t="s">
         <v>737</v>
       </c>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="C743" s="17"/>
     </row>
-    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="5" t="s">
         <v>738</v>
       </c>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="C744" s="17"/>
     </row>
-    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="5" t="s">
         <v>739</v>
       </c>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="C745" s="17"/>
     </row>
-    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="6" t="s">
         <v>740</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="5" t="s">
         <v>741</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="C747" s="17"/>
     </row>
-    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="5" t="s">
         <v>742</v>
       </c>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="C748" s="17"/>
     </row>
-    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="5" t="s">
         <v>743</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="C749" s="17"/>
     </row>
-    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="5" t="s">
         <v>744</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="C750" s="17"/>
     </row>
-    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="5" t="s">
         <v>745</v>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="C751" s="17"/>
     </row>
-    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="5" t="s">
         <v>746</v>
       </c>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C752" s="17"/>
     </row>
-    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="7" t="s">
         <v>747</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="5" t="s">
         <v>748</v>
       </c>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C754" s="17"/>
     </row>
-    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="5" t="s">
         <v>749</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="C755" s="17"/>
     </row>
-    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="5" t="s">
         <v>750</v>
       </c>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="C756" s="17"/>
     </row>
-    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="7" t="s">
         <v>751</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="5" t="s">
         <v>752</v>
       </c>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="C758" s="17"/>
     </row>
-    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="14" t="s">
         <v>753</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="5" t="s">
         <v>754</v>
       </c>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="C760" s="17"/>
     </row>
-    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="5" t="s">
         <v>755</v>
       </c>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="C761" s="17"/>
     </row>
-    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="5" t="s">
         <v>756</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C762" s="17"/>
     </row>
-    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="5" t="s">
         <v>757</v>
       </c>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="C763" s="17"/>
     </row>
-    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="5" t="s">
         <v>758</v>
       </c>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="C764" s="17"/>
     </row>
-    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="5" t="s">
         <v>759</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="5" t="s">
         <v>760</v>
       </c>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="C766" s="17"/>
     </row>
-    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="5" t="s">
         <v>761</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="C767" s="17"/>
     </row>
-    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="5" t="s">
         <v>762</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="5" t="s">
         <v>763</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="C769" s="17"/>
     </row>
-    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="5" t="s">
         <v>764</v>
       </c>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="C770" s="17"/>
     </row>
-    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="5" t="s">
         <v>765</v>
       </c>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="5" t="s">
         <v>766</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="C772" s="17"/>
     </row>
-    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="7" t="s">
         <v>767</v>
       </c>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="C773" s="17"/>
     </row>
-    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="5" t="s">
         <v>768</v>
       </c>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="C774" s="17"/>
     </row>
-    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="5" t="s">
         <v>769</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C775" s="17"/>
     </row>
-    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="5" t="s">
         <v>770</v>
       </c>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="C776" s="17"/>
     </row>
-    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="29" t="s">
         <v>771</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="5" t="s">
         <v>772</v>
       </c>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="C778" s="17"/>
     </row>
-    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="5" t="s">
         <v>773</v>
       </c>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C779" s="17"/>
     </row>
-    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="5" t="s">
         <v>774</v>
       </c>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="C780" s="17"/>
     </row>
-    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="7" t="s">
         <v>775</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="5" t="s">
         <v>776</v>
       </c>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C782" s="17"/>
     </row>
-    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="5" t="s">
         <v>777</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="C783" s="17"/>
     </row>
-    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="5" t="s">
         <v>778</v>
       </c>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C784" s="17"/>
     </row>
-    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="5" t="s">
         <v>779</v>
       </c>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="C785" s="17"/>
     </row>
-    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="7" t="s">
         <v>780</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="5" t="s">
         <v>781</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="C787" s="17"/>
     </row>
-    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="7" t="s">
         <v>782</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="5" t="s">
         <v>783</v>
       </c>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="C789" s="17"/>
     </row>
-    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="5" t="s">
         <v>784</v>
       </c>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="C790" s="17"/>
     </row>
-    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="5" t="s">
         <v>785</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C791" s="17"/>
     </row>
-    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="5" t="s">
         <v>786</v>
       </c>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="C792" s="17"/>
     </row>
-    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="5" t="s">
         <v>787</v>
       </c>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C793" s="17"/>
     </row>
-    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="5" t="s">
         <v>788</v>
       </c>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="C794" s="17"/>
     </row>
-    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="5" t="s">
         <v>789</v>
       </c>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="C795" s="17"/>
     </row>
-    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="5" t="s">
         <v>790</v>
       </c>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="C796" s="17"/>
     </row>
-    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="5" t="s">
         <v>791</v>
       </c>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="5" t="s">
         <v>792</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="5" t="s">
         <v>793</v>
       </c>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="C799" s="17"/>
     </row>
-    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="5" t="s">
         <v>794</v>
       </c>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="C800" s="17"/>
     </row>
-    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="5" t="s">
         <v>795</v>
       </c>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="C801" s="17"/>
     </row>
-    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="5" t="s">
         <v>796</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="5" t="s">
         <v>797</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="5" t="s">
         <v>798</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C804" s="17"/>
     </row>
-    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="5" t="s">
         <v>799</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="C805" s="17"/>
     </row>
-    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="5" t="s">
         <v>800</v>
       </c>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="5" t="s">
         <v>801</v>
       </c>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="5" t="s">
         <v>802</v>
       </c>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="C808" s="17"/>
     </row>
-    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="5" t="s">
         <v>803</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="C809" s="17"/>
     </row>
-    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="5" t="s">
         <v>804</v>
       </c>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C810" s="17"/>
     </row>
-    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="5" t="s">
         <v>805</v>
       </c>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C811" s="17"/>
     </row>
-    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="5" t="s">
         <v>806</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="C812" s="17"/>
     </row>
-    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="5" t="s">
         <v>807</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="C813" s="17"/>
     </row>
-    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="5" t="s">
         <v>808</v>
       </c>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="C814" s="17"/>
     </row>
-    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="5" t="s">
         <v>809</v>
       </c>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="C815" s="17"/>
     </row>
-    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="5" t="s">
         <v>810</v>
       </c>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C816" s="17"/>
     </row>
-    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="5" t="s">
         <v>811</v>
       </c>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="C817" s="17"/>
     </row>
-    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="5" t="s">
         <v>812</v>
       </c>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="C818" s="17"/>
     </row>
-    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="5" t="s">
         <v>813</v>
       </c>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="5" t="s">
         <v>814</v>
       </c>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="C820" s="17"/>
     </row>
-    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="5" t="s">
         <v>815</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="C821" s="17"/>
     </row>
-    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="5" t="s">
         <v>816</v>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="C822" s="17"/>
     </row>
-    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="5" t="s">
         <v>817</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="5" t="s">
         <v>818</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="C824" s="17"/>
     </row>
-    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="5" t="s">
         <v>819</v>
       </c>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="C825" s="17"/>
     </row>
-    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="5" t="s">
         <v>820</v>
       </c>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C826" s="17"/>
     </row>
-    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="5" t="s">
         <v>821</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C827" s="17"/>
     </row>
-    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="5" t="s">
         <v>822</v>
       </c>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="C828" s="17"/>
     </row>
-    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="5" t="s">
         <v>823</v>
       </c>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="C829" s="17"/>
     </row>
-    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="5" t="s">
         <v>824</v>
       </c>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="5" t="s">
         <v>825</v>
       </c>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="C831" s="17"/>
     </row>
-    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="5" t="s">
         <v>826</v>
       </c>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="C832" s="17"/>
     </row>
-    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="5" t="s">
         <v>827</v>
       </c>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="C833" s="17"/>
     </row>
-    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="5" t="s">
         <v>828</v>
       </c>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="5" t="s">
         <v>829</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C835" s="17"/>
     </row>
-    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="5" t="s">
         <v>830</v>
       </c>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="C836" s="17"/>
     </row>
-    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="5" t="s">
         <v>831</v>
       </c>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="C837" s="17"/>
     </row>
-    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="5" t="s">
         <v>832</v>
       </c>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="C838" s="17"/>
     </row>
-    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="5" t="s">
         <v>833</v>
       </c>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="C839" s="17"/>
     </row>
-    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="5" t="s">
         <v>692</v>
       </c>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="C840" s="17"/>
     </row>
-    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="5" t="s">
         <v>834</v>
       </c>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="C841" s="17"/>
     </row>
-    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="5" t="s">
         <v>835</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="C842" s="17"/>
     </row>
-    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="6" t="s">
         <v>836</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="5" t="s">
         <v>837</v>
       </c>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="C844" s="17"/>
     </row>
-    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="5" t="s">
         <v>838</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="C845" s="17"/>
     </row>
-    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="5" t="s">
         <v>839</v>
       </c>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="C846" s="17"/>
     </row>
-    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="5" t="s">
         <v>840</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="C847" s="17"/>
     </row>
-    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="5" t="s">
         <v>841</v>
       </c>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="C848" s="17"/>
     </row>
-    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="5" t="s">
         <v>842</v>
       </c>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="C849" s="17"/>
     </row>
-    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="5" t="s">
         <v>843</v>
       </c>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C850" s="17"/>
     </row>
-    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="5" t="s">
         <v>844</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C851" s="17"/>
     </row>
-    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="5" t="s">
         <v>845</v>
       </c>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="C852" s="17"/>
     </row>
-    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="5" t="s">
         <v>846</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="C853" s="17"/>
     </row>
-    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="5" t="s">
         <v>847</v>
       </c>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="5" t="s">
         <v>848</v>
       </c>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C855" s="17"/>
     </row>
-    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="5" t="s">
         <v>849</v>
       </c>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C856" s="17"/>
     </row>
-    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="5" t="s">
         <v>850</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C857" s="17"/>
     </row>
-    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="5" t="s">
         <v>851</v>
       </c>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="C858" s="17"/>
     </row>
-    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="5" t="s">
         <v>852</v>
       </c>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="C859" s="17"/>
     </row>
-    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="5" t="s">
         <v>853</v>
       </c>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="5" t="s">
         <v>854</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="C861" s="17"/>
     </row>
-    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="5" t="s">
         <v>855</v>
       </c>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="C862" s="17"/>
     </row>
-    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="5" t="s">
         <v>856</v>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="C863" s="17"/>
     </row>
-    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="5" t="s">
         <v>857</v>
       </c>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="C864" s="17"/>
     </row>
-    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="5" t="s">
         <v>858</v>
       </c>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="C865" s="17"/>
     </row>
-    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="5" t="s">
         <v>859</v>
       </c>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="5" t="s">
         <v>860</v>
       </c>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C867" s="17"/>
     </row>
-    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="5" t="s">
         <v>861</v>
       </c>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="C868" s="17"/>
     </row>
-    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="5" t="s">
         <v>862</v>
       </c>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="C869" s="17"/>
     </row>
-    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="5" t="s">
         <v>863</v>
       </c>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="D870" s="31"/>
     </row>
-    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="5" t="s">
         <v>864</v>
       </c>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C871" s="17"/>
     </row>
-    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="5" t="s">
         <v>865</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="5" t="s">
         <v>866</v>
       </c>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="5" t="s">
         <v>867</v>
       </c>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="C874" s="17"/>
     </row>
-    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="5" t="s">
         <v>868</v>
       </c>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="C875" s="17"/>
     </row>
-    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="5" t="s">
         <v>869</v>
       </c>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="C876" s="17"/>
     </row>
-    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="5" t="s">
         <v>870</v>
       </c>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="C877" s="17"/>
     </row>
-    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="7" t="s">
         <v>871</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="5" t="s">
         <v>872</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C879" s="17"/>
     </row>
-    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="5" t="s">
         <v>873</v>
       </c>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="C880" s="17"/>
     </row>
-    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="5" t="s">
         <v>874</v>
       </c>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="5" t="s">
         <v>875</v>
       </c>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="C882" s="17"/>
     </row>
-    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="7" t="s">
         <v>876</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="5" t="s">
         <v>877</v>
       </c>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="5" t="s">
         <v>878</v>
       </c>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="C885" s="17"/>
     </row>
-    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="5" t="s">
         <v>879</v>
       </c>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="C886" s="17"/>
     </row>
-    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="7" t="s">
         <v>880</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="5" t="s">
         <v>881</v>
       </c>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="C888" s="17"/>
     </row>
-    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="5" t="s">
         <v>882</v>
       </c>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="C889" s="17"/>
     </row>
-    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="5" t="s">
         <v>883</v>
       </c>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C890" s="17"/>
     </row>
-    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="5" t="s">
         <v>884</v>
       </c>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="C891" s="17"/>
     </row>
-    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="5" t="s">
         <v>885</v>
       </c>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="C892" s="17"/>
     </row>
-    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="5" t="s">
         <v>886</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="C893" s="17"/>
     </row>
-    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="5" t="s">
         <v>887</v>
       </c>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="C894" s="17"/>
     </row>
-    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="5" t="s">
         <v>888</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="C895" s="17"/>
     </row>
-    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="5" t="s">
         <v>889</v>
       </c>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="C896" s="17"/>
     </row>
-    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="5" t="s">
         <v>890</v>
       </c>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="7" t="s">
         <v>891</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="5" t="s">
         <v>892</v>
       </c>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="C899" s="17"/>
     </row>
-    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="5" t="s">
         <v>893</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C900" s="17"/>
     </row>
-    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="5" t="s">
         <v>894</v>
       </c>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="C901" s="17"/>
     </row>
-    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="5" t="s">
         <v>895</v>
       </c>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="C902" s="17"/>
     </row>
-    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="5" t="s">
         <v>896</v>
       </c>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C903" s="17"/>
     </row>
-    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="7" t="s">
         <v>897</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="5" t="s">
         <v>898</v>
       </c>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="C905" s="17"/>
     </row>
-    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="5" t="s">
         <v>899</v>
       </c>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C906" s="17"/>
     </row>
-    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="5" t="s">
         <v>900</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="C907" s="17"/>
     </row>
-    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="5" t="s">
         <v>901</v>
       </c>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="C908" s="17"/>
     </row>
-    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="5" t="s">
         <v>902</v>
       </c>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="C909" s="17"/>
     </row>
-    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="5" t="s">
         <v>903</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="C910" s="17"/>
     </row>
-    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="5" t="s">
         <v>904</v>
       </c>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="5" t="s">
         <v>905</v>
       </c>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="C912" s="17"/>
     </row>
-    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="5" t="s">
         <v>906</v>
       </c>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="C913" s="17"/>
     </row>
-    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="5" t="s">
         <v>907</v>
       </c>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="5" t="s">
         <v>908</v>
       </c>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="5" t="s">
         <v>909</v>
       </c>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C916" s="17"/>
     </row>
-    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="5" t="s">
         <v>910</v>
       </c>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="C917" s="17"/>
     </row>
-    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="5" t="s">
         <v>911</v>
       </c>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="5" t="s">
         <v>912</v>
       </c>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C919" s="17"/>
     </row>
-    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="7" t="s">
         <v>913</v>
       </c>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C920" s="17"/>
     </row>
-    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="5" t="s">
         <v>914</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="C921" s="17"/>
     </row>
-    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="5" t="s">
         <v>915</v>
       </c>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="C922" s="17"/>
     </row>
-    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="5" t="s">
         <v>916</v>
       </c>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="5" t="s">
         <v>917</v>
       </c>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="C924" s="17"/>
     </row>
-    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="5" t="s">
         <v>918</v>
       </c>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="C925" s="17"/>
     </row>
-    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="5" t="s">
         <v>919</v>
       </c>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C926" s="17"/>
     </row>
-    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="5" t="s">
         <v>920</v>
       </c>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="C927" s="17"/>
     </row>
-    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="5" t="s">
         <v>921</v>
       </c>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="C928" s="17"/>
     </row>
-    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="5" t="s">
         <v>922</v>
       </c>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="5" t="s">
         <v>923</v>
       </c>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="5" t="s">
         <v>924</v>
       </c>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="C931" s="17"/>
     </row>
-    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="5" t="s">
         <v>925</v>
       </c>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C932" s="17"/>
     </row>
-    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="7" t="s">
         <v>926</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="5" t="s">
         <v>927</v>
       </c>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="C934" s="17"/>
     </row>
-    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="5" t="s">
         <v>928</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="C935" s="17"/>
     </row>
-    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="5" t="s">
         <v>929</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="C936" s="17"/>
     </row>
-    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="5" t="s">
         <v>930</v>
       </c>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="C937" s="17"/>
     </row>
-    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="7" t="s">
         <v>931</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="5" t="s">
         <v>932</v>
       </c>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="7" t="s">
         <v>933</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="5" t="s">
         <v>934</v>
       </c>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="C941" s="17"/>
     </row>
-    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="5" t="s">
         <v>935</v>
       </c>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C942" s="17"/>
     </row>
-    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="5" t="s">
         <v>936</v>
       </c>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="C943" s="17"/>
     </row>
-    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="5" t="s">
         <v>937</v>
       </c>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="C944" s="17"/>
     </row>
-    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="5" t="s">
         <v>938</v>
       </c>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="C945" s="17"/>
     </row>
-    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="7" t="s">
         <v>939</v>
       </c>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="C946" s="17"/>
     </row>
-    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="5" t="s">
         <v>940</v>
       </c>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="C947" s="17"/>
     </row>
-    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="5" t="s">
         <v>941</v>
       </c>
@@ -12800,7 +12800,7 @@
       </c>
       <c r="C948" s="17"/>
     </row>
-    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="5" t="s">
         <v>942</v>
       </c>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="5" t="s">
         <v>943</v>
       </c>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="C950" s="17"/>
     </row>
-    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="5" t="s">
         <v>944</v>
       </c>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="C951" s="17"/>
     </row>
-    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="5" t="s">
         <v>945</v>
       </c>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="C952" s="17"/>
     </row>
-    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="5" t="s">
         <v>946</v>
       </c>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="C953" s="17"/>
     </row>
-    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="5" t="s">
         <v>947</v>
       </c>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="C954" s="17"/>
     </row>
-    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="6" t="s">
         <v>948</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="5" t="s">
         <v>949</v>
       </c>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="C956" s="17"/>
     </row>
-    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="5" t="s">
         <v>950</v>
       </c>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="C957" s="17"/>
     </row>
-    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="5" t="s">
         <v>951</v>
       </c>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C958" s="17"/>
     </row>
-    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="5" t="s">
         <v>952</v>
       </c>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="C959" s="17"/>
     </row>
-    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="7" t="s">
         <v>953</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="5" t="s">
         <v>954</v>
       </c>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="C961" s="17"/>
     </row>
-    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="5" t="s">
         <v>955</v>
       </c>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="5" t="s">
         <v>956</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="C963" s="17"/>
     </row>
-    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="5" t="s">
         <v>957</v>
       </c>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="C964" s="17"/>
     </row>
-    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="5" t="s">
         <v>958</v>
       </c>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="C965" s="17"/>
     </row>
-    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="5" t="s">
         <v>959</v>
       </c>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C966" s="17"/>
     </row>
-    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="5" t="s">
         <v>960</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="5" t="s">
         <v>961</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C968" s="17"/>
     </row>
-    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="5" t="s">
         <v>962</v>
       </c>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="5" t="s">
         <v>963</v>
       </c>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="C970" s="17"/>
     </row>
-    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="5" t="s">
         <v>964</v>
       </c>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="C971" s="17"/>
     </row>
-    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="5" t="s">
         <v>965</v>
       </c>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="C972" s="17"/>
     </row>
-    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="5" t="s">
         <v>966</v>
       </c>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="C973" s="17"/>
     </row>
-    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="5" t="s">
         <v>967</v>
       </c>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="C974" s="17"/>
     </row>
-    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="5" t="s">
         <v>968</v>
       </c>
@@ -13045,7 +13045,7 @@
       </c>
       <c r="C975" s="17"/>
     </row>
-    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="5" t="s">
         <v>969</v>
       </c>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="C976" s="17"/>
     </row>
-    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="5" t="s">
         <v>970</v>
       </c>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="C977" s="17"/>
     </row>
-    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="5" t="s">
         <v>971</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C978" s="17"/>
     </row>
-    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="5" t="s">
         <v>972</v>
       </c>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="C979" s="17"/>
     </row>
-    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="5" t="s">
         <v>973</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="C980" s="17"/>
     </row>
-    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="5" t="s">
         <v>974</v>
       </c>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="C981" s="17"/>
     </row>
-    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="5" t="s">
         <v>975</v>
       </c>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="C982" s="17"/>
     </row>
-    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="5" t="s">
         <v>976</v>
       </c>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="C983" s="17"/>
     </row>
-    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="5" t="s">
         <v>977</v>
       </c>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="C984" s="17"/>
     </row>
-    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="5" t="s">
         <v>978</v>
       </c>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C985" s="17"/>
     </row>
-    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="5" t="s">
         <v>979</v>
       </c>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="C986" s="17"/>
     </row>
-    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="5" t="s">
         <v>980</v>
       </c>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="C987" s="17"/>
     </row>
-    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="5" t="s">
         <v>981</v>
       </c>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C988" s="17"/>
     </row>
-    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="5" t="s">
         <v>982</v>
       </c>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="C989" s="17"/>
     </row>
-    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="5" t="s">
         <v>983</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="C990" s="17"/>
     </row>
-    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="5" t="s">
         <v>984</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="C991" s="18"/>
     </row>
-    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="5" t="s">
         <v>985</v>
       </c>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="C992" s="17"/>
     </row>
-    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="5" t="s">
         <v>986</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="5" t="s">
         <v>987</v>
       </c>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="C994" s="17"/>
     </row>
-    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="7" t="s">
         <v>988</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="5" t="s">
         <v>989</v>
       </c>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="C996" s="17"/>
     </row>
-    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="5" t="s">
         <v>990</v>
       </c>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="C997" s="17"/>
     </row>
-    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="5" t="s">
         <v>991</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="C998" s="17"/>
     </row>
-    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="5" t="s">
         <v>992</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="5" t="s">
         <v>993</v>
       </c>
@@ -13276,18 +13276,18 @@
       </c>
       <c r="C1000" s="17"/>
     </row>
-    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="5" t="s">
         <v>994</v>
       </c>
       <c r="B1001" s="12">
         <v>116</v>
       </c>
-      <c r="C1001" s="34"/>
-    </row>
-    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1001" s="33"/>
+    </row>
+    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="13"/>
     </row>
   </sheetData>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04361182-A380-4DA8-86FE-5A7267B7EE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FE0C8-ED24-4241-AE3D-992208B9FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3783,7 +3783,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E2)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F5" s="26">
         <f ca="1">SUM(F2:F4)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="F6" s="28">
         <f ca="1">1000-F5</f>
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>AMANECER</v>
+        <v>RÍO BRAVO</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -6865,7 +6865,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="29" t="s">
         <v>308</v>
       </c>
       <c r="B312" s="4">

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FE0C8-ED24-4241-AE3D-992208B9FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3939AC8-BDBD-41C1-B145-9955B015A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3797,7 +3797,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="22">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F5" s="26">
         <f ca="1">SUM(F2:F4)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="F6" s="28">
         <f ca="1">1000-F5</f>
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>RÍO BRAVO</v>
+        <v>ETERNO RESPLANDOR</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -7888,7 +7888,7 @@
       <c r="C414" s="17"/>
     </row>
     <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="30" t="s">
         <v>410</v>
       </c>
       <c r="B415" s="4">

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3939AC8-BDBD-41C1-B145-9955B015A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD1C3E1-4E64-4D59-8AD7-7CD54EADB7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1001</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjW+pff7qvu8zflHZvuBbBzY7yzFA=="/>
@@ -3746,20 +3746,20 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="7" width="12.69921875" customWidth="1"/>
-    <col min="8" max="26" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="26" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3878,12 +3878,12 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>ETERNO RESPLANDOR</v>
+        <v>SABRINA</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>999</v>
       </c>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>998</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>83</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>86</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>89</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>90</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>92</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>94</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>96</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>97</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>98</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>100</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>101</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>102</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>104</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>106</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>107</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>108</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>109</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>110</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>111</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>112</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>113</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>114</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>116</v>
       </c>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>118</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>119</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>120</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>121</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>122</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>123</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>124</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>125</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>126</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C124" s="17"/>
     </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>127</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>128</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>129</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>130</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>131</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>132</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>133</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>134</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>135</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>136</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>138</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>139</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>140</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>142</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>143</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>145</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>146</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>147</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>148</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>149</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>150</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>151</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>152</v>
       </c>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>153</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>154</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>155</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1001</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>156</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>157</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>158</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>160</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C159" s="17"/>
     </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>161</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>162</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>169</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1002</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>172</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>173</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>174</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>175</v>
       </c>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>176</v>
       </c>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>178</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>179</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>180</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>181</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>182</v>
       </c>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C182" s="17"/>
     </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>183</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>184</v>
       </c>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C184" s="17"/>
     </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>185</v>
       </c>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="C185" s="17"/>
     </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>186</v>
       </c>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C186" s="17"/>
     </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>187</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C187" s="17"/>
     </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>188</v>
       </c>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="C188" s="17"/>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>189</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>190</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>191</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>192</v>
       </c>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C192" s="17"/>
     </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>193</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>195</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="C195" s="17"/>
     </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>196</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C197" s="17"/>
     </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>198</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>199</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="C199" s="17"/>
     </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>200</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="C200" s="17"/>
     </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>201</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="C201" s="17"/>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>202</v>
       </c>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C202" s="17"/>
     </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>203</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>206</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="C206" s="17"/>
     </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>207</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>209</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>210</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C210" s="17"/>
     </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="C212" s="17"/>
     </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C213" s="17"/>
     </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="C214" s="17"/>
     </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>215</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>216</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>217</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>218</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="C219" s="17"/>
     </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>220</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="C220" s="17"/>
     </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C221" s="17"/>
     </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>222</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="C222" s="17"/>
     </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>223</v>
       </c>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C223" s="17"/>
     </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>224</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>225</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C225" s="17"/>
     </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>226</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C226" s="17"/>
     </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>227</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>228</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="C228" s="17"/>
     </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>229</v>
       </c>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C229" s="17"/>
     </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>230</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C230" s="17"/>
     </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>231</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="C231" s="17"/>
     </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>232</v>
       </c>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C232" s="17"/>
     </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>233</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>234</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>235</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C235" s="17"/>
     </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>236</v>
       </c>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C236" s="17"/>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C237" s="17"/>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>238</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C238" s="17"/>
     </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>239</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C239" s="17"/>
     </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>1003</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C240" s="17"/>
     </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C241" s="17"/>
     </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>241</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C243" s="17"/>
     </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C244" s="17"/>
     </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C245" s="17"/>
     </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="C246" s="17"/>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>248</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C250" s="17"/>
     </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C252" s="17"/>
     </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C253" s="17"/>
     </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="C254" s="17"/>
     </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="C255" s="17"/>
     </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C256" s="17"/>
     </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C257" s="17"/>
     </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="C258" s="17"/>
     </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C259" s="17"/>
     </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>1004</v>
       </c>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="C261" s="17"/>
     </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>260</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C262" s="17"/>
     </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>261</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>262</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>263</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>264</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>265</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>1005</v>
       </c>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>266</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>267</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>268</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>269</v>
       </c>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>270</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>271</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>272</v>
       </c>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>273</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>274</v>
       </c>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>1006</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>275</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>276</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>277</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>278</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>279</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>280</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>281</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>282</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>283</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C287" s="17"/>
     </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>284</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="C288" s="17"/>
     </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>285</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C289" s="17"/>
     </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>286</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="C290" s="17"/>
     </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>287</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="C291" s="17"/>
     </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>288</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>289</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>290</v>
       </c>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C294" s="17"/>
     </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>291</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C295" s="17"/>
     </row>
-    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>292</v>
       </c>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="C296" s="17"/>
     </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>293</v>
       </c>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="C297" s="17"/>
     </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>294</v>
       </c>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C298" s="17"/>
     </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>295</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>296</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="C300" s="17"/>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>297</v>
       </c>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C301" s="17"/>
     </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>298</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>299</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="C303" s="17"/>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>300</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>301</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>302</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>303</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>304</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C308" s="17"/>
     </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>305</v>
       </c>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C309" s="17"/>
     </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>306</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>307</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="29" t="s">
         <v>308</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>309</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C313" s="17"/>
     </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>310</v>
       </c>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="C314" s="17"/>
     </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>311</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>312</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>313</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>314</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>315</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>316</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="29" t="s">
         <v>317</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>318</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C322" s="17"/>
     </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>319</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C323" s="17"/>
     </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="29" t="s">
         <v>320</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>321</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>322</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>323</v>
       </c>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C327" s="17"/>
     </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>324</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="C328" s="17"/>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>325</v>
       </c>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C329" s="17"/>
     </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>326</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>327</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>328</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>329</v>
       </c>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="C333" s="17"/>
     </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>330</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="C334" s="17"/>
     </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>331</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>332</v>
       </c>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C336" s="17"/>
     </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>333</v>
       </c>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="C337" s="17"/>
     </row>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>334</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>335</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>336</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>337</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="C341" s="17"/>
     </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>338</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="C342" s="17"/>
     </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>339</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>340</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>341</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C345" s="17"/>
     </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>342</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C346" s="17"/>
     </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>343</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="C347" s="17"/>
     </row>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>344</v>
       </c>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="C348" s="17"/>
     </row>
-    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>345</v>
       </c>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C349" s="17"/>
     </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>346</v>
       </c>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="C350" s="17"/>
     </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>347</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="C351" s="17"/>
     </row>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>348</v>
       </c>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C352" s="17"/>
     </row>
-    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>349</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>350</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C354" s="17"/>
     </row>
-    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>351</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="C355" s="17"/>
     </row>
-    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>352</v>
       </c>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C356" s="17"/>
     </row>
-    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>353</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>354</v>
       </c>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="C358" s="17"/>
     </row>
-    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="29" t="s">
         <v>355</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>356</v>
       </c>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="C360" s="17"/>
     </row>
-    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>357</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="C361" s="17"/>
     </row>
-    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>358</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>359</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>360</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>361</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>362</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>1007</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C367" s="17"/>
     </row>
-    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>363</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>364</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C369" s="17"/>
     </row>
-    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>365</v>
       </c>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C370" s="17"/>
     </row>
-    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>366</v>
       </c>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C371" s="17"/>
     </row>
-    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>367</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>368</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>369</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>370</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>371</v>
       </c>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C376" s="17"/>
     </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>372</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>373</v>
       </c>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C378" s="17"/>
     </row>
-    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>374</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C379" s="17"/>
     </row>
-    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>375</v>
       </c>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="C380" s="17"/>
     </row>
-    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>376</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C381" s="17"/>
     </row>
-    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>377</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>378</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C383" s="17"/>
     </row>
-    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>379</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>380</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="C385" s="17"/>
     </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>381</v>
       </c>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="C386" s="17"/>
     </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>382</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>383</v>
       </c>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="C388" s="17"/>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>384</v>
       </c>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="C389" s="17"/>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>385</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>386</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>387</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>388</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>389</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="C394" s="17"/>
     </row>
-    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>390</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>391</v>
       </c>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C396" s="17"/>
     </row>
-    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>392</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>393</v>
       </c>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C398" s="17"/>
     </row>
-    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>394</v>
       </c>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="C399" s="17"/>
     </row>
-    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>395</v>
       </c>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C400" s="17"/>
     </row>
-    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>396</v>
       </c>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C401" s="17"/>
     </row>
-    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>397</v>
       </c>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="C402" s="17"/>
     </row>
-    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>398</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C403" s="17"/>
     </row>
-    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>399</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>400</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>401</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="C406" s="17"/>
     </row>
-    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>402</v>
       </c>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C407" s="17"/>
     </row>
-    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>403</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>404</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>405</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>406</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="C411" s="17"/>
     </row>
-    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>407</v>
       </c>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C412" s="17"/>
     </row>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>408</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="C413" s="17"/>
     </row>
-    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>409</v>
       </c>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C414" s="17"/>
     </row>
-    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="30" t="s">
         <v>410</v>
       </c>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="C415" s="17"/>
     </row>
-    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>411</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="C416" s="17"/>
     </row>
-    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>412</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>413</v>
       </c>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C418" s="17"/>
     </row>
-    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>414</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="C419" s="17"/>
     </row>
-    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>415</v>
       </c>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C420" s="17"/>
     </row>
-    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>416</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="C421" s="17"/>
     </row>
-    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>417</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C422" s="17"/>
     </row>
-    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>418</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="C423" s="17"/>
     </row>
-    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>419</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>420</v>
       </c>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="C425" s="17"/>
     </row>
-    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>421</v>
       </c>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="C426" s="17"/>
     </row>
-    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>422</v>
       </c>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C427" s="17"/>
     </row>
-    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>423</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="C428" s="17"/>
     </row>
-    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>424</v>
       </c>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="C429" s="17"/>
     </row>
-    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>425</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>426</v>
       </c>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C431" s="17"/>
     </row>
-    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>427</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C432" s="17"/>
     </row>
-    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>428</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="C433" s="17"/>
     </row>
-    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>429</v>
       </c>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="C434" s="17"/>
     </row>
-    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>430</v>
       </c>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="C435" s="17"/>
     </row>
-    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>431</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>432</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C437" s="17"/>
     </row>
-    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>433</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C438" s="17"/>
     </row>
-    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>434</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C439" s="17"/>
     </row>
-    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>435</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="C440" s="17"/>
     </row>
-    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>436</v>
       </c>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="C441" s="17"/>
     </row>
-    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>437</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C442" s="17"/>
     </row>
-    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>438</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C443" s="17"/>
     </row>
-    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>439</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C444" s="17"/>
     </row>
-    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>440</v>
       </c>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C445" s="17"/>
     </row>
-    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>441</v>
       </c>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="C446" s="17"/>
     </row>
-    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>442</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="C447" s="17"/>
     </row>
-    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>443</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="C448" s="17"/>
     </row>
-    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>444</v>
       </c>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="C449" s="17"/>
     </row>
-    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>445</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="C450" s="17"/>
     </row>
-    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>446</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C451" s="17"/>
     </row>
-    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>447</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C452" s="17"/>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>448</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C453" s="17"/>
     </row>
-    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>449</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C454" s="17"/>
     </row>
-    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>450</v>
       </c>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C455" s="17"/>
     </row>
-    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>451</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C456" s="17"/>
     </row>
-    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
         <v>452</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>453</v>
       </c>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="C458" s="17"/>
     </row>
-    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>454</v>
       </c>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="C459" s="17"/>
     </row>
-    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>455</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C460" s="17"/>
     </row>
-    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>456</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C461" s="17"/>
     </row>
-    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>457</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C462" s="17"/>
     </row>
-    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>458</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>459</v>
       </c>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="C464" s="17"/>
     </row>
-    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>460</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C465" s="17"/>
     </row>
-    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>461</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>462</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="C467" s="17"/>
     </row>
-    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="30" t="s">
         <v>463</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>464</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C469" s="17"/>
     </row>
-    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>465</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="C470" s="17"/>
     </row>
-    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>466</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C471" s="17"/>
     </row>
-    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>467</v>
       </c>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="C472" s="17"/>
     </row>
-    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>468</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="C473" s="17"/>
     </row>
-    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>469</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>470</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="C475" s="17"/>
     </row>
-    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>471</v>
       </c>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="C476" s="17"/>
     </row>
-    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>472</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="C477" s="17"/>
     </row>
-    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>473</v>
       </c>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="C478" s="17"/>
     </row>
-    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>474</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="C479" s="17"/>
     </row>
-    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>475</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C480" s="17"/>
     </row>
-    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>476</v>
       </c>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C481" s="17"/>
     </row>
-    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>477</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="C482" s="17"/>
     </row>
-    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>478</v>
       </c>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C483" s="17"/>
     </row>
-    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>479</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C484" s="17"/>
     </row>
-    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>480</v>
       </c>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="C485" s="17"/>
     </row>
-    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>481</v>
       </c>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="C486" s="17"/>
     </row>
-    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>482</v>
       </c>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C487" s="17"/>
     </row>
-    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>483</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>484</v>
       </c>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="C489" s="17"/>
     </row>
-    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>485</v>
       </c>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="C490" s="17"/>
     </row>
-    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>486</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="C491" s="17"/>
     </row>
-    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>487</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="C492" s="17"/>
     </row>
-    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>488</v>
       </c>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C493" s="17"/>
     </row>
-    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>489</v>
       </c>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C494" s="17"/>
     </row>
-    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>490</v>
       </c>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="C495" s="17"/>
     </row>
-    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>491</v>
       </c>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="C496" s="17"/>
     </row>
-    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>492</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="C497" s="17"/>
     </row>
-    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>493</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="C498" s="17"/>
     </row>
-    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>494</v>
       </c>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="C499" s="17"/>
     </row>
-    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>495</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C500" s="17"/>
     </row>
-    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="32" t="s">
         <v>1008</v>
       </c>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C501" s="17"/>
     </row>
-    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>496</v>
       </c>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="C502" s="17"/>
     </row>
-    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>497</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C503" s="17"/>
     </row>
-    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>498</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="C504" s="17"/>
     </row>
-    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>499</v>
       </c>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="C505" s="17"/>
     </row>
-    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>500</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="C506" s="17"/>
     </row>
-    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>501</v>
       </c>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C507" s="17"/>
     </row>
-    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>502</v>
       </c>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C508" s="17"/>
     </row>
-    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>503</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>504</v>
       </c>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C510" s="17"/>
     </row>
-    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>505</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>506</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C512" s="17"/>
     </row>
-    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>507</v>
       </c>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="C513" s="17"/>
     </row>
-    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>508</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="C514" s="17"/>
     </row>
-    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>509</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="C515" s="17"/>
     </row>
-    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>510</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="C516" s="17"/>
     </row>
-    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>511</v>
       </c>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="C517" s="17"/>
     </row>
-    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>512</v>
       </c>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="C518" s="17"/>
     </row>
-    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>513</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C519" s="17"/>
     </row>
-    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>514</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="C520" s="17"/>
     </row>
-    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>515</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="C521" s="17"/>
     </row>
-    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>516</v>
       </c>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C522" s="17"/>
     </row>
-    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>517</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="C523" s="17"/>
     </row>
-    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>518</v>
       </c>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C524" s="17"/>
     </row>
-    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>519</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C525" s="17"/>
     </row>
-    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>520</v>
       </c>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C526" s="17"/>
     </row>
-    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>521</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C527" s="17"/>
     </row>
-    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>522</v>
       </c>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="C528" s="17"/>
     </row>
-    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>523</v>
       </c>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="C529" s="17"/>
     </row>
-    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
         <v>524</v>
       </c>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="C530" s="17"/>
     </row>
-    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
         <v>525</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>526</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="C532" s="17"/>
     </row>
-    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>527</v>
       </c>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C533" s="17"/>
     </row>
-    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
         <v>528</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>529</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C535" s="17"/>
     </row>
-    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>530</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>531</v>
       </c>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="C537" s="17"/>
     </row>
-    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>532</v>
       </c>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="C538" s="17"/>
     </row>
-    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>533</v>
       </c>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C539" s="17"/>
     </row>
-    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>534</v>
       </c>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C540" s="17"/>
     </row>
-    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>535</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C541" s="17"/>
     </row>
-    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>536</v>
       </c>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C542" s="17"/>
     </row>
-    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>537</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C543" s="17"/>
     </row>
-    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>538</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="C544" s="17"/>
     </row>
-    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>539</v>
       </c>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C545" s="17"/>
     </row>
-    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>540</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>541</v>
       </c>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="C547" s="17"/>
     </row>
-    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>542</v>
       </c>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C548" s="17"/>
     </row>
-    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>543</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="C549" s="17"/>
     </row>
-    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>544</v>
       </c>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="C550" s="17"/>
     </row>
-    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>545</v>
       </c>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C551" s="17"/>
     </row>
-    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>546</v>
       </c>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="C552" s="17"/>
     </row>
-    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>547</v>
       </c>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="C553" s="17"/>
     </row>
-    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>548</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>549</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C555" s="17"/>
     </row>
-    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>550</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>551</v>
       </c>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>552</v>
       </c>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>553</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C559" s="17"/>
     </row>
-    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>554</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="C560" s="17"/>
     </row>
-    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>555</v>
       </c>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="C561" s="17"/>
     </row>
-    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>556</v>
       </c>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>557</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C563" s="17"/>
     </row>
-    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>558</v>
       </c>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="C564" s="17"/>
     </row>
-    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>559</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="C565" s="17"/>
     </row>
-    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>560</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>561</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="C567" s="17"/>
     </row>
-    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>562</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C568" s="17"/>
     </row>
-    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>563</v>
       </c>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="C569" s="17"/>
     </row>
-    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>564</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C570" s="17"/>
     </row>
-    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>565</v>
       </c>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="C571" s="17"/>
     </row>
-    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>566</v>
       </c>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="C572" s="17"/>
     </row>
-    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>567</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C573" s="17"/>
     </row>
-    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>568</v>
       </c>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="C574" s="17"/>
     </row>
-    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>569</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="C575" s="17"/>
     </row>
-    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>570</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C576" s="17"/>
     </row>
-    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>571</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="C577" s="17"/>
     </row>
-    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>572</v>
       </c>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C578" s="17"/>
     </row>
-    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>573</v>
       </c>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="C579" s="17"/>
     </row>
-    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>574</v>
       </c>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C580" s="17"/>
     </row>
-    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>575</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="C581" s="17"/>
     </row>
-    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>576</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="C582" s="17"/>
     </row>
-    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>577</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C583" s="17"/>
     </row>
-    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>578</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C584" s="17"/>
     </row>
-    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>579</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="C585" s="17"/>
     </row>
-    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>580</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="C586" s="17"/>
     </row>
-    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>581</v>
       </c>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C587" s="17"/>
     </row>
-    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>582</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>583</v>
       </c>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="C589" s="17"/>
     </row>
-    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>584</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="C590" s="17"/>
     </row>
-    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>585</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="C591" s="17"/>
     </row>
-    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>586</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>587</v>
       </c>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="C593" s="17"/>
     </row>
-    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>588</v>
       </c>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="C594" s="17"/>
     </row>
-    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>589</v>
       </c>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C595" s="17"/>
     </row>
-    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>590</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C596" s="17"/>
     </row>
-    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>591</v>
       </c>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="C597" s="17"/>
     </row>
-    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>592</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="C598" s="17"/>
     </row>
-    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
         <v>593</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
         <v>594</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="C600" s="17"/>
     </row>
-    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>595</v>
       </c>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="C601" s="17"/>
     </row>
-    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>596</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>597</v>
       </c>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="C603" s="17"/>
     </row>
-    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>598</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C604" s="17"/>
     </row>
-    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>599</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
         <v>600</v>
       </c>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C606" s="17"/>
     </row>
-    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>601</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="C607" s="17"/>
     </row>
-    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>602</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>603</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="C609" s="17"/>
     </row>
-    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>604</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C610" s="17"/>
     </row>
-    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>605</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C611" s="17"/>
     </row>
-    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>606</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="C612" s="17"/>
     </row>
-    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>607</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="C613" s="17"/>
     </row>
-    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>608</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C614" s="17"/>
     </row>
-    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>609</v>
       </c>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C615" s="17"/>
     </row>
-    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>610</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="C616" s="17"/>
     </row>
-    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>611</v>
       </c>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="C617" s="17"/>
     </row>
-    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>612</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C618" s="17"/>
     </row>
-    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>613</v>
       </c>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="C619" s="17"/>
     </row>
-    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>614</v>
       </c>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C620" s="17"/>
     </row>
-    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>615</v>
       </c>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C621" s="17"/>
     </row>
-    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>616</v>
       </c>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="C622" s="17"/>
     </row>
-    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>617</v>
       </c>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="C623" s="17"/>
     </row>
-    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>618</v>
       </c>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="C624" s="17"/>
     </row>
-    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>619</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="C625" s="17"/>
     </row>
-    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>620</v>
       </c>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="C626" s="17"/>
     </row>
-    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>621</v>
       </c>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="C627" s="17"/>
     </row>
-    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>622</v>
       </c>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C628" s="17"/>
     </row>
-    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>623</v>
       </c>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="C629" s="17"/>
     </row>
-    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>624</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="C630" s="17"/>
     </row>
-    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>625</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>626</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="C632" s="17"/>
     </row>
-    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>627</v>
       </c>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C633" s="17"/>
     </row>
-    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>628</v>
       </c>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="C634" s="17"/>
     </row>
-    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>629</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="C635" s="17"/>
     </row>
-    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>630</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="C636" s="17"/>
     </row>
-    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>631</v>
       </c>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="C637" s="17"/>
     </row>
-    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>632</v>
       </c>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C638" s="17"/>
     </row>
-    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>633</v>
       </c>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="C639" s="17"/>
     </row>
-    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>634</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
         <v>635</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="C641" s="17"/>
     </row>
-    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>636</v>
       </c>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C642" s="17"/>
     </row>
-    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>637</v>
       </c>
@@ -10000,7 +10000,7 @@
       </c>
       <c r="C643" s="17"/>
     </row>
-    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>638</v>
       </c>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C644" s="17"/>
     </row>
-    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>639</v>
       </c>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="C645" s="17"/>
     </row>
-    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>640</v>
       </c>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="C646" s="17"/>
     </row>
-    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>641</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>642</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="C648" s="17"/>
     </row>
-    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>643</v>
       </c>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="C649" s="17"/>
     </row>
-    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
         <v>644</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>645</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C651" s="17"/>
     </row>
-    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>646</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C652" s="17"/>
     </row>
-    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>647</v>
       </c>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C653" s="17"/>
     </row>
-    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>648</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>649</v>
       </c>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="C655" s="17"/>
     </row>
-    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>650</v>
       </c>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C656" s="17"/>
     </row>
-    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>651</v>
       </c>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C657" s="17"/>
     </row>
-    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>652</v>
       </c>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="C658" s="17"/>
     </row>
-    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>653</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>654</v>
       </c>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="C660" s="17"/>
     </row>
-    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>655</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="C661" s="17"/>
     </row>
-    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>656</v>
       </c>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C662" s="17"/>
     </row>
-    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>657</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>658</v>
       </c>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="C664" s="17"/>
     </row>
-    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>659</v>
       </c>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C665" s="17"/>
     </row>
-    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>660</v>
       </c>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C666" s="17"/>
     </row>
-    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>661</v>
       </c>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="C667" s="17"/>
     </row>
-    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>662</v>
       </c>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="C668" s="17"/>
     </row>
-    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>663</v>
       </c>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="C669" s="17"/>
     </row>
-    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>664</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="C670" s="17"/>
     </row>
-    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
         <v>665</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="C671" s="17"/>
     </row>
-    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>666</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="C672" s="17"/>
     </row>
-    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>667</v>
       </c>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="C673" s="17"/>
     </row>
-    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>668</v>
       </c>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="C674" s="17"/>
     </row>
-    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>669</v>
       </c>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="C675" s="17"/>
     </row>
-    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>670</v>
       </c>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="C676" s="17"/>
     </row>
-    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>671</v>
       </c>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="C677" s="17"/>
     </row>
-    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>672</v>
       </c>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="C678" s="17"/>
     </row>
-    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>673</v>
       </c>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C679" s="17"/>
     </row>
-    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>674</v>
       </c>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="C680" s="17"/>
     </row>
-    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>675</v>
       </c>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="C681" s="17"/>
     </row>
-    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>676</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="C682" s="17"/>
     </row>
-    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>677</v>
       </c>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="C683" s="17"/>
     </row>
-    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>678</v>
       </c>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="C684" s="17"/>
     </row>
-    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>679</v>
       </c>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="C685" s="17"/>
     </row>
-    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>680</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>681</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="C687" s="17"/>
     </row>
-    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
         <v>682</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="C688" s="17"/>
     </row>
-    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>683</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
         <v>684</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="C690" s="17"/>
     </row>
-    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>685</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>686</v>
       </c>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="C692" s="17"/>
     </row>
-    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>687</v>
       </c>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="C693" s="17"/>
     </row>
-    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
         <v>688</v>
       </c>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="C694" s="17"/>
     </row>
-    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>689</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="C695" s="17"/>
     </row>
-    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>690</v>
       </c>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="C696" s="17"/>
     </row>
-    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>691</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="C697" s="17"/>
     </row>
-    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>692</v>
       </c>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="C698" s="17"/>
     </row>
-    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>693</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C699" s="17"/>
     </row>
-    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>694</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="C700" s="17"/>
     </row>
-    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>695</v>
       </c>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C701" s="17"/>
     </row>
-    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>696</v>
       </c>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="C702" s="17"/>
     </row>
-    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>697</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="C703" s="17"/>
     </row>
-    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>698</v>
       </c>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C704" s="17"/>
     </row>
-    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>699</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="C705" s="17"/>
     </row>
-    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>700</v>
       </c>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="C706" s="17"/>
     </row>
-    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>701</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C707" s="17"/>
     </row>
-    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>702</v>
       </c>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="C708" s="17"/>
     </row>
-    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>703</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="C709" s="17"/>
     </row>
-    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>704</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="C710" s="17"/>
     </row>
-    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>705</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="C711" s="17"/>
     </row>
-    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>706</v>
       </c>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C712" s="17"/>
     </row>
-    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>707</v>
       </c>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C713" s="17"/>
     </row>
-    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>708</v>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="C714" s="17"/>
     </row>
-    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>709</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="C715" s="17"/>
     </row>
-    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>710</v>
       </c>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>711</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>712</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C718" s="17"/>
     </row>
-    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>713</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="C719" s="17"/>
     </row>
-    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>714</v>
       </c>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>715</v>
       </c>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="C721" s="17"/>
     </row>
-    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>716</v>
       </c>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="C722" s="17"/>
     </row>
-    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>717</v>
       </c>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="C723" s="17"/>
     </row>
-    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>718</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C724" s="17"/>
     </row>
-    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>719</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="C725" s="17"/>
     </row>
-    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>720</v>
       </c>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C726" s="17"/>
     </row>
-    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>721</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="C727" s="17"/>
     </row>
-    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>722</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="C728" s="17"/>
     </row>
-    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
         <v>723</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="C729" s="17"/>
     </row>
-    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
         <v>724</v>
       </c>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="C730" s="17"/>
     </row>
-    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
         <v>725</v>
       </c>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C731" s="17"/>
     </row>
-    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>726</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="C732" s="17"/>
     </row>
-    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
         <v>727</v>
       </c>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C733" s="17"/>
     </row>
-    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
         <v>728</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
         <v>729</v>
       </c>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="C735" s="17"/>
     </row>
-    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>730</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
         <v>731</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="C737" s="17"/>
     </row>
-    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
         <v>732</v>
       </c>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="C738" s="17"/>
     </row>
-    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
         <v>733</v>
       </c>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="C739" s="17"/>
     </row>
-    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
         <v>734</v>
       </c>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C740" s="17"/>
     </row>
-    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
         <v>735</v>
       </c>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="C741" s="17"/>
     </row>
-    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>736</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="C742" s="17"/>
     </row>
-    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
         <v>737</v>
       </c>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="C743" s="17"/>
     </row>
-    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
         <v>738</v>
       </c>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="C744" s="17"/>
     </row>
-    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
         <v>739</v>
       </c>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="C745" s="17"/>
     </row>
-    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
         <v>740</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
         <v>741</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="C747" s="17"/>
     </row>
-    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
         <v>742</v>
       </c>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="C748" s="17"/>
     </row>
-    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
         <v>743</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="C749" s="17"/>
     </row>
-    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
         <v>744</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="C750" s="17"/>
     </row>
-    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
         <v>745</v>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="C751" s="17"/>
     </row>
-    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
         <v>746</v>
       </c>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C752" s="17"/>
     </row>
-    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>747</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
         <v>748</v>
       </c>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C754" s="17"/>
     </row>
-    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
         <v>749</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="C755" s="17"/>
     </row>
-    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>750</v>
       </c>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="C756" s="17"/>
     </row>
-    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>751</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
         <v>752</v>
       </c>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="C758" s="17"/>
     </row>
-    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="14" t="s">
         <v>753</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
         <v>754</v>
       </c>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="C760" s="17"/>
     </row>
-    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
         <v>755</v>
       </c>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="C761" s="17"/>
     </row>
-    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
         <v>756</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C762" s="17"/>
     </row>
-    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
         <v>757</v>
       </c>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="C763" s="17"/>
     </row>
-    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
         <v>758</v>
       </c>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="C764" s="17"/>
     </row>
-    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
         <v>759</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
         <v>760</v>
       </c>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="C766" s="17"/>
     </row>
-    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
         <v>761</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="C767" s="17"/>
     </row>
-    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
         <v>762</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
         <v>763</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="C769" s="17"/>
     </row>
-    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
         <v>764</v>
       </c>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="C770" s="17"/>
     </row>
-    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
         <v>765</v>
       </c>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
         <v>766</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="C772" s="17"/>
     </row>
-    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>767</v>
       </c>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="C773" s="17"/>
     </row>
-    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
         <v>768</v>
       </c>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="C774" s="17"/>
     </row>
-    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
         <v>769</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C775" s="17"/>
     </row>
-    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>770</v>
       </c>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="C776" s="17"/>
     </row>
-    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="29" t="s">
         <v>771</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
         <v>772</v>
       </c>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="C778" s="17"/>
     </row>
-    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
         <v>773</v>
       </c>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C779" s="17"/>
     </row>
-    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>774</v>
       </c>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="C780" s="17"/>
     </row>
-    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>775</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
         <v>776</v>
       </c>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C782" s="17"/>
     </row>
-    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
         <v>777</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="C783" s="17"/>
     </row>
-    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
         <v>778</v>
       </c>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C784" s="17"/>
     </row>
-    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
         <v>779</v>
       </c>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="C785" s="17"/>
     </row>
-    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>780</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
         <v>781</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="C787" s="17"/>
     </row>
-    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>782</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>783</v>
       </c>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="C789" s="17"/>
     </row>
-    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
         <v>784</v>
       </c>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="C790" s="17"/>
     </row>
-    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
         <v>785</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C791" s="17"/>
     </row>
-    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
         <v>786</v>
       </c>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="C792" s="17"/>
     </row>
-    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>787</v>
       </c>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C793" s="17"/>
     </row>
-    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
         <v>788</v>
       </c>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="C794" s="17"/>
     </row>
-    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
         <v>789</v>
       </c>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="C795" s="17"/>
     </row>
-    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
         <v>790</v>
       </c>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="C796" s="17"/>
     </row>
-    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>791</v>
       </c>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
         <v>792</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
         <v>793</v>
       </c>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="C799" s="17"/>
     </row>
-    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>794</v>
       </c>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="C800" s="17"/>
     </row>
-    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
         <v>795</v>
       </c>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="C801" s="17"/>
     </row>
-    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
         <v>796</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
         <v>797</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
         <v>798</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C804" s="17"/>
     </row>
-    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>799</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="C805" s="17"/>
     </row>
-    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
         <v>800</v>
       </c>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
         <v>801</v>
       </c>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>802</v>
       </c>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="C808" s="17"/>
     </row>
-    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>803</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="C809" s="17"/>
     </row>
-    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
         <v>804</v>
       </c>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C810" s="17"/>
     </row>
-    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
         <v>805</v>
       </c>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C811" s="17"/>
     </row>
-    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>806</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="C812" s="17"/>
     </row>
-    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
         <v>807</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="C813" s="17"/>
     </row>
-    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
         <v>808</v>
       </c>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="C814" s="17"/>
     </row>
-    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
         <v>809</v>
       </c>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="C815" s="17"/>
     </row>
-    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>810</v>
       </c>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C816" s="17"/>
     </row>
-    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>811</v>
       </c>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="C817" s="17"/>
     </row>
-    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
         <v>812</v>
       </c>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="C818" s="17"/>
     </row>
-    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>813</v>
       </c>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>814</v>
       </c>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="C820" s="17"/>
     </row>
-    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
         <v>815</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="C821" s="17"/>
     </row>
-    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>816</v>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="C822" s="17"/>
     </row>
-    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>817</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>818</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="C824" s="17"/>
     </row>
-    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
         <v>819</v>
       </c>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="C825" s="17"/>
     </row>
-    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
         <v>820</v>
       </c>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C826" s="17"/>
     </row>
-    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
         <v>821</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C827" s="17"/>
     </row>
-    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>822</v>
       </c>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="C828" s="17"/>
     </row>
-    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
         <v>823</v>
       </c>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="C829" s="17"/>
     </row>
-    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
         <v>824</v>
       </c>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
         <v>825</v>
       </c>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="C831" s="17"/>
     </row>
-    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>826</v>
       </c>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="C832" s="17"/>
     </row>
-    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
         <v>827</v>
       </c>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="C833" s="17"/>
     </row>
-    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
         <v>828</v>
       </c>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
         <v>829</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C835" s="17"/>
     </row>
-    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>830</v>
       </c>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="C836" s="17"/>
     </row>
-    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
         <v>831</v>
       </c>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="C837" s="17"/>
     </row>
-    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
         <v>832</v>
       </c>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="C838" s="17"/>
     </row>
-    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
         <v>833</v>
       </c>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="C839" s="17"/>
     </row>
-    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
         <v>692</v>
       </c>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="C840" s="17"/>
     </row>
-    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
         <v>834</v>
       </c>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="C841" s="17"/>
     </row>
-    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
         <v>835</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="C842" s="17"/>
     </row>
-    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
         <v>836</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
         <v>837</v>
       </c>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="C844" s="17"/>
     </row>
-    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
         <v>838</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="C845" s="17"/>
     </row>
-    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
         <v>839</v>
       </c>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="C846" s="17"/>
     </row>
-    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
         <v>840</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="C847" s="17"/>
     </row>
-    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
         <v>841</v>
       </c>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="C848" s="17"/>
     </row>
-    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
         <v>842</v>
       </c>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="C849" s="17"/>
     </row>
-    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
         <v>843</v>
       </c>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C850" s="17"/>
     </row>
-    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
         <v>844</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C851" s="17"/>
     </row>
-    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
         <v>845</v>
       </c>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="C852" s="17"/>
     </row>
-    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
         <v>846</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="C853" s="17"/>
     </row>
-    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
         <v>847</v>
       </c>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
         <v>848</v>
       </c>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C855" s="17"/>
     </row>
-    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
         <v>849</v>
       </c>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C856" s="17"/>
     </row>
-    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
         <v>850</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C857" s="17"/>
     </row>
-    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
         <v>851</v>
       </c>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="C858" s="17"/>
     </row>
-    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
         <v>852</v>
       </c>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="C859" s="17"/>
     </row>
-    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
         <v>853</v>
       </c>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
         <v>854</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="C861" s="17"/>
     </row>
-    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
         <v>855</v>
       </c>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="C862" s="17"/>
     </row>
-    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
         <v>856</v>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="C863" s="17"/>
     </row>
-    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
         <v>857</v>
       </c>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="C864" s="17"/>
     </row>
-    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
         <v>858</v>
       </c>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="C865" s="17"/>
     </row>
-    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
         <v>859</v>
       </c>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
         <v>860</v>
       </c>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C867" s="17"/>
     </row>
-    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
         <v>861</v>
       </c>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="C868" s="17"/>
     </row>
-    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
         <v>862</v>
       </c>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="C869" s="17"/>
     </row>
-    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
         <v>863</v>
       </c>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="D870" s="31"/>
     </row>
-    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
         <v>864</v>
       </c>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C871" s="17"/>
     </row>
-    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
         <v>865</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
         <v>866</v>
       </c>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
         <v>867</v>
       </c>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="C874" s="17"/>
     </row>
-    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
         <v>868</v>
       </c>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="C875" s="17"/>
     </row>
-    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
         <v>869</v>
       </c>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="C876" s="17"/>
     </row>
-    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
         <v>870</v>
       </c>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="C877" s="17"/>
     </row>
-    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
         <v>871</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
         <v>872</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C879" s="17"/>
     </row>
-    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
         <v>873</v>
       </c>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="C880" s="17"/>
     </row>
-    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
         <v>874</v>
       </c>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
         <v>875</v>
       </c>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="C882" s="17"/>
     </row>
-    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>876</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
         <v>877</v>
       </c>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
         <v>878</v>
       </c>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="C885" s="17"/>
     </row>
-    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
         <v>879</v>
       </c>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="C886" s="17"/>
     </row>
-    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
         <v>880</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
         <v>881</v>
       </c>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="C888" s="17"/>
     </row>
-    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
         <v>882</v>
       </c>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="C889" s="17"/>
     </row>
-    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
         <v>883</v>
       </c>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C890" s="17"/>
     </row>
-    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
         <v>884</v>
       </c>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="C891" s="17"/>
     </row>
-    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
         <v>885</v>
       </c>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="C892" s="17"/>
     </row>
-    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
         <v>886</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="C893" s="17"/>
     </row>
-    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
         <v>887</v>
       </c>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="C894" s="17"/>
     </row>
-    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
         <v>888</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="C895" s="17"/>
     </row>
-    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
         <v>889</v>
       </c>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="C896" s="17"/>
     </row>
-    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
         <v>890</v>
       </c>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
         <v>891</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
         <v>892</v>
       </c>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="C899" s="17"/>
     </row>
-    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
         <v>893</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C900" s="17"/>
     </row>
-    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
         <v>894</v>
       </c>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="C901" s="17"/>
     </row>
-    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
         <v>895</v>
       </c>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="C902" s="17"/>
     </row>
-    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
         <v>896</v>
       </c>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C903" s="17"/>
     </row>
-    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
         <v>897</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
         <v>898</v>
       </c>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="C905" s="17"/>
     </row>
-    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
         <v>899</v>
       </c>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C906" s="17"/>
     </row>
-    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
         <v>900</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="C907" s="17"/>
     </row>
-    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
         <v>901</v>
       </c>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="C908" s="17"/>
     </row>
-    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
         <v>902</v>
       </c>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="C909" s="17"/>
     </row>
-    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
         <v>903</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="C910" s="17"/>
     </row>
-    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
         <v>904</v>
       </c>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
         <v>905</v>
       </c>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="C912" s="17"/>
     </row>
-    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
         <v>906</v>
       </c>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="C913" s="17"/>
     </row>
-    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
         <v>907</v>
       </c>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
         <v>908</v>
       </c>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
         <v>909</v>
       </c>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C916" s="17"/>
     </row>
-    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
         <v>910</v>
       </c>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="C917" s="17"/>
     </row>
-    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
         <v>911</v>
       </c>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
         <v>912</v>
       </c>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C919" s="17"/>
     </row>
-    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
         <v>913</v>
       </c>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C920" s="17"/>
     </row>
-    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
         <v>914</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="C921" s="17"/>
     </row>
-    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
         <v>915</v>
       </c>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="C922" s="17"/>
     </row>
-    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
         <v>916</v>
       </c>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
         <v>917</v>
       </c>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="C924" s="17"/>
     </row>
-    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
         <v>918</v>
       </c>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="C925" s="17"/>
     </row>
-    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
         <v>919</v>
       </c>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C926" s="17"/>
     </row>
-    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
         <v>920</v>
       </c>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="C927" s="17"/>
     </row>
-    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
         <v>921</v>
       </c>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="C928" s="17"/>
     </row>
-    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
         <v>922</v>
       </c>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
         <v>923</v>
       </c>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
         <v>924</v>
       </c>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="C931" s="17"/>
     </row>
-    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
         <v>925</v>
       </c>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C932" s="17"/>
     </row>
-    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
         <v>926</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
         <v>927</v>
       </c>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="C934" s="17"/>
     </row>
-    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
         <v>928</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="C935" s="17"/>
     </row>
-    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
         <v>929</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="C936" s="17"/>
     </row>
-    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
         <v>930</v>
       </c>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="C937" s="17"/>
     </row>
-    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
         <v>931</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
         <v>932</v>
       </c>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
         <v>933</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
         <v>934</v>
       </c>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="C941" s="17"/>
     </row>
-    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
         <v>935</v>
       </c>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C942" s="17"/>
     </row>
-    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
         <v>936</v>
       </c>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="C943" s="17"/>
     </row>
-    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
         <v>937</v>
       </c>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="C944" s="17"/>
     </row>
-    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
         <v>938</v>
       </c>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="C945" s="17"/>
     </row>
-    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
         <v>939</v>
       </c>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="C946" s="17"/>
     </row>
-    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
         <v>940</v>
       </c>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="C947" s="17"/>
     </row>
-    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
         <v>941</v>
       </c>
@@ -12800,7 +12800,7 @@
       </c>
       <c r="C948" s="17"/>
     </row>
-    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
         <v>942</v>
       </c>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
         <v>943</v>
       </c>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="C950" s="17"/>
     </row>
-    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
         <v>944</v>
       </c>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="C951" s="17"/>
     </row>
-    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
         <v>945</v>
       </c>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="C952" s="17"/>
     </row>
-    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
         <v>946</v>
       </c>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="C953" s="17"/>
     </row>
-    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
         <v>947</v>
       </c>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="C954" s="17"/>
     </row>
-    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6" t="s">
         <v>948</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
         <v>949</v>
       </c>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="C956" s="17"/>
     </row>
-    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
         <v>950</v>
       </c>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="C957" s="17"/>
     </row>
-    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
         <v>951</v>
       </c>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C958" s="17"/>
     </row>
-    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
         <v>952</v>
       </c>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="C959" s="17"/>
     </row>
-    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
         <v>953</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
         <v>954</v>
       </c>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="C961" s="17"/>
     </row>
-    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
         <v>955</v>
       </c>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
         <v>956</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="C963" s="17"/>
     </row>
-    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
         <v>957</v>
       </c>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="C964" s="17"/>
     </row>
-    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
         <v>958</v>
       </c>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="C965" s="17"/>
     </row>
-    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
         <v>959</v>
       </c>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C966" s="17"/>
     </row>
-    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
         <v>960</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
         <v>961</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C968" s="17"/>
     </row>
-    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
         <v>962</v>
       </c>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
         <v>963</v>
       </c>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="C970" s="17"/>
     </row>
-    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
         <v>964</v>
       </c>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="C971" s="17"/>
     </row>
-    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
         <v>965</v>
       </c>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="C972" s="17"/>
     </row>
-    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
         <v>966</v>
       </c>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="C973" s="17"/>
     </row>
-    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
         <v>967</v>
       </c>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="C974" s="17"/>
     </row>
-    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
         <v>968</v>
       </c>
@@ -13045,7 +13045,7 @@
       </c>
       <c r="C975" s="17"/>
     </row>
-    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
         <v>969</v>
       </c>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="C976" s="17"/>
     </row>
-    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
         <v>970</v>
       </c>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="C977" s="17"/>
     </row>
-    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
         <v>971</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C978" s="17"/>
     </row>
-    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
         <v>972</v>
       </c>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="C979" s="17"/>
     </row>
-    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
         <v>973</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="C980" s="17"/>
     </row>
-    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
         <v>974</v>
       </c>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="C981" s="17"/>
     </row>
-    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
         <v>975</v>
       </c>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="C982" s="17"/>
     </row>
-    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
         <v>976</v>
       </c>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="C983" s="17"/>
     </row>
-    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
         <v>977</v>
       </c>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="C984" s="17"/>
     </row>
-    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
         <v>978</v>
       </c>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C985" s="17"/>
     </row>
-    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
         <v>979</v>
       </c>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="C986" s="17"/>
     </row>
-    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
         <v>980</v>
       </c>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="C987" s="17"/>
     </row>
-    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
         <v>981</v>
       </c>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C988" s="17"/>
     </row>
-    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
         <v>982</v>
       </c>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="C989" s="17"/>
     </row>
-    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
         <v>983</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="C990" s="17"/>
     </row>
-    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
         <v>984</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="C991" s="18"/>
     </row>
-    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
         <v>985</v>
       </c>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="C992" s="17"/>
     </row>
-    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
         <v>986</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
         <v>987</v>
       </c>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="C994" s="17"/>
     </row>
-    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>988</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
         <v>989</v>
       </c>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="C996" s="17"/>
     </row>
-    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
         <v>990</v>
       </c>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="C997" s="17"/>
     </row>
-    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
         <v>991</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="C998" s="17"/>
     </row>
-    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
         <v>992</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
         <v>993</v>
       </c>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="C1000" s="17"/>
     </row>
-    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
         <v>994</v>
       </c>
@@ -13285,9 +13285,9 @@
       </c>
       <c r="C1001" s="33"/>
     </row>
-    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="13"/>
     </row>
   </sheetData>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD1C3E1-4E64-4D59-8AD7-7CD54EADB7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D550119D-257A-4FAB-B991-9E2A4EC8C1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,9 +813,6 @@
     <t>TODO SOBRE MI MADRE</t>
   </si>
   <si>
-    <t>ANTES DEL ANOCHECERR</t>
-  </si>
-  <si>
     <t>NOSFERATU</t>
   </si>
   <si>
@@ -2307,9 +2304,6 @@
     <t>X-MEN: FIRST CLASS</t>
   </si>
   <si>
-    <t>ANIMAL KINGDON</t>
-  </si>
-  <si>
     <t>LO QUE HACEMOS EN LAS SOMBRAS</t>
   </si>
   <si>
@@ -3088,6 +3082,12 @@
   </si>
   <si>
     <t>BROKEBACK MOUNTAIN</t>
+  </si>
+  <si>
+    <t>ANTES DEL ANOCHECER</t>
+  </si>
+  <si>
+    <t>ANIMAL KINGDOM</t>
   </si>
 </sst>
 </file>
@@ -3745,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E764" sqref="E764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20">
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="24">
@@ -3878,7 +3878,7 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>SABRINA</v>
+        <v>ARMA FATAL</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -3988,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4183,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B43" s="8">
         <v>6</v>
@@ -4234,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4343,12 +4343,12 @@
         <v>7</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B56" s="4">
         <v>7</v>
@@ -4363,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4826,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4837,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4877,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,7 +5011,7 @@
         <v>15</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5134,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>17</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5178,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
         <v>17</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5209,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
         <v>17</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>18</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
         <v>18</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>18</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5311,12 +5311,12 @@
         <v>19</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B154" s="4">
         <v>19</v>
@@ -5349,7 +5349,7 @@
         <v>19</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5409,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5420,7 +5420,7 @@
         <v>20</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,7 +5431,7 @@
         <v>20</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
         <v>20</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5475,7 +5475,7 @@
         <v>20</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B171" s="4">
         <v>21</v>
@@ -5513,7 +5513,7 @@
         <v>21</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>22</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,7 +5571,7 @@
         <v>22</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5611,7 +5611,7 @@
         <v>22</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>23</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
         <v>23</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,7 +5689,7 @@
         <v>23</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
         <v>23</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5825,7 +5825,7 @@
         <v>25</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>25</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5925,7 +5925,7 @@
         <v>26</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,7 +5936,7 @@
         <v>26</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
         <v>26</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,7 +6014,7 @@
         <v>27</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6110,7 +6110,7 @@
         <v>28</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B240" s="4">
         <v>29</v>
@@ -6253,7 +6253,7 @@
         <v>30</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6266,19 +6266,19 @@
       <c r="C250" s="17"/>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
-        <v>250</v>
+      <c r="A251" s="32" t="s">
+        <v>1007</v>
       </c>
       <c r="B251" s="4">
         <v>30</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="4">
         <v>30</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="8">
         <v>31</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="4">
         <v>31</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="4">
         <v>31</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="4">
         <v>31</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="4">
         <v>31</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="4">
         <v>31</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="4">
         <v>31</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="4">
         <v>31</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B261" s="8">
         <v>32</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="4">
         <v>32</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="4">
         <v>32</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="4">
         <v>32</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="4">
         <v>32</v>
@@ -6410,29 +6410,29 @@
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="4">
         <v>32</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="4">
         <v>32</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B268" s="8">
         <v>33</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B269" s="4">
         <v>33</v>
@@ -6450,18 +6450,18 @@
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B270" s="4">
         <v>33</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B271" s="4">
         <v>33</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B272" s="4">
         <v>33</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B273" s="4">
         <v>33</v>
@@ -6490,18 +6490,18 @@
     </row>
     <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B274" s="4">
         <v>33</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B275" s="8">
         <v>34</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B276" s="4">
         <v>34</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B277" s="4">
         <v>34</v>
@@ -6528,18 +6528,18 @@
     </row>
     <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B278" s="4">
         <v>34</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B279" s="4">
         <v>34</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B280" s="4">
         <v>34</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B281" s="4">
         <v>34</v>
@@ -6566,18 +6566,18 @@
     </row>
     <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B282" s="4">
         <v>34</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B283" s="4">
         <v>34</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B284" s="4">
         <v>34</v>
@@ -6599,29 +6599,29 @@
     </row>
     <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B285" s="8">
         <v>35</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B286" s="4">
         <v>35</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B287" s="4">
         <v>35</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B288" s="4">
         <v>35</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="4">
         <v>35</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B290" s="4">
         <v>35</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B291" s="4">
         <v>35</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B292" s="8">
         <v>36</v>
@@ -6677,18 +6677,18 @@
     </row>
     <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B293" s="4">
         <v>36</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B294" s="4">
         <v>36</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B295" s="4">
         <v>36</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B296" s="4">
         <v>36</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" s="4">
         <v>36</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B298" s="4">
         <v>36</v>
@@ -6733,18 +6733,18 @@
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B299" s="4">
         <v>36</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300" s="8">
         <v>37</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" s="4">
         <v>37</v>
@@ -6762,18 +6762,18 @@
     </row>
     <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" s="4">
         <v>37</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="4">
         <v>37</v>
@@ -6782,18 +6782,18 @@
     </row>
     <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" s="4">
         <v>37</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="4">
         <v>37</v>
@@ -6804,29 +6804,29 @@
     </row>
     <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" s="4">
         <v>37</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" s="4">
         <v>37</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B308" s="4">
         <v>37</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" s="8">
         <v>38</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B310" s="4">
         <v>38</v>
@@ -6855,18 +6855,18 @@
     </row>
     <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B311" s="4">
         <v>38</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B312" s="4">
         <v>38</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B313" s="4">
         <v>38</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B314" s="4">
         <v>38</v>
@@ -6895,18 +6895,18 @@
     </row>
     <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B315" s="4">
         <v>38</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B316" s="4">
         <v>38</v>
@@ -6917,18 +6917,18 @@
     </row>
     <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B317" s="4">
         <v>38</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B318" s="8">
         <v>39</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B319" s="4">
         <v>39</v>
@@ -6950,18 +6950,18 @@
     </row>
     <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B320" s="4">
         <v>39</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B321" s="4">
         <v>39</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B322" s="4">
         <v>39</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B323" s="4">
         <v>39</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B324" s="4">
         <v>39</v>
@@ -7001,29 +7001,29 @@
     </row>
     <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B325" s="4">
         <v>39</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B326" s="4">
         <v>39</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B327" s="4">
         <v>39</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B328" s="8">
         <v>40</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B329" s="4">
         <v>40</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B330" s="4">
         <v>40</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B331" s="4">
         <v>40</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B332" s="4">
         <v>40</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B333" s="4">
         <v>40</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B334" s="4">
         <v>40</v>
@@ -7101,18 +7101,18 @@
     </row>
     <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B335" s="4">
         <v>40</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="4">
         <v>40</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B337" s="4">
         <v>40</v>
@@ -7130,40 +7130,40 @@
     </row>
     <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B338" s="4">
         <v>40</v>
       </c>
       <c r="C338" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B339" s="8">
         <v>41</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B340" s="4">
         <v>41</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B341" s="4">
         <v>41</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B342" s="4">
         <v>41</v>
@@ -7181,18 +7181,18 @@
     </row>
     <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B343" s="4">
         <v>41</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B344" s="4">
         <v>41</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B345" s="4">
         <v>41</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B346" s="8">
         <v>42</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B347" s="4">
         <v>42</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B348" s="4">
         <v>42</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B349" s="4">
         <v>42</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B350" s="4">
         <v>42</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B351" s="4">
         <v>42</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B352" s="4">
         <v>42</v>
@@ -7275,18 +7275,18 @@
     </row>
     <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B353" s="4">
         <v>42</v>
       </c>
       <c r="C353" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B354" s="4">
         <v>42</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B355" s="8">
         <v>43</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B356" s="4">
         <v>43</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B357" s="4">
         <v>43</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B358" s="4">
         <v>43</v>
@@ -7333,18 +7333,18 @@
     </row>
     <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B359" s="4">
         <v>43</v>
       </c>
       <c r="C359" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B360" s="4">
         <v>43</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B361" s="4">
         <v>43</v>
@@ -7362,29 +7362,29 @@
     </row>
     <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B362" s="4">
         <v>43</v>
       </c>
       <c r="C362" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B363" s="4">
         <v>43</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B364" s="4">
         <v>43</v>
@@ -7395,18 +7395,18 @@
     </row>
     <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B365" s="4">
         <v>43</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B366" s="8">
         <v>44</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B367" s="4">
         <v>44</v>
@@ -7426,18 +7426,18 @@
     </row>
     <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B368" s="4">
         <v>44</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B369" s="4">
         <v>44</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B370" s="4">
         <v>44</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B371" s="4">
         <v>44</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B372" s="4">
         <v>44</v>
@@ -7475,18 +7475,18 @@
     </row>
     <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B373" s="4">
         <v>44</v>
       </c>
       <c r="C373" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B374" s="8">
         <v>45</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B375" s="4">
         <v>45</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B376" s="4">
         <v>45</v>
@@ -7517,18 +7517,18 @@
     </row>
     <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B377" s="4">
         <v>45</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B378" s="4">
         <v>45</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B379" s="4">
         <v>45</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B380" s="4">
         <v>45</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B381" s="4">
         <v>45</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B382" s="4">
         <v>45</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B383" s="8">
         <v>46</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B384" s="4">
         <v>46</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B385" s="4">
         <v>46</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B386" s="4">
         <v>46</v>
@@ -7613,18 +7613,18 @@
     </row>
     <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B387" s="4">
         <v>46</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B388" s="4">
         <v>46</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B389" s="4">
         <v>46</v>
@@ -7642,51 +7642,51 @@
     </row>
     <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B390" s="4">
         <v>46</v>
       </c>
       <c r="C390" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B391" s="8">
         <v>47</v>
       </c>
       <c r="C391" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B392" s="4">
         <v>47</v>
       </c>
       <c r="C392" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B393" s="4">
         <v>47</v>
       </c>
       <c r="C393" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B394" s="4">
         <v>47</v>
@@ -7695,18 +7695,18 @@
     </row>
     <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B395" s="4">
         <v>47</v>
       </c>
       <c r="C395" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B396" s="4">
         <v>47</v>
@@ -7715,18 +7715,18 @@
     </row>
     <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B397" s="4">
         <v>47</v>
       </c>
       <c r="C397" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B398" s="4">
         <v>47</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B399" s="8">
         <v>48</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B400" s="4">
         <v>48</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B401" s="4">
         <v>48</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B402" s="4">
         <v>48</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B403" s="4">
         <v>48</v>
@@ -7780,29 +7780,29 @@
     </row>
     <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B404" s="4">
         <v>48</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B405" s="4">
         <v>48</v>
       </c>
       <c r="C405" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B406" s="4">
         <v>48</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B407" s="4">
         <v>48</v>
@@ -7820,29 +7820,29 @@
     </row>
     <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B408" s="8">
         <v>49</v>
       </c>
       <c r="C408" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B409" s="4">
         <v>49</v>
       </c>
       <c r="C409" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B410" s="4">
         <v>49</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B411" s="4">
         <v>49</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B412" s="4">
         <v>49</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B413" s="4">
         <v>49</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B414" s="4">
         <v>49</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B415" s="4">
         <v>49</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B416" s="8">
         <v>50</v>
@@ -7907,18 +7907,18 @@
     </row>
     <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B417" s="4">
         <v>50</v>
       </c>
       <c r="C417" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B418" s="4">
         <v>50</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B419" s="4">
         <v>50</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B420" s="4">
         <v>50</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B421" s="4">
         <v>50</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B422" s="4">
         <v>50</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B423" s="4">
         <v>50</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B424" s="8">
         <v>51</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B425" s="4">
         <v>51</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B426" s="4">
         <v>51</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B427" s="4">
         <v>51</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B428" s="4">
         <v>51</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B429" s="4">
         <v>51</v>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B430" s="4">
         <v>51</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B431" s="4">
         <v>51</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B432" s="4">
         <v>51</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B433" s="8">
         <v>52</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B434" s="4">
         <v>52</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B435" s="4">
         <v>52</v>
@@ -8084,18 +8084,18 @@
     </row>
     <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B436" s="4">
         <v>52</v>
       </c>
       <c r="C436" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B437" s="4">
         <v>52</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B438" s="4">
         <v>52</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B439" s="4">
         <v>52</v>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B440" s="4">
         <v>52</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B441" s="4">
         <v>52</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B442" s="8">
         <v>53</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B443" s="4">
         <v>53</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B444" s="4">
         <v>53</v>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B445" s="4">
         <v>53</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B446" s="4">
         <v>53</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B447" s="4">
         <v>53</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B448" s="4">
         <v>53</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B449" s="4">
         <v>53</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B450" s="4">
         <v>53</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B451" s="4">
         <v>53</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B452" s="8">
         <v>54</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B453" s="4">
         <v>54</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B454" s="4">
         <v>54</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B455" s="4">
         <v>54</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B456" s="4">
         <v>54</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B457" s="4">
         <v>54</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B458" s="4">
         <v>54</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B459" s="4">
         <v>54</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B460" s="4">
         <v>54</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B461" s="8">
         <v>55</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B462" s="4">
         <v>55</v>
@@ -8331,18 +8331,18 @@
     </row>
     <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B463" s="4">
         <v>55</v>
       </c>
       <c r="C463" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B464" s="4">
         <v>55</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B465" s="4">
         <v>55</v>
@@ -8360,18 +8360,18 @@
     </row>
     <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B466" s="4">
         <v>55</v>
       </c>
       <c r="C466" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B467" s="4">
         <v>55</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B468" s="4">
         <v>55</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B469" s="4">
         <v>55</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B470" s="4">
         <v>55</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B471" s="4">
         <v>55</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B472" s="4">
         <v>55</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B473" s="4">
         <v>56</v>
@@ -8436,18 +8436,18 @@
     </row>
     <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B474" s="8">
         <v>56</v>
       </c>
       <c r="C474" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B475" s="4">
         <v>56</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B476" s="4">
         <v>56</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B477" s="4">
         <v>56</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B478" s="4">
         <v>56</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B479" s="4">
         <v>56</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B480" s="8">
         <v>57</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B481" s="4">
         <v>57</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B482" s="4">
         <v>57</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B483" s="4">
         <v>57</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B484" s="4">
         <v>57</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B485" s="4">
         <v>57</v>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B486" s="4">
         <v>57</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B487" s="4">
         <v>57</v>
@@ -8564,18 +8564,18 @@
     </row>
     <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B488" s="8">
         <v>58</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B489" s="4">
         <v>58</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B490" s="4">
         <v>58</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B491" s="4">
         <v>58</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B492" s="4">
         <v>58</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B493" s="4">
         <v>58</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B494" s="4">
         <v>58</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B495" s="4">
         <v>58</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B496" s="4">
         <v>58</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B497" s="4">
         <v>58</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B498" s="8">
         <v>59</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B499" s="4">
         <v>59</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B500" s="4">
         <v>59</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B501" s="4">
         <v>59</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B502" s="4">
         <v>59</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B503" s="4">
         <v>59</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B504" s="4">
         <v>59</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B505" s="4">
         <v>59</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B506" s="4">
         <v>59</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B507" s="8">
         <v>60</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B508" s="4">
         <v>60</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B509" s="4">
         <v>60</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B510" s="4">
         <v>60</v>
@@ -8775,18 +8775,18 @@
     </row>
     <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B511" s="4">
         <v>60</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B512" s="4">
         <v>60</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B513" s="4">
         <v>60</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B514" s="4">
         <v>60</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B515" s="4">
         <v>60</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B516" s="4">
         <v>60</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B517" s="8">
         <v>61</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B518" s="4">
         <v>61</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B519" s="4">
         <v>61</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B520" s="4">
         <v>61</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B521" s="4">
         <v>61</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B522" s="4">
         <v>61</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B523" s="4">
         <v>61</v>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B524" s="4">
         <v>61</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B525" s="4">
         <v>61</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B526" s="4">
         <v>61</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B527" s="4">
         <v>62</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B528" s="8">
         <v>62</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B529" s="4">
         <v>62</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B530" s="4">
         <v>62</v>
@@ -8957,18 +8957,18 @@
     </row>
     <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B531" s="4">
         <v>62</v>
       </c>
       <c r="C531" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B532" s="4">
         <v>62</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B533" s="4">
         <v>62</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B534" s="8">
         <v>63</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B535" s="4">
         <v>63</v>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B536" s="4">
         <v>63</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B537" s="4">
         <v>63</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B538" s="4">
         <v>63</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B539" s="4">
         <v>63</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B540" s="4">
         <v>63</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B541" s="4">
         <v>63</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B542" s="4">
         <v>63</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B543" s="4">
         <v>63</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B544" s="8">
         <v>64</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B545" s="4">
         <v>64</v>
@@ -9098,18 +9098,18 @@
     </row>
     <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B546" s="4">
         <v>64</v>
       </c>
       <c r="C546" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B547" s="4">
         <v>64</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B548" s="4">
         <v>64</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B549" s="4">
         <v>64</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B550" s="4">
         <v>64</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B551" s="4">
         <v>64</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B552" s="4">
         <v>64</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B553" s="4">
         <v>64</v>
@@ -9172,18 +9172,18 @@
     </row>
     <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B554" s="8">
         <v>65</v>
       </c>
       <c r="C554" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B555" s="4">
         <v>65</v>
@@ -9192,18 +9192,18 @@
     </row>
     <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B556" s="4">
         <v>65</v>
       </c>
       <c r="C556" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B557" s="4">
         <v>65</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B558" s="4">
         <v>65</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B559" s="4">
         <v>65</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B560" s="4">
         <v>65</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B561" s="8">
         <v>66</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B562" s="4">
         <v>66</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B563" s="4">
         <v>66</v>
@@ -9266,7 +9266,7 @@
     </row>
     <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B564" s="4">
         <v>66</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B565" s="4">
         <v>66</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B566" s="4">
         <v>66</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B567" s="4">
         <v>66</v>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B568" s="4">
         <v>66</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B569" s="8">
         <v>67</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B570" s="4">
         <v>67</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B571" s="4">
         <v>67</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B572" s="4">
         <v>67</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B573" s="4">
         <v>67</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B574" s="4">
         <v>67</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B575" s="4">
         <v>67</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B576" s="4">
         <v>67</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B577" s="4">
         <v>67</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B578" s="4">
         <v>67</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B579" s="8">
         <v>68</v>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B580" s="4">
         <v>68</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B581" s="4">
         <v>68</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B582" s="4">
         <v>68</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B583" s="4">
         <v>68</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B584" s="4">
         <v>68</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B585" s="4">
         <v>68</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B586" s="4">
         <v>68</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B587" s="4">
         <v>68</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B588" s="8">
         <v>69</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B589" s="4">
         <v>69</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B590" s="4">
         <v>69</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B591" s="4">
         <v>69</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B592" s="4">
         <v>69</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B593" s="4">
         <v>69</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B594" s="4">
         <v>69</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B595" s="4">
         <v>69</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B596" s="4">
         <v>69</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B597" s="4">
         <v>69</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B598" s="8">
         <v>70</v>
@@ -9585,7 +9585,7 @@
     </row>
     <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B599" s="4">
         <v>70</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B600" s="4">
         <v>70</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B601" s="4">
         <v>70</v>
@@ -9614,18 +9614,18 @@
     </row>
     <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B602" s="4">
         <v>70</v>
       </c>
       <c r="C602" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B603" s="4">
         <v>70</v>
@@ -9634,7 +9634,7 @@
     </row>
     <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B604" s="4">
         <v>70</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B605" s="4">
         <v>70</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B606" s="4">
         <v>70</v>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B607" s="8">
         <v>71</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B608" s="4">
         <v>71</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B609" s="4">
         <v>71</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B610" s="4">
         <v>71</v>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B611" s="4">
         <v>71</v>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B612" s="4">
         <v>71</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B613" s="4">
         <v>71</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B614" s="4">
         <v>71</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B615" s="8">
         <v>72</v>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B616" s="4">
         <v>72</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B617" s="4">
         <v>72</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B618" s="4">
         <v>72</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B619" s="4">
         <v>72</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B620" s="4">
         <v>72</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B621" s="4">
         <v>72</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B622" s="4">
         <v>72</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B623" s="4">
         <v>72</v>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B624" s="8">
         <v>73</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B625" s="4">
         <v>73</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B626" s="4">
         <v>73</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B627" s="4">
         <v>73</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B628" s="4">
         <v>73</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B629" s="4">
         <v>73</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B630" s="4">
         <v>73</v>
@@ -9881,18 +9881,18 @@
     </row>
     <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B631" s="4">
         <v>73</v>
       </c>
       <c r="C631" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B632" s="4">
         <v>73</v>
@@ -9901,7 +9901,7 @@
     </row>
     <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B633" s="8">
         <v>74</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B634" s="4">
         <v>74</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B635" s="4">
         <v>74</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B636" s="4">
         <v>74</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B637" s="4">
         <v>74</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B638" s="4">
         <v>74</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B639" s="4">
         <v>74</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B640" s="8">
         <v>75</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B641" s="4">
         <v>75</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B642" s="4">
         <v>75</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B643" s="4">
         <v>75</v>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B644" s="4">
         <v>75</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B645" s="4">
         <v>75</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B646" s="4">
         <v>75</v>
@@ -10029,18 +10029,18 @@
     </row>
     <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B647" s="4">
         <v>75</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B648" s="8">
         <v>76</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B649" s="4">
         <v>76</v>
@@ -10058,7 +10058,7 @@
     </row>
     <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B650" s="4">
         <v>76</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B651" s="4">
         <v>76</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B652" s="4">
         <v>76</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B653" s="4">
         <v>76</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B654" s="4">
         <v>76</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B655" s="8">
         <v>77</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B656" s="4">
         <v>77</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B657" s="4">
         <v>77</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B658" s="4">
         <v>77</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B659" s="4">
         <v>77</v>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B660" s="4">
         <v>77</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B661" s="4">
         <v>77</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B662" s="4">
         <v>77</v>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B663" s="8">
         <v>78</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B664" s="4">
         <v>78</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B665" s="4">
         <v>78</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B666" s="4">
         <v>78</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B667" s="4">
         <v>78</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B668" s="4">
         <v>78</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B669" s="4">
         <v>78</v>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B670" s="4">
         <v>78</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B671" s="4">
         <v>78</v>
@@ -10260,7 +10260,7 @@
     </row>
     <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B672" s="4">
         <v>78</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B673" s="4">
         <v>78</v>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B674" s="4">
         <v>78</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B675" s="8">
         <v>79</v>
@@ -10296,7 +10296,7 @@
     </row>
     <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B676" s="4">
         <v>79</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B677" s="4">
         <v>79</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B678" s="4">
         <v>79</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B679" s="4">
         <v>79</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B680" s="4">
         <v>79</v>
@@ -10341,7 +10341,7 @@
     </row>
     <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B681" s="4">
         <v>79</v>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B682" s="4">
         <v>79</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B683" s="4">
         <v>79</v>
@@ -10368,7 +10368,7 @@
     </row>
     <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B684" s="8">
         <v>80</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B685" s="4">
         <v>80</v>
@@ -10386,18 +10386,18 @@
     </row>
     <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B686" s="4">
         <v>80</v>
       </c>
       <c r="C686" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B687" s="4">
         <v>80</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B688" s="4">
         <v>80</v>
@@ -10415,18 +10415,18 @@
     </row>
     <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B689" s="4">
         <v>80</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B690" s="4">
         <v>80</v>
@@ -10435,18 +10435,18 @@
     </row>
     <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B691" s="4">
         <v>80</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B692" s="4">
         <v>80</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B693" s="4">
         <v>80</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B694" s="8">
         <v>81</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B695" s="4">
         <v>81</v>
@@ -10482,7 +10482,7 @@
     </row>
     <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B696" s="4">
         <v>81</v>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B697" s="4">
         <v>81</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B698" s="4">
         <v>81</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B699" s="4">
         <v>81</v>
@@ -10518,7 +10518,7 @@
     </row>
     <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B700" s="4">
         <v>81</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B701" s="8">
         <v>82</v>
@@ -10536,7 +10536,7 @@
     </row>
     <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B702" s="4">
         <v>82</v>
@@ -10545,7 +10545,7 @@
     </row>
     <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B703" s="4">
         <v>82</v>
@@ -10554,7 +10554,7 @@
     </row>
     <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B704" s="4">
         <v>82</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B705" s="4">
         <v>82</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B706" s="4">
         <v>82</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B707" s="4">
         <v>82</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B708" s="4">
         <v>82</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B709" s="4">
         <v>82</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B710" s="8">
         <v>83</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B711" s="4">
         <v>83</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B712" s="4">
         <v>83</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B713" s="4">
         <v>83</v>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B714" s="4">
         <v>83</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B715" s="4">
         <v>83</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B716" s="4">
         <v>83</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B717" s="4">
         <v>83</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B718" s="8">
         <v>84</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B719" s="4">
         <v>84</v>
@@ -10700,7 +10700,7 @@
     </row>
     <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B720" s="4">
         <v>84</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B721" s="4">
         <v>84</v>
@@ -10718,7 +10718,7 @@
     </row>
     <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B722" s="4">
         <v>84</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B723" s="4">
         <v>84</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B724" s="4">
         <v>84</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B725" s="4">
         <v>84</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B726" s="4">
         <v>84</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B727" s="8">
         <v>85</v>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B728" s="4">
         <v>85</v>
@@ -10781,7 +10781,7 @@
     </row>
     <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B729" s="4">
         <v>85</v>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B730" s="4">
         <v>85</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B731" s="4">
         <v>85</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B732" s="4">
         <v>85</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B733" s="4">
         <v>85</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B734" s="4">
         <v>85</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B735" s="8">
         <v>86</v>
@@ -10846,18 +10846,18 @@
     </row>
     <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B736" s="4">
         <v>86</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B737" s="4">
         <v>86</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B738" s="4">
         <v>86</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B739" s="4">
         <v>86</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B740" s="4">
         <v>86</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B741" s="4">
         <v>86</v>
@@ -10902,7 +10902,7 @@
     </row>
     <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B742" s="8">
         <v>87</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B743" s="4">
         <v>87</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B744" s="4">
         <v>87</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B745" s="4">
         <v>87</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B746" s="4">
         <v>87</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B747" s="4">
         <v>87</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B748" s="4">
         <v>87</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B749" s="4">
         <v>87</v>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B750" s="4">
         <v>87</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B751" s="8">
         <v>88</v>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B752" s="4">
         <v>88</v>
@@ -11003,18 +11003,18 @@
     </row>
     <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B753" s="4">
         <v>88</v>
       </c>
       <c r="C753" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
-        <v>748</v>
+        <v>1008</v>
       </c>
       <c r="B754" s="4">
         <v>88</v>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B755" s="4">
         <v>88</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B756" s="4">
         <v>88</v>
@@ -11041,18 +11041,18 @@
     </row>
     <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B757" s="4">
         <v>88</v>
       </c>
       <c r="C757" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B758" s="4">
         <v>88</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="14" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B759" s="4">
         <v>88</v>
@@ -11070,7 +11070,7 @@
     </row>
     <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B760" s="4">
         <v>88</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B761" s="8">
         <v>89</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B762" s="4">
         <v>89</v>
@@ -11097,7 +11097,7 @@
     </row>
     <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B763" s="4">
         <v>89</v>
@@ -11106,7 +11106,7 @@
     </row>
     <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B764" s="4">
         <v>89</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B765" s="4">
         <v>89</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B766" s="4">
         <v>89</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B767" s="4">
         <v>89</v>
@@ -11142,7 +11142,7 @@
     </row>
     <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B768" s="8">
         <v>90</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B769" s="4">
         <v>90</v>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B770" s="4">
         <v>90</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B771" s="4">
         <v>90</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B772" s="4">
         <v>90</v>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B773" s="4">
         <v>90</v>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B774" s="8">
         <v>91</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B775" s="4">
         <v>91</v>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B776" s="4">
         <v>91</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B777" s="4">
         <v>91</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B778" s="4">
         <v>91</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B779" s="4">
         <v>91</v>
@@ -11254,7 +11254,7 @@
     </row>
     <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B780" s="4">
         <v>91</v>
@@ -11263,18 +11263,18 @@
     </row>
     <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B781" s="4">
         <v>91</v>
       </c>
       <c r="C781" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B782" s="4">
         <v>91</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B783" s="4">
         <v>91</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B784" s="8">
         <v>92</v>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B785" s="4">
         <v>92</v>
@@ -11310,18 +11310,18 @@
     </row>
     <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B786" s="4">
         <v>92</v>
       </c>
       <c r="C786" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B787" s="4">
         <v>92</v>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B788" s="4">
         <v>92</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B789" s="4">
         <v>92</v>
@@ -11350,7 +11350,7 @@
     </row>
     <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B790" s="4">
         <v>92</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B791" s="4">
         <v>92</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B792" s="4">
         <v>92</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B793" s="4">
         <v>92</v>
@@ -11386,7 +11386,7 @@
     </row>
     <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B794" s="8">
         <v>93</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B795" s="4">
         <v>93</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B796" s="4">
         <v>93</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B797" s="4">
         <v>93</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B798" s="4">
         <v>93</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B799" s="4">
         <v>93</v>
@@ -11440,7 +11440,7 @@
     </row>
     <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B800" s="4">
         <v>93</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B801" s="4">
         <v>93</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B802" s="4">
         <v>93</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B803" s="8">
         <v>94</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B804" s="4">
         <v>94</v>
@@ -11485,7 +11485,7 @@
     </row>
     <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B805" s="4">
         <v>94</v>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B806" s="4">
         <v>94</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B807" s="4">
         <v>94</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B808" s="4">
         <v>94</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B809" s="4">
         <v>94</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B810" s="4">
         <v>94</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B811" s="8">
         <v>95</v>
@@ -11548,7 +11548,7 @@
     </row>
     <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B812" s="4">
         <v>95</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B813" s="4">
         <v>95</v>
@@ -11566,7 +11566,7 @@
     </row>
     <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B814" s="4">
         <v>95</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B815" s="4">
         <v>95</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B816" s="4">
         <v>95</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B817" s="4">
         <v>95</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B818" s="8">
         <v>96</v>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B819" s="4">
         <v>96</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B820" s="4">
         <v>96</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B821" s="4">
         <v>96</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B822" s="4">
         <v>96</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B823" s="4">
         <v>96</v>
@@ -11656,7 +11656,7 @@
     </row>
     <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B824" s="4">
         <v>96</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B825" s="4">
         <v>96</v>
@@ -11674,7 +11674,7 @@
     </row>
     <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B826" s="4">
         <v>96</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B827" s="4">
         <v>96</v>
@@ -11692,7 +11692,7 @@
     </row>
     <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B828" s="8">
         <v>97</v>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B829" s="4">
         <v>97</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B830" s="4">
         <v>97</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B831" s="4">
         <v>97</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B832" s="4">
         <v>97</v>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B833" s="4">
         <v>97</v>
@@ -11746,7 +11746,7 @@
     </row>
     <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B834" s="4">
         <v>97</v>
@@ -11755,7 +11755,7 @@
     </row>
     <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B835" s="8">
         <v>98</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B836" s="4">
         <v>98</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B837" s="4">
         <v>98</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B838" s="4">
         <v>98</v>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B839" s="4">
         <v>98</v>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B840" s="4">
         <v>98</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B841" s="4">
         <v>98</v>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B842" s="4">
         <v>98</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B843" s="4">
         <v>98</v>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B844" s="4">
         <v>98</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B845" s="4">
         <v>98</v>
@@ -11856,7 +11856,7 @@
     </row>
     <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B846" s="8">
         <v>99</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B847" s="4">
         <v>99</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B848" s="4">
         <v>99</v>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B849" s="4">
         <v>99</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B850" s="4">
         <v>99</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B851" s="4">
         <v>99</v>
@@ -11910,7 +11910,7 @@
     </row>
     <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B852" s="4">
         <v>99</v>
@@ -11919,7 +11919,7 @@
     </row>
     <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B853" s="4">
         <v>99</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B854" s="4">
         <v>99</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B855" s="8">
         <v>100</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B856" s="4">
         <v>100</v>
@@ -11955,7 +11955,7 @@
     </row>
     <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B857" s="4">
         <v>100</v>
@@ -11964,7 +11964,7 @@
     </row>
     <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B858" s="4">
         <v>100</v>
@@ -11973,7 +11973,7 @@
     </row>
     <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B859" s="4">
         <v>100</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B860" s="4">
         <v>100</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B861" s="4">
         <v>100</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B862" s="4">
         <v>100</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B863" s="8">
         <v>101</v>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B864" s="4">
         <v>101</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B865" s="4">
         <v>101</v>
@@ -12036,7 +12036,7 @@
     </row>
     <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B866" s="4">
         <v>101</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B867" s="4">
         <v>101</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B868" s="4">
         <v>101</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B869" s="4">
         <v>101</v>
@@ -12072,7 +12072,7 @@
     </row>
     <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B870" s="4">
         <v>101</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B871" s="4">
         <v>101</v>
@@ -12093,7 +12093,7 @@
     </row>
     <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B872" s="4">
         <v>101</v>
@@ -12102,7 +12102,7 @@
     </row>
     <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B873" s="4">
         <v>101</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B874" s="8">
         <v>102</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B875" s="4">
         <v>102</v>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B876" s="4">
         <v>102</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B877" s="4">
         <v>102</v>
@@ -12147,18 +12147,18 @@
     </row>
     <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B878" s="4">
         <v>102</v>
       </c>
       <c r="C878" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B879" s="4">
         <v>102</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B880" s="4">
         <v>102</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B881" s="4">
         <v>102</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B882" s="4">
         <v>102</v>
@@ -12194,18 +12194,18 @@
     </row>
     <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B883" s="8">
         <v>103</v>
       </c>
       <c r="C883" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B884" s="4">
         <v>103</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B885" s="4">
         <v>103</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B886" s="4">
         <v>103</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B887" s="4">
         <v>103</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B888" s="4">
         <v>103</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B889" s="4">
         <v>103</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B890" s="4">
         <v>103</v>
@@ -12270,7 +12270,7 @@
     </row>
     <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B891" s="4">
         <v>103</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B892" s="8">
         <v>104</v>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B893" s="4">
         <v>104</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B894" s="4">
         <v>104</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B895" s="4">
         <v>104</v>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B896" s="4">
         <v>104</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B897" s="4">
         <v>104</v>
@@ -12333,18 +12333,18 @@
     </row>
     <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B898" s="4">
         <v>104</v>
       </c>
       <c r="C898" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B899" s="4">
         <v>104</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B900" s="8">
         <v>105</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B901" s="4">
         <v>105</v>
@@ -12371,7 +12371,7 @@
     </row>
     <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B902" s="4">
         <v>105</v>
@@ -12380,7 +12380,7 @@
     </row>
     <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B903" s="4">
         <v>105</v>
@@ -12389,18 +12389,18 @@
     </row>
     <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B904" s="4">
         <v>105</v>
       </c>
       <c r="C904" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B905" s="4">
         <v>105</v>
@@ -12409,7 +12409,7 @@
     </row>
     <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B906" s="4">
         <v>105</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B907" s="4">
         <v>105</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B908" s="8">
         <v>106</v>
@@ -12436,7 +12436,7 @@
     </row>
     <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B909" s="4">
         <v>106</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B910" s="4">
         <v>106</v>
@@ -12454,7 +12454,7 @@
     </row>
     <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B911" s="4">
         <v>106</v>
@@ -12463,7 +12463,7 @@
     </row>
     <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B912" s="4">
         <v>106</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B913" s="4">
         <v>106</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B914" s="4">
         <v>106</v>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B915" s="4">
         <v>106</v>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B916" s="8">
         <v>107</v>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B917" s="4">
         <v>107</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B918" s="4">
         <v>107</v>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B919" s="4">
         <v>107</v>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B920" s="4">
         <v>107</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B921" s="4">
         <v>107</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B922" s="4">
         <v>107</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B923" s="4">
         <v>107</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B924" s="8">
         <v>108</v>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B925" s="4">
         <v>108</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B926" s="4">
         <v>108</v>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B927" s="4">
         <v>108</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B928" s="4">
         <v>108</v>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B929" s="4">
         <v>108</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B930" s="4">
         <v>108</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B931" s="4">
         <v>108</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B932" s="4">
         <v>108</v>
@@ -12652,18 +12652,18 @@
     </row>
     <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B933" s="8">
         <v>109</v>
       </c>
       <c r="C933" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B934" s="4">
         <v>109</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B935" s="4">
         <v>109</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B936" s="4">
         <v>109</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B937" s="4">
         <v>109</v>
@@ -12699,18 +12699,18 @@
     </row>
     <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B938" s="4">
         <v>109</v>
       </c>
       <c r="C938" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B939" s="4">
         <v>109</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B940" s="4">
         <v>109</v>
@@ -12730,7 +12730,7 @@
     </row>
     <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B941" s="4">
         <v>109</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B942" s="4">
         <v>109</v>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B943" s="4">
         <v>109</v>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B944" s="8">
         <v>110</v>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B945" s="4">
         <v>110</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B946" s="4">
         <v>110</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B947" s="4">
         <v>110</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B948" s="4">
         <v>110</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B949" s="4">
         <v>110</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B950" s="4">
         <v>110</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B951" s="4">
         <v>110</v>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B952" s="8">
         <v>111</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B953" s="4">
         <v>111</v>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B954" s="4">
         <v>111</v>
@@ -12856,18 +12856,18 @@
     </row>
     <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B955" s="4">
         <v>111</v>
       </c>
       <c r="C955" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B956" s="4">
         <v>111</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B957" s="4">
         <v>111</v>
@@ -12885,7 +12885,7 @@
     </row>
     <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B958" s="4">
         <v>111</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B959" s="4">
         <v>111</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B960" s="8">
         <v>112</v>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B961" s="4">
         <v>112</v>
@@ -12921,7 +12921,7 @@
     </row>
     <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B962" s="4">
         <v>112</v>
@@ -12930,7 +12930,7 @@
     </row>
     <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B963" s="4">
         <v>112</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B964" s="4">
         <v>112</v>
@@ -12948,7 +12948,7 @@
     </row>
     <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B965" s="4">
         <v>112</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B966" s="4">
         <v>112</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B967" s="4">
         <v>112</v>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B968" s="4">
         <v>112</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B969" s="8">
         <v>113</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B970" s="4">
         <v>113</v>
@@ -13002,7 +13002,7 @@
     </row>
     <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B971" s="4">
         <v>113</v>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B972" s="4">
         <v>113</v>
@@ -13020,7 +13020,7 @@
     </row>
     <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B973" s="4">
         <v>113</v>
@@ -13029,7 +13029,7 @@
     </row>
     <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B974" s="4">
         <v>113</v>
@@ -13038,7 +13038,7 @@
     </row>
     <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B975" s="4">
         <v>113</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B976" s="4">
         <v>113</v>
@@ -13056,7 +13056,7 @@
     </row>
     <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B977" s="8">
         <v>114</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B978" s="4">
         <v>114</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B979" s="4">
         <v>114</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B980" s="4">
         <v>114</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B981" s="4">
         <v>114</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B982" s="4">
         <v>114</v>
@@ -13110,7 +13110,7 @@
     </row>
     <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B983" s="4">
         <v>114</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B984" s="4">
         <v>114</v>
@@ -13128,7 +13128,7 @@
     </row>
     <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B985" s="4">
         <v>114</v>
@@ -13137,7 +13137,7 @@
     </row>
     <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B986" s="8">
         <v>115</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B987" s="4">
         <v>115</v>
@@ -13155,7 +13155,7 @@
     </row>
     <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B988" s="4">
         <v>115</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B989" s="4">
         <v>115</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B990" s="4">
         <v>115</v>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B991" s="4">
         <v>115</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B992" s="4">
         <v>115</v>
@@ -13200,7 +13200,7 @@
     </row>
     <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B993" s="4">
         <v>115</v>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B994" s="4">
         <v>115</v>
@@ -13220,18 +13220,18 @@
     </row>
     <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B995" s="8">
         <v>116</v>
       </c>
       <c r="C995" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B996" s="4">
         <v>116</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B997" s="4">
         <v>116</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B998" s="4">
         <v>116</v>
@@ -13258,7 +13258,7 @@
     </row>
     <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B999" s="4">
         <v>116</v>
@@ -13269,7 +13269,7 @@
     </row>
     <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B1000" s="4">
         <v>116</v>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B1001" s="12">
         <v>116</v>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D550119D-257A-4FAB-B991-9E2A4EC8C1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10990CE9-98AF-46A3-B0F0-746D97D1C777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1001</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjW+pff7qvu8zflHZvuBbBzY7yzFA=="/>
@@ -3745,21 +3745,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E764" sqref="E764"/>
+    <sheetView tabSelected="1" topLeftCell="A857" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A870" sqref="A870"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="26" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="26" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3878,12 +3878,12 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>ARMA FATAL</v>
+        <v>RANG DE BASANTI</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>997</v>
       </c>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>996</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>83</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>86</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>89</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>90</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>92</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>94</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>96</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>97</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>98</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>100</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>101</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>102</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>104</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>106</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>107</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>108</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>109</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>110</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>111</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>112</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>113</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>114</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>116</v>
       </c>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>118</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>119</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>120</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>121</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>122</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>123</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>124</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>125</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>126</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C124" s="17"/>
     </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>127</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>128</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>129</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>130</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>131</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>132</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>133</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>134</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>135</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>136</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>138</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>139</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>140</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>142</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>143</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>145</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>146</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>147</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>148</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>149</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>150</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>151</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>152</v>
       </c>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>153</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>154</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>155</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>999</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>156</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>157</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>158</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>160</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C159" s="17"/>
     </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>161</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>162</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>169</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>1000</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>172</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>173</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>174</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>175</v>
       </c>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>176</v>
       </c>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>178</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>179</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>180</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>181</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>182</v>
       </c>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C182" s="17"/>
     </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>183</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>184</v>
       </c>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C184" s="17"/>
     </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>185</v>
       </c>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="C185" s="17"/>
     </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>186</v>
       </c>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C186" s="17"/>
     </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>187</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C187" s="17"/>
     </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>188</v>
       </c>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="C188" s="17"/>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>189</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>190</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>191</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>192</v>
       </c>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C192" s="17"/>
     </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>193</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>195</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="C195" s="17"/>
     </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>196</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C197" s="17"/>
     </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>198</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>199</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="C199" s="17"/>
     </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>200</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="C200" s="17"/>
     </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>201</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="C201" s="17"/>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>202</v>
       </c>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C202" s="17"/>
     </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>203</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>206</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="C206" s="17"/>
     </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>207</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>209</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>210</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C210" s="17"/>
     </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="C212" s="17"/>
     </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C213" s="17"/>
     </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="C214" s="17"/>
     </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>215</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>216</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>217</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>218</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="C219" s="17"/>
     </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>220</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="C220" s="17"/>
     </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C221" s="17"/>
     </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>222</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="C222" s="17"/>
     </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>223</v>
       </c>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C223" s="17"/>
     </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>224</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>225</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C225" s="17"/>
     </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>226</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C226" s="17"/>
     </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>227</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>228</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="C228" s="17"/>
     </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>229</v>
       </c>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C229" s="17"/>
     </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>230</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C230" s="17"/>
     </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>231</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="C231" s="17"/>
     </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>232</v>
       </c>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C232" s="17"/>
     </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>233</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>234</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>235</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C235" s="17"/>
     </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>236</v>
       </c>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C236" s="17"/>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C237" s="17"/>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>238</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C238" s="17"/>
     </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>239</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C239" s="17"/>
     </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>1001</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C240" s="17"/>
     </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C241" s="17"/>
     </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>241</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C243" s="17"/>
     </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C244" s="17"/>
     </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C245" s="17"/>
     </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="C246" s="17"/>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>248</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C250" s="17"/>
     </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="32" t="s">
         <v>1007</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C252" s="17"/>
     </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C253" s="17"/>
     </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="C254" s="17"/>
     </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="C255" s="17"/>
     </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C256" s="17"/>
     </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C257" s="17"/>
     </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="C258" s="17"/>
     </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>257</v>
       </c>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C259" s="17"/>
     </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>258</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>1002</v>
       </c>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="C261" s="17"/>
     </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>259</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C262" s="17"/>
     </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>260</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>261</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>262</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>263</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>264</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>1003</v>
       </c>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>265</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>266</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>267</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>268</v>
       </c>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>269</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>270</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>272</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>273</v>
       </c>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>1004</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>274</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>275</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>276</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
         <v>277</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>278</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>279</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>280</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>281</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>282</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C287" s="17"/>
     </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>283</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="C288" s="17"/>
     </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>284</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C289" s="17"/>
     </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>285</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="C290" s="17"/>
     </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>286</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="C291" s="17"/>
     </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>287</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>288</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>289</v>
       </c>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C294" s="17"/>
     </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>290</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C295" s="17"/>
     </row>
-    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>291</v>
       </c>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="C296" s="17"/>
     </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>292</v>
       </c>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="C297" s="17"/>
     </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>293</v>
       </c>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C298" s="17"/>
     </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>294</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>295</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="C300" s="17"/>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>296</v>
       </c>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C301" s="17"/>
     </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>297</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>298</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="C303" s="17"/>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
         <v>299</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>300</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
         <v>301</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>302</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>303</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C308" s="17"/>
     </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>304</v>
       </c>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C309" s="17"/>
     </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>305</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
         <v>306</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="29" t="s">
         <v>307</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>308</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C313" s="17"/>
     </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>309</v>
       </c>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="C314" s="17"/>
     </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>310</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>311</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>312</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>313</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>314</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
         <v>315</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="29" t="s">
         <v>316</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>317</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C322" s="17"/>
     </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>318</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C323" s="17"/>
     </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="29" t="s">
         <v>319</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>320</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>321</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>322</v>
       </c>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C327" s="17"/>
     </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>323</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="C328" s="17"/>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>324</v>
       </c>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C329" s="17"/>
     </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>325</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>326</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>327</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>328</v>
       </c>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="C333" s="17"/>
     </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>329</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="C334" s="17"/>
     </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>330</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>331</v>
       </c>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C336" s="17"/>
     </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>332</v>
       </c>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="C337" s="17"/>
     </row>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>333</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>334</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
         <v>335</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>336</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="C341" s="17"/>
     </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>337</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="C342" s="17"/>
     </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>338</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>339</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C345" s="17"/>
     </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>341</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C346" s="17"/>
     </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>342</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="C347" s="17"/>
     </row>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>343</v>
       </c>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="C348" s="17"/>
     </row>
-    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C349" s="17"/>
     </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>345</v>
       </c>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="C350" s="17"/>
     </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>346</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="C351" s="17"/>
     </row>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>347</v>
       </c>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C352" s="17"/>
     </row>
-    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>348</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>349</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C354" s="17"/>
     </row>
-    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>350</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="C355" s="17"/>
     </row>
-    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>351</v>
       </c>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C356" s="17"/>
     </row>
-    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>352</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>353</v>
       </c>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="C358" s="17"/>
     </row>
-    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="29" t="s">
         <v>354</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>355</v>
       </c>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="C360" s="17"/>
     </row>
-    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>356</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="C361" s="17"/>
     </row>
-    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>357</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>358</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>359</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>360</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>361</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>1005</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C367" s="17"/>
     </row>
-    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>362</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>363</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C369" s="17"/>
     </row>
-    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>364</v>
       </c>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C370" s="17"/>
     </row>
-    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>365</v>
       </c>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C371" s="17"/>
     </row>
-    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>366</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>367</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>368</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>369</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>370</v>
       </c>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C376" s="17"/>
     </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>371</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>372</v>
       </c>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C378" s="17"/>
     </row>
-    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>373</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C379" s="17"/>
     </row>
-    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>374</v>
       </c>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="C380" s="17"/>
     </row>
-    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>375</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C381" s="17"/>
     </row>
-    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>376</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>377</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C383" s="17"/>
     </row>
-    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>378</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
         <v>379</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="C385" s="17"/>
     </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>380</v>
       </c>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="C386" s="17"/>
     </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>381</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>382</v>
       </c>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="C388" s="17"/>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>383</v>
       </c>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="C389" s="17"/>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>384</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>385</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>386</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>387</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>388</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="C394" s="17"/>
     </row>
-    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>389</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>390</v>
       </c>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C396" s="17"/>
     </row>
-    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>391</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>392</v>
       </c>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C398" s="17"/>
     </row>
-    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>393</v>
       </c>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="C399" s="17"/>
     </row>
-    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>394</v>
       </c>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C400" s="17"/>
     </row>
-    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>395</v>
       </c>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C401" s="17"/>
     </row>
-    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>396</v>
       </c>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="C402" s="17"/>
     </row>
-    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>397</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C403" s="17"/>
     </row>
-    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
         <v>398</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
         <v>399</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
         <v>400</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="C406" s="17"/>
     </row>
-    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>401</v>
       </c>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C407" s="17"/>
     </row>
-    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>402</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
         <v>403</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>404</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>405</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="C411" s="17"/>
     </row>
-    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>406</v>
       </c>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C412" s="17"/>
     </row>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>407</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="C413" s="17"/>
     </row>
-    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>408</v>
       </c>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C414" s="17"/>
     </row>
-    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="30" t="s">
         <v>409</v>
       </c>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="C415" s="17"/>
     </row>
-    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>410</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="C416" s="17"/>
     </row>
-    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>411</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
         <v>412</v>
       </c>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C418" s="17"/>
     </row>
-    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>413</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="C419" s="17"/>
     </row>
-    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>414</v>
       </c>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C420" s="17"/>
     </row>
-    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
         <v>415</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="C421" s="17"/>
     </row>
-    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>416</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C422" s="17"/>
     </row>
-    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>417</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="C423" s="17"/>
     </row>
-    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>418</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>419</v>
       </c>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="C425" s="17"/>
     </row>
-    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>420</v>
       </c>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="C426" s="17"/>
     </row>
-    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
         <v>421</v>
       </c>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C427" s="17"/>
     </row>
-    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>422</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="C428" s="17"/>
     </row>
-    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>423</v>
       </c>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="C429" s="17"/>
     </row>
-    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>424</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>425</v>
       </c>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C431" s="17"/>
     </row>
-    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>426</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C432" s="17"/>
     </row>
-    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>427</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="C433" s="17"/>
     </row>
-    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>428</v>
       </c>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="C434" s="17"/>
     </row>
-    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>429</v>
       </c>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="C435" s="17"/>
     </row>
-    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
         <v>430</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>431</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C437" s="17"/>
     </row>
-    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>432</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C438" s="17"/>
     </row>
-    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>433</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C439" s="17"/>
     </row>
-    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>434</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="C440" s="17"/>
     </row>
-    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>435</v>
       </c>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="C441" s="17"/>
     </row>
-    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
         <v>436</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C442" s="17"/>
     </row>
-    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>437</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C443" s="17"/>
     </row>
-    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>438</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C444" s="17"/>
     </row>
-    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
         <v>439</v>
       </c>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C445" s="17"/>
     </row>
-    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>440</v>
       </c>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="C446" s="17"/>
     </row>
-    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>441</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="C447" s="17"/>
     </row>
-    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
         <v>442</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="C448" s="17"/>
     </row>
-    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>443</v>
       </c>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="C449" s="17"/>
     </row>
-    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>444</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="C450" s="17"/>
     </row>
-    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
         <v>445</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C451" s="17"/>
     </row>
-    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>446</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C452" s="17"/>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>447</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C453" s="17"/>
     </row>
-    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>448</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C454" s="17"/>
     </row>
-    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>449</v>
       </c>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C455" s="17"/>
     </row>
-    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
         <v>450</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C456" s="17"/>
     </row>
-    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="14" t="s">
         <v>451</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>452</v>
       </c>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="C458" s="17"/>
     </row>
-    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>453</v>
       </c>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="C459" s="17"/>
     </row>
-    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>454</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C460" s="17"/>
     </row>
-    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
         <v>455</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C461" s="17"/>
     </row>
-    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>456</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C462" s="17"/>
     </row>
-    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="7" t="s">
         <v>457</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>458</v>
       </c>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="C464" s="17"/>
     </row>
-    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>459</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C465" s="17"/>
     </row>
-    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>460</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>461</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="C467" s="17"/>
     </row>
-    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="30" t="s">
         <v>462</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>463</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C469" s="17"/>
     </row>
-    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>464</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="C470" s="17"/>
     </row>
-    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>465</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C471" s="17"/>
     </row>
-    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>466</v>
       </c>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="C472" s="17"/>
     </row>
-    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>467</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="C473" s="17"/>
     </row>
-    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="7" t="s">
         <v>468</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>469</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="C475" s="17"/>
     </row>
-    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
         <v>470</v>
       </c>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="C476" s="17"/>
     </row>
-    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>471</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="C477" s="17"/>
     </row>
-    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>472</v>
       </c>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="C478" s="17"/>
     </row>
-    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>473</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="C479" s="17"/>
     </row>
-    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>474</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C480" s="17"/>
     </row>
-    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>475</v>
       </c>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C481" s="17"/>
     </row>
-    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>476</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="C482" s="17"/>
     </row>
-    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>477</v>
       </c>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C483" s="17"/>
     </row>
-    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>478</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C484" s="17"/>
     </row>
-    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>479</v>
       </c>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="C485" s="17"/>
     </row>
-    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
         <v>480</v>
       </c>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="C486" s="17"/>
     </row>
-    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>481</v>
       </c>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C487" s="17"/>
     </row>
-    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="7" t="s">
         <v>482</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
         <v>483</v>
       </c>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="C489" s="17"/>
     </row>
-    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>484</v>
       </c>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="C490" s="17"/>
     </row>
-    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
         <v>485</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="C491" s="17"/>
     </row>
-    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
         <v>486</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="C492" s="17"/>
     </row>
-    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="7" t="s">
         <v>487</v>
       </c>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C493" s="17"/>
     </row>
-    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
         <v>488</v>
       </c>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C494" s="17"/>
     </row>
-    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>489</v>
       </c>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="C495" s="17"/>
     </row>
-    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
         <v>490</v>
       </c>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="C496" s="17"/>
     </row>
-    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
         <v>491</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="C497" s="17"/>
     </row>
-    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
         <v>492</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="C498" s="17"/>
     </row>
-    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5" t="s">
         <v>493</v>
       </c>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="C499" s="17"/>
     </row>
-    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
         <v>494</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C500" s="17"/>
     </row>
-    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="32" t="s">
         <v>1006</v>
       </c>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C501" s="17"/>
     </row>
-    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
         <v>495</v>
       </c>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="C502" s="17"/>
     </row>
-    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
         <v>496</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C503" s="17"/>
     </row>
-    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
         <v>497</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="C504" s="17"/>
     </row>
-    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5" t="s">
         <v>498</v>
       </c>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="C505" s="17"/>
     </row>
-    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5" t="s">
         <v>499</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="C506" s="17"/>
     </row>
-    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5" t="s">
         <v>500</v>
       </c>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C507" s="17"/>
     </row>
-    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5" t="s">
         <v>501</v>
       </c>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C508" s="17"/>
     </row>
-    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="7" t="s">
         <v>502</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5" t="s">
         <v>503</v>
       </c>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C510" s="17"/>
     </row>
-    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5" t="s">
         <v>504</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5" t="s">
         <v>505</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C512" s="17"/>
     </row>
-    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5" t="s">
         <v>506</v>
       </c>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="C513" s="17"/>
     </row>
-    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5" t="s">
         <v>507</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="C514" s="17"/>
     </row>
-    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="7" t="s">
         <v>508</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="C515" s="17"/>
     </row>
-    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5" t="s">
         <v>509</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="C516" s="17"/>
     </row>
-    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5" t="s">
         <v>510</v>
       </c>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="C517" s="17"/>
     </row>
-    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="7" t="s">
         <v>511</v>
       </c>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="C518" s="17"/>
     </row>
-    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5" t="s">
         <v>512</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C519" s="17"/>
     </row>
-    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5" t="s">
         <v>513</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="C520" s="17"/>
     </row>
-    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5" t="s">
         <v>514</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="C521" s="17"/>
     </row>
-    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5" t="s">
         <v>515</v>
       </c>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C522" s="17"/>
     </row>
-    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5" t="s">
         <v>516</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="C523" s="17"/>
     </row>
-    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5" t="s">
         <v>517</v>
       </c>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C524" s="17"/>
     </row>
-    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5" t="s">
         <v>518</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C525" s="17"/>
     </row>
-    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5" t="s">
         <v>519</v>
       </c>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C526" s="17"/>
     </row>
-    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5" t="s">
         <v>520</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C527" s="17"/>
     </row>
-    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5" t="s">
         <v>521</v>
       </c>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="C528" s="17"/>
     </row>
-    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5" t="s">
         <v>522</v>
       </c>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="C529" s="17"/>
     </row>
-    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="14" t="s">
         <v>523</v>
       </c>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="C530" s="17"/>
     </row>
-    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="14" t="s">
         <v>524</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5" t="s">
         <v>525</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="C532" s="17"/>
     </row>
-    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5" t="s">
         <v>526</v>
       </c>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C533" s="17"/>
     </row>
-    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="6" t="s">
         <v>527</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5" t="s">
         <v>528</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C535" s="17"/>
     </row>
-    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="7" t="s">
         <v>529</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5" t="s">
         <v>530</v>
       </c>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="C537" s="17"/>
     </row>
-    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5" t="s">
         <v>531</v>
       </c>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="C538" s="17"/>
     </row>
-    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5" t="s">
         <v>532</v>
       </c>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C539" s="17"/>
     </row>
-    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5" t="s">
         <v>533</v>
       </c>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C540" s="17"/>
     </row>
-    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5" t="s">
         <v>534</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C541" s="17"/>
     </row>
-    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5" t="s">
         <v>535</v>
       </c>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C542" s="17"/>
     </row>
-    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5" t="s">
         <v>536</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C543" s="17"/>
     </row>
-    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5" t="s">
         <v>537</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="C544" s="17"/>
     </row>
-    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5" t="s">
         <v>538</v>
       </c>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C545" s="17"/>
     </row>
-    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="7" t="s">
         <v>539</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5" t="s">
         <v>540</v>
       </c>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="C547" s="17"/>
     </row>
-    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5" t="s">
         <v>541</v>
       </c>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C548" s="17"/>
     </row>
-    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5" t="s">
         <v>542</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="C549" s="17"/>
     </row>
-    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5" t="s">
         <v>543</v>
       </c>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="C550" s="17"/>
     </row>
-    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5" t="s">
         <v>544</v>
       </c>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C551" s="17"/>
     </row>
-    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5" t="s">
         <v>545</v>
       </c>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="C552" s="17"/>
     </row>
-    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5" t="s">
         <v>546</v>
       </c>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="C553" s="17"/>
     </row>
-    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="7" t="s">
         <v>547</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5" t="s">
         <v>548</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C555" s="17"/>
     </row>
-    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="7" t="s">
         <v>549</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5" t="s">
         <v>550</v>
       </c>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5" t="s">
         <v>551</v>
       </c>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5" t="s">
         <v>552</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C559" s="17"/>
     </row>
-    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5" t="s">
         <v>553</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="C560" s="17"/>
     </row>
-    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5" t="s">
         <v>554</v>
       </c>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="C561" s="17"/>
     </row>
-    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5" t="s">
         <v>555</v>
       </c>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5" t="s">
         <v>556</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C563" s="17"/>
     </row>
-    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5" t="s">
         <v>557</v>
       </c>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="C564" s="17"/>
     </row>
-    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5" t="s">
         <v>558</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="C565" s="17"/>
     </row>
-    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5" t="s">
         <v>559</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5" t="s">
         <v>560</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="C567" s="17"/>
     </row>
-    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5" t="s">
         <v>561</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C568" s="17"/>
     </row>
-    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5" t="s">
         <v>562</v>
       </c>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="C569" s="17"/>
     </row>
-    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5" t="s">
         <v>563</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C570" s="17"/>
     </row>
-    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5" t="s">
         <v>564</v>
       </c>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="C571" s="17"/>
     </row>
-    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5" t="s">
         <v>565</v>
       </c>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="C572" s="17"/>
     </row>
-    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
         <v>566</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C573" s="17"/>
     </row>
-    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5" t="s">
         <v>567</v>
       </c>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="C574" s="17"/>
     </row>
-    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5" t="s">
         <v>568</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="C575" s="17"/>
     </row>
-    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5" t="s">
         <v>569</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C576" s="17"/>
     </row>
-    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5" t="s">
         <v>570</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="C577" s="17"/>
     </row>
-    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5" t="s">
         <v>571</v>
       </c>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C578" s="17"/>
     </row>
-    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5" t="s">
         <v>572</v>
       </c>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="C579" s="17"/>
     </row>
-    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5" t="s">
         <v>573</v>
       </c>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C580" s="17"/>
     </row>
-    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5" t="s">
         <v>574</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="C581" s="17"/>
     </row>
-    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5" t="s">
         <v>575</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="C582" s="17"/>
     </row>
-    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5" t="s">
         <v>576</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C583" s="17"/>
     </row>
-    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="7" t="s">
         <v>577</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C584" s="17"/>
     </row>
-    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5" t="s">
         <v>578</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="C585" s="17"/>
     </row>
-    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5" t="s">
         <v>579</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="C586" s="17"/>
     </row>
-    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5" t="s">
         <v>580</v>
       </c>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C587" s="17"/>
     </row>
-    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="7" t="s">
         <v>581</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5" t="s">
         <v>582</v>
       </c>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="C589" s="17"/>
     </row>
-    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5" t="s">
         <v>583</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="C590" s="17"/>
     </row>
-    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5" t="s">
         <v>584</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="C591" s="17"/>
     </row>
-    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="7" t="s">
         <v>585</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5" t="s">
         <v>586</v>
       </c>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="C593" s="17"/>
     </row>
-    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="5" t="s">
         <v>587</v>
       </c>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="C594" s="17"/>
     </row>
-    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>588</v>
       </c>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C595" s="17"/>
     </row>
-    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>589</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C596" s="17"/>
     </row>
-    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>590</v>
       </c>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="C597" s="17"/>
     </row>
-    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5" t="s">
         <v>591</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="C598" s="17"/>
     </row>
-    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="6" t="s">
         <v>592</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5" t="s">
         <v>593</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="C600" s="17"/>
     </row>
-    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5" t="s">
         <v>594</v>
       </c>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="C601" s="17"/>
     </row>
-    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="7" t="s">
         <v>595</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5" t="s">
         <v>596</v>
       </c>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="C603" s="17"/>
     </row>
-    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5" t="s">
         <v>597</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C604" s="17"/>
     </row>
-    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="7" t="s">
         <v>598</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="5" t="s">
         <v>599</v>
       </c>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C606" s="17"/>
     </row>
-    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5" t="s">
         <v>600</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="C607" s="17"/>
     </row>
-    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="7" t="s">
         <v>601</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="5" t="s">
         <v>602</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="C609" s="17"/>
     </row>
-    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="5" t="s">
         <v>603</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C610" s="17"/>
     </row>
-    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5" t="s">
         <v>604</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C611" s="17"/>
     </row>
-    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="5" t="s">
         <v>605</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="C612" s="17"/>
     </row>
-    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>606</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="C613" s="17"/>
     </row>
-    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>607</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C614" s="17"/>
     </row>
-    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
         <v>608</v>
       </c>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C615" s="17"/>
     </row>
-    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5" t="s">
         <v>609</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="C616" s="17"/>
     </row>
-    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5" t="s">
         <v>610</v>
       </c>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="C617" s="17"/>
     </row>
-    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5" t="s">
         <v>611</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C618" s="17"/>
     </row>
-    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5" t="s">
         <v>612</v>
       </c>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="C619" s="17"/>
     </row>
-    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="7" t="s">
         <v>613</v>
       </c>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C620" s="17"/>
     </row>
-    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5" t="s">
         <v>614</v>
       </c>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="C621" s="17"/>
     </row>
-    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5" t="s">
         <v>615</v>
       </c>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="C622" s="17"/>
     </row>
-    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5" t="s">
         <v>616</v>
       </c>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="C623" s="17"/>
     </row>
-    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5" t="s">
         <v>617</v>
       </c>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="C624" s="17"/>
     </row>
-    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5" t="s">
         <v>618</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="C625" s="17"/>
     </row>
-    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="5" t="s">
         <v>619</v>
       </c>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="C626" s="17"/>
     </row>
-    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5" t="s">
         <v>620</v>
       </c>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="C627" s="17"/>
     </row>
-    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="5" t="s">
         <v>621</v>
       </c>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C628" s="17"/>
     </row>
-    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="5" t="s">
         <v>622</v>
       </c>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="C629" s="17"/>
     </row>
-    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="5" t="s">
         <v>623</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="C630" s="17"/>
     </row>
-    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="7" t="s">
         <v>624</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="5" t="s">
         <v>625</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="C632" s="17"/>
     </row>
-    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5" t="s">
         <v>626</v>
       </c>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C633" s="17"/>
     </row>
-    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="5" t="s">
         <v>627</v>
       </c>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="C634" s="17"/>
     </row>
-    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5" t="s">
         <v>628</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="C635" s="17"/>
     </row>
-    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="5" t="s">
         <v>629</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="C636" s="17"/>
     </row>
-    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5" t="s">
         <v>630</v>
       </c>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="C637" s="17"/>
     </row>
-    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="5" t="s">
         <v>631</v>
       </c>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C638" s="17"/>
     </row>
-    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5" t="s">
         <v>632</v>
       </c>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="C639" s="17"/>
     </row>
-    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="7" t="s">
         <v>633</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5" t="s">
         <v>634</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="C641" s="17"/>
     </row>
-    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="5" t="s">
         <v>635</v>
       </c>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C642" s="17"/>
     </row>
-    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="5" t="s">
         <v>636</v>
       </c>
@@ -10000,7 +10000,7 @@
       </c>
       <c r="C643" s="17"/>
     </row>
-    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="5" t="s">
         <v>637</v>
       </c>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C644" s="17"/>
     </row>
-    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="5" t="s">
         <v>638</v>
       </c>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="C645" s="17"/>
     </row>
-    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="5" t="s">
         <v>639</v>
       </c>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="C646" s="17"/>
     </row>
-    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="5" t="s">
         <v>640</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="5" t="s">
         <v>641</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="C648" s="17"/>
     </row>
-    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="5" t="s">
         <v>642</v>
       </c>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="C649" s="17"/>
     </row>
-    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="5" t="s">
         <v>643</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="5" t="s">
         <v>644</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C651" s="17"/>
     </row>
-    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="5" t="s">
         <v>645</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C652" s="17"/>
     </row>
-    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="5" t="s">
         <v>646</v>
       </c>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C653" s="17"/>
     </row>
-    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="5" t="s">
         <v>647</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="5" t="s">
         <v>648</v>
       </c>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="C655" s="17"/>
     </row>
-    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="5" t="s">
         <v>649</v>
       </c>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C656" s="17"/>
     </row>
-    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="5" t="s">
         <v>650</v>
       </c>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C657" s="17"/>
     </row>
-    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="5" t="s">
         <v>651</v>
       </c>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="C658" s="17"/>
     </row>
-    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="5" t="s">
         <v>652</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="5" t="s">
         <v>653</v>
       </c>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="C660" s="17"/>
     </row>
-    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="5" t="s">
         <v>654</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="C661" s="17"/>
     </row>
-    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="5" t="s">
         <v>655</v>
       </c>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C662" s="17"/>
     </row>
-    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="5" t="s">
         <v>656</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="5" t="s">
         <v>657</v>
       </c>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="C664" s="17"/>
     </row>
-    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="5" t="s">
         <v>658</v>
       </c>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C665" s="17"/>
     </row>
-    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="5" t="s">
         <v>659</v>
       </c>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C666" s="17"/>
     </row>
-    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="5" t="s">
         <v>660</v>
       </c>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="C667" s="17"/>
     </row>
-    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="5" t="s">
         <v>661</v>
       </c>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="C668" s="17"/>
     </row>
-    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="5" t="s">
         <v>662</v>
       </c>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="C669" s="17"/>
     </row>
-    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="5" t="s">
         <v>663</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="C670" s="17"/>
     </row>
-    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5" t="s">
         <v>664</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="C671" s="17"/>
     </row>
-    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="7" t="s">
         <v>665</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="C672" s="17"/>
     </row>
-    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5" t="s">
         <v>666</v>
       </c>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="C673" s="17"/>
     </row>
-    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="5" t="s">
         <v>667</v>
       </c>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="C674" s="17"/>
     </row>
-    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5" t="s">
         <v>668</v>
       </c>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="C675" s="17"/>
     </row>
-    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="5" t="s">
         <v>669</v>
       </c>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="C676" s="17"/>
     </row>
-    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5" t="s">
         <v>670</v>
       </c>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="C677" s="17"/>
     </row>
-    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="5" t="s">
         <v>671</v>
       </c>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="C678" s="17"/>
     </row>
-    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="5" t="s">
         <v>672</v>
       </c>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C679" s="17"/>
     </row>
-    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="5" t="s">
         <v>673</v>
       </c>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="C680" s="17"/>
     </row>
-    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="5" t="s">
         <v>674</v>
       </c>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="C681" s="17"/>
     </row>
-    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="5" t="s">
         <v>675</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="C682" s="17"/>
     </row>
-    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="5" t="s">
         <v>676</v>
       </c>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="C683" s="17"/>
     </row>
-    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="5" t="s">
         <v>677</v>
       </c>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="C684" s="17"/>
     </row>
-    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="5" t="s">
         <v>678</v>
       </c>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="C685" s="17"/>
     </row>
-    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="7" t="s">
         <v>679</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="5" t="s">
         <v>680</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="C687" s="17"/>
     </row>
-    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="5" t="s">
         <v>681</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="C688" s="17"/>
     </row>
-    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="7" t="s">
         <v>682</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="5" t="s">
         <v>683</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="C690" s="17"/>
     </row>
-    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="7" t="s">
         <v>684</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="5" t="s">
         <v>685</v>
       </c>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="C692" s="17"/>
     </row>
-    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="5" t="s">
         <v>686</v>
       </c>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="C693" s="17"/>
     </row>
-    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="5" t="s">
         <v>687</v>
       </c>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="C694" s="17"/>
     </row>
-    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5" t="s">
         <v>688</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="C695" s="17"/>
     </row>
-    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="7" t="s">
         <v>689</v>
       </c>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="C696" s="17"/>
     </row>
-    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5" t="s">
         <v>690</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="C697" s="17"/>
     </row>
-    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="5" t="s">
         <v>691</v>
       </c>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="C698" s="17"/>
     </row>
-    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="5" t="s">
         <v>692</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C699" s="17"/>
     </row>
-    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="5" t="s">
         <v>693</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="C700" s="17"/>
     </row>
-    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5" t="s">
         <v>694</v>
       </c>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C701" s="17"/>
     </row>
-    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="5" t="s">
         <v>695</v>
       </c>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="C702" s="17"/>
     </row>
-    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5" t="s">
         <v>696</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="C703" s="17"/>
     </row>
-    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="5" t="s">
         <v>697</v>
       </c>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C704" s="17"/>
     </row>
-    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="5" t="s">
         <v>698</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="C705" s="17"/>
     </row>
-    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="5" t="s">
         <v>699</v>
       </c>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="C706" s="17"/>
     </row>
-    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5" t="s">
         <v>700</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C707" s="17"/>
     </row>
-    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="5" t="s">
         <v>701</v>
       </c>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="C708" s="17"/>
     </row>
-    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5" t="s">
         <v>702</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="C709" s="17"/>
     </row>
-    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="5" t="s">
         <v>703</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="C710" s="17"/>
     </row>
-    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5" t="s">
         <v>704</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="C711" s="17"/>
     </row>
-    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5" t="s">
         <v>705</v>
       </c>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C712" s="17"/>
     </row>
-    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="5" t="s">
         <v>706</v>
       </c>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C713" s="17"/>
     </row>
-    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="5" t="s">
         <v>707</v>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="C714" s="17"/>
     </row>
-    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="5" t="s">
         <v>708</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="C715" s="17"/>
     </row>
-    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="5" t="s">
         <v>709</v>
       </c>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="7" t="s">
         <v>710</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="5" t="s">
         <v>711</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C718" s="17"/>
     </row>
-    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="5" t="s">
         <v>712</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="C719" s="17"/>
     </row>
-    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="5" t="s">
         <v>713</v>
       </c>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="5" t="s">
         <v>714</v>
       </c>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="C721" s="17"/>
     </row>
-    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="5" t="s">
         <v>715</v>
       </c>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="C722" s="17"/>
     </row>
-    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="5" t="s">
         <v>716</v>
       </c>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="C723" s="17"/>
     </row>
-    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="5" t="s">
         <v>717</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C724" s="17"/>
     </row>
-    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="5" t="s">
         <v>718</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="C725" s="17"/>
     </row>
-    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="5" t="s">
         <v>719</v>
       </c>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C726" s="17"/>
     </row>
-    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="5" t="s">
         <v>720</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="C727" s="17"/>
     </row>
-    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="5" t="s">
         <v>721</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="C728" s="17"/>
     </row>
-    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="5" t="s">
         <v>722</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="C729" s="17"/>
     </row>
-    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="5" t="s">
         <v>723</v>
       </c>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="C730" s="17"/>
     </row>
-    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="5" t="s">
         <v>724</v>
       </c>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C731" s="17"/>
     </row>
-    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="5" t="s">
         <v>725</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="C732" s="17"/>
     </row>
-    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="5" t="s">
         <v>726</v>
       </c>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C733" s="17"/>
     </row>
-    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5" t="s">
         <v>727</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="5" t="s">
         <v>728</v>
       </c>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="C735" s="17"/>
     </row>
-    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="7" t="s">
         <v>729</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="5" t="s">
         <v>730</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="C737" s="17"/>
     </row>
-    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="5" t="s">
         <v>731</v>
       </c>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="C738" s="17"/>
     </row>
-    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="5" t="s">
         <v>732</v>
       </c>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="C739" s="17"/>
     </row>
-    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="5" t="s">
         <v>733</v>
       </c>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C740" s="17"/>
     </row>
-    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="5" t="s">
         <v>734</v>
       </c>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="C741" s="17"/>
     </row>
-    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="5" t="s">
         <v>735</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="C742" s="17"/>
     </row>
-    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="5" t="s">
         <v>736</v>
       </c>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="C743" s="17"/>
     </row>
-    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="5" t="s">
         <v>737</v>
       </c>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="C744" s="17"/>
     </row>
-    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="5" t="s">
         <v>738</v>
       </c>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="C745" s="17"/>
     </row>
-    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="6" t="s">
         <v>739</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="5" t="s">
         <v>740</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="C747" s="17"/>
     </row>
-    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="5" t="s">
         <v>741</v>
       </c>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="C748" s="17"/>
     </row>
-    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="5" t="s">
         <v>742</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="C749" s="17"/>
     </row>
-    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="5" t="s">
         <v>743</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="C750" s="17"/>
     </row>
-    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="5" t="s">
         <v>744</v>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="C751" s="17"/>
     </row>
-    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="5" t="s">
         <v>745</v>
       </c>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C752" s="17"/>
     </row>
-    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="7" t="s">
         <v>746</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="5" t="s">
         <v>1008</v>
       </c>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C754" s="17"/>
     </row>
-    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="5" t="s">
         <v>747</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="C755" s="17"/>
     </row>
-    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="5" t="s">
         <v>748</v>
       </c>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="C756" s="17"/>
     </row>
-    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="7" t="s">
         <v>749</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="5" t="s">
         <v>750</v>
       </c>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="C758" s="17"/>
     </row>
-    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="14" t="s">
         <v>751</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="5" t="s">
         <v>752</v>
       </c>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="C760" s="17"/>
     </row>
-    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="5" t="s">
         <v>753</v>
       </c>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="C761" s="17"/>
     </row>
-    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="5" t="s">
         <v>754</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C762" s="17"/>
     </row>
-    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="5" t="s">
         <v>755</v>
       </c>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="C763" s="17"/>
     </row>
-    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="5" t="s">
         <v>756</v>
       </c>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="C764" s="17"/>
     </row>
-    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="5" t="s">
         <v>757</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="5" t="s">
         <v>758</v>
       </c>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="C766" s="17"/>
     </row>
-    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="5" t="s">
         <v>759</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="C767" s="17"/>
     </row>
-    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="5" t="s">
         <v>760</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="5" t="s">
         <v>761</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="C769" s="17"/>
     </row>
-    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="5" t="s">
         <v>762</v>
       </c>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="C770" s="17"/>
     </row>
-    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="5" t="s">
         <v>763</v>
       </c>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="5" t="s">
         <v>764</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="C772" s="17"/>
     </row>
-    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="7" t="s">
         <v>765</v>
       </c>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="C773" s="17"/>
     </row>
-    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="5" t="s">
         <v>766</v>
       </c>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="C774" s="17"/>
     </row>
-    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="5" t="s">
         <v>767</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C775" s="17"/>
     </row>
-    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="5" t="s">
         <v>768</v>
       </c>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="C776" s="17"/>
     </row>
-    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="29" t="s">
         <v>769</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="5" t="s">
         <v>770</v>
       </c>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="C778" s="17"/>
     </row>
-    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="5" t="s">
         <v>771</v>
       </c>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C779" s="17"/>
     </row>
-    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="5" t="s">
         <v>772</v>
       </c>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="C780" s="17"/>
     </row>
-    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="7" t="s">
         <v>773</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="5" t="s">
         <v>774</v>
       </c>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C782" s="17"/>
     </row>
-    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="5" t="s">
         <v>775</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="C783" s="17"/>
     </row>
-    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="5" t="s">
         <v>776</v>
       </c>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C784" s="17"/>
     </row>
-    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="5" t="s">
         <v>777</v>
       </c>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="C785" s="17"/>
     </row>
-    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="7" t="s">
         <v>778</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="5" t="s">
         <v>779</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="C787" s="17"/>
     </row>
-    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="7" t="s">
         <v>780</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="5" t="s">
         <v>781</v>
       </c>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="C789" s="17"/>
     </row>
-    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="5" t="s">
         <v>782</v>
       </c>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="C790" s="17"/>
     </row>
-    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="5" t="s">
         <v>783</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C791" s="17"/>
     </row>
-    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="5" t="s">
         <v>784</v>
       </c>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="C792" s="17"/>
     </row>
-    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="5" t="s">
         <v>785</v>
       </c>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C793" s="17"/>
     </row>
-    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="5" t="s">
         <v>786</v>
       </c>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="C794" s="17"/>
     </row>
-    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="5" t="s">
         <v>787</v>
       </c>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="C795" s="17"/>
     </row>
-    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="5" t="s">
         <v>788</v>
       </c>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="C796" s="17"/>
     </row>
-    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="5" t="s">
         <v>789</v>
       </c>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="5" t="s">
         <v>790</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="5" t="s">
         <v>791</v>
       </c>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="C799" s="17"/>
     </row>
-    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="5" t="s">
         <v>792</v>
       </c>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="C800" s="17"/>
     </row>
-    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="5" t="s">
         <v>793</v>
       </c>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="C801" s="17"/>
     </row>
-    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="5" t="s">
         <v>794</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="5" t="s">
         <v>795</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="5" t="s">
         <v>796</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C804" s="17"/>
     </row>
-    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="5" t="s">
         <v>797</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="C805" s="17"/>
     </row>
-    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="5" t="s">
         <v>798</v>
       </c>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="5" t="s">
         <v>799</v>
       </c>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="5" t="s">
         <v>800</v>
       </c>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="C808" s="17"/>
     </row>
-    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="5" t="s">
         <v>801</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="C809" s="17"/>
     </row>
-    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="5" t="s">
         <v>802</v>
       </c>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C810" s="17"/>
     </row>
-    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="5" t="s">
         <v>803</v>
       </c>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C811" s="17"/>
     </row>
-    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="5" t="s">
         <v>804</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="C812" s="17"/>
     </row>
-    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="5" t="s">
         <v>805</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="C813" s="17"/>
     </row>
-    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="5" t="s">
         <v>806</v>
       </c>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="C814" s="17"/>
     </row>
-    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="5" t="s">
         <v>807</v>
       </c>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="C815" s="17"/>
     </row>
-    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="5" t="s">
         <v>808</v>
       </c>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C816" s="17"/>
     </row>
-    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="5" t="s">
         <v>809</v>
       </c>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="C817" s="17"/>
     </row>
-    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="5" t="s">
         <v>810</v>
       </c>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="C818" s="17"/>
     </row>
-    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="5" t="s">
         <v>811</v>
       </c>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="5" t="s">
         <v>812</v>
       </c>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="C820" s="17"/>
     </row>
-    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="5" t="s">
         <v>813</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="C821" s="17"/>
     </row>
-    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="5" t="s">
         <v>814</v>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="C822" s="17"/>
     </row>
-    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="5" t="s">
         <v>815</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="5" t="s">
         <v>816</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="C824" s="17"/>
     </row>
-    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="5" t="s">
         <v>817</v>
       </c>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="C825" s="17"/>
     </row>
-    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="5" t="s">
         <v>818</v>
       </c>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C826" s="17"/>
     </row>
-    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="5" t="s">
         <v>819</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C827" s="17"/>
     </row>
-    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="5" t="s">
         <v>820</v>
       </c>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="C828" s="17"/>
     </row>
-    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="5" t="s">
         <v>821</v>
       </c>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="C829" s="17"/>
     </row>
-    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="5" t="s">
         <v>822</v>
       </c>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="5" t="s">
         <v>823</v>
       </c>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="C831" s="17"/>
     </row>
-    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="5" t="s">
         <v>824</v>
       </c>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="C832" s="17"/>
     </row>
-    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="5" t="s">
         <v>825</v>
       </c>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="C833" s="17"/>
     </row>
-    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="5" t="s">
         <v>826</v>
       </c>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="5" t="s">
         <v>827</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C835" s="17"/>
     </row>
-    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="5" t="s">
         <v>828</v>
       </c>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="C836" s="17"/>
     </row>
-    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="5" t="s">
         <v>829</v>
       </c>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="C837" s="17"/>
     </row>
-    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="5" t="s">
         <v>830</v>
       </c>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="C838" s="17"/>
     </row>
-    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="5" t="s">
         <v>831</v>
       </c>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="C839" s="17"/>
     </row>
-    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="5" t="s">
         <v>691</v>
       </c>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="C840" s="17"/>
     </row>
-    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="5" t="s">
         <v>832</v>
       </c>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="C841" s="17"/>
     </row>
-    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="5" t="s">
         <v>833</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="C842" s="17"/>
     </row>
-    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="6" t="s">
         <v>834</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="5" t="s">
         <v>835</v>
       </c>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="C844" s="17"/>
     </row>
-    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="5" t="s">
         <v>836</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="C845" s="17"/>
     </row>
-    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="5" t="s">
         <v>837</v>
       </c>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="C846" s="17"/>
     </row>
-    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="5" t="s">
         <v>838</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="C847" s="17"/>
     </row>
-    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="5" t="s">
         <v>839</v>
       </c>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="C848" s="17"/>
     </row>
-    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="5" t="s">
         <v>840</v>
       </c>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="C849" s="17"/>
     </row>
-    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="5" t="s">
         <v>841</v>
       </c>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C850" s="17"/>
     </row>
-    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="5" t="s">
         <v>842</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C851" s="17"/>
     </row>
-    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="5" t="s">
         <v>843</v>
       </c>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="C852" s="17"/>
     </row>
-    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="5" t="s">
         <v>844</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="C853" s="17"/>
     </row>
-    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="5" t="s">
         <v>845</v>
       </c>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="5" t="s">
         <v>846</v>
       </c>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C855" s="17"/>
     </row>
-    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="5" t="s">
         <v>847</v>
       </c>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C856" s="17"/>
     </row>
-    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="5" t="s">
         <v>848</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C857" s="17"/>
     </row>
-    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="5" t="s">
         <v>849</v>
       </c>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="C858" s="17"/>
     </row>
-    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="5" t="s">
         <v>850</v>
       </c>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="C859" s="17"/>
     </row>
-    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="5" t="s">
         <v>851</v>
       </c>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="5" t="s">
         <v>852</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="C861" s="17"/>
     </row>
-    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="5" t="s">
         <v>853</v>
       </c>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="C862" s="17"/>
     </row>
-    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="5" t="s">
         <v>854</v>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="C863" s="17"/>
     </row>
-    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="5" t="s">
         <v>855</v>
       </c>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="C864" s="17"/>
     </row>
-    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="5" t="s">
         <v>856</v>
       </c>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="C865" s="17"/>
     </row>
-    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="5" t="s">
         <v>857</v>
       </c>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="5" t="s">
         <v>858</v>
       </c>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C867" s="17"/>
     </row>
-    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="5" t="s">
         <v>859</v>
       </c>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="C868" s="17"/>
     </row>
-    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="5" t="s">
         <v>860</v>
       </c>
@@ -12070,8 +12070,8 @@
       </c>
       <c r="C869" s="17"/>
     </row>
-    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="5" t="s">
+    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A870" s="29" t="s">
         <v>861</v>
       </c>
       <c r="B870" s="4">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="D870" s="31"/>
     </row>
-    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="5" t="s">
         <v>862</v>
       </c>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C871" s="17"/>
     </row>
-    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="5" t="s">
         <v>863</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="5" t="s">
         <v>864</v>
       </c>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="5" t="s">
         <v>865</v>
       </c>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="C874" s="17"/>
     </row>
-    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="5" t="s">
         <v>866</v>
       </c>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="C875" s="17"/>
     </row>
-    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="5" t="s">
         <v>867</v>
       </c>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="C876" s="17"/>
     </row>
-    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="5" t="s">
         <v>868</v>
       </c>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="C877" s="17"/>
     </row>
-    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="7" t="s">
         <v>869</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="5" t="s">
         <v>870</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C879" s="17"/>
     </row>
-    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="5" t="s">
         <v>871</v>
       </c>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="C880" s="17"/>
     </row>
-    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="5" t="s">
         <v>872</v>
       </c>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="5" t="s">
         <v>873</v>
       </c>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="C882" s="17"/>
     </row>
-    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="7" t="s">
         <v>874</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="5" t="s">
         <v>875</v>
       </c>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="5" t="s">
         <v>876</v>
       </c>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="C885" s="17"/>
     </row>
-    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="5" t="s">
         <v>877</v>
       </c>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="C886" s="17"/>
     </row>
-    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="7" t="s">
         <v>878</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="5" t="s">
         <v>879</v>
       </c>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="C888" s="17"/>
     </row>
-    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="5" t="s">
         <v>880</v>
       </c>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="C889" s="17"/>
     </row>
-    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="5" t="s">
         <v>881</v>
       </c>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C890" s="17"/>
     </row>
-    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="5" t="s">
         <v>882</v>
       </c>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="C891" s="17"/>
     </row>
-    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="5" t="s">
         <v>883</v>
       </c>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="C892" s="17"/>
     </row>
-    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="5" t="s">
         <v>884</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="C893" s="17"/>
     </row>
-    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="5" t="s">
         <v>885</v>
       </c>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="C894" s="17"/>
     </row>
-    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="5" t="s">
         <v>886</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="C895" s="17"/>
     </row>
-    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="5" t="s">
         <v>887</v>
       </c>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="C896" s="17"/>
     </row>
-    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="5" t="s">
         <v>888</v>
       </c>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="7" t="s">
         <v>889</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="5" t="s">
         <v>890</v>
       </c>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="C899" s="17"/>
     </row>
-    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="5" t="s">
         <v>891</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C900" s="17"/>
     </row>
-    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="5" t="s">
         <v>892</v>
       </c>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="C901" s="17"/>
     </row>
-    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="5" t="s">
         <v>893</v>
       </c>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="C902" s="17"/>
     </row>
-    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="5" t="s">
         <v>894</v>
       </c>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C903" s="17"/>
     </row>
-    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="7" t="s">
         <v>895</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="5" t="s">
         <v>896</v>
       </c>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="C905" s="17"/>
     </row>
-    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="5" t="s">
         <v>897</v>
       </c>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C906" s="17"/>
     </row>
-    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="5" t="s">
         <v>898</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="C907" s="17"/>
     </row>
-    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="5" t="s">
         <v>899</v>
       </c>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="C908" s="17"/>
     </row>
-    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="5" t="s">
         <v>900</v>
       </c>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="C909" s="17"/>
     </row>
-    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="5" t="s">
         <v>901</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="C910" s="17"/>
     </row>
-    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="5" t="s">
         <v>902</v>
       </c>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="5" t="s">
         <v>903</v>
       </c>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="C912" s="17"/>
     </row>
-    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="5" t="s">
         <v>904</v>
       </c>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="C913" s="17"/>
     </row>
-    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="5" t="s">
         <v>905</v>
       </c>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="5" t="s">
         <v>906</v>
       </c>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="5" t="s">
         <v>907</v>
       </c>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C916" s="17"/>
     </row>
-    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="5" t="s">
         <v>908</v>
       </c>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="C917" s="17"/>
     </row>
-    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="5" t="s">
         <v>909</v>
       </c>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="5" t="s">
         <v>910</v>
       </c>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C919" s="17"/>
     </row>
-    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="7" t="s">
         <v>911</v>
       </c>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C920" s="17"/>
     </row>
-    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="5" t="s">
         <v>912</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="C921" s="17"/>
     </row>
-    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="5" t="s">
         <v>913</v>
       </c>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="C922" s="17"/>
     </row>
-    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="5" t="s">
         <v>914</v>
       </c>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="5" t="s">
         <v>915</v>
       </c>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="C924" s="17"/>
     </row>
-    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="5" t="s">
         <v>916</v>
       </c>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="C925" s="17"/>
     </row>
-    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="5" t="s">
         <v>917</v>
       </c>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C926" s="17"/>
     </row>
-    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="5" t="s">
         <v>918</v>
       </c>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="C927" s="17"/>
     </row>
-    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="5" t="s">
         <v>919</v>
       </c>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="C928" s="17"/>
     </row>
-    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="5" t="s">
         <v>920</v>
       </c>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="5" t="s">
         <v>921</v>
       </c>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="5" t="s">
         <v>922</v>
       </c>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="C931" s="17"/>
     </row>
-    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="5" t="s">
         <v>923</v>
       </c>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C932" s="17"/>
     </row>
-    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="7" t="s">
         <v>924</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="5" t="s">
         <v>925</v>
       </c>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="C934" s="17"/>
     </row>
-    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="5" t="s">
         <v>926</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="C935" s="17"/>
     </row>
-    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="5" t="s">
         <v>927</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="C936" s="17"/>
     </row>
-    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="5" t="s">
         <v>928</v>
       </c>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="C937" s="17"/>
     </row>
-    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="7" t="s">
         <v>929</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="5" t="s">
         <v>930</v>
       </c>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="7" t="s">
         <v>931</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="5" t="s">
         <v>932</v>
       </c>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="C941" s="17"/>
     </row>
-    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="5" t="s">
         <v>933</v>
       </c>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C942" s="17"/>
     </row>
-    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="5" t="s">
         <v>934</v>
       </c>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="C943" s="17"/>
     </row>
-    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="5" t="s">
         <v>935</v>
       </c>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="C944" s="17"/>
     </row>
-    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="5" t="s">
         <v>936</v>
       </c>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="C945" s="17"/>
     </row>
-    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="7" t="s">
         <v>937</v>
       </c>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="C946" s="17"/>
     </row>
-    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="5" t="s">
         <v>938</v>
       </c>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="C947" s="17"/>
     </row>
-    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="5" t="s">
         <v>939</v>
       </c>
@@ -12800,7 +12800,7 @@
       </c>
       <c r="C948" s="17"/>
     </row>
-    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="5" t="s">
         <v>940</v>
       </c>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="5" t="s">
         <v>941</v>
       </c>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="C950" s="17"/>
     </row>
-    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="5" t="s">
         <v>942</v>
       </c>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="C951" s="17"/>
     </row>
-    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="5" t="s">
         <v>943</v>
       </c>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="C952" s="17"/>
     </row>
-    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="5" t="s">
         <v>944</v>
       </c>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="C953" s="17"/>
     </row>
-    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="5" t="s">
         <v>945</v>
       </c>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="C954" s="17"/>
     </row>
-    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="6" t="s">
         <v>946</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="5" t="s">
         <v>947</v>
       </c>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="C956" s="17"/>
     </row>
-    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="5" t="s">
         <v>948</v>
       </c>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="C957" s="17"/>
     </row>
-    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="5" t="s">
         <v>949</v>
       </c>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C958" s="17"/>
     </row>
-    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="5" t="s">
         <v>950</v>
       </c>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="C959" s="17"/>
     </row>
-    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="7" t="s">
         <v>951</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="5" t="s">
         <v>952</v>
       </c>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="C961" s="17"/>
     </row>
-    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="5" t="s">
         <v>953</v>
       </c>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="5" t="s">
         <v>954</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="C963" s="17"/>
     </row>
-    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="5" t="s">
         <v>955</v>
       </c>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="C964" s="17"/>
     </row>
-    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="5" t="s">
         <v>956</v>
       </c>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="C965" s="17"/>
     </row>
-    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="5" t="s">
         <v>957</v>
       </c>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C966" s="17"/>
     </row>
-    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="5" t="s">
         <v>958</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="5" t="s">
         <v>959</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C968" s="17"/>
     </row>
-    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="5" t="s">
         <v>960</v>
       </c>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="5" t="s">
         <v>961</v>
       </c>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="C970" s="17"/>
     </row>
-    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="5" t="s">
         <v>962</v>
       </c>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="C971" s="17"/>
     </row>
-    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="5" t="s">
         <v>963</v>
       </c>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="C972" s="17"/>
     </row>
-    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="5" t="s">
         <v>964</v>
       </c>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="C973" s="17"/>
     </row>
-    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="5" t="s">
         <v>965</v>
       </c>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="C974" s="17"/>
     </row>
-    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="5" t="s">
         <v>966</v>
       </c>
@@ -13045,7 +13045,7 @@
       </c>
       <c r="C975" s="17"/>
     </row>
-    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="5" t="s">
         <v>967</v>
       </c>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="C976" s="17"/>
     </row>
-    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="5" t="s">
         <v>968</v>
       </c>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="C977" s="17"/>
     </row>
-    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="5" t="s">
         <v>969</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C978" s="17"/>
     </row>
-    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="5" t="s">
         <v>970</v>
       </c>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="C979" s="17"/>
     </row>
-    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="5" t="s">
         <v>971</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="C980" s="17"/>
     </row>
-    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="5" t="s">
         <v>972</v>
       </c>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="C981" s="17"/>
     </row>
-    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="5" t="s">
         <v>973</v>
       </c>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="C982" s="17"/>
     </row>
-    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="5" t="s">
         <v>974</v>
       </c>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="C983" s="17"/>
     </row>
-    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="5" t="s">
         <v>975</v>
       </c>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="C984" s="17"/>
     </row>
-    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="5" t="s">
         <v>976</v>
       </c>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C985" s="17"/>
     </row>
-    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="5" t="s">
         <v>977</v>
       </c>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="C986" s="17"/>
     </row>
-    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="5" t="s">
         <v>978</v>
       </c>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="C987" s="17"/>
     </row>
-    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="5" t="s">
         <v>979</v>
       </c>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C988" s="17"/>
     </row>
-    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="5" t="s">
         <v>980</v>
       </c>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="C989" s="17"/>
     </row>
-    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="5" t="s">
         <v>981</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="C990" s="17"/>
     </row>
-    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="5" t="s">
         <v>982</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="C991" s="18"/>
     </row>
-    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="5" t="s">
         <v>983</v>
       </c>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="C992" s="17"/>
     </row>
-    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="5" t="s">
         <v>984</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="5" t="s">
         <v>985</v>
       </c>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="C994" s="17"/>
     </row>
-    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="7" t="s">
         <v>986</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="5" t="s">
         <v>987</v>
       </c>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="C996" s="17"/>
     </row>
-    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="5" t="s">
         <v>988</v>
       </c>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="C997" s="17"/>
     </row>
-    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="5" t="s">
         <v>989</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="C998" s="17"/>
     </row>
-    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="5" t="s">
         <v>990</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="5" t="s">
         <v>991</v>
       </c>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="C1000" s="17"/>
     </row>
-    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="5" t="s">
         <v>992</v>
       </c>
@@ -13285,9 +13285,9 @@
       </c>
       <c r="C1001" s="33"/>
     </row>
-    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="13"/>
     </row>
   </sheetData>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10990CE9-98AF-46A3-B0F0-746D97D1C777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38077EEE-443D-4BC1-86F2-316B231AE415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A857" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A870" sqref="A870"/>
+      <selection activeCell="A869" sqref="A869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3783,7 +3783,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="20">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E2)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F5" s="26">
         <f ca="1">SUM(F2:F4)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="F6" s="28">
         <f ca="1">1000-F5</f>
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>RANG DE BASANTI</v>
+        <v>ORGULLO Y PREJUICIO</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\Desktop\CARTELERA 1000 PELICULAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38077EEE-443D-4BC1-86F2-316B231AE415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7384AC-FBA3-4014-BCB4-FA4844F43260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1001</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjW+pff7qvu8zflHZvuBbBzY7yzFA=="/>
@@ -3203,7 +3203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3442,11 +3442,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3492,6 +3516,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3746,20 +3772,20 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A857" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A869" sqref="A869"/>
+      <selection activeCell="D863" sqref="D863"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="7" width="12.69921875" customWidth="1"/>
-    <col min="8" max="26" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="26" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3796,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3786,7 +3812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3858,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3874,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3883,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3878,12 +3904,12 @@
       <c r="C9" s="17"/>
       <c r="E9" s="34" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>ORGULLO Y PREJUICIO</v>
+        <v>CHANTAJE EN BROADWAY</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3918,7 @@
       </c>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3928,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +3938,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3950,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +3961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3944,25 +3970,25 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="36">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
-        <v>3</v>
+      <c r="B17" s="35">
+        <v>2</v>
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3971,7 +3997,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3980,7 +4006,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -3991,7 +4017,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4026,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4037,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4022,7 +4048,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4033,7 +4059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -4044,7 +4070,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4055,7 +4081,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4090,7 @@
       </c>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -4075,7 +4101,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4110,7 @@
       </c>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -4093,7 +4119,7 @@
       </c>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -4104,7 +4130,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -4115,7 +4141,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -4126,7 +4152,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -4135,16 +4161,16 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="35">
         <v>4</v>
       </c>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -4155,16 +4181,16 @@
         <v>994</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="36">
         <v>5</v>
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4201,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -4186,7 +4212,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -4197,7 +4223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -4208,7 +4234,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -4217,7 +4243,7 @@
       </c>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>997</v>
       </c>
@@ -4226,7 +4252,7 @@
       </c>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -4237,7 +4263,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -4246,7 +4272,7 @@
       </c>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -4255,7 +4281,7 @@
       </c>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -4264,7 +4290,7 @@
       </c>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -4275,7 +4301,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4312,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -4297,7 +4323,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -4306,7 +4332,7 @@
       </c>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4343,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4352,7 @@
       </c>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -4335,7 +4361,7 @@
       </c>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
@@ -4346,7 +4372,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>996</v>
       </c>
@@ -4355,7 +4381,7 @@
       </c>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4392,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -4375,7 +4401,7 @@
       </c>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4412,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -4395,7 +4421,7 @@
       </c>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -4406,7 +4432,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4441,7 @@
       </c>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -4424,7 +4450,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -4433,7 +4459,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -4442,7 +4468,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -4451,7 +4477,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -4460,7 +4486,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4495,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>71</v>
       </c>
@@ -4478,7 +4504,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -4489,7 +4515,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -4498,7 +4524,7 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
@@ -4509,7 +4535,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
@@ -4520,7 +4546,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -4531,7 +4557,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
@@ -4540,7 +4566,7 @@
       </c>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
@@ -4549,7 +4575,7 @@
       </c>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -4558,7 +4584,7 @@
       </c>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
@@ -4567,7 +4593,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +4604,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4587,7 +4613,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>83</v>
       </c>
@@ -4598,7 +4624,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -4609,7 +4635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
@@ -4620,7 +4646,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>86</v>
       </c>
@@ -4631,7 +4657,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -4642,7 +4668,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -4651,7 +4677,7 @@
       </c>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>89</v>
       </c>
@@ -4660,7 +4686,7 @@
       </c>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>90</v>
       </c>
@@ -4669,7 +4695,7 @@
       </c>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
@@ -4680,7 +4706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>92</v>
       </c>
@@ -4689,7 +4715,7 @@
       </c>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -4698,7 +4724,7 @@
       </c>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>94</v>
       </c>
@@ -4709,7 +4735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +4746,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>96</v>
       </c>
@@ -4731,7 +4757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>97</v>
       </c>
@@ -4740,7 +4766,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>98</v>
       </c>
@@ -4749,7 +4775,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -4758,7 +4784,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>100</v>
       </c>
@@ -4769,7 +4795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>101</v>
       </c>
@@ -4778,7 +4804,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>102</v>
       </c>
@@ -4787,7 +4813,7 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4822,7 @@
       </c>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>104</v>
       </c>
@@ -4807,7 +4833,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
@@ -4818,7 +4844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>106</v>
       </c>
@@ -4829,7 +4855,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>107</v>
       </c>
@@ -4840,7 +4866,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>108</v>
       </c>
@@ -4849,7 +4875,7 @@
       </c>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>109</v>
       </c>
@@ -4860,7 +4886,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>110</v>
       </c>
@@ -4869,7 +4895,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>111</v>
       </c>
@@ -4880,7 +4906,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>112</v>
       </c>
@@ -4891,7 +4917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>113</v>
       </c>
@@ -4900,7 +4926,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>114</v>
       </c>
@@ -4911,7 +4937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>115</v>
       </c>
@@ -4922,7 +4948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>116</v>
       </c>
@@ -4931,7 +4957,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
@@ -4940,7 +4966,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>118</v>
       </c>
@@ -4949,7 +4975,7 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>119</v>
       </c>
@@ -4958,7 +4984,7 @@
       </c>
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>120</v>
       </c>
@@ -4967,7 +4993,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>121</v>
       </c>
@@ -4976,7 +5002,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>122</v>
       </c>
@@ -4985,7 +5011,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>123</v>
       </c>
@@ -4994,7 +5020,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>124</v>
       </c>
@@ -5003,7 +5029,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>125</v>
       </c>
@@ -5014,7 +5040,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>126</v>
       </c>
@@ -5023,7 +5049,7 @@
       </c>
       <c r="C124" s="17"/>
     </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>127</v>
       </c>
@@ -5032,7 +5058,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>128</v>
       </c>
@@ -5041,7 +5067,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>129</v>
       </c>
@@ -5050,7 +5076,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>130</v>
       </c>
@@ -5059,7 +5085,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>131</v>
       </c>
@@ -5068,7 +5094,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>132</v>
       </c>
@@ -5079,7 +5105,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>133</v>
       </c>
@@ -5088,7 +5114,7 @@
       </c>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>134</v>
       </c>
@@ -5097,7 +5123,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>135</v>
       </c>
@@ -5106,7 +5132,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>136</v>
       </c>
@@ -5117,7 +5143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5152,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>138</v>
       </c>
@@ -5137,7 +5163,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>139</v>
       </c>
@@ -5148,7 +5174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>140</v>
       </c>
@@ -5159,7 +5185,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5170,7 +5196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>142</v>
       </c>
@@ -5181,7 +5207,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>143</v>
       </c>
@@ -5192,7 +5218,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5227,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>145</v>
       </c>
@@ -5212,7 +5238,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>146</v>
       </c>
@@ -5223,7 +5249,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>147</v>
       </c>
@@ -5234,7 +5260,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>148</v>
       </c>
@@ -5245,7 +5271,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>149</v>
       </c>
@@ -5254,7 +5280,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>150</v>
       </c>
@@ -5265,7 +5291,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>151</v>
       </c>
@@ -5274,7 +5300,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>152</v>
       </c>
@@ -5283,7 +5309,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>153</v>
       </c>
@@ -5292,7 +5318,7 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>154</v>
       </c>
@@ -5303,7 +5329,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>155</v>
       </c>
@@ -5314,7 +5340,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>999</v>
       </c>
@@ -5323,7 +5349,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>156</v>
       </c>
@@ -5332,7 +5358,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>157</v>
       </c>
@@ -5341,7 +5367,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>158</v>
       </c>
@@ -5352,7 +5378,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
@@ -5363,7 +5389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>160</v>
       </c>
@@ -5372,7 +5398,7 @@
       </c>
       <c r="C159" s="17"/>
     </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>161</v>
       </c>
@@ -5383,7 +5409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>162</v>
       </c>
@@ -5392,7 +5418,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -5401,7 +5427,7 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -5412,7 +5438,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -5423,7 +5449,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -5434,7 +5460,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -5445,7 +5471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -5456,7 +5482,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>169</v>
       </c>
@@ -5467,7 +5493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -5478,7 +5504,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -5487,7 +5513,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1000</v>
       </c>
@@ -5496,7 +5522,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>172</v>
       </c>
@@ -5505,7 +5531,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>173</v>
       </c>
@@ -5516,7 +5542,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>174</v>
       </c>
@@ -5525,7 +5551,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>175</v>
       </c>
@@ -5534,7 +5560,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>176</v>
       </c>
@@ -5543,7 +5569,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
@@ -5552,7 +5578,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>178</v>
       </c>
@@ -5563,7 +5589,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>179</v>
       </c>
@@ -5574,7 +5600,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>180</v>
       </c>
@@ -5583,7 +5609,7 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>181</v>
       </c>
@@ -5594,7 +5620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>182</v>
       </c>
@@ -5603,7 +5629,7 @@
       </c>
       <c r="C182" s="17"/>
     </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>183</v>
       </c>
@@ -5614,7 +5640,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>184</v>
       </c>
@@ -5623,7 +5649,7 @@
       </c>
       <c r="C184" s="17"/>
     </row>
-    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>185</v>
       </c>
@@ -5632,7 +5658,7 @@
       </c>
       <c r="C185" s="17"/>
     </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>186</v>
       </c>
@@ -5641,7 +5667,7 @@
       </c>
       <c r="C186" s="17"/>
     </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>187</v>
       </c>
@@ -5650,7 +5676,7 @@
       </c>
       <c r="C187" s="17"/>
     </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>188</v>
       </c>
@@ -5659,7 +5685,7 @@
       </c>
       <c r="C188" s="17"/>
     </row>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>189</v>
       </c>
@@ -5670,7 +5696,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>190</v>
       </c>
@@ -5681,7 +5707,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>191</v>
       </c>
@@ -5692,7 +5718,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>192</v>
       </c>
@@ -5701,7 +5727,7 @@
       </c>
       <c r="C192" s="17"/>
     </row>
-    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>193</v>
       </c>
@@ -5712,7 +5738,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
@@ -5721,7 +5747,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>195</v>
       </c>
@@ -5730,7 +5756,7 @@
       </c>
       <c r="C195" s="17"/>
     </row>
-    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>196</v>
       </c>
@@ -5741,7 +5767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
@@ -5750,7 +5776,7 @@
       </c>
       <c r="C197" s="17"/>
     </row>
-    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>198</v>
       </c>
@@ -5759,7 +5785,7 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>199</v>
       </c>
@@ -5768,7 +5794,7 @@
       </c>
       <c r="C199" s="17"/>
     </row>
-    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>200</v>
       </c>
@@ -5777,7 +5803,7 @@
       </c>
       <c r="C200" s="17"/>
     </row>
-    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>201</v>
       </c>
@@ -5786,7 +5812,7 @@
       </c>
       <c r="C201" s="17"/>
     </row>
-    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>202</v>
       </c>
@@ -5795,7 +5821,7 @@
       </c>
       <c r="C202" s="17"/>
     </row>
-    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>203</v>
       </c>
@@ -5806,7 +5832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -5817,7 +5843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +5854,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>206</v>
       </c>
@@ -5837,7 +5863,7 @@
       </c>
       <c r="C206" s="17"/>
     </row>
-    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>207</v>
       </c>
@@ -5848,7 +5874,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
@@ -5859,7 +5885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>209</v>
       </c>
@@ -5870,7 +5896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>210</v>
       </c>
@@ -5879,7 +5905,7 @@
       </c>
       <c r="C210" s="17"/>
     </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
@@ -5890,7 +5916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
@@ -5899,7 +5925,7 @@
       </c>
       <c r="C212" s="17"/>
     </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
@@ -5908,7 +5934,7 @@
       </c>
       <c r="C213" s="17"/>
     </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
@@ -5917,7 +5943,7 @@
       </c>
       <c r="C214" s="17"/>
     </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>215</v>
       </c>
@@ -5928,7 +5954,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>216</v>
       </c>
@@ -5939,7 +5965,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>217</v>
       </c>
@@ -5950,7 +5976,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>218</v>
       </c>
@@ -5961,7 +5987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
@@ -5970,7 +5996,7 @@
       </c>
       <c r="C219" s="17"/>
     </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>220</v>
       </c>
@@ -5979,7 +6005,7 @@
       </c>
       <c r="C220" s="17"/>
     </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
@@ -5988,7 +6014,7 @@
       </c>
       <c r="C221" s="17"/>
     </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>222</v>
       </c>
@@ -5997,7 +6023,7 @@
       </c>
       <c r="C222" s="17"/>
     </row>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>223</v>
       </c>
@@ -6006,7 +6032,7 @@
       </c>
       <c r="C223" s="17"/>
     </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>224</v>
       </c>
@@ -6017,7 +6043,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>225</v>
       </c>
@@ -6026,7 +6052,7 @@
       </c>
       <c r="C225" s="17"/>
     </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>226</v>
       </c>
@@ -6035,7 +6061,7 @@
       </c>
       <c r="C226" s="17"/>
     </row>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>227</v>
       </c>
@@ -6046,7 +6072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>228</v>
       </c>
@@ -6055,7 +6081,7 @@
       </c>
       <c r="C228" s="17"/>
     </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>229</v>
       </c>
@@ -6064,7 +6090,7 @@
       </c>
       <c r="C229" s="17"/>
     </row>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>230</v>
       </c>
@@ -6073,7 +6099,7 @@
       </c>
       <c r="C230" s="17"/>
     </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>231</v>
       </c>
@@ -6082,7 +6108,7 @@
       </c>
       <c r="C231" s="17"/>
     </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>232</v>
       </c>
@@ -6091,7 +6117,7 @@
       </c>
       <c r="C232" s="17"/>
     </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>233</v>
       </c>
@@ -6102,7 +6128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>234</v>
       </c>
@@ -6113,7 +6139,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>235</v>
       </c>
@@ -6122,7 +6148,7 @@
       </c>
       <c r="C235" s="17"/>
     </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>236</v>
       </c>
@@ -6131,7 +6157,7 @@
       </c>
       <c r="C236" s="17"/>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
@@ -6140,7 +6166,7 @@
       </c>
       <c r="C237" s="17"/>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>238</v>
       </c>
@@ -6149,7 +6175,7 @@
       </c>
       <c r="C238" s="17"/>
     </row>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>239</v>
       </c>
@@ -6158,7 +6184,7 @@
       </c>
       <c r="C239" s="17"/>
     </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>1001</v>
       </c>
@@ -6167,7 +6193,7 @@
       </c>
       <c r="C240" s="17"/>
     </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
@@ -6176,7 +6202,7 @@
       </c>
       <c r="C241" s="17"/>
     </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>241</v>
       </c>
@@ -6187,7 +6213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
@@ -6196,7 +6222,7 @@
       </c>
       <c r="C243" s="17"/>
     </row>
-    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
@@ -6205,7 +6231,7 @@
       </c>
       <c r="C244" s="17"/>
     </row>
-    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
@@ -6214,7 +6240,7 @@
       </c>
       <c r="C245" s="17"/>
     </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
@@ -6223,7 +6249,7 @@
       </c>
       <c r="C246" s="17"/>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
@@ -6234,7 +6260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
@@ -6245,7 +6271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>248</v>
       </c>
@@ -6256,7 +6282,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
@@ -6265,7 +6291,7 @@
       </c>
       <c r="C250" s="17"/>
     </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
         <v>1007</v>
       </c>
@@ -6276,7 +6302,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -6285,7 +6311,7 @@
       </c>
       <c r="C252" s="17"/>
     </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -6294,7 +6320,7 @@
       </c>
       <c r="C253" s="17"/>
     </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -6303,7 +6329,7 @@
       </c>
       <c r="C254" s="17"/>
     </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -6312,7 +6338,7 @@
       </c>
       <c r="C255" s="17"/>
     </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -6321,7 +6347,7 @@
       </c>
       <c r="C256" s="17"/>
     </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -6330,7 +6356,7 @@
       </c>
       <c r="C257" s="17"/>
     </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -6339,7 +6365,7 @@
       </c>
       <c r="C258" s="17"/>
     </row>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>257</v>
       </c>
@@ -6348,7 +6374,7 @@
       </c>
       <c r="C259" s="17"/>
     </row>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>258</v>
       </c>
@@ -6359,7 +6385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>1002</v>
       </c>
@@ -6368,7 +6394,7 @@
       </c>
       <c r="C261" s="17"/>
     </row>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>259</v>
       </c>
@@ -6377,7 +6403,7 @@
       </c>
       <c r="C262" s="17"/>
     </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>260</v>
       </c>
@@ -6388,7 +6414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>261</v>
       </c>
@@ -6399,7 +6425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>262</v>
       </c>
@@ -6408,7 +6434,7 @@
       </c>
       <c r="C265" s="17"/>
     </row>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>263</v>
       </c>
@@ -6419,7 +6445,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>264</v>
       </c>
@@ -6430,7 +6456,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>1003</v>
       </c>
@@ -6439,7 +6465,7 @@
       </c>
       <c r="C268" s="17"/>
     </row>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>265</v>
       </c>
@@ -6448,7 +6474,7 @@
       </c>
       <c r="C269" s="17"/>
     </row>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>266</v>
       </c>
@@ -6459,7 +6485,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>267</v>
       </c>
@@ -6468,7 +6494,7 @@
       </c>
       <c r="C271" s="17"/>
     </row>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>268</v>
       </c>
@@ -6477,7 +6503,7 @@
       </c>
       <c r="C272" s="17"/>
     </row>
-    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>269</v>
       </c>
@@ -6488,7 +6514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>270</v>
       </c>
@@ -6499,7 +6525,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
@@ -6508,7 +6534,7 @@
       </c>
       <c r="C275" s="17"/>
     </row>
-    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>272</v>
       </c>
@@ -6517,7 +6543,7 @@
       </c>
       <c r="C276" s="17"/>
     </row>
-    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>273</v>
       </c>
@@ -6526,7 +6552,7 @@
       </c>
       <c r="C277" s="17"/>
     </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>1004</v>
       </c>
@@ -6537,7 +6563,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>274</v>
       </c>
@@ -6546,7 +6572,7 @@
       </c>
       <c r="C279" s="17"/>
     </row>
-    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>275</v>
       </c>
@@ -6555,7 +6581,7 @@
       </c>
       <c r="C280" s="17"/>
     </row>
-    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>276</v>
       </c>
@@ -6564,7 +6590,7 @@
       </c>
       <c r="C281" s="17"/>
     </row>
-    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>277</v>
       </c>
@@ -6575,7 +6601,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>278</v>
       </c>
@@ -6586,7 +6612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>279</v>
       </c>
@@ -6597,7 +6623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>280</v>
       </c>
@@ -6608,7 +6634,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>281</v>
       </c>
@@ -6619,7 +6645,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>282</v>
       </c>
@@ -6628,7 +6654,7 @@
       </c>
       <c r="C287" s="17"/>
     </row>
-    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>283</v>
       </c>
@@ -6637,7 +6663,7 @@
       </c>
       <c r="C288" s="17"/>
     </row>
-    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>284</v>
       </c>
@@ -6646,7 +6672,7 @@
       </c>
       <c r="C289" s="17"/>
     </row>
-    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>285</v>
       </c>
@@ -6655,7 +6681,7 @@
       </c>
       <c r="C290" s="17"/>
     </row>
-    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>286</v>
       </c>
@@ -6664,7 +6690,7 @@
       </c>
       <c r="C291" s="17"/>
     </row>
-    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>287</v>
       </c>
@@ -6675,7 +6701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>288</v>
       </c>
@@ -6686,7 +6712,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>289</v>
       </c>
@@ -6695,7 +6721,7 @@
       </c>
       <c r="C294" s="17"/>
     </row>
-    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>290</v>
       </c>
@@ -6704,7 +6730,7 @@
       </c>
       <c r="C295" s="17"/>
     </row>
-    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>291</v>
       </c>
@@ -6713,7 +6739,7 @@
       </c>
       <c r="C296" s="17"/>
     </row>
-    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>292</v>
       </c>
@@ -6722,7 +6748,7 @@
       </c>
       <c r="C297" s="17"/>
     </row>
-    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>293</v>
       </c>
@@ -6731,7 +6757,7 @@
       </c>
       <c r="C298" s="17"/>
     </row>
-    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>294</v>
       </c>
@@ -6742,7 +6768,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>295</v>
       </c>
@@ -6751,7 +6777,7 @@
       </c>
       <c r="C300" s="17"/>
     </row>
-    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>296</v>
       </c>
@@ -6760,7 +6786,7 @@
       </c>
       <c r="C301" s="17"/>
     </row>
-    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>297</v>
       </c>
@@ -6771,7 +6797,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>298</v>
       </c>
@@ -6780,7 +6806,7 @@
       </c>
       <c r="C303" s="17"/>
     </row>
-    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>299</v>
       </c>
@@ -6791,7 +6817,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>300</v>
       </c>
@@ -6802,7 +6828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>301</v>
       </c>
@@ -6813,7 +6839,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>302</v>
       </c>
@@ -6824,7 +6850,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>303</v>
       </c>
@@ -6833,7 +6859,7 @@
       </c>
       <c r="C308" s="17"/>
     </row>
-    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>304</v>
       </c>
@@ -6842,7 +6868,7 @@
       </c>
       <c r="C309" s="17"/>
     </row>
-    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>305</v>
       </c>
@@ -6853,7 +6879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>306</v>
       </c>
@@ -6864,7 +6890,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="29" t="s">
         <v>307</v>
       </c>
@@ -6875,7 +6901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>308</v>
       </c>
@@ -6884,7 +6910,7 @@
       </c>
       <c r="C313" s="17"/>
     </row>
-    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>309</v>
       </c>
@@ -6893,7 +6919,7 @@
       </c>
       <c r="C314" s="17"/>
     </row>
-    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>310</v>
       </c>
@@ -6904,7 +6930,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>311</v>
       </c>
@@ -6915,7 +6941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>312</v>
       </c>
@@ -6926,7 +6952,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>313</v>
       </c>
@@ -6937,7 +6963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>314</v>
       </c>
@@ -6948,7 +6974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>315</v>
       </c>
@@ -6959,7 +6985,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="29" t="s">
         <v>316</v>
       </c>
@@ -6970,7 +6996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>317</v>
       </c>
@@ -6979,7 +7005,7 @@
       </c>
       <c r="C322" s="17"/>
     </row>
-    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>318</v>
       </c>
@@ -6988,7 +7014,7 @@
       </c>
       <c r="C323" s="17"/>
     </row>
-    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="29" t="s">
         <v>319</v>
       </c>
@@ -6999,7 +7025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>320</v>
       </c>
@@ -7010,7 +7036,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>321</v>
       </c>
@@ -7021,7 +7047,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>322</v>
       </c>
@@ -7030,7 +7056,7 @@
       </c>
       <c r="C327" s="17"/>
     </row>
-    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>323</v>
       </c>
@@ -7039,7 +7065,7 @@
       </c>
       <c r="C328" s="17"/>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>324</v>
       </c>
@@ -7048,7 +7074,7 @@
       </c>
       <c r="C329" s="17"/>
     </row>
-    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>325</v>
       </c>
@@ -7059,7 +7085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>326</v>
       </c>
@@ -7070,7 +7096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>327</v>
       </c>
@@ -7081,7 +7107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>328</v>
       </c>
@@ -7090,7 +7116,7 @@
       </c>
       <c r="C333" s="17"/>
     </row>
-    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>329</v>
       </c>
@@ -7099,7 +7125,7 @@
       </c>
       <c r="C334" s="17"/>
     </row>
-    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>330</v>
       </c>
@@ -7110,7 +7136,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>331</v>
       </c>
@@ -7119,7 +7145,7 @@
       </c>
       <c r="C336" s="17"/>
     </row>
-    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>332</v>
       </c>
@@ -7128,7 +7154,7 @@
       </c>
       <c r="C337" s="17"/>
     </row>
-    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>333</v>
       </c>
@@ -7139,7 +7165,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>334</v>
       </c>
@@ -7150,7 +7176,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>335</v>
       </c>
@@ -7161,7 +7187,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>336</v>
       </c>
@@ -7170,7 +7196,7 @@
       </c>
       <c r="C341" s="17"/>
     </row>
-    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>337</v>
       </c>
@@ -7179,7 +7205,7 @@
       </c>
       <c r="C342" s="17"/>
     </row>
-    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>338</v>
       </c>
@@ -7190,7 +7216,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>339</v>
       </c>
@@ -7201,7 +7227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -7210,7 +7236,7 @@
       </c>
       <c r="C345" s="17"/>
     </row>
-    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>341</v>
       </c>
@@ -7219,7 +7245,7 @@
       </c>
       <c r="C346" s="17"/>
     </row>
-    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>342</v>
       </c>
@@ -7228,7 +7254,7 @@
       </c>
       <c r="C347" s="17"/>
     </row>
-    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>343</v>
       </c>
@@ -7237,7 +7263,7 @@
       </c>
       <c r="C348" s="17"/>
     </row>
-    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
@@ -7246,7 +7272,7 @@
       </c>
       <c r="C349" s="17"/>
     </row>
-    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>345</v>
       </c>
@@ -7255,7 +7281,7 @@
       </c>
       <c r="C350" s="17"/>
     </row>
-    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>346</v>
       </c>
@@ -7264,7 +7290,7 @@
       </c>
       <c r="C351" s="17"/>
     </row>
-    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>347</v>
       </c>
@@ -7273,7 +7299,7 @@
       </c>
       <c r="C352" s="17"/>
     </row>
-    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>348</v>
       </c>
@@ -7284,7 +7310,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>349</v>
       </c>
@@ -7293,7 +7319,7 @@
       </c>
       <c r="C354" s="17"/>
     </row>
-    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>350</v>
       </c>
@@ -7302,7 +7328,7 @@
       </c>
       <c r="C355" s="17"/>
     </row>
-    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>351</v>
       </c>
@@ -7311,7 +7337,7 @@
       </c>
       <c r="C356" s="17"/>
     </row>
-    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>352</v>
       </c>
@@ -7322,7 +7348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>353</v>
       </c>
@@ -7331,7 +7357,7 @@
       </c>
       <c r="C358" s="17"/>
     </row>
-    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="29" t="s">
         <v>354</v>
       </c>
@@ -7342,7 +7368,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>355</v>
       </c>
@@ -7351,7 +7377,7 @@
       </c>
       <c r="C360" s="17"/>
     </row>
-    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>356</v>
       </c>
@@ -7360,7 +7386,7 @@
       </c>
       <c r="C361" s="17"/>
     </row>
-    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>357</v>
       </c>
@@ -7371,7 +7397,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>358</v>
       </c>
@@ -7382,7 +7408,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>359</v>
       </c>
@@ -7393,7 +7419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>360</v>
       </c>
@@ -7404,7 +7430,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>361</v>
       </c>
@@ -7415,7 +7441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>1005</v>
       </c>
@@ -7424,7 +7450,7 @@
       </c>
       <c r="C367" s="17"/>
     </row>
-    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>362</v>
       </c>
@@ -7435,7 +7461,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>363</v>
       </c>
@@ -7444,7 +7470,7 @@
       </c>
       <c r="C369" s="17"/>
     </row>
-    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>364</v>
       </c>
@@ -7453,7 +7479,7 @@
       </c>
       <c r="C370" s="17"/>
     </row>
-    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>365</v>
       </c>
@@ -7462,7 +7488,7 @@
       </c>
       <c r="C371" s="17"/>
     </row>
-    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>366</v>
       </c>
@@ -7473,7 +7499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>367</v>
       </c>
@@ -7484,7 +7510,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>368</v>
       </c>
@@ -7495,7 +7521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>369</v>
       </c>
@@ -7506,7 +7532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>370</v>
       </c>
@@ -7515,7 +7541,7 @@
       </c>
       <c r="C376" s="17"/>
     </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>371</v>
       </c>
@@ -7526,7 +7552,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>372</v>
       </c>
@@ -7535,7 +7561,7 @@
       </c>
       <c r="C378" s="17"/>
     </row>
-    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>373</v>
       </c>
@@ -7544,7 +7570,7 @@
       </c>
       <c r="C379" s="17"/>
     </row>
-    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>374</v>
       </c>
@@ -7553,7 +7579,7 @@
       </c>
       <c r="C380" s="17"/>
     </row>
-    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>375</v>
       </c>
@@ -7562,7 +7588,7 @@
       </c>
       <c r="C381" s="17"/>
     </row>
-    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>376</v>
       </c>
@@ -7573,7 +7599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>377</v>
       </c>
@@ -7582,7 +7608,7 @@
       </c>
       <c r="C383" s="17"/>
     </row>
-    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>378</v>
       </c>
@@ -7593,7 +7619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>379</v>
       </c>
@@ -7602,7 +7628,7 @@
       </c>
       <c r="C385" s="17"/>
     </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>380</v>
       </c>
@@ -7611,7 +7637,7 @@
       </c>
       <c r="C386" s="17"/>
     </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>381</v>
       </c>
@@ -7622,7 +7648,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>382</v>
       </c>
@@ -7631,7 +7657,7 @@
       </c>
       <c r="C388" s="17"/>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>383</v>
       </c>
@@ -7640,7 +7666,7 @@
       </c>
       <c r="C389" s="17"/>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>384</v>
       </c>
@@ -7651,7 +7677,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>385</v>
       </c>
@@ -7662,7 +7688,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>386</v>
       </c>
@@ -7673,7 +7699,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>387</v>
       </c>
@@ -7684,7 +7710,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>388</v>
       </c>
@@ -7693,7 +7719,7 @@
       </c>
       <c r="C394" s="17"/>
     </row>
-    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>389</v>
       </c>
@@ -7704,7 +7730,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>390</v>
       </c>
@@ -7713,7 +7739,7 @@
       </c>
       <c r="C396" s="17"/>
     </row>
-    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>391</v>
       </c>
@@ -7724,7 +7750,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>392</v>
       </c>
@@ -7733,7 +7759,7 @@
       </c>
       <c r="C398" s="17"/>
     </row>
-    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>393</v>
       </c>
@@ -7742,7 +7768,7 @@
       </c>
       <c r="C399" s="17"/>
     </row>
-    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>394</v>
       </c>
@@ -7751,7 +7777,7 @@
       </c>
       <c r="C400" s="17"/>
     </row>
-    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>395</v>
       </c>
@@ -7760,7 +7786,7 @@
       </c>
       <c r="C401" s="17"/>
     </row>
-    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>396</v>
       </c>
@@ -7769,7 +7795,7 @@
       </c>
       <c r="C402" s="17"/>
     </row>
-    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>397</v>
       </c>
@@ -7778,7 +7804,7 @@
       </c>
       <c r="C403" s="17"/>
     </row>
-    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>398</v>
       </c>
@@ -7789,7 +7815,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>399</v>
       </c>
@@ -7800,7 +7826,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>400</v>
       </c>
@@ -7809,7 +7835,7 @@
       </c>
       <c r="C406" s="17"/>
     </row>
-    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>401</v>
       </c>
@@ -7818,7 +7844,7 @@
       </c>
       <c r="C407" s="17"/>
     </row>
-    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>402</v>
       </c>
@@ -7829,7 +7855,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>403</v>
       </c>
@@ -7840,7 +7866,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>404</v>
       </c>
@@ -7851,7 +7877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>405</v>
       </c>
@@ -7860,7 +7886,7 @@
       </c>
       <c r="C411" s="17"/>
     </row>
-    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>406</v>
       </c>
@@ -7869,7 +7895,7 @@
       </c>
       <c r="C412" s="17"/>
     </row>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>407</v>
       </c>
@@ -7878,7 +7904,7 @@
       </c>
       <c r="C413" s="17"/>
     </row>
-    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>408</v>
       </c>
@@ -7887,7 +7913,7 @@
       </c>
       <c r="C414" s="17"/>
     </row>
-    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="30" t="s">
         <v>409</v>
       </c>
@@ -7896,7 +7922,7 @@
       </c>
       <c r="C415" s="17"/>
     </row>
-    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>410</v>
       </c>
@@ -7905,7 +7931,7 @@
       </c>
       <c r="C416" s="17"/>
     </row>
-    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>411</v>
       </c>
@@ -7916,7 +7942,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>412</v>
       </c>
@@ -7925,7 +7951,7 @@
       </c>
       <c r="C418" s="17"/>
     </row>
-    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>413</v>
       </c>
@@ -7934,7 +7960,7 @@
       </c>
       <c r="C419" s="17"/>
     </row>
-    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>414</v>
       </c>
@@ -7943,7 +7969,7 @@
       </c>
       <c r="C420" s="17"/>
     </row>
-    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>415</v>
       </c>
@@ -7952,7 +7978,7 @@
       </c>
       <c r="C421" s="17"/>
     </row>
-    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>416</v>
       </c>
@@ -7961,7 +7987,7 @@
       </c>
       <c r="C422" s="17"/>
     </row>
-    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>417</v>
       </c>
@@ -7970,7 +7996,7 @@
       </c>
       <c r="C423" s="17"/>
     </row>
-    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>418</v>
       </c>
@@ -7981,7 +8007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>419</v>
       </c>
@@ -7990,7 +8016,7 @@
       </c>
       <c r="C425" s="17"/>
     </row>
-    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>420</v>
       </c>
@@ -7999,7 +8025,7 @@
       </c>
       <c r="C426" s="17"/>
     </row>
-    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>421</v>
       </c>
@@ -8008,7 +8034,7 @@
       </c>
       <c r="C427" s="17"/>
     </row>
-    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>422</v>
       </c>
@@ -8017,7 +8043,7 @@
       </c>
       <c r="C428" s="17"/>
     </row>
-    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>423</v>
       </c>
@@ -8026,7 +8052,7 @@
       </c>
       <c r="C429" s="17"/>
     </row>
-    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>424</v>
       </c>
@@ -8037,7 +8063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>425</v>
       </c>
@@ -8046,7 +8072,7 @@
       </c>
       <c r="C431" s="17"/>
     </row>
-    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>426</v>
       </c>
@@ -8055,7 +8081,7 @@
       </c>
       <c r="C432" s="17"/>
     </row>
-    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>427</v>
       </c>
@@ -8064,7 +8090,7 @@
       </c>
       <c r="C433" s="17"/>
     </row>
-    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>428</v>
       </c>
@@ -8073,7 +8099,7 @@
       </c>
       <c r="C434" s="17"/>
     </row>
-    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>429</v>
       </c>
@@ -8082,7 +8108,7 @@
       </c>
       <c r="C435" s="17"/>
     </row>
-    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>430</v>
       </c>
@@ -8093,7 +8119,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>431</v>
       </c>
@@ -8102,7 +8128,7 @@
       </c>
       <c r="C437" s="17"/>
     </row>
-    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>432</v>
       </c>
@@ -8111,7 +8137,7 @@
       </c>
       <c r="C438" s="17"/>
     </row>
-    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>433</v>
       </c>
@@ -8120,7 +8146,7 @@
       </c>
       <c r="C439" s="17"/>
     </row>
-    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>434</v>
       </c>
@@ -8129,7 +8155,7 @@
       </c>
       <c r="C440" s="17"/>
     </row>
-    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>435</v>
       </c>
@@ -8138,7 +8164,7 @@
       </c>
       <c r="C441" s="17"/>
     </row>
-    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>436</v>
       </c>
@@ -8147,7 +8173,7 @@
       </c>
       <c r="C442" s="17"/>
     </row>
-    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>437</v>
       </c>
@@ -8156,7 +8182,7 @@
       </c>
       <c r="C443" s="17"/>
     </row>
-    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>438</v>
       </c>
@@ -8165,7 +8191,7 @@
       </c>
       <c r="C444" s="17"/>
     </row>
-    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>439</v>
       </c>
@@ -8174,7 +8200,7 @@
       </c>
       <c r="C445" s="17"/>
     </row>
-    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>440</v>
       </c>
@@ -8183,7 +8209,7 @@
       </c>
       <c r="C446" s="17"/>
     </row>
-    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>441</v>
       </c>
@@ -8192,7 +8218,7 @@
       </c>
       <c r="C447" s="17"/>
     </row>
-    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>442</v>
       </c>
@@ -8201,7 +8227,7 @@
       </c>
       <c r="C448" s="17"/>
     </row>
-    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>443</v>
       </c>
@@ -8210,7 +8236,7 @@
       </c>
       <c r="C449" s="17"/>
     </row>
-    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>444</v>
       </c>
@@ -8219,7 +8245,7 @@
       </c>
       <c r="C450" s="17"/>
     </row>
-    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>445</v>
       </c>
@@ -8228,7 +8254,7 @@
       </c>
       <c r="C451" s="17"/>
     </row>
-    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>446</v>
       </c>
@@ -8237,7 +8263,7 @@
       </c>
       <c r="C452" s="17"/>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>447</v>
       </c>
@@ -8246,7 +8272,7 @@
       </c>
       <c r="C453" s="17"/>
     </row>
-    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>448</v>
       </c>
@@ -8255,7 +8281,7 @@
       </c>
       <c r="C454" s="17"/>
     </row>
-    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>449</v>
       </c>
@@ -8264,7 +8290,7 @@
       </c>
       <c r="C455" s="17"/>
     </row>
-    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>450</v>
       </c>
@@ -8273,7 +8299,7 @@
       </c>
       <c r="C456" s="17"/>
     </row>
-    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
         <v>451</v>
       </c>
@@ -8284,7 +8310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>452</v>
       </c>
@@ -8293,7 +8319,7 @@
       </c>
       <c r="C458" s="17"/>
     </row>
-    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>453</v>
       </c>
@@ -8302,7 +8328,7 @@
       </c>
       <c r="C459" s="17"/>
     </row>
-    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>454</v>
       </c>
@@ -8311,7 +8337,7 @@
       </c>
       <c r="C460" s="17"/>
     </row>
-    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>455</v>
       </c>
@@ -8320,7 +8346,7 @@
       </c>
       <c r="C461" s="17"/>
     </row>
-    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>456</v>
       </c>
@@ -8329,7 +8355,7 @@
       </c>
       <c r="C462" s="17"/>
     </row>
-    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>457</v>
       </c>
@@ -8340,7 +8366,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>458</v>
       </c>
@@ -8349,7 +8375,7 @@
       </c>
       <c r="C464" s="17"/>
     </row>
-    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>459</v>
       </c>
@@ -8358,7 +8384,7 @@
       </c>
       <c r="C465" s="17"/>
     </row>
-    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>460</v>
       </c>
@@ -8369,7 +8395,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>461</v>
       </c>
@@ -8378,7 +8404,7 @@
       </c>
       <c r="C467" s="17"/>
     </row>
-    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="30" t="s">
         <v>462</v>
       </c>
@@ -8389,7 +8415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>463</v>
       </c>
@@ -8398,7 +8424,7 @@
       </c>
       <c r="C469" s="17"/>
     </row>
-    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>464</v>
       </c>
@@ -8407,7 +8433,7 @@
       </c>
       <c r="C470" s="17"/>
     </row>
-    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>465</v>
       </c>
@@ -8416,7 +8442,7 @@
       </c>
       <c r="C471" s="17"/>
     </row>
-    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>466</v>
       </c>
@@ -8425,7 +8451,7 @@
       </c>
       <c r="C472" s="17"/>
     </row>
-    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>467</v>
       </c>
@@ -8434,7 +8460,7 @@
       </c>
       <c r="C473" s="17"/>
     </row>
-    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>468</v>
       </c>
@@ -8445,7 +8471,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>469</v>
       </c>
@@ -8454,7 +8480,7 @@
       </c>
       <c r="C475" s="17"/>
     </row>
-    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>470</v>
       </c>
@@ -8463,7 +8489,7 @@
       </c>
       <c r="C476" s="17"/>
     </row>
-    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>471</v>
       </c>
@@ -8472,7 +8498,7 @@
       </c>
       <c r="C477" s="17"/>
     </row>
-    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>472</v>
       </c>
@@ -8481,7 +8507,7 @@
       </c>
       <c r="C478" s="17"/>
     </row>
-    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>473</v>
       </c>
@@ -8490,7 +8516,7 @@
       </c>
       <c r="C479" s="17"/>
     </row>
-    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>474</v>
       </c>
@@ -8499,7 +8525,7 @@
       </c>
       <c r="C480" s="17"/>
     </row>
-    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>475</v>
       </c>
@@ -8508,7 +8534,7 @@
       </c>
       <c r="C481" s="17"/>
     </row>
-    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>476</v>
       </c>
@@ -8517,7 +8543,7 @@
       </c>
       <c r="C482" s="17"/>
     </row>
-    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>477</v>
       </c>
@@ -8526,7 +8552,7 @@
       </c>
       <c r="C483" s="17"/>
     </row>
-    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>478</v>
       </c>
@@ -8535,7 +8561,7 @@
       </c>
       <c r="C484" s="17"/>
     </row>
-    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>479</v>
       </c>
@@ -8544,7 +8570,7 @@
       </c>
       <c r="C485" s="17"/>
     </row>
-    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>480</v>
       </c>
@@ -8553,7 +8579,7 @@
       </c>
       <c r="C486" s="17"/>
     </row>
-    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>481</v>
       </c>
@@ -8562,7 +8588,7 @@
       </c>
       <c r="C487" s="17"/>
     </row>
-    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>482</v>
       </c>
@@ -8573,7 +8599,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>483</v>
       </c>
@@ -8582,7 +8608,7 @@
       </c>
       <c r="C489" s="17"/>
     </row>
-    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>484</v>
       </c>
@@ -8591,7 +8617,7 @@
       </c>
       <c r="C490" s="17"/>
     </row>
-    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>485</v>
       </c>
@@ -8600,7 +8626,7 @@
       </c>
       <c r="C491" s="17"/>
     </row>
-    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>486</v>
       </c>
@@ -8609,7 +8635,7 @@
       </c>
       <c r="C492" s="17"/>
     </row>
-    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>487</v>
       </c>
@@ -8618,7 +8644,7 @@
       </c>
       <c r="C493" s="17"/>
     </row>
-    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>488</v>
       </c>
@@ -8627,7 +8653,7 @@
       </c>
       <c r="C494" s="17"/>
     </row>
-    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>489</v>
       </c>
@@ -8636,7 +8662,7 @@
       </c>
       <c r="C495" s="17"/>
     </row>
-    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>490</v>
       </c>
@@ -8645,7 +8671,7 @@
       </c>
       <c r="C496" s="17"/>
     </row>
-    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>491</v>
       </c>
@@ -8654,7 +8680,7 @@
       </c>
       <c r="C497" s="17"/>
     </row>
-    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>492</v>
       </c>
@@ -8663,7 +8689,7 @@
       </c>
       <c r="C498" s="17"/>
     </row>
-    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>493</v>
       </c>
@@ -8672,7 +8698,7 @@
       </c>
       <c r="C499" s="17"/>
     </row>
-    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>494</v>
       </c>
@@ -8681,7 +8707,7 @@
       </c>
       <c r="C500" s="17"/>
     </row>
-    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="32" t="s">
         <v>1006</v>
       </c>
@@ -8690,7 +8716,7 @@
       </c>
       <c r="C501" s="17"/>
     </row>
-    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>495</v>
       </c>
@@ -8699,7 +8725,7 @@
       </c>
       <c r="C502" s="17"/>
     </row>
-    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>496</v>
       </c>
@@ -8708,7 +8734,7 @@
       </c>
       <c r="C503" s="17"/>
     </row>
-    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>497</v>
       </c>
@@ -8717,7 +8743,7 @@
       </c>
       <c r="C504" s="17"/>
     </row>
-    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>498</v>
       </c>
@@ -8726,7 +8752,7 @@
       </c>
       <c r="C505" s="17"/>
     </row>
-    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>499</v>
       </c>
@@ -8735,7 +8761,7 @@
       </c>
       <c r="C506" s="17"/>
     </row>
-    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>500</v>
       </c>
@@ -8744,7 +8770,7 @@
       </c>
       <c r="C507" s="17"/>
     </row>
-    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>501</v>
       </c>
@@ -8753,7 +8779,7 @@
       </c>
       <c r="C508" s="17"/>
     </row>
-    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>502</v>
       </c>
@@ -8764,7 +8790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>503</v>
       </c>
@@ -8773,7 +8799,7 @@
       </c>
       <c r="C510" s="17"/>
     </row>
-    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>504</v>
       </c>
@@ -8784,7 +8810,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>505</v>
       </c>
@@ -8793,7 +8819,7 @@
       </c>
       <c r="C512" s="17"/>
     </row>
-    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>506</v>
       </c>
@@ -8802,7 +8828,7 @@
       </c>
       <c r="C513" s="17"/>
     </row>
-    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>507</v>
       </c>
@@ -8811,7 +8837,7 @@
       </c>
       <c r="C514" s="17"/>
     </row>
-    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>508</v>
       </c>
@@ -8820,7 +8846,7 @@
       </c>
       <c r="C515" s="17"/>
     </row>
-    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>509</v>
       </c>
@@ -8829,7 +8855,7 @@
       </c>
       <c r="C516" s="17"/>
     </row>
-    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>510</v>
       </c>
@@ -8838,7 +8864,7 @@
       </c>
       <c r="C517" s="17"/>
     </row>
-    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>511</v>
       </c>
@@ -8847,7 +8873,7 @@
       </c>
       <c r="C518" s="17"/>
     </row>
-    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>512</v>
       </c>
@@ -8856,7 +8882,7 @@
       </c>
       <c r="C519" s="17"/>
     </row>
-    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>513</v>
       </c>
@@ -8865,7 +8891,7 @@
       </c>
       <c r="C520" s="17"/>
     </row>
-    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>514</v>
       </c>
@@ -8874,7 +8900,7 @@
       </c>
       <c r="C521" s="17"/>
     </row>
-    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>515</v>
       </c>
@@ -8883,7 +8909,7 @@
       </c>
       <c r="C522" s="17"/>
     </row>
-    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>516</v>
       </c>
@@ -8892,7 +8918,7 @@
       </c>
       <c r="C523" s="17"/>
     </row>
-    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>517</v>
       </c>
@@ -8901,7 +8927,7 @@
       </c>
       <c r="C524" s="17"/>
     </row>
-    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>518</v>
       </c>
@@ -8910,7 +8936,7 @@
       </c>
       <c r="C525" s="17"/>
     </row>
-    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>519</v>
       </c>
@@ -8919,7 +8945,7 @@
       </c>
       <c r="C526" s="17"/>
     </row>
-    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>520</v>
       </c>
@@ -8928,7 +8954,7 @@
       </c>
       <c r="C527" s="17"/>
     </row>
-    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>521</v>
       </c>
@@ -8937,7 +8963,7 @@
       </c>
       <c r="C528" s="17"/>
     </row>
-    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>522</v>
       </c>
@@ -8946,7 +8972,7 @@
       </c>
       <c r="C529" s="17"/>
     </row>
-    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
         <v>523</v>
       </c>
@@ -8955,7 +8981,7 @@
       </c>
       <c r="C530" s="17"/>
     </row>
-    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
         <v>524</v>
       </c>
@@ -8966,7 +8992,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>525</v>
       </c>
@@ -8975,7 +9001,7 @@
       </c>
       <c r="C532" s="17"/>
     </row>
-    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>526</v>
       </c>
@@ -8984,7 +9010,7 @@
       </c>
       <c r="C533" s="17"/>
     </row>
-    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
         <v>527</v>
       </c>
@@ -8995,7 +9021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>528</v>
       </c>
@@ -9004,7 +9030,7 @@
       </c>
       <c r="C535" s="17"/>
     </row>
-    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>529</v>
       </c>
@@ -9015,7 +9041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>530</v>
       </c>
@@ -9024,7 +9050,7 @@
       </c>
       <c r="C537" s="17"/>
     </row>
-    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>531</v>
       </c>
@@ -9033,7 +9059,7 @@
       </c>
       <c r="C538" s="17"/>
     </row>
-    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>532</v>
       </c>
@@ -9042,7 +9068,7 @@
       </c>
       <c r="C539" s="17"/>
     </row>
-    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>533</v>
       </c>
@@ -9051,7 +9077,7 @@
       </c>
       <c r="C540" s="17"/>
     </row>
-    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>534</v>
       </c>
@@ -9060,7 +9086,7 @@
       </c>
       <c r="C541" s="17"/>
     </row>
-    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>535</v>
       </c>
@@ -9069,7 +9095,7 @@
       </c>
       <c r="C542" s="17"/>
     </row>
-    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>536</v>
       </c>
@@ -9078,7 +9104,7 @@
       </c>
       <c r="C543" s="17"/>
     </row>
-    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>537</v>
       </c>
@@ -9087,7 +9113,7 @@
       </c>
       <c r="C544" s="17"/>
     </row>
-    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>538</v>
       </c>
@@ -9096,7 +9122,7 @@
       </c>
       <c r="C545" s="17"/>
     </row>
-    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>539</v>
       </c>
@@ -9107,7 +9133,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>540</v>
       </c>
@@ -9116,7 +9142,7 @@
       </c>
       <c r="C547" s="17"/>
     </row>
-    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>541</v>
       </c>
@@ -9125,7 +9151,7 @@
       </c>
       <c r="C548" s="17"/>
     </row>
-    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>542</v>
       </c>
@@ -9134,7 +9160,7 @@
       </c>
       <c r="C549" s="17"/>
     </row>
-    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>543</v>
       </c>
@@ -9143,7 +9169,7 @@
       </c>
       <c r="C550" s="17"/>
     </row>
-    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>544</v>
       </c>
@@ -9152,7 +9178,7 @@
       </c>
       <c r="C551" s="17"/>
     </row>
-    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>545</v>
       </c>
@@ -9161,7 +9187,7 @@
       </c>
       <c r="C552" s="17"/>
     </row>
-    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>546</v>
       </c>
@@ -9170,7 +9196,7 @@
       </c>
       <c r="C553" s="17"/>
     </row>
-    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>547</v>
       </c>
@@ -9181,7 +9207,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>548</v>
       </c>
@@ -9190,7 +9216,7 @@
       </c>
       <c r="C555" s="17"/>
     </row>
-    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>549</v>
       </c>
@@ -9201,7 +9227,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>550</v>
       </c>
@@ -9210,7 +9236,7 @@
       </c>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>551</v>
       </c>
@@ -9219,7 +9245,7 @@
       </c>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>552</v>
       </c>
@@ -9228,7 +9254,7 @@
       </c>
       <c r="C559" s="17"/>
     </row>
-    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>553</v>
       </c>
@@ -9237,7 +9263,7 @@
       </c>
       <c r="C560" s="17"/>
     </row>
-    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>554</v>
       </c>
@@ -9246,7 +9272,7 @@
       </c>
       <c r="C561" s="17"/>
     </row>
-    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>555</v>
       </c>
@@ -9255,7 +9281,7 @@
       </c>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>556</v>
       </c>
@@ -9264,7 +9290,7 @@
       </c>
       <c r="C563" s="17"/>
     </row>
-    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>557</v>
       </c>
@@ -9273,7 +9299,7 @@
       </c>
       <c r="C564" s="17"/>
     </row>
-    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>558</v>
       </c>
@@ -9282,7 +9308,7 @@
       </c>
       <c r="C565" s="17"/>
     </row>
-    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>559</v>
       </c>
@@ -9291,7 +9317,7 @@
       </c>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>560</v>
       </c>
@@ -9300,7 +9326,7 @@
       </c>
       <c r="C567" s="17"/>
     </row>
-    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>561</v>
       </c>
@@ -9309,7 +9335,7 @@
       </c>
       <c r="C568" s="17"/>
     </row>
-    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>562</v>
       </c>
@@ -9318,7 +9344,7 @@
       </c>
       <c r="C569" s="17"/>
     </row>
-    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>563</v>
       </c>
@@ -9327,7 +9353,7 @@
       </c>
       <c r="C570" s="17"/>
     </row>
-    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>564</v>
       </c>
@@ -9336,7 +9362,7 @@
       </c>
       <c r="C571" s="17"/>
     </row>
-    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>565</v>
       </c>
@@ -9345,7 +9371,7 @@
       </c>
       <c r="C572" s="17"/>
     </row>
-    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>566</v>
       </c>
@@ -9354,7 +9380,7 @@
       </c>
       <c r="C573" s="17"/>
     </row>
-    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>567</v>
       </c>
@@ -9363,7 +9389,7 @@
       </c>
       <c r="C574" s="17"/>
     </row>
-    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>568</v>
       </c>
@@ -9372,7 +9398,7 @@
       </c>
       <c r="C575" s="17"/>
     </row>
-    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>569</v>
       </c>
@@ -9381,7 +9407,7 @@
       </c>
       <c r="C576" s="17"/>
     </row>
-    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>570</v>
       </c>
@@ -9390,7 +9416,7 @@
       </c>
       <c r="C577" s="17"/>
     </row>
-    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>571</v>
       </c>
@@ -9399,7 +9425,7 @@
       </c>
       <c r="C578" s="17"/>
     </row>
-    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>572</v>
       </c>
@@ -9408,7 +9434,7 @@
       </c>
       <c r="C579" s="17"/>
     </row>
-    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>573</v>
       </c>
@@ -9417,7 +9443,7 @@
       </c>
       <c r="C580" s="17"/>
     </row>
-    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>574</v>
       </c>
@@ -9426,7 +9452,7 @@
       </c>
       <c r="C581" s="17"/>
     </row>
-    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>575</v>
       </c>
@@ -9435,7 +9461,7 @@
       </c>
       <c r="C582" s="17"/>
     </row>
-    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>576</v>
       </c>
@@ -9444,7 +9470,7 @@
       </c>
       <c r="C583" s="17"/>
     </row>
-    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>577</v>
       </c>
@@ -9453,7 +9479,7 @@
       </c>
       <c r="C584" s="17"/>
     </row>
-    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>578</v>
       </c>
@@ -9462,7 +9488,7 @@
       </c>
       <c r="C585" s="17"/>
     </row>
-    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>579</v>
       </c>
@@ -9471,7 +9497,7 @@
       </c>
       <c r="C586" s="17"/>
     </row>
-    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>580</v>
       </c>
@@ -9480,7 +9506,7 @@
       </c>
       <c r="C587" s="17"/>
     </row>
-    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>581</v>
       </c>
@@ -9491,7 +9517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>582</v>
       </c>
@@ -9500,7 +9526,7 @@
       </c>
       <c r="C589" s="17"/>
     </row>
-    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>583</v>
       </c>
@@ -9509,7 +9535,7 @@
       </c>
       <c r="C590" s="17"/>
     </row>
-    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>584</v>
       </c>
@@ -9518,7 +9544,7 @@
       </c>
       <c r="C591" s="17"/>
     </row>
-    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>585</v>
       </c>
@@ -9529,7 +9555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>586</v>
       </c>
@@ -9538,7 +9564,7 @@
       </c>
       <c r="C593" s="17"/>
     </row>
-    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>587</v>
       </c>
@@ -9547,7 +9573,7 @@
       </c>
       <c r="C594" s="17"/>
     </row>
-    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>588</v>
       </c>
@@ -9556,7 +9582,7 @@
       </c>
       <c r="C595" s="17"/>
     </row>
-    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>589</v>
       </c>
@@ -9565,7 +9591,7 @@
       </c>
       <c r="C596" s="17"/>
     </row>
-    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>590</v>
       </c>
@@ -9574,7 +9600,7 @@
       </c>
       <c r="C597" s="17"/>
     </row>
-    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>591</v>
       </c>
@@ -9583,7 +9609,7 @@
       </c>
       <c r="C598" s="17"/>
     </row>
-    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
         <v>592</v>
       </c>
@@ -9594,7 +9620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
         <v>593</v>
       </c>
@@ -9603,7 +9629,7 @@
       </c>
       <c r="C600" s="17"/>
     </row>
-    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>594</v>
       </c>
@@ -9612,7 +9638,7 @@
       </c>
       <c r="C601" s="17"/>
     </row>
-    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>595</v>
       </c>
@@ -9623,7 +9649,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>596</v>
       </c>
@@ -9632,7 +9658,7 @@
       </c>
       <c r="C603" s="17"/>
     </row>
-    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>597</v>
       </c>
@@ -9641,7 +9667,7 @@
       </c>
       <c r="C604" s="17"/>
     </row>
-    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>598</v>
       </c>
@@ -9652,7 +9678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
         <v>599</v>
       </c>
@@ -9661,7 +9687,7 @@
       </c>
       <c r="C606" s="17"/>
     </row>
-    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>600</v>
       </c>
@@ -9670,7 +9696,7 @@
       </c>
       <c r="C607" s="17"/>
     </row>
-    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>601</v>
       </c>
@@ -9681,7 +9707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>602</v>
       </c>
@@ -9690,7 +9716,7 @@
       </c>
       <c r="C609" s="17"/>
     </row>
-    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>603</v>
       </c>
@@ -9699,7 +9725,7 @@
       </c>
       <c r="C610" s="17"/>
     </row>
-    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>604</v>
       </c>
@@ -9708,7 +9734,7 @@
       </c>
       <c r="C611" s="17"/>
     </row>
-    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>605</v>
       </c>
@@ -9717,7 +9743,7 @@
       </c>
       <c r="C612" s="17"/>
     </row>
-    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>606</v>
       </c>
@@ -9726,7 +9752,7 @@
       </c>
       <c r="C613" s="17"/>
     </row>
-    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>607</v>
       </c>
@@ -9735,7 +9761,7 @@
       </c>
       <c r="C614" s="17"/>
     </row>
-    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>608</v>
       </c>
@@ -9744,7 +9770,7 @@
       </c>
       <c r="C615" s="17"/>
     </row>
-    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>609</v>
       </c>
@@ -9753,7 +9779,7 @@
       </c>
       <c r="C616" s="17"/>
     </row>
-    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>610</v>
       </c>
@@ -9762,7 +9788,7 @@
       </c>
       <c r="C617" s="17"/>
     </row>
-    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>611</v>
       </c>
@@ -9771,7 +9797,7 @@
       </c>
       <c r="C618" s="17"/>
     </row>
-    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>612</v>
       </c>
@@ -9780,7 +9806,7 @@
       </c>
       <c r="C619" s="17"/>
     </row>
-    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>613</v>
       </c>
@@ -9789,7 +9815,7 @@
       </c>
       <c r="C620" s="17"/>
     </row>
-    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>614</v>
       </c>
@@ -9798,7 +9824,7 @@
       </c>
       <c r="C621" s="17"/>
     </row>
-    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>615</v>
       </c>
@@ -9807,7 +9833,7 @@
       </c>
       <c r="C622" s="17"/>
     </row>
-    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>616</v>
       </c>
@@ -9816,7 +9842,7 @@
       </c>
       <c r="C623" s="17"/>
     </row>
-    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>617</v>
       </c>
@@ -9825,7 +9851,7 @@
       </c>
       <c r="C624" s="17"/>
     </row>
-    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>618</v>
       </c>
@@ -9834,7 +9860,7 @@
       </c>
       <c r="C625" s="17"/>
     </row>
-    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>619</v>
       </c>
@@ -9843,7 +9869,7 @@
       </c>
       <c r="C626" s="17"/>
     </row>
-    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>620</v>
       </c>
@@ -9852,7 +9878,7 @@
       </c>
       <c r="C627" s="17"/>
     </row>
-    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>621</v>
       </c>
@@ -9861,7 +9887,7 @@
       </c>
       <c r="C628" s="17"/>
     </row>
-    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>622</v>
       </c>
@@ -9870,7 +9896,7 @@
       </c>
       <c r="C629" s="17"/>
     </row>
-    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>623</v>
       </c>
@@ -9879,7 +9905,7 @@
       </c>
       <c r="C630" s="17"/>
     </row>
-    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>624</v>
       </c>
@@ -9890,7 +9916,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>625</v>
       </c>
@@ -9899,7 +9925,7 @@
       </c>
       <c r="C632" s="17"/>
     </row>
-    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>626</v>
       </c>
@@ -9908,7 +9934,7 @@
       </c>
       <c r="C633" s="17"/>
     </row>
-    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>627</v>
       </c>
@@ -9917,7 +9943,7 @@
       </c>
       <c r="C634" s="17"/>
     </row>
-    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>628</v>
       </c>
@@ -9926,7 +9952,7 @@
       </c>
       <c r="C635" s="17"/>
     </row>
-    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>629</v>
       </c>
@@ -9935,7 +9961,7 @@
       </c>
       <c r="C636" s="17"/>
     </row>
-    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>630</v>
       </c>
@@ -9944,7 +9970,7 @@
       </c>
       <c r="C637" s="17"/>
     </row>
-    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>631</v>
       </c>
@@ -9953,7 +9979,7 @@
       </c>
       <c r="C638" s="17"/>
     </row>
-    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>632</v>
       </c>
@@ -9962,7 +9988,7 @@
       </c>
       <c r="C639" s="17"/>
     </row>
-    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>633</v>
       </c>
@@ -9973,7 +9999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
         <v>634</v>
       </c>
@@ -9982,7 +10008,7 @@
       </c>
       <c r="C641" s="17"/>
     </row>
-    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>635</v>
       </c>
@@ -9991,7 +10017,7 @@
       </c>
       <c r="C642" s="17"/>
     </row>
-    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>636</v>
       </c>
@@ -10000,7 +10026,7 @@
       </c>
       <c r="C643" s="17"/>
     </row>
-    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>637</v>
       </c>
@@ -10009,7 +10035,7 @@
       </c>
       <c r="C644" s="17"/>
     </row>
-    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>638</v>
       </c>
@@ -10018,7 +10044,7 @@
       </c>
       <c r="C645" s="17"/>
     </row>
-    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>639</v>
       </c>
@@ -10027,7 +10053,7 @@
       </c>
       <c r="C646" s="17"/>
     </row>
-    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>640</v>
       </c>
@@ -10038,7 +10064,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>641</v>
       </c>
@@ -10047,7 +10073,7 @@
       </c>
       <c r="C648" s="17"/>
     </row>
-    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>642</v>
       </c>
@@ -10056,7 +10082,7 @@
       </c>
       <c r="C649" s="17"/>
     </row>
-    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
         <v>643</v>
       </c>
@@ -10065,7 +10091,7 @@
       </c>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>644</v>
       </c>
@@ -10074,7 +10100,7 @@
       </c>
       <c r="C651" s="17"/>
     </row>
-    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>645</v>
       </c>
@@ -10083,7 +10109,7 @@
       </c>
       <c r="C652" s="17"/>
     </row>
-    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>646</v>
       </c>
@@ -10092,7 +10118,7 @@
       </c>
       <c r="C653" s="17"/>
     </row>
-    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>647</v>
       </c>
@@ -10103,7 +10129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>648</v>
       </c>
@@ -10112,7 +10138,7 @@
       </c>
       <c r="C655" s="17"/>
     </row>
-    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>649</v>
       </c>
@@ -10121,7 +10147,7 @@
       </c>
       <c r="C656" s="17"/>
     </row>
-    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>650</v>
       </c>
@@ -10130,7 +10156,7 @@
       </c>
       <c r="C657" s="17"/>
     </row>
-    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>651</v>
       </c>
@@ -10139,7 +10165,7 @@
       </c>
       <c r="C658" s="17"/>
     </row>
-    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>652</v>
       </c>
@@ -10150,7 +10176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>653</v>
       </c>
@@ -10159,7 +10185,7 @@
       </c>
       <c r="C660" s="17"/>
     </row>
-    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>654</v>
       </c>
@@ -10168,7 +10194,7 @@
       </c>
       <c r="C661" s="17"/>
     </row>
-    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>655</v>
       </c>
@@ -10177,7 +10203,7 @@
       </c>
       <c r="C662" s="17"/>
     </row>
-    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>656</v>
       </c>
@@ -10186,7 +10212,7 @@
       </c>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>657</v>
       </c>
@@ -10195,7 +10221,7 @@
       </c>
       <c r="C664" s="17"/>
     </row>
-    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>658</v>
       </c>
@@ -10204,7 +10230,7 @@
       </c>
       <c r="C665" s="17"/>
     </row>
-    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>659</v>
       </c>
@@ -10213,7 +10239,7 @@
       </c>
       <c r="C666" s="17"/>
     </row>
-    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>660</v>
       </c>
@@ -10222,7 +10248,7 @@
       </c>
       <c r="C667" s="17"/>
     </row>
-    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>661</v>
       </c>
@@ -10231,7 +10257,7 @@
       </c>
       <c r="C668" s="17"/>
     </row>
-    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>662</v>
       </c>
@@ -10240,7 +10266,7 @@
       </c>
       <c r="C669" s="17"/>
     </row>
-    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>663</v>
       </c>
@@ -10249,7 +10275,7 @@
       </c>
       <c r="C670" s="17"/>
     </row>
-    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
         <v>664</v>
       </c>
@@ -10258,7 +10284,7 @@
       </c>
       <c r="C671" s="17"/>
     </row>
-    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>665</v>
       </c>
@@ -10267,7 +10293,7 @@
       </c>
       <c r="C672" s="17"/>
     </row>
-    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>666</v>
       </c>
@@ -10276,7 +10302,7 @@
       </c>
       <c r="C673" s="17"/>
     </row>
-    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>667</v>
       </c>
@@ -10285,7 +10311,7 @@
       </c>
       <c r="C674" s="17"/>
     </row>
-    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>668</v>
       </c>
@@ -10294,7 +10320,7 @@
       </c>
       <c r="C675" s="17"/>
     </row>
-    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>669</v>
       </c>
@@ -10303,7 +10329,7 @@
       </c>
       <c r="C676" s="17"/>
     </row>
-    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>670</v>
       </c>
@@ -10312,7 +10338,7 @@
       </c>
       <c r="C677" s="17"/>
     </row>
-    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>671</v>
       </c>
@@ -10321,7 +10347,7 @@
       </c>
       <c r="C678" s="17"/>
     </row>
-    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>672</v>
       </c>
@@ -10330,7 +10356,7 @@
       </c>
       <c r="C679" s="17"/>
     </row>
-    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>673</v>
       </c>
@@ -10339,7 +10365,7 @@
       </c>
       <c r="C680" s="17"/>
     </row>
-    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>674</v>
       </c>
@@ -10348,7 +10374,7 @@
       </c>
       <c r="C681" s="17"/>
     </row>
-    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>675</v>
       </c>
@@ -10357,7 +10383,7 @@
       </c>
       <c r="C682" s="17"/>
     </row>
-    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>676</v>
       </c>
@@ -10366,7 +10392,7 @@
       </c>
       <c r="C683" s="17"/>
     </row>
-    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>677</v>
       </c>
@@ -10375,7 +10401,7 @@
       </c>
       <c r="C684" s="17"/>
     </row>
-    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>678</v>
       </c>
@@ -10384,7 +10410,7 @@
       </c>
       <c r="C685" s="17"/>
     </row>
-    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>679</v>
       </c>
@@ -10395,7 +10421,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>680</v>
       </c>
@@ -10404,7 +10430,7 @@
       </c>
       <c r="C687" s="17"/>
     </row>
-    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
         <v>681</v>
       </c>
@@ -10413,7 +10439,7 @@
       </c>
       <c r="C688" s="17"/>
     </row>
-    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>682</v>
       </c>
@@ -10424,7 +10450,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
         <v>683</v>
       </c>
@@ -10433,7 +10459,7 @@
       </c>
       <c r="C690" s="17"/>
     </row>
-    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>684</v>
       </c>
@@ -10444,7 +10470,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>685</v>
       </c>
@@ -10453,7 +10479,7 @@
       </c>
       <c r="C692" s="17"/>
     </row>
-    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>686</v>
       </c>
@@ -10462,7 +10488,7 @@
       </c>
       <c r="C693" s="17"/>
     </row>
-    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
         <v>687</v>
       </c>
@@ -10471,7 +10497,7 @@
       </c>
       <c r="C694" s="17"/>
     </row>
-    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>688</v>
       </c>
@@ -10480,7 +10506,7 @@
       </c>
       <c r="C695" s="17"/>
     </row>
-    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>689</v>
       </c>
@@ -10489,7 +10515,7 @@
       </c>
       <c r="C696" s="17"/>
     </row>
-    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>690</v>
       </c>
@@ -10498,7 +10524,7 @@
       </c>
       <c r="C697" s="17"/>
     </row>
-    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>691</v>
       </c>
@@ -10507,7 +10533,7 @@
       </c>
       <c r="C698" s="17"/>
     </row>
-    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>692</v>
       </c>
@@ -10516,7 +10542,7 @@
       </c>
       <c r="C699" s="17"/>
     </row>
-    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>693</v>
       </c>
@@ -10525,7 +10551,7 @@
       </c>
       <c r="C700" s="17"/>
     </row>
-    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>694</v>
       </c>
@@ -10534,7 +10560,7 @@
       </c>
       <c r="C701" s="17"/>
     </row>
-    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>695</v>
       </c>
@@ -10543,7 +10569,7 @@
       </c>
       <c r="C702" s="17"/>
     </row>
-    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>696</v>
       </c>
@@ -10552,7 +10578,7 @@
       </c>
       <c r="C703" s="17"/>
     </row>
-    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>697</v>
       </c>
@@ -10561,7 +10587,7 @@
       </c>
       <c r="C704" s="17"/>
     </row>
-    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>698</v>
       </c>
@@ -10570,7 +10596,7 @@
       </c>
       <c r="C705" s="17"/>
     </row>
-    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>699</v>
       </c>
@@ -10579,7 +10605,7 @@
       </c>
       <c r="C706" s="17"/>
     </row>
-    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>700</v>
       </c>
@@ -10588,7 +10614,7 @@
       </c>
       <c r="C707" s="17"/>
     </row>
-    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>701</v>
       </c>
@@ -10597,7 +10623,7 @@
       </c>
       <c r="C708" s="17"/>
     </row>
-    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>702</v>
       </c>
@@ -10606,7 +10632,7 @@
       </c>
       <c r="C709" s="17"/>
     </row>
-    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>703</v>
       </c>
@@ -10615,7 +10641,7 @@
       </c>
       <c r="C710" s="17"/>
     </row>
-    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>704</v>
       </c>
@@ -10624,7 +10650,7 @@
       </c>
       <c r="C711" s="17"/>
     </row>
-    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>705</v>
       </c>
@@ -10633,7 +10659,7 @@
       </c>
       <c r="C712" s="17"/>
     </row>
-    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>706</v>
       </c>
@@ -10642,7 +10668,7 @@
       </c>
       <c r="C713" s="17"/>
     </row>
-    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>707</v>
       </c>
@@ -10651,7 +10677,7 @@
       </c>
       <c r="C714" s="17"/>
     </row>
-    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>708</v>
       </c>
@@ -10660,7 +10686,7 @@
       </c>
       <c r="C715" s="17"/>
     </row>
-    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>709</v>
       </c>
@@ -10669,7 +10695,7 @@
       </c>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>710</v>
       </c>
@@ -10680,7 +10706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>711</v>
       </c>
@@ -10689,7 +10715,7 @@
       </c>
       <c r="C718" s="17"/>
     </row>
-    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>712</v>
       </c>
@@ -10698,7 +10724,7 @@
       </c>
       <c r="C719" s="17"/>
     </row>
-    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>713</v>
       </c>
@@ -10707,7 +10733,7 @@
       </c>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>714</v>
       </c>
@@ -10716,7 +10742,7 @@
       </c>
       <c r="C721" s="17"/>
     </row>
-    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>715</v>
       </c>
@@ -10725,7 +10751,7 @@
       </c>
       <c r="C722" s="17"/>
     </row>
-    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>716</v>
       </c>
@@ -10734,7 +10760,7 @@
       </c>
       <c r="C723" s="17"/>
     </row>
-    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>717</v>
       </c>
@@ -10743,7 +10769,7 @@
       </c>
       <c r="C724" s="17"/>
     </row>
-    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>718</v>
       </c>
@@ -10752,7 +10778,7 @@
       </c>
       <c r="C725" s="17"/>
     </row>
-    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>719</v>
       </c>
@@ -10761,7 +10787,7 @@
       </c>
       <c r="C726" s="17"/>
     </row>
-    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>720</v>
       </c>
@@ -10770,7 +10796,7 @@
       </c>
       <c r="C727" s="17"/>
     </row>
-    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>721</v>
       </c>
@@ -10779,7 +10805,7 @@
       </c>
       <c r="C728" s="17"/>
     </row>
-    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
         <v>722</v>
       </c>
@@ -10788,7 +10814,7 @@
       </c>
       <c r="C729" s="17"/>
     </row>
-    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
         <v>723</v>
       </c>
@@ -10797,7 +10823,7 @@
       </c>
       <c r="C730" s="17"/>
     </row>
-    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
         <v>724</v>
       </c>
@@ -10806,7 +10832,7 @@
       </c>
       <c r="C731" s="17"/>
     </row>
-    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>725</v>
       </c>
@@ -10815,7 +10841,7 @@
       </c>
       <c r="C732" s="17"/>
     </row>
-    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
         <v>726</v>
       </c>
@@ -10824,7 +10850,7 @@
       </c>
       <c r="C733" s="17"/>
     </row>
-    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
         <v>727</v>
       </c>
@@ -10835,7 +10861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
         <v>728</v>
       </c>
@@ -10844,7 +10870,7 @@
       </c>
       <c r="C735" s="17"/>
     </row>
-    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>729</v>
       </c>
@@ -10855,7 +10881,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
         <v>730</v>
       </c>
@@ -10864,7 +10890,7 @@
       </c>
       <c r="C737" s="17"/>
     </row>
-    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
         <v>731</v>
       </c>
@@ -10873,7 +10899,7 @@
       </c>
       <c r="C738" s="17"/>
     </row>
-    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
         <v>732</v>
       </c>
@@ -10882,7 +10908,7 @@
       </c>
       <c r="C739" s="17"/>
     </row>
-    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
         <v>733</v>
       </c>
@@ -10891,7 +10917,7 @@
       </c>
       <c r="C740" s="17"/>
     </row>
-    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
         <v>734</v>
       </c>
@@ -10900,7 +10926,7 @@
       </c>
       <c r="C741" s="17"/>
     </row>
-    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>735</v>
       </c>
@@ -10909,7 +10935,7 @@
       </c>
       <c r="C742" s="17"/>
     </row>
-    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
         <v>736</v>
       </c>
@@ -10918,7 +10944,7 @@
       </c>
       <c r="C743" s="17"/>
     </row>
-    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
         <v>737</v>
       </c>
@@ -10927,7 +10953,7 @@
       </c>
       <c r="C744" s="17"/>
     </row>
-    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
         <v>738</v>
       </c>
@@ -10936,7 +10962,7 @@
       </c>
       <c r="C745" s="17"/>
     </row>
-    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
         <v>739</v>
       </c>
@@ -10947,7 +10973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
         <v>740</v>
       </c>
@@ -10956,7 +10982,7 @@
       </c>
       <c r="C747" s="17"/>
     </row>
-    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
         <v>741</v>
       </c>
@@ -10965,7 +10991,7 @@
       </c>
       <c r="C748" s="17"/>
     </row>
-    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
         <v>742</v>
       </c>
@@ -10974,7 +11000,7 @@
       </c>
       <c r="C749" s="17"/>
     </row>
-    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
         <v>743</v>
       </c>
@@ -10983,7 +11009,7 @@
       </c>
       <c r="C750" s="17"/>
     </row>
-    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
         <v>744</v>
       </c>
@@ -10992,7 +11018,7 @@
       </c>
       <c r="C751" s="17"/>
     </row>
-    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
         <v>745</v>
       </c>
@@ -11001,7 +11027,7 @@
       </c>
       <c r="C752" s="17"/>
     </row>
-    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>746</v>
       </c>
@@ -11012,7 +11038,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
         <v>1008</v>
       </c>
@@ -11021,7 +11047,7 @@
       </c>
       <c r="C754" s="17"/>
     </row>
-    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
         <v>747</v>
       </c>
@@ -11030,7 +11056,7 @@
       </c>
       <c r="C755" s="17"/>
     </row>
-    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>748</v>
       </c>
@@ -11039,7 +11065,7 @@
       </c>
       <c r="C756" s="17"/>
     </row>
-    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>749</v>
       </c>
@@ -11050,7 +11076,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
         <v>750</v>
       </c>
@@ -11059,7 +11085,7 @@
       </c>
       <c r="C758" s="17"/>
     </row>
-    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="14" t="s">
         <v>751</v>
       </c>
@@ -11068,7 +11094,7 @@
       </c>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
         <v>752</v>
       </c>
@@ -11077,7 +11103,7 @@
       </c>
       <c r="C760" s="17"/>
     </row>
-    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
         <v>753</v>
       </c>
@@ -11086,7 +11112,7 @@
       </c>
       <c r="C761" s="17"/>
     </row>
-    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
         <v>754</v>
       </c>
@@ -11095,7 +11121,7 @@
       </c>
       <c r="C762" s="17"/>
     </row>
-    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
         <v>755</v>
       </c>
@@ -11104,7 +11130,7 @@
       </c>
       <c r="C763" s="17"/>
     </row>
-    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
         <v>756</v>
       </c>
@@ -11113,7 +11139,7 @@
       </c>
       <c r="C764" s="17"/>
     </row>
-    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
         <v>757</v>
       </c>
@@ -11122,7 +11148,7 @@
       </c>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
         <v>758</v>
       </c>
@@ -11131,7 +11157,7 @@
       </c>
       <c r="C766" s="17"/>
     </row>
-    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
         <v>759</v>
       </c>
@@ -11140,7 +11166,7 @@
       </c>
       <c r="C767" s="17"/>
     </row>
-    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
         <v>760</v>
       </c>
@@ -11151,7 +11177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
         <v>761</v>
       </c>
@@ -11160,7 +11186,7 @@
       </c>
       <c r="C769" s="17"/>
     </row>
-    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
         <v>762</v>
       </c>
@@ -11169,7 +11195,7 @@
       </c>
       <c r="C770" s="17"/>
     </row>
-    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
         <v>763</v>
       </c>
@@ -11178,7 +11204,7 @@
       </c>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
         <v>764</v>
       </c>
@@ -11187,7 +11213,7 @@
       </c>
       <c r="C772" s="17"/>
     </row>
-    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>765</v>
       </c>
@@ -11196,7 +11222,7 @@
       </c>
       <c r="C773" s="17"/>
     </row>
-    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
         <v>766</v>
       </c>
@@ -11205,7 +11231,7 @@
       </c>
       <c r="C774" s="17"/>
     </row>
-    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
         <v>767</v>
       </c>
@@ -11214,7 +11240,7 @@
       </c>
       <c r="C775" s="17"/>
     </row>
-    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>768</v>
       </c>
@@ -11223,7 +11249,7 @@
       </c>
       <c r="C776" s="17"/>
     </row>
-    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="29" t="s">
         <v>769</v>
       </c>
@@ -11234,7 +11260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
         <v>770</v>
       </c>
@@ -11243,7 +11269,7 @@
       </c>
       <c r="C778" s="17"/>
     </row>
-    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
         <v>771</v>
       </c>
@@ -11252,7 +11278,7 @@
       </c>
       <c r="C779" s="17"/>
     </row>
-    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>772</v>
       </c>
@@ -11261,7 +11287,7 @@
       </c>
       <c r="C780" s="17"/>
     </row>
-    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>773</v>
       </c>
@@ -11272,7 +11298,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
         <v>774</v>
       </c>
@@ -11281,7 +11307,7 @@
       </c>
       <c r="C782" s="17"/>
     </row>
-    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
         <v>775</v>
       </c>
@@ -11290,7 +11316,7 @@
       </c>
       <c r="C783" s="17"/>
     </row>
-    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
         <v>776</v>
       </c>
@@ -11299,7 +11325,7 @@
       </c>
       <c r="C784" s="17"/>
     </row>
-    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
         <v>777</v>
       </c>
@@ -11308,7 +11334,7 @@
       </c>
       <c r="C785" s="17"/>
     </row>
-    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>778</v>
       </c>
@@ -11319,7 +11345,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
         <v>779</v>
       </c>
@@ -11328,7 +11354,7 @@
       </c>
       <c r="C787" s="17"/>
     </row>
-    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>780</v>
       </c>
@@ -11339,7 +11365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>781</v>
       </c>
@@ -11348,7 +11374,7 @@
       </c>
       <c r="C789" s="17"/>
     </row>
-    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
         <v>782</v>
       </c>
@@ -11357,7 +11383,7 @@
       </c>
       <c r="C790" s="17"/>
     </row>
-    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
         <v>783</v>
       </c>
@@ -11366,7 +11392,7 @@
       </c>
       <c r="C791" s="17"/>
     </row>
-    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
         <v>784</v>
       </c>
@@ -11375,7 +11401,7 @@
       </c>
       <c r="C792" s="17"/>
     </row>
-    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>785</v>
       </c>
@@ -11384,7 +11410,7 @@
       </c>
       <c r="C793" s="17"/>
     </row>
-    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
         <v>786</v>
       </c>
@@ -11393,7 +11419,7 @@
       </c>
       <c r="C794" s="17"/>
     </row>
-    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
         <v>787</v>
       </c>
@@ -11402,7 +11428,7 @@
       </c>
       <c r="C795" s="17"/>
     </row>
-    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
         <v>788</v>
       </c>
@@ -11411,7 +11437,7 @@
       </c>
       <c r="C796" s="17"/>
     </row>
-    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>789</v>
       </c>
@@ -11420,7 +11446,7 @@
       </c>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
         <v>790</v>
       </c>
@@ -11429,7 +11455,7 @@
       </c>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
         <v>791</v>
       </c>
@@ -11438,7 +11464,7 @@
       </c>
       <c r="C799" s="17"/>
     </row>
-    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>792</v>
       </c>
@@ -11447,7 +11473,7 @@
       </c>
       <c r="C800" s="17"/>
     </row>
-    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
         <v>793</v>
       </c>
@@ -11456,7 +11482,7 @@
       </c>
       <c r="C801" s="17"/>
     </row>
-    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
         <v>794</v>
       </c>
@@ -11465,7 +11491,7 @@
       </c>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
         <v>795</v>
       </c>
@@ -11474,7 +11500,7 @@
       </c>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
         <v>796</v>
       </c>
@@ -11483,7 +11509,7 @@
       </c>
       <c r="C804" s="17"/>
     </row>
-    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>797</v>
       </c>
@@ -11492,7 +11518,7 @@
       </c>
       <c r="C805" s="17"/>
     </row>
-    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
         <v>798</v>
       </c>
@@ -11501,7 +11527,7 @@
       </c>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
         <v>799</v>
       </c>
@@ -11510,7 +11536,7 @@
       </c>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>800</v>
       </c>
@@ -11519,7 +11545,7 @@
       </c>
       <c r="C808" s="17"/>
     </row>
-    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>801</v>
       </c>
@@ -11528,7 +11554,7 @@
       </c>
       <c r="C809" s="17"/>
     </row>
-    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
         <v>802</v>
       </c>
@@ -11537,7 +11563,7 @@
       </c>
       <c r="C810" s="17"/>
     </row>
-    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
         <v>803</v>
       </c>
@@ -11546,7 +11572,7 @@
       </c>
       <c r="C811" s="17"/>
     </row>
-    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>804</v>
       </c>
@@ -11555,7 +11581,7 @@
       </c>
       <c r="C812" s="17"/>
     </row>
-    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
         <v>805</v>
       </c>
@@ -11564,7 +11590,7 @@
       </c>
       <c r="C813" s="17"/>
     </row>
-    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
         <v>806</v>
       </c>
@@ -11573,7 +11599,7 @@
       </c>
       <c r="C814" s="17"/>
     </row>
-    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
         <v>807</v>
       </c>
@@ -11582,7 +11608,7 @@
       </c>
       <c r="C815" s="17"/>
     </row>
-    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>808</v>
       </c>
@@ -11591,7 +11617,7 @@
       </c>
       <c r="C816" s="17"/>
     </row>
-    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>809</v>
       </c>
@@ -11600,7 +11626,7 @@
       </c>
       <c r="C817" s="17"/>
     </row>
-    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
         <v>810</v>
       </c>
@@ -11609,7 +11635,7 @@
       </c>
       <c r="C818" s="17"/>
     </row>
-    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>811</v>
       </c>
@@ -11618,7 +11644,7 @@
       </c>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>812</v>
       </c>
@@ -11627,7 +11653,7 @@
       </c>
       <c r="C820" s="17"/>
     </row>
-    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
         <v>813</v>
       </c>
@@ -11636,7 +11662,7 @@
       </c>
       <c r="C821" s="17"/>
     </row>
-    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>814</v>
       </c>
@@ -11645,7 +11671,7 @@
       </c>
       <c r="C822" s="17"/>
     </row>
-    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>815</v>
       </c>
@@ -11654,7 +11680,7 @@
       </c>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>816</v>
       </c>
@@ -11663,7 +11689,7 @@
       </c>
       <c r="C824" s="17"/>
     </row>
-    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
         <v>817</v>
       </c>
@@ -11672,7 +11698,7 @@
       </c>
       <c r="C825" s="17"/>
     </row>
-    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
         <v>818</v>
       </c>
@@ -11681,7 +11707,7 @@
       </c>
       <c r="C826" s="17"/>
     </row>
-    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
         <v>819</v>
       </c>
@@ -11690,7 +11716,7 @@
       </c>
       <c r="C827" s="17"/>
     </row>
-    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>820</v>
       </c>
@@ -11699,7 +11725,7 @@
       </c>
       <c r="C828" s="17"/>
     </row>
-    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
         <v>821</v>
       </c>
@@ -11708,7 +11734,7 @@
       </c>
       <c r="C829" s="17"/>
     </row>
-    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
         <v>822</v>
       </c>
@@ -11717,7 +11743,7 @@
       </c>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
         <v>823</v>
       </c>
@@ -11726,7 +11752,7 @@
       </c>
       <c r="C831" s="17"/>
     </row>
-    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>824</v>
       </c>
@@ -11735,7 +11761,7 @@
       </c>
       <c r="C832" s="17"/>
     </row>
-    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
         <v>825</v>
       </c>
@@ -11744,7 +11770,7 @@
       </c>
       <c r="C833" s="17"/>
     </row>
-    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
         <v>826</v>
       </c>
@@ -11753,7 +11779,7 @@
       </c>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
         <v>827</v>
       </c>
@@ -11762,7 +11788,7 @@
       </c>
       <c r="C835" s="17"/>
     </row>
-    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>828</v>
       </c>
@@ -11771,7 +11797,7 @@
       </c>
       <c r="C836" s="17"/>
     </row>
-    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
         <v>829</v>
       </c>
@@ -11780,7 +11806,7 @@
       </c>
       <c r="C837" s="17"/>
     </row>
-    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
         <v>830</v>
       </c>
@@ -11789,7 +11815,7 @@
       </c>
       <c r="C838" s="17"/>
     </row>
-    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
         <v>831</v>
       </c>
@@ -11798,7 +11824,7 @@
       </c>
       <c r="C839" s="17"/>
     </row>
-    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
         <v>691</v>
       </c>
@@ -11807,7 +11833,7 @@
       </c>
       <c r="C840" s="17"/>
     </row>
-    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
         <v>832</v>
       </c>
@@ -11816,7 +11842,7 @@
       </c>
       <c r="C841" s="17"/>
     </row>
-    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
         <v>833</v>
       </c>
@@ -11825,7 +11851,7 @@
       </c>
       <c r="C842" s="17"/>
     </row>
-    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
         <v>834</v>
       </c>
@@ -11836,7 +11862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
         <v>835</v>
       </c>
@@ -11845,7 +11871,7 @@
       </c>
       <c r="C844" s="17"/>
     </row>
-    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
         <v>836</v>
       </c>
@@ -11854,7 +11880,7 @@
       </c>
       <c r="C845" s="17"/>
     </row>
-    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
         <v>837</v>
       </c>
@@ -11863,7 +11889,7 @@
       </c>
       <c r="C846" s="17"/>
     </row>
-    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
         <v>838</v>
       </c>
@@ -11872,7 +11898,7 @@
       </c>
       <c r="C847" s="17"/>
     </row>
-    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
         <v>839</v>
       </c>
@@ -11881,7 +11907,7 @@
       </c>
       <c r="C848" s="17"/>
     </row>
-    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
         <v>840</v>
       </c>
@@ -11890,7 +11916,7 @@
       </c>
       <c r="C849" s="17"/>
     </row>
-    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
         <v>841</v>
       </c>
@@ -11899,7 +11925,7 @@
       </c>
       <c r="C850" s="17"/>
     </row>
-    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
         <v>842</v>
       </c>
@@ -11908,7 +11934,7 @@
       </c>
       <c r="C851" s="17"/>
     </row>
-    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
         <v>843</v>
       </c>
@@ -11917,7 +11943,7 @@
       </c>
       <c r="C852" s="17"/>
     </row>
-    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
         <v>844</v>
       </c>
@@ -11926,7 +11952,7 @@
       </c>
       <c r="C853" s="17"/>
     </row>
-    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
         <v>845</v>
       </c>
@@ -11935,7 +11961,7 @@
       </c>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
         <v>846</v>
       </c>
@@ -11944,7 +11970,7 @@
       </c>
       <c r="C855" s="17"/>
     </row>
-    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
         <v>847</v>
       </c>
@@ -11953,7 +11979,7 @@
       </c>
       <c r="C856" s="17"/>
     </row>
-    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
         <v>848</v>
       </c>
@@ -11962,7 +11988,7 @@
       </c>
       <c r="C857" s="17"/>
     </row>
-    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
         <v>849</v>
       </c>
@@ -11971,7 +11997,7 @@
       </c>
       <c r="C858" s="17"/>
     </row>
-    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
         <v>850</v>
       </c>
@@ -11980,7 +12006,7 @@
       </c>
       <c r="C859" s="17"/>
     </row>
-    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
         <v>851</v>
       </c>
@@ -11989,7 +12015,7 @@
       </c>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
         <v>852</v>
       </c>
@@ -11998,7 +12024,7 @@
       </c>
       <c r="C861" s="17"/>
     </row>
-    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
         <v>853</v>
       </c>
@@ -12007,7 +12033,7 @@
       </c>
       <c r="C862" s="17"/>
     </row>
-    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
         <v>854</v>
       </c>
@@ -12016,7 +12042,7 @@
       </c>
       <c r="C863" s="17"/>
     </row>
-    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
         <v>855</v>
       </c>
@@ -12025,7 +12051,7 @@
       </c>
       <c r="C864" s="17"/>
     </row>
-    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
         <v>856</v>
       </c>
@@ -12034,7 +12060,7 @@
       </c>
       <c r="C865" s="17"/>
     </row>
-    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
         <v>857</v>
       </c>
@@ -12043,7 +12069,7 @@
       </c>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
         <v>858</v>
       </c>
@@ -12052,7 +12078,7 @@
       </c>
       <c r="C867" s="17"/>
     </row>
-    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
         <v>859</v>
       </c>
@@ -12061,7 +12087,7 @@
       </c>
       <c r="C868" s="17"/>
     </row>
-    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
         <v>860</v>
       </c>
@@ -12070,7 +12096,7 @@
       </c>
       <c r="C869" s="17"/>
     </row>
-    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="29" t="s">
         <v>861</v>
       </c>
@@ -12082,7 +12108,7 @@
       </c>
       <c r="D870" s="31"/>
     </row>
-    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
         <v>862</v>
       </c>
@@ -12091,7 +12117,7 @@
       </c>
       <c r="C871" s="17"/>
     </row>
-    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
         <v>863</v>
       </c>
@@ -12100,7 +12126,7 @@
       </c>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
         <v>864</v>
       </c>
@@ -12109,7 +12135,7 @@
       </c>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
         <v>865</v>
       </c>
@@ -12118,7 +12144,7 @@
       </c>
       <c r="C874" s="17"/>
     </row>
-    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
         <v>866</v>
       </c>
@@ -12127,7 +12153,7 @@
       </c>
       <c r="C875" s="17"/>
     </row>
-    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
         <v>867</v>
       </c>
@@ -12136,7 +12162,7 @@
       </c>
       <c r="C876" s="17"/>
     </row>
-    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
         <v>868</v>
       </c>
@@ -12145,7 +12171,7 @@
       </c>
       <c r="C877" s="17"/>
     </row>
-    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
         <v>869</v>
       </c>
@@ -12156,7 +12182,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
         <v>870</v>
       </c>
@@ -12165,7 +12191,7 @@
       </c>
       <c r="C879" s="17"/>
     </row>
-    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
         <v>871</v>
       </c>
@@ -12174,7 +12200,7 @@
       </c>
       <c r="C880" s="17"/>
     </row>
-    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
         <v>872</v>
       </c>
@@ -12183,7 +12209,7 @@
       </c>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
         <v>873</v>
       </c>
@@ -12192,7 +12218,7 @@
       </c>
       <c r="C882" s="17"/>
     </row>
-    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>874</v>
       </c>
@@ -12203,7 +12229,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
         <v>875</v>
       </c>
@@ -12212,7 +12238,7 @@
       </c>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
         <v>876</v>
       </c>
@@ -12221,7 +12247,7 @@
       </c>
       <c r="C885" s="17"/>
     </row>
-    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
         <v>877</v>
       </c>
@@ -12230,7 +12256,7 @@
       </c>
       <c r="C886" s="17"/>
     </row>
-    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
         <v>878</v>
       </c>
@@ -12241,7 +12267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
         <v>879</v>
       </c>
@@ -12250,7 +12276,7 @@
       </c>
       <c r="C888" s="17"/>
     </row>
-    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
         <v>880</v>
       </c>
@@ -12259,7 +12285,7 @@
       </c>
       <c r="C889" s="17"/>
     </row>
-    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="5" t="s">
         <v>881</v>
       </c>
@@ -12268,7 +12294,7 @@
       </c>
       <c r="C890" s="17"/>
     </row>
-    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="5" t="s">
         <v>882</v>
       </c>
@@ -12277,7 +12303,7 @@
       </c>
       <c r="C891" s="17"/>
     </row>
-    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="5" t="s">
         <v>883</v>
       </c>
@@ -12286,7 +12312,7 @@
       </c>
       <c r="C892" s="17"/>
     </row>
-    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
         <v>884</v>
       </c>
@@ -12295,7 +12321,7 @@
       </c>
       <c r="C893" s="17"/>
     </row>
-    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="5" t="s">
         <v>885</v>
       </c>
@@ -12304,7 +12330,7 @@
       </c>
       <c r="C894" s="17"/>
     </row>
-    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="5" t="s">
         <v>886</v>
       </c>
@@ -12313,7 +12339,7 @@
       </c>
       <c r="C895" s="17"/>
     </row>
-    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="5" t="s">
         <v>887</v>
       </c>
@@ -12322,7 +12348,7 @@
       </c>
       <c r="C896" s="17"/>
     </row>
-    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="5" t="s">
         <v>888</v>
       </c>
@@ -12331,7 +12357,7 @@
       </c>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
         <v>889</v>
       </c>
@@ -12342,7 +12368,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="5" t="s">
         <v>890</v>
       </c>
@@ -12351,7 +12377,7 @@
       </c>
       <c r="C899" s="17"/>
     </row>
-    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="5" t="s">
         <v>891</v>
       </c>
@@ -12360,7 +12386,7 @@
       </c>
       <c r="C900" s="17"/>
     </row>
-    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="5" t="s">
         <v>892</v>
       </c>
@@ -12369,7 +12395,7 @@
       </c>
       <c r="C901" s="17"/>
     </row>
-    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="5" t="s">
         <v>893</v>
       </c>
@@ -12378,7 +12404,7 @@
       </c>
       <c r="C902" s="17"/>
     </row>
-    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="5" t="s">
         <v>894</v>
       </c>
@@ -12387,7 +12413,7 @@
       </c>
       <c r="C903" s="17"/>
     </row>
-    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
         <v>895</v>
       </c>
@@ -12398,7 +12424,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="5" t="s">
         <v>896</v>
       </c>
@@ -12407,7 +12433,7 @@
       </c>
       <c r="C905" s="17"/>
     </row>
-    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="5" t="s">
         <v>897</v>
       </c>
@@ -12416,7 +12442,7 @@
       </c>
       <c r="C906" s="17"/>
     </row>
-    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="5" t="s">
         <v>898</v>
       </c>
@@ -12425,7 +12451,7 @@
       </c>
       <c r="C907" s="17"/>
     </row>
-    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="5" t="s">
         <v>899</v>
       </c>
@@ -12434,7 +12460,7 @@
       </c>
       <c r="C908" s="17"/>
     </row>
-    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="5" t="s">
         <v>900</v>
       </c>
@@ -12443,7 +12469,7 @@
       </c>
       <c r="C909" s="17"/>
     </row>
-    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
         <v>901</v>
       </c>
@@ -12452,7 +12478,7 @@
       </c>
       <c r="C910" s="17"/>
     </row>
-    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="5" t="s">
         <v>902</v>
       </c>
@@ -12461,7 +12487,7 @@
       </c>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
         <v>903</v>
       </c>
@@ -12470,7 +12496,7 @@
       </c>
       <c r="C912" s="17"/>
     </row>
-    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
         <v>904</v>
       </c>
@@ -12479,7 +12505,7 @@
       </c>
       <c r="C913" s="17"/>
     </row>
-    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="5" t="s">
         <v>905</v>
       </c>
@@ -12488,7 +12514,7 @@
       </c>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="5" t="s">
         <v>906</v>
       </c>
@@ -12497,7 +12523,7 @@
       </c>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="5" t="s">
         <v>907</v>
       </c>
@@ -12506,7 +12532,7 @@
       </c>
       <c r="C916" s="17"/>
     </row>
-    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="5" t="s">
         <v>908</v>
       </c>
@@ -12515,7 +12541,7 @@
       </c>
       <c r="C917" s="17"/>
     </row>
-    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
         <v>909</v>
       </c>
@@ -12524,7 +12550,7 @@
       </c>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
         <v>910</v>
       </c>
@@ -12533,7 +12559,7 @@
       </c>
       <c r="C919" s="17"/>
     </row>
-    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
         <v>911</v>
       </c>
@@ -12542,7 +12568,7 @@
       </c>
       <c r="C920" s="17"/>
     </row>
-    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="5" t="s">
         <v>912</v>
       </c>
@@ -12551,7 +12577,7 @@
       </c>
       <c r="C921" s="17"/>
     </row>
-    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="5" t="s">
         <v>913</v>
       </c>
@@ -12560,7 +12586,7 @@
       </c>
       <c r="C922" s="17"/>
     </row>
-    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
         <v>914</v>
       </c>
@@ -12569,7 +12595,7 @@
       </c>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
         <v>915</v>
       </c>
@@ -12578,7 +12604,7 @@
       </c>
       <c r="C924" s="17"/>
     </row>
-    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
         <v>916</v>
       </c>
@@ -12587,7 +12613,7 @@
       </c>
       <c r="C925" s="17"/>
     </row>
-    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="5" t="s">
         <v>917</v>
       </c>
@@ -12596,7 +12622,7 @@
       </c>
       <c r="C926" s="17"/>
     </row>
-    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
         <v>918</v>
       </c>
@@ -12605,7 +12631,7 @@
       </c>
       <c r="C927" s="17"/>
     </row>
-    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="5" t="s">
         <v>919</v>
       </c>
@@ -12614,7 +12640,7 @@
       </c>
       <c r="C928" s="17"/>
     </row>
-    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
         <v>920</v>
       </c>
@@ -12623,7 +12649,7 @@
       </c>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
         <v>921</v>
       </c>
@@ -12632,7 +12658,7 @@
       </c>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="5" t="s">
         <v>922</v>
       </c>
@@ -12641,7 +12667,7 @@
       </c>
       <c r="C931" s="17"/>
     </row>
-    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
         <v>923</v>
       </c>
@@ -12650,7 +12676,7 @@
       </c>
       <c r="C932" s="17"/>
     </row>
-    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
         <v>924</v>
       </c>
@@ -12661,7 +12687,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
         <v>925</v>
       </c>
@@ -12670,7 +12696,7 @@
       </c>
       <c r="C934" s="17"/>
     </row>
-    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
         <v>926</v>
       </c>
@@ -12679,7 +12705,7 @@
       </c>
       <c r="C935" s="17"/>
     </row>
-    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="5" t="s">
         <v>927</v>
       </c>
@@ -12688,7 +12714,7 @@
       </c>
       <c r="C936" s="17"/>
     </row>
-    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
         <v>928</v>
       </c>
@@ -12697,7 +12723,7 @@
       </c>
       <c r="C937" s="17"/>
     </row>
-    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
         <v>929</v>
       </c>
@@ -12708,7 +12734,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="5" t="s">
         <v>930</v>
       </c>
@@ -12717,7 +12743,7 @@
       </c>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
         <v>931</v>
       </c>
@@ -12728,7 +12754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="5" t="s">
         <v>932</v>
       </c>
@@ -12737,7 +12763,7 @@
       </c>
       <c r="C941" s="17"/>
     </row>
-    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="5" t="s">
         <v>933</v>
       </c>
@@ -12746,7 +12772,7 @@
       </c>
       <c r="C942" s="17"/>
     </row>
-    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
         <v>934</v>
       </c>
@@ -12755,7 +12781,7 @@
       </c>
       <c r="C943" s="17"/>
     </row>
-    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="5" t="s">
         <v>935</v>
       </c>
@@ -12764,7 +12790,7 @@
       </c>
       <c r="C944" s="17"/>
     </row>
-    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="5" t="s">
         <v>936</v>
       </c>
@@ -12773,7 +12799,7 @@
       </c>
       <c r="C945" s="17"/>
     </row>
-    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
         <v>937</v>
       </c>
@@ -12782,7 +12808,7 @@
       </c>
       <c r="C946" s="17"/>
     </row>
-    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="5" t="s">
         <v>938</v>
       </c>
@@ -12791,7 +12817,7 @@
       </c>
       <c r="C947" s="17"/>
     </row>
-    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="5" t="s">
         <v>939</v>
       </c>
@@ -12800,7 +12826,7 @@
       </c>
       <c r="C948" s="17"/>
     </row>
-    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
         <v>940</v>
       </c>
@@ -12809,7 +12835,7 @@
       </c>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="5" t="s">
         <v>941</v>
       </c>
@@ -12818,7 +12844,7 @@
       </c>
       <c r="C950" s="17"/>
     </row>
-    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="5" t="s">
         <v>942</v>
       </c>
@@ -12827,7 +12853,7 @@
       </c>
       <c r="C951" s="17"/>
     </row>
-    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="5" t="s">
         <v>943</v>
       </c>
@@ -12836,7 +12862,7 @@
       </c>
       <c r="C952" s="17"/>
     </row>
-    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="5" t="s">
         <v>944</v>
       </c>
@@ -12845,7 +12871,7 @@
       </c>
       <c r="C953" s="17"/>
     </row>
-    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="5" t="s">
         <v>945</v>
       </c>
@@ -12854,7 +12880,7 @@
       </c>
       <c r="C954" s="17"/>
     </row>
-    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6" t="s">
         <v>946</v>
       </c>
@@ -12865,7 +12891,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="5" t="s">
         <v>947</v>
       </c>
@@ -12874,7 +12900,7 @@
       </c>
       <c r="C956" s="17"/>
     </row>
-    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="5" t="s">
         <v>948</v>
       </c>
@@ -12883,7 +12909,7 @@
       </c>
       <c r="C957" s="17"/>
     </row>
-    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="5" t="s">
         <v>949</v>
       </c>
@@ -12892,7 +12918,7 @@
       </c>
       <c r="C958" s="17"/>
     </row>
-    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
         <v>950</v>
       </c>
@@ -12901,7 +12927,7 @@
       </c>
       <c r="C959" s="17"/>
     </row>
-    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
         <v>951</v>
       </c>
@@ -12910,7 +12936,7 @@
       </c>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
         <v>952</v>
       </c>
@@ -12919,7 +12945,7 @@
       </c>
       <c r="C961" s="17"/>
     </row>
-    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="5" t="s">
         <v>953</v>
       </c>
@@ -12928,7 +12954,7 @@
       </c>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
         <v>954</v>
       </c>
@@ -12937,7 +12963,7 @@
       </c>
       <c r="C963" s="17"/>
     </row>
-    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="5" t="s">
         <v>955</v>
       </c>
@@ -12946,7 +12972,7 @@
       </c>
       <c r="C964" s="17"/>
     </row>
-    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="5" t="s">
         <v>956</v>
       </c>
@@ -12955,7 +12981,7 @@
       </c>
       <c r="C965" s="17"/>
     </row>
-    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="5" t="s">
         <v>957</v>
       </c>
@@ -12964,7 +12990,7 @@
       </c>
       <c r="C966" s="17"/>
     </row>
-    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="5" t="s">
         <v>958</v>
       </c>
@@ -12973,7 +12999,7 @@
       </c>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="5" t="s">
         <v>959</v>
       </c>
@@ -12982,7 +13008,7 @@
       </c>
       <c r="C968" s="17"/>
     </row>
-    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="5" t="s">
         <v>960</v>
       </c>
@@ -12991,7 +13017,7 @@
       </c>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="5" t="s">
         <v>961</v>
       </c>
@@ -13000,7 +13026,7 @@
       </c>
       <c r="C970" s="17"/>
     </row>
-    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="5" t="s">
         <v>962</v>
       </c>
@@ -13009,7 +13035,7 @@
       </c>
       <c r="C971" s="17"/>
     </row>
-    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="5" t="s">
         <v>963</v>
       </c>
@@ -13018,7 +13044,7 @@
       </c>
       <c r="C972" s="17"/>
     </row>
-    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="5" t="s">
         <v>964</v>
       </c>
@@ -13027,7 +13053,7 @@
       </c>
       <c r="C973" s="17"/>
     </row>
-    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="5" t="s">
         <v>965</v>
       </c>
@@ -13036,7 +13062,7 @@
       </c>
       <c r="C974" s="17"/>
     </row>
-    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="5" t="s">
         <v>966</v>
       </c>
@@ -13045,7 +13071,7 @@
       </c>
       <c r="C975" s="17"/>
     </row>
-    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="5" t="s">
         <v>967</v>
       </c>
@@ -13054,7 +13080,7 @@
       </c>
       <c r="C976" s="17"/>
     </row>
-    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="5" t="s">
         <v>968</v>
       </c>
@@ -13063,7 +13089,7 @@
       </c>
       <c r="C977" s="17"/>
     </row>
-    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="5" t="s">
         <v>969</v>
       </c>
@@ -13072,7 +13098,7 @@
       </c>
       <c r="C978" s="17"/>
     </row>
-    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="5" t="s">
         <v>970</v>
       </c>
@@ -13081,7 +13107,7 @@
       </c>
       <c r="C979" s="17"/>
     </row>
-    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="5" t="s">
         <v>971</v>
       </c>
@@ -13090,7 +13116,7 @@
       </c>
       <c r="C980" s="17"/>
     </row>
-    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="5" t="s">
         <v>972</v>
       </c>
@@ -13099,7 +13125,7 @@
       </c>
       <c r="C981" s="17"/>
     </row>
-    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
         <v>973</v>
       </c>
@@ -13108,7 +13134,7 @@
       </c>
       <c r="C982" s="17"/>
     </row>
-    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="5" t="s">
         <v>974</v>
       </c>
@@ -13117,7 +13143,7 @@
       </c>
       <c r="C983" s="17"/>
     </row>
-    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="5" t="s">
         <v>975</v>
       </c>
@@ -13126,7 +13152,7 @@
       </c>
       <c r="C984" s="17"/>
     </row>
-    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="5" t="s">
         <v>976</v>
       </c>
@@ -13135,7 +13161,7 @@
       </c>
       <c r="C985" s="17"/>
     </row>
-    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="5" t="s">
         <v>977</v>
       </c>
@@ -13144,7 +13170,7 @@
       </c>
       <c r="C986" s="17"/>
     </row>
-    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="5" t="s">
         <v>978</v>
       </c>
@@ -13153,7 +13179,7 @@
       </c>
       <c r="C987" s="17"/>
     </row>
-    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="5" t="s">
         <v>979</v>
       </c>
@@ -13162,7 +13188,7 @@
       </c>
       <c r="C988" s="17"/>
     </row>
-    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="5" t="s">
         <v>980</v>
       </c>
@@ -13171,7 +13197,7 @@
       </c>
       <c r="C989" s="17"/>
     </row>
-    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
         <v>981</v>
       </c>
@@ -13180,7 +13206,7 @@
       </c>
       <c r="C990" s="17"/>
     </row>
-    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="5" t="s">
         <v>982</v>
       </c>
@@ -13189,7 +13215,7 @@
       </c>
       <c r="C991" s="18"/>
     </row>
-    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="5" t="s">
         <v>983</v>
       </c>
@@ -13198,7 +13224,7 @@
       </c>
       <c r="C992" s="17"/>
     </row>
-    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5" t="s">
         <v>984</v>
       </c>
@@ -13209,7 +13235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="5" t="s">
         <v>985</v>
       </c>
@@ -13218,7 +13244,7 @@
       </c>
       <c r="C994" s="17"/>
     </row>
-    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>986</v>
       </c>
@@ -13229,7 +13255,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="5" t="s">
         <v>987</v>
       </c>
@@ -13238,7 +13264,7 @@
       </c>
       <c r="C996" s="17"/>
     </row>
-    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="5" t="s">
         <v>988</v>
       </c>
@@ -13247,7 +13273,7 @@
       </c>
       <c r="C997" s="17"/>
     </row>
-    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="5" t="s">
         <v>989</v>
       </c>
@@ -13256,7 +13282,7 @@
       </c>
       <c r="C998" s="17"/>
     </row>
-    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="5" t="s">
         <v>990</v>
       </c>
@@ -13267,7 +13293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5" t="s">
         <v>991</v>
       </c>
@@ -13276,7 +13302,7 @@
       </c>
       <c r="C1000" s="17"/>
     </row>
-    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5" t="s">
         <v>992</v>
       </c>
@@ -13285,9 +13311,9 @@
       </c>
       <c r="C1001" s="33"/>
     </row>
-    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="13"/>
     </row>
   </sheetData>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7384AC-FBA3-4014-BCB4-FA4844F43260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD500D5-DF23-421D-BF80-60364BAC96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1010">
   <si>
     <t>PELÍCULA</t>
   </si>
@@ -3088,6 +3088,9 @@
   </si>
   <si>
     <t>ANIMAL KINGDOM</t>
+  </si>
+  <si>
+    <t>LA ÚLTIMA NOCHE</t>
   </si>
 </sst>
 </file>
@@ -3513,11 +3516,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3771,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A857" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D863" sqref="D863"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3902,12 +3905,12 @@
         <v>1</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="E9" s="34" t="str">
+      <c r="E9" s="36" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>CHANTAJE EN BROADWAY</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+        <v>DEJAD PASO AL MAÑANA</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3974,7 +3977,7 @@
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
@@ -3983,7 +3986,7 @@
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>2</v>
       </c>
       <c r="C17" s="17"/>
@@ -4165,7 +4168,7 @@
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="34">
         <v>4</v>
       </c>
       <c r="C35" s="17"/>
@@ -4185,7 +4188,7 @@
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <v>5</v>
       </c>
       <c r="C37" s="17"/>
@@ -11826,7 +11829,7 @@
     </row>
     <row r="840" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
-        <v>691</v>
+        <v>1009</v>
       </c>
       <c r="B840" s="4">
         <v>98</v>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD500D5-DF23-421D-BF80-60364BAC96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD931C5D-9901-4ECC-8CCC-A4634827F1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3097,7 +3097,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3166,6 +3166,10 @@
       <color theme="1"/>
       <name val="Bahnschrift Condensed"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3774,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1001"/>
+    <sheetView tabSelected="1" topLeftCell="A565" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A575" sqref="A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3785,7 +3789,10 @@
     <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="26" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="37.5" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="11" max="26" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3907,7 +3914,7 @@
       <c r="C9" s="17"/>
       <c r="E9" s="36" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>DEJAD PASO AL MAÑANA</v>
+        <v>LOS OJOS SIN ROSTRO</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
@@ -12572,7 +12579,7 @@
       <c r="C920" s="17"/>
     </row>
     <row r="921" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="5" t="s">
+      <c r="A921" s="32" t="s">
         <v>912</v>
       </c>
       <c r="B921" s="4">
@@ -13324,6 +13331,7 @@
   <mergeCells count="1">
     <mergeCell ref="E9:G9"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/CARTELERA.xlsx
+++ b/CARTELERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\CARTELERA-1000-PELICULAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD931C5D-9901-4ECC-8CCC-A4634827F1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9061B2-F6A5-4ADE-B757-49EA4B54E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3141,13 +3141,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3170,6 +3163,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3497,12 +3497,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3517,14 +3514,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3778,15 +3778,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A575" sqref="A575"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="36" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
@@ -3802,7 +3802,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>995</v>
       </c>
     </row>
@@ -3813,11 +3813,11 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E2)</f>
         <v>105</v>
       </c>
@@ -3829,9 +3829,9 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22">
+      <c r="C3" s="33"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E3)</f>
         <v>16</v>
       </c>
@@ -3843,11 +3843,11 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24">
+      <c r="E4" s="20"/>
+      <c r="F4" s="21">
         <f ca="1">[1]!COUNTBYCELLCOLOR(A$2:A$1001,E4)</f>
         <v>5</v>
       </c>
@@ -3859,11 +3859,11 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="33"/>
+      <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <f ca="1">SUM(F2:F4)</f>
         <v>126</v>
       </c>
@@ -3875,11 +3875,11 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="33"/>
+      <c r="E6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <f ca="1">1000-F5</f>
         <v>874</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -3900,7 +3900,7 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3911,13 +3911,13 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="E9" s="36" t="str">
+      <c r="C9" s="33"/>
+      <c r="E9" s="32" t="str">
         <f ca="1">INDEX(A2:A1001,RANDBETWEEN(1,COUNTA(A2:A1001)),1)</f>
-        <v>LOS OJOS SIN ROSTRO</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+        <v>UN ASESINO ALGO ESPECIAL</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3926,7 +3926,7 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3935,7 +3935,7 @@
       <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
       <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
       <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="11"/>
@@ -3967,7 +3967,7 @@
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3978,25 +3978,25 @@
       <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="31">
         <v>2</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="30">
         <v>2</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4005,7 +4005,7 @@
       <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -4014,7 +4014,7 @@
       <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -4023,7 +4023,7 @@
       <c r="B20" s="4">
         <v>3</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -4043,7 +4043,7 @@
       <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       <c r="B27" s="4">
         <v>3</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -4107,7 +4107,7 @@
       <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -4127,7 +4127,7 @@
       <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4136,7 +4136,7 @@
       <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       <c r="B32" s="4">
         <v>4</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
       <c r="B33" s="4">
         <v>4</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4169,16 +4169,16 @@
       <c r="B34" s="4">
         <v>4</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="30">
         <v>4</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -4187,7 +4187,7 @@
       <c r="B36" s="4">
         <v>5</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -4195,10 +4195,10 @@
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="31">
         <v>5</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="33"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -4207,7 +4207,7 @@
       <c r="B38" s="4">
         <v>5</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       <c r="B39" s="4">
         <v>5</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       <c r="B40" s="4">
         <v>5</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       <c r="B41" s="4">
         <v>5</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       <c r="B42" s="4">
         <v>5</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="33"/>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -4260,7 +4260,7 @@
       <c r="B43" s="8">
         <v>6</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="33"/>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -4269,7 +4269,7 @@
       <c r="B44" s="4">
         <v>6</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       <c r="B45" s="4">
         <v>6</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -4289,7 +4289,7 @@
       <c r="B46" s="4">
         <v>6</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -4298,7 +4298,7 @@
       <c r="B47" s="4">
         <v>6</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="33"/>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -4307,7 +4307,7 @@
       <c r="B48" s="4">
         <v>6</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="B49" s="4">
         <v>6</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       <c r="B50" s="4">
         <v>6</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       <c r="B51" s="4">
         <v>6</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="33"/>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -4349,7 +4349,7 @@
       <c r="B52" s="8">
         <v>7</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="B53" s="4">
         <v>7</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="33"/>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -4369,7 +4369,7 @@
       <c r="B54" s="4">
         <v>7</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="33"/>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -4378,7 +4378,7 @@
       <c r="B55" s="4">
         <v>7</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       <c r="B56" s="4">
         <v>7</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="33"/>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -4398,7 +4398,7 @@
       <c r="B57" s="4">
         <v>7</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       <c r="B58" s="4">
         <v>7</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="33"/>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -4418,7 +4418,7 @@
       <c r="B59" s="8">
         <v>8</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="B60" s="4">
         <v>8</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -4438,7 +4438,7 @@
       <c r="B61" s="4">
         <v>8</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       <c r="B62" s="4">
         <v>8</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="33"/>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -4458,7 +4458,7 @@
       <c r="B63" s="4">
         <v>8</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -4467,7 +4467,7 @@
       <c r="B64" s="4">
         <v>8</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -4476,7 +4476,7 @@
       <c r="B65" s="8">
         <v>9</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -4485,7 +4485,7 @@
       <c r="B66" s="4">
         <v>9</v>
       </c>
-      <c r="C66" s="17"/>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -4494,7 +4494,7 @@
       <c r="B67" s="4">
         <v>9</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="33"/>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -4503,7 +4503,7 @@
       <c r="B68" s="4">
         <v>9</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="33"/>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -4512,7 +4512,7 @@
       <c r="B69" s="4">
         <v>9</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="33"/>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -4521,7 +4521,7 @@
       <c r="B70" s="4">
         <v>9</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       <c r="B71" s="4">
         <v>9</v>
       </c>
-      <c r="C71" s="17"/>
+      <c r="C71" s="33"/>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -4541,7 +4541,7 @@
       <c r="B72" s="4">
         <v>9</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       <c r="B73" s="8">
         <v>10</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       <c r="B74" s="4">
         <v>10</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       <c r="B75" s="4">
         <v>10</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="33"/>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -4583,7 +4583,7 @@
       <c r="B76" s="4">
         <v>10</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -4592,7 +4592,7 @@
       <c r="B77" s="4">
         <v>10</v>
       </c>
-      <c r="C77" s="17"/>
+      <c r="C77" s="33"/>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -4601,7 +4601,7 @@
       <c r="B78" s="4">
         <v>10</v>
       </c>
-      <c r="C78" s="17"/>
+      <c r="C78" s="33"/>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -4610,7 +4610,7 @@
       <c r="B79" s="4">
         <v>10</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="B80" s="4">
         <v>10</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="33"/>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
@@ -4630,7 +4630,7 @@
       <c r="B81" s="8">
         <v>11</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       <c r="B82" s="4">
         <v>11</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       <c r="B83" s="4">
         <v>11</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       <c r="B84" s="4">
         <v>11</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       <c r="B85" s="4">
         <v>11</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="33" t="s">
         <v>998</v>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       <c r="B86" s="4">
         <v>11</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -4694,7 +4694,7 @@
       <c r="B87" s="4">
         <v>11</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="33"/>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
@@ -4703,7 +4703,7 @@
       <c r="B88" s="4">
         <v>11</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="33"/>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -4712,7 +4712,7 @@
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       <c r="B90" s="4">
         <v>12</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="33"/>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -4732,7 +4732,7 @@
       <c r="B91" s="4">
         <v>12</v>
       </c>
-      <c r="C91" s="17"/>
+      <c r="C91" s="33"/>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -4741,7 +4741,7 @@
       <c r="B92" s="4">
         <v>12</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       <c r="B93" s="4">
         <v>12</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       <c r="B94" s="4">
         <v>12</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4774,7 +4774,7 @@
       <c r="B95" s="4">
         <v>12</v>
       </c>
-      <c r="C95" s="17"/>
+      <c r="C95" s="33"/>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -4783,7 +4783,7 @@
       <c r="B96" s="4">
         <v>12</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="33"/>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -4792,7 +4792,7 @@
       <c r="B97" s="4">
         <v>12</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -4801,7 +4801,7 @@
       <c r="B98" s="8">
         <v>13</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       <c r="B99" s="4">
         <v>13</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="33"/>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -4821,7 +4821,7 @@
       <c r="B100" s="4">
         <v>13</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="33"/>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -4830,7 +4830,7 @@
       <c r="B101" s="4">
         <v>13</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="33"/>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
@@ -4839,7 +4839,7 @@
       <c r="B102" s="4">
         <v>13</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
       <c r="B103" s="4">
         <v>13</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       <c r="B104" s="4">
         <v>13</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       <c r="B105" s="4">
         <v>13</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="B106" s="4">
         <v>13</v>
       </c>
-      <c r="C106" s="17"/>
+      <c r="C106" s="33"/>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
@@ -4892,7 +4892,7 @@
       <c r="B107" s="8">
         <v>14</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       <c r="B108" s="4">
         <v>14</v>
       </c>
-      <c r="C108" s="17"/>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -4912,7 +4912,7 @@
       <c r="B109" s="4">
         <v>14</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="B110" s="4">
         <v>14</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       <c r="B111" s="4">
         <v>14</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="33"/>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
@@ -4943,7 +4943,7 @@
       <c r="B112" s="4">
         <v>14</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       <c r="B113" s="4">
         <v>14</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       <c r="B114" s="4">
         <v>14</v>
       </c>
-      <c r="C114" s="17"/>
+      <c r="C114" s="33"/>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
@@ -4974,7 +4974,7 @@
       <c r="B115" s="4">
         <v>14</v>
       </c>
-      <c r="C115" s="17"/>
+      <c r="C115" s="33"/>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
@@ -4983,7 +4983,7 @@
       <c r="B116" s="4">
         <v>14</v>
       </c>
-      <c r="C116" s="17"/>
+      <c r="C116" s="33"/>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
@@ -4992,7 +4992,7 @@
       <c r="B117" s="4">
         <v>14</v>
       </c>
-      <c r="C117" s="17"/>
+      <c r="C117" s="33"/>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
@@ -5001,7 +5001,7 @@
       <c r="B118" s="8">
         <v>15</v>
       </c>
-      <c r="C118" s="17"/>
+      <c r="C118" s="33"/>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
@@ -5010,7 +5010,7 @@
       <c r="B119" s="4">
         <v>15</v>
       </c>
-      <c r="C119" s="17"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -5019,7 +5019,7 @@
       <c r="B120" s="4">
         <v>15</v>
       </c>
-      <c r="C120" s="17"/>
+      <c r="C120" s="33"/>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
@@ -5028,7 +5028,7 @@
       <c r="B121" s="4">
         <v>15</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="33"/>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
@@ -5037,7 +5037,7 @@
       <c r="B122" s="4">
         <v>15</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="33"/>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -5046,7 +5046,7 @@
       <c r="B123" s="4">
         <v>15</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="B124" s="4">
         <v>15</v>
       </c>
-      <c r="C124" s="17"/>
+      <c r="C124" s="33"/>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
@@ -5066,7 +5066,7 @@
       <c r="B125" s="4">
         <v>15</v>
       </c>
-      <c r="C125" s="17"/>
+      <c r="C125" s="33"/>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -5075,7 +5075,7 @@
       <c r="B126" s="4">
         <v>15</v>
       </c>
-      <c r="C126" s="17"/>
+      <c r="C126" s="33"/>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -5084,7 +5084,7 @@
       <c r="B127" s="4">
         <v>15</v>
       </c>
-      <c r="C127" s="17"/>
+      <c r="C127" s="33"/>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -5093,7 +5093,7 @@
       <c r="B128" s="8">
         <v>16</v>
       </c>
-      <c r="C128" s="17"/>
+      <c r="C128" s="33"/>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -5102,7 +5102,7 @@
       <c r="B129" s="4">
         <v>16</v>
       </c>
-      <c r="C129" s="17"/>
+      <c r="C129" s="33"/>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
@@ -5111,7 +5111,7 @@
       <c r="B130" s="4">
         <v>16</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="B131" s="4">
         <v>16</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="33"/>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
@@ -5131,7 +5131,7 @@
       <c r="B132" s="4">
         <v>16</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="33"/>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
@@ -5140,7 +5140,7 @@
       <c r="B133" s="4">
         <v>16</v>
       </c>
-      <c r="C133" s="17"/>
+      <c r="C133" s="33"/>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
@@ -5149,7 +5149,7 @@
       <c r="B134" s="4">
         <v>16</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       <c r="B135" s="4">
         <v>16</v>
       </c>
-      <c r="C135" s="17"/>
+      <c r="C135" s="33"/>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
@@ -5169,7 +5169,7 @@
       <c r="B136" s="4">
         <v>16</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       <c r="B137" s="8">
         <v>17</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="B138" s="4">
         <v>17</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       <c r="B139" s="4">
         <v>17</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       <c r="B140" s="4">
         <v>17</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       <c r="B141" s="4">
         <v>17</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="B142" s="4">
         <v>17</v>
       </c>
-      <c r="C142" s="17"/>
+      <c r="C142" s="33"/>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
@@ -5244,7 +5244,7 @@
       <c r="B143" s="4">
         <v>17</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       <c r="B144" s="4">
         <v>17</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       <c r="B145" s="8">
         <v>18</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       <c r="B146" s="4">
         <v>18</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       <c r="B147" s="4">
         <v>18</v>
       </c>
-      <c r="C147" s="17"/>
+      <c r="C147" s="33"/>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
@@ -5297,7 +5297,7 @@
       <c r="B148" s="4">
         <v>18</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       <c r="B149" s="4">
         <v>18</v>
       </c>
-      <c r="C149" s="17"/>
+      <c r="C149" s="33"/>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
@@ -5317,7 +5317,7 @@
       <c r="B150" s="4">
         <v>18</v>
       </c>
-      <c r="C150" s="17"/>
+      <c r="C150" s="33"/>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
@@ -5326,7 +5326,7 @@
       <c r="B151" s="4">
         <v>18</v>
       </c>
-      <c r="C151" s="17"/>
+      <c r="C151" s="33"/>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
@@ -5335,7 +5335,7 @@
       <c r="B152" s="4">
         <v>18</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       <c r="B153" s="8">
         <v>19</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       <c r="B154" s="4">
         <v>19</v>
       </c>
-      <c r="C154" s="17"/>
+      <c r="C154" s="33"/>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
@@ -5366,7 +5366,7 @@
       <c r="B155" s="4">
         <v>19</v>
       </c>
-      <c r="C155" s="17"/>
+      <c r="C155" s="33"/>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
@@ -5375,7 +5375,7 @@
       <c r="B156" s="4">
         <v>19</v>
       </c>
-      <c r="C156" s="17"/>
+      <c r="C156" s="33"/>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
@@ -5384,7 +5384,7 @@
       <c r="B157" s="4">
         <v>19</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       <c r="B158" s="4">
         <v>19</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       <c r="B159" s="4">
         <v>19</v>
       </c>
-      <c r="C159" s="17"/>
+      <c r="C159" s="33"/>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
@@ -5415,7 +5415,7 @@
       <c r="B160" s="4">
         <v>19</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
       <c r="B161" s="4">
         <v>19</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="33"/>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
@@ -5435,7 +5435,7 @@
       <c r="B162" s="8">
         <v>20</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="33"/>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -5444,7 +5444,7 @@
       <c r="B163" s="4">
         <v>20</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       <c r="B164" s="4">
         <v>20</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5466,7 +5466,7 @@
       <c r="B165" s="4">
         <v>20</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       <c r="B166" s="4">
         <v>20</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       <c r="B167" s="4">
         <v>20</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="B168" s="4">
         <v>20</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
       <c r="B169" s="4">
         <v>20</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       <c r="B170" s="8">
         <v>21</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="33"/>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
@@ -5530,7 +5530,7 @@
       <c r="B171" s="4">
         <v>21</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="33"/>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
@@ -5539,7 +5539,7 @@
       <c r="B172" s="4">
         <v>21</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="33"/>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
@@ -5548,7 +5548,7 @@
       <c r="B173" s="4">
         <v>21</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       <c r="B174" s="4">
         <v>21</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="33"/>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -5568,7 +5568,7 @@
       <c r="B175" s="4">
         <v>21</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="33"/>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -5577,7 +5577,7 @@
       <c r="B176" s="4">
         <v>21</v>
       </c>
-      <c r="C176" s="17"/>
+      <c r="C176" s="33"/>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -5586,7 +5586,7 @@
       <c r="B177" s="4">
         <v>21</v>
       </c>
-      <c r="C177" s="17"/>
+      <c r="C177" s="33"/>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -5595,7 +5595,7 @@
       <c r="B178" s="8">
         <v>22</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       <c r="B179" s="4">
         <v>22</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       <c r="B180" s="4">
         <v>22</v>
       </c>
-      <c r="C180" s="17"/>
+      <c r="C180" s="33"/>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -5626,7 +5626,7 @@
       <c r="B181" s="4">
         <v>22</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       <c r="B182" s="4">
         <v>22</v>
       </c>
-      <c r="C182" s="17"/>
+      <c r="C182" s="33"/>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -5646,7 +5646,7 @@
       <c r="B183" s="4">
         <v>22</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       <c r="B184" s="4">
         <v>22</v>
       </c>
-      <c r="C184" s="17"/>
+      <c r="C184" s="33"/>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -5666,7 +5666,7 @@
       <c r="B185" s="4">
         <v>22</v>
       </c>
-      <c r="C185" s="17"/>
+      <c r="C185" s="33"/>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
@@ -5675,7 +5675,7 @@
       <c r="B186" s="8">
         <v>23</v>
       </c>
-      <c r="C186" s="17"/>
+      <c r="C186" s="33"/>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -5684,7 +5684,7 @@
       <c r="B187" s="4">
         <v>23</v>
       </c>
-      <c r="C187" s="17"/>
+      <c r="C187" s="33"/>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -5693,7 +5693,7 @@
       <c r="B188" s="4">
         <v>23</v>
       </c>
-      <c r="C188" s="17"/>
+      <c r="C188" s="33"/>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -5702,7 +5702,7 @@
       <c r="B189" s="4">
         <v>23</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
       <c r="B190" s="4">
         <v>23</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       <c r="B191" s="4">
         <v>23</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       <c r="B192" s="4">
         <v>23</v>
       </c>
-      <c r="C192" s="17"/>
+      <c r="C192" s="33"/>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
@@ -5744,7 +5744,7 @@
       <c r="B193" s="4">
         <v>23</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       <c r="B194" s="4">
         <v>23</v>
       </c>
-      <c r="C194" s="17"/>
+      <c r="C194" s="33"/>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
@@ -5764,7 +5764,7 @@
       <c r="B195" s="8">
         <v>24</v>
       </c>
-      <c r="C195" s="17"/>
+      <c r="C195" s="33"/>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
@@ -5773,7 +5773,7 @@
       <c r="B196" s="4">
         <v>24</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="B197" s="4">
         <v>24</v>
       </c>
-      <c r="C197" s="17"/>
+      <c r="C197" s="33"/>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
@@ -5793,7 +5793,7 @@
       <c r="B198" s="4">
         <v>24</v>
       </c>
-      <c r="C198" s="17"/>
+      <c r="C198" s="33"/>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
@@ -5802,7 +5802,7 @@
       <c r="B199" s="4">
         <v>24</v>
       </c>
-      <c r="C199" s="17"/>
+      <c r="C199" s="33"/>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
@@ -5811,7 +5811,7 @@
       <c r="B200" s="4">
         <v>24</v>
       </c>
-      <c r="C200" s="17"/>
+      <c r="C200" s="33"/>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
@@ -5820,7 +5820,7 @@
       <c r="B201" s="4">
         <v>24</v>
       </c>
-      <c r="C201" s="17"/>
+      <c r="C201" s="33"/>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
@@ -5829,7 +5829,7 @@
       <c r="B202" s="4">
         <v>24</v>
       </c>
-      <c r="C202" s="17"/>
+      <c r="C202" s="33"/>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
@@ -5838,7 +5838,7 @@
       <c r="B203" s="4">
         <v>24</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       <c r="B204" s="4">
         <v>24</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
       <c r="B205" s="8">
         <v>25</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       <c r="B206" s="4">
         <v>25</v>
       </c>
-      <c r="C206" s="17"/>
+      <c r="C206" s="33"/>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -5880,7 +5880,7 @@
       <c r="B207" s="4">
         <v>25</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       <c r="B208" s="4">
         <v>25</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5902,7 +5902,7 @@
       <c r="B209" s="4">
         <v>25</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       <c r="B210" s="4">
         <v>25</v>
       </c>
-      <c r="C210" s="17"/>
+      <c r="C210" s="33"/>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
@@ -5922,7 +5922,7 @@
       <c r="B211" s="8">
         <v>26</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       <c r="B212" s="4">
         <v>26</v>
       </c>
-      <c r="C212" s="17"/>
+      <c r="C212" s="33"/>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
@@ -5942,7 +5942,7 @@
       <c r="B213" s="4">
         <v>26</v>
       </c>
-      <c r="C213" s="17"/>
+      <c r="C213" s="33"/>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
@@ -5951,7 +5951,7 @@
       <c r="B214" s="4">
         <v>26</v>
       </c>
-      <c r="C214" s="17"/>
+      <c r="C214" s="33"/>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
@@ -5960,7 +5960,7 @@
       <c r="B215" s="4">
         <v>26</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="B216" s="4">
         <v>26</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
       <c r="B217" s="4">
         <v>26</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       <c r="B218" s="8">
         <v>27</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       <c r="B219" s="4">
         <v>27</v>
       </c>
-      <c r="C219" s="17"/>
+      <c r="C219" s="33"/>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
@@ -6013,7 +6013,7 @@
       <c r="B220" s="4">
         <v>27</v>
       </c>
-      <c r="C220" s="17"/>
+      <c r="C220" s="33"/>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
@@ -6022,7 +6022,7 @@
       <c r="B221" s="4">
         <v>27</v>
       </c>
-      <c r="C221" s="17"/>
+      <c r="C221" s="33"/>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
@@ -6031,7 +6031,7 @@
       <c r="B222" s="4">
         <v>27</v>
       </c>
-      <c r="C222" s="17"/>
+      <c r="C222" s="33"/>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
@@ -6040,7 +6040,7 @@
       <c r="B223" s="4">
         <v>27</v>
       </c>
-      <c r="C223" s="17"/>
+      <c r="C223" s="33"/>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
@@ -6049,7 +6049,7 @@
       <c r="B224" s="4">
         <v>27</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       <c r="B225" s="4">
         <v>27</v>
       </c>
-      <c r="C225" s="17"/>
+      <c r="C225" s="33"/>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
@@ -6069,7 +6069,7 @@
       <c r="B226" s="8">
         <v>28</v>
       </c>
-      <c r="C226" s="17"/>
+      <c r="C226" s="33"/>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
@@ -6078,7 +6078,7 @@
       <c r="B227" s="4">
         <v>28</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       <c r="B228" s="4">
         <v>28</v>
       </c>
-      <c r="C228" s="17"/>
+      <c r="C228" s="33"/>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
@@ -6098,7 +6098,7 @@
       <c r="B229" s="4">
         <v>28</v>
       </c>
-      <c r="C229" s="17"/>
+      <c r="C229" s="33"/>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
@@ -6107,7 +6107,7 @@
       <c r="B230" s="4">
         <v>28</v>
       </c>
-      <c r="C230" s="17"/>
+      <c r="C230" s="33"/>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
@@ -6116,7 +6116,7 @@
       <c r="B231" s="4">
         <v>28</v>
       </c>
-      <c r="C231" s="17"/>
+      <c r="C231" s="33"/>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
@@ -6125,7 +6125,7 @@
       <c r="B232" s="4">
         <v>28</v>
       </c>
-      <c r="C232" s="17"/>
+      <c r="C232" s="33"/>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
@@ -6134,7 +6134,7 @@
       <c r="B233" s="4">
         <v>28</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       <c r="B234" s="4">
         <v>28</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       <c r="B235" s="4">
         <v>28</v>
       </c>
-      <c r="C235" s="17"/>
+      <c r="C235" s="33"/>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
@@ -6165,7 +6165,7 @@
       <c r="B236" s="8">
         <v>29</v>
       </c>
-      <c r="C236" s="17"/>
+      <c r="C236" s="33"/>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
@@ -6174,7 +6174,7 @@
       <c r="B237" s="4">
         <v>29</v>
       </c>
-      <c r="C237" s="17"/>
+      <c r="C237" s="33"/>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
@@ -6183,7 +6183,7 @@
       <c r="B238" s="4">
         <v>29</v>
       </c>
-      <c r="C238" s="17"/>
+      <c r="C238" s="33"/>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
@@ -6192,7 +6192,7 @@
       <c r="B239" s="4">
         <v>29</v>
       </c>
-      <c r="C239" s="17"/>
+      <c r="C239" s="33"/>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
@@ -6201,7 +6201,7 @@
       <c r="B240" s="4">
         <v>29</v>
       </c>
-      <c r="C240" s="17"/>
+      <c r="C240" s="33"/>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
@@ -6210,7 +6210,7 @@
       <c r="B241" s="4">
         <v>29</v>
       </c>
-      <c r="C241" s="17"/>
+      <c r="C241" s="33"/>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
@@ -6219,7 +6219,7 @@
       <c r="B242" s="4">
         <v>29</v>
       </c>
-      <c r="C242" s="17" t="s">
+      <c r="C242" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="B243" s="8">
         <v>30</v>
       </c>
-      <c r="C243" s="17"/>
+      <c r="C243" s="33"/>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
@@ -6239,7 +6239,7 @@
       <c r="B244" s="4">
         <v>30</v>
       </c>
-      <c r="C244" s="17"/>
+      <c r="C244" s="33"/>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
@@ -6248,7 +6248,7 @@
       <c r="B245" s="4">
         <v>30</v>
       </c>
-      <c r="C245" s="17"/>
+      <c r="C245" s="33"/>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
@@ -6257,7 +6257,7 @@
       <c r="B246" s="4">
         <v>30</v>
       </c>
-      <c r="C246" s="17"/>
+      <c r="C246" s="33"/>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
@@ -6266,7 +6266,7 @@
       <c r="B247" s="4">
         <v>30</v>
       </c>
-      <c r="C247" s="17" t="s">
+      <c r="C247" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       <c r="B248" s="4">
         <v>30</v>
       </c>
-      <c r="C248" s="17" t="s">
+      <c r="C248" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       <c r="B249" s="4">
         <v>30</v>
       </c>
-      <c r="C249" s="17" t="s">
+      <c r="C249" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -6299,16 +6299,16 @@
       <c r="B250" s="4">
         <v>30</v>
       </c>
-      <c r="C250" s="17"/>
+      <c r="C250" s="33"/>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="32" t="s">
+      <c r="A251" s="29" t="s">
         <v>1007</v>
       </c>
       <c r="B251" s="4">
         <v>30</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C251" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       <c r="B252" s="4">
         <v>30</v>
       </c>
-      <c r="C252" s="17"/>
+      <c r="C252" s="33"/>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
@@ -6328,7 +6328,7 @@
       <c r="B253" s="8">
         <v>31</v>
       </c>
-      <c r="C253" s="17"/>
+      <c r="C253" s="33"/>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
@@ -6337,7 +6337,7 @@
       <c r="B254" s="4">
         <v>31</v>
       </c>
-      <c r="C254" s="17"/>
+      <c r="C254" s="33"/>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
@@ -6346,7 +6346,7 @@
       <c r="B255" s="4">
         <v>31</v>
       </c>
-      <c r="C255" s="17"/>
+      <c r="C255" s="33"/>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
@@ -6355,7 +6355,7 @@
       <c r="B256" s="4">
         <v>31</v>
       </c>
-      <c r="C256" s="17"/>
+      <c r="C256" s="33"/>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
@@ -6364,7 +6364,7 @@
       <c r="B257" s="4">
         <v>31</v>
       </c>
-      <c r="C257" s="17"/>
+      <c r="C257" s="33"/>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
@@ -6373,7 +6373,7 @@
       <c r="B258" s="4">
         <v>31</v>
       </c>
-      <c r="C258" s="17"/>
+      <c r="C258" s="33"/>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
@@ -6382,7 +6382,7 @@
       <c r="B259" s="4">
         <v>31</v>
       </c>
-      <c r="C259" s="17"/>
+      <c r="C259" s="33"/>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
@@ -6391,7 +6391,7 @@
       <c r="B260" s="4">
         <v>31</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       <c r="B261" s="8">
         <v>32</v>
       </c>
-      <c r="C261" s="17"/>
+      <c r="C261" s="33"/>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
@@ -6411,7 +6411,7 @@
       <c r="B262" s="4">
         <v>32</v>
       </c>
-      <c r="C262" s="17"/>
+      <c r="C262" s="33"/>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
@@ -6420,7 +6420,7 @@
       <c r="B263" s="4">
         <v>32</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       <c r="B264" s="4">
         <v>32</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       <c r="B265" s="4">
         <v>32</v>
       </c>
-      <c r="C265" s="17"/>
+      <c r="C265" s="33"/>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
@@ -6451,7 +6451,7 @@
       <c r="B266" s="4">
         <v>32</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
       <c r="B267" s="4">
         <v>32</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       <c r="B268" s="8">
         <v>33</v>
       </c>
-      <c r="C268" s="17"/>
+      <c r="C268" s="33"/>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
@@ -6482,7 +6482,7 @@
       <c r="B269" s="4">
         <v>33</v>
       </c>
-      <c r="C269" s="17"/>
+      <c r="C269" s="33"/>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
@@ -6491,7 +6491,7 @@
       <c r="B270" s="4">
         <v>33</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="C270" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="B271" s="4">
         <v>33</v>
       </c>
-      <c r="C271" s="17"/>
+      <c r="C271" s="33"/>
     </row>
     <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
@@ -6511,7 +6511,7 @@
       <c r="B272" s="4">
         <v>33</v>
       </c>
-      <c r="C272" s="17"/>
+      <c r="C272" s="33"/>
     </row>
     <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
@@ -6520,7 +6520,7 @@
       <c r="B273" s="4">
         <v>33</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       <c r="B274" s="4">
         <v>33</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -6542,7 +6542,7 @@
       <c r="B275" s="8">
         <v>34</v>
       </c>
-      <c r="C275" s="17"/>
+      <c r="C275" s="33"/>
     </row>
     <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
@@ -6551,7 +6551,7 @@
       <c r="B276" s="4">
         <v>34</v>
       </c>
-      <c r="C276" s="17"/>
+      <c r="C276" s="33"/>
     </row>
     <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
@@ -6560,7 +6560,7 @@
       <c r="B277" s="4">
         <v>34</v>
       </c>
-      <c r="C277" s="17"/>
+      <c r="C277" s="33"/>
     </row>
     <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
@@ -6569,7 +6569,7 @@
       <c r="B278" s="4">
         <v>34</v>
       </c>
-      <c r="C278" s="17" t="s">
+      <c r="C278" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="B279" s="4">
         <v>34</v>
       </c>
-      <c r="C279" s="17"/>
+      <c r="C279" s="33"/>
     </row>
     <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
@@ -6589,7 +6589,7 @@
       <c r="B280" s="4">
         <v>34</v>
       </c>
-      <c r="C280" s="17"/>
+      <c r="C280" s="33"/>
     </row>
     <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
@@ -6598,7 +6598,7 @@
       <c r="B281" s="4">
         <v>34</v>
       </c>
-      <c r="C281" s="17"/>
+      <c r="C281" s="33"/>
     </row>
     <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
@@ -6607,7 +6607,7 @@
       <c r="B282" s="4">
         <v>34</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
       <c r="B283" s="4">
         <v>34</v>
       </c>
-      <c r="C283" s="17" t="s">
+      <c r="C283" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       <c r="B284" s="4">
         <v>34</v>
       </c>
-      <c r="C284" s="17" t="s">
+      <c r="C284" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       <c r="B285" s="8">
         <v>35</v>
       </c>
-      <c r="C285" s="17" t="s">
+      <c r="C285" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       <c r="B286" s="4">
         <v>35</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="C286" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
       <c r="B287" s="4">
         <v>35</v>
       </c>
-      <c r="C287" s="17"/>
+      <c r="C287" s="33"/>
     </row>
     <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
@@ -6671,7 +6671,7 @@
       <c r="B288" s="4">
         <v>35</v>
       </c>
-      <c r="C288" s="17"/>
+      <c r="C288" s="33"/>
     </row>
     <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
@@ -6680,7 +6680,7 @@
       <c r="B289" s="4">
         <v>35</v>
       </c>
-      <c r="C289" s="17"/>
+      <c r="C289" s="33"/>
     </row>
     <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
@@ -6689,7 +6689,7 @@
       <c r="B290" s="4">
         <v>35</v>
       </c>
-      <c r="C290" s="17"/>
+      <c r="C290" s="33"/>
     </row>
     <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
@@ -6698,7 +6698,7 @@
       <c r="B291" s="4">
         <v>35</v>
       </c>
-      <c r="C291" s="17"/>
+      <c r="C291" s="33"/>
     </row>
     <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
@@ -6707,7 +6707,7 @@
       <c r="B292" s="8">
         <v>36</v>
       </c>
-      <c r="C292" s="17" t="s">
+      <c r="C292" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
       <c r="B293" s="4">
         <v>36</v>
       </c>
-      <c r="C293" s="17" t="s">
+      <c r="C293" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       <c r="B294" s="4">
         <v>36</v>
       </c>
-      <c r="C294" s="17"/>
+      <c r="C294" s="33"/>
     </row>
     <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
@@ -6738,7 +6738,7 @@
       <c r="B295" s="4">
         <v>36</v>
       </c>
-      <c r="C295" s="17"/>
+      <c r="C295" s="33"/>
     </row>
     <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
@@ -6747,7 +6747,7 @@
       <c r="B296" s="4">
         <v>36</v>
       </c>
-      <c r="C296" s="17"/>
+      <c r="C296" s="33"/>
     </row>
     <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
@@ -6756,7 +6756,7 @@
       <c r="B297" s="4">
         <v>36</v>
       </c>
-      <c r="C297" s="17"/>
+      <c r="C297" s="33"/>
     </row>
     <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
@@ -6765,7 +6765,7 @@
       <c r="B298" s="4">
         <v>36</v>
       </c>
-      <c r="C298" s="17"/>
+      <c r="C298" s="33"/>
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
@@ -6774,7 +6774,7 @@
       <c r="B299" s="4">
         <v>36</v>
       </c>
-      <c r="C299" s="17" t="s">
+      <c r="C299" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       <c r="B300" s="8">
         <v>37</v>
       </c>
-      <c r="C300" s="17"/>
+      <c r="C300" s="33"/>
     </row>
     <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
@@ -6794,7 +6794,7 @@
       <c r="B301" s="4">
         <v>37</v>
       </c>
-      <c r="C301" s="17"/>
+      <c r="C301" s="33"/>
     </row>
     <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
@@ -6803,7 +6803,7 @@
       <c r="B302" s="4">
         <v>37</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="C302" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       <c r="B303" s="4">
         <v>37</v>
       </c>
-      <c r="C303" s="17"/>
+      <c r="C303" s="33"/>
     </row>
     <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
@@ -6823,7 +6823,7 @@
       <c r="B304" s="4">
         <v>37</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C304" s="33" t="s">
         <v>994</v>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       <c r="B305" s="4">
         <v>37</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C305" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       <c r="B306" s="4">
         <v>37</v>
       </c>
-      <c r="C306" s="17" t="s">
+      <c r="C306" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6856,7 +6856,7 @@
       <c r="B307" s="4">
         <v>37</v>
       </c>
-      <c r="C307" s="17" t="s">
+      <c r="C307" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="B308" s="4">
         <v>37</v>
       </c>
-      <c r="C308" s="17"/>
+      <c r="C308" s="33"/>
     </row>
     <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
@@ -6876,7 +6876,7 @@
       <c r="B309" s="8">
         <v>38</v>
       </c>
-      <c r="C309" s="17"/>
+      <c r="C309" s="33"/>
     </row>
     <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
@@ -6885,7 +6885,7 @@
       <c r="B310" s="4">
         <v>38</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6896,18 +6896,18 @@
       <c r="B311" s="4">
         <v>38</v>
       </c>
-      <c r="C311" s="17" t="s">
+      <c r="C311" s="33" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="29" t="s">
+      <c r="A312" s="26" t="s">
         <v>307</v>
       </c>
       <c r="B312" s="4">
         <v>38</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       <c r="B313" s="4">
         <v>38</v>
       </c>
-      <c r="C313" s="17"/>
+      <c r="C313" s="33"/>
     </row>
     <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
@@ -6927,7 +6927,7 @@
       <c r="B314" s="4">
         <v>38</v>
       </c>
-      <c r="C314" s="17"/>
+      <c r="C314" s="33"/>
     </row>
     <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
@@ -6936,7 +6936,7 @@
       <c r="B315" s="4">
         <v>38</v>
       </c>
-      <c r="C315" s="17" t="s">
+      <c r="C315" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       <c r="B316" s="4">
         <v>38</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="C316" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       <c r="B317" s="4">
         <v>38</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C317" s="33" t="s">
         <v>993</v>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       <c r="B318" s="8">
         <v>39</v>
       </c>
-      <c r="C318" s="17" t="s">
+      <c r="C318" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="B319" s="4">
         <v>39</v>
       </c>
-      <c r="C319" s="17" t="s">
+      <c r="C319" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6991,18 +6991,18 @@
       <c r="B320" s="4">
         <v>39</v>
       </c>
-      <c r="C320" s="17" t="s">
+      <c r="C320" s="33" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="29" t="s">
+      <c r="A321" s="26" t="s">
         <v>316</v>
       </c>
       <c r="B321" s="4">
         <v>39</v>
       </c>
-      <c r="C321" s="17" t="s">
+      <c r="C321" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       <c r="B322" s="4">
         <v>39</v>
       </c>
-      <c r="C322" s="17"/>
+      <c r="C322" s="33"/>
     </row>
     <row r="323"